--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1060.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1060.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8263518223330697</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.05779719496871297</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.05779719496871297</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.09247551194994075</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1063548328302892</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03641223283028917</v>
+        <v>0.02423164869274516</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008250549581783775</v>
+        <v>0.00549058389030059</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0008083030455137072</v>
+        <v>0.00661032470446489</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007267686646316884</v>
+        <v>0.000766117758772527</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005183188832078744</v>
+        <v>0.01704618318661844</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007666987011488474</v>
+        <v>0.0007620382459566173</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01194084197472417</v>
+        <v>0.01905739999999995</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007815198846054415</v>
+        <v>0.0007185237122442395</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02293196691391813</v>
+        <v>0.00661032470446489</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007423225298949259</v>
+        <v>0.000766117758772527</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005078678723250879</v>
+        <v>0.01220642680566454</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001453537329263377</v>
+        <v>0.001532235517545054</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01005739999999999</v>
+        <v>0.03001736835638169</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001595215388888888</v>
+        <v>0.001524076491913235</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02305740000000001</v>
+        <v>0.03609824255977839</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001601236944302045</v>
+        <v>0.001521559624690215</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.04047670238819184</v>
+        <v>0.01220642680566454</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001484645059789852</v>
+        <v>0.001532235517545054</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00843695471981383</v>
+        <v>0.01692758025960719</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002180305993895065</v>
+        <v>0.002298353276317581</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01324496130743544</v>
+        <v>0.04105739999999999</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002300096103446542</v>
+        <v>0.002552555926636406</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0299155634564684</v>
+        <v>0.05136894041938028</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002344559653816325</v>
+        <v>0.002282339437035322</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05005739999999997</v>
+        <v>0.01692758025960719</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001978057457182563</v>
+        <v>0.002298353276317581</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01733915849061389</v>
+        <v>0.02105739999999999</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002750183193927926</v>
+        <v>0.003339937611111109</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01635457269834888</v>
+        <v>0.04295166125800365</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00306679480459539</v>
+        <v>0.003048152983826469</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03718276041194249</v>
+        <v>0.06104114905219343</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003126079538421766</v>
+        <v>0.003043119249380429</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06027255162660883</v>
+        <v>0.02105739999999999</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002969290119579704</v>
+        <v>0.003339937611111109</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002750183193927926</v>
+        <v>0.003339937611111109</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01733915849061389</v>
+        <v>0.02105739999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01822174414697851</v>
+        <v>0.02205952914580805</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003633843323158442</v>
+        <v>0.003830588793862635</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01919407128099911</v>
+        <v>0.04524547996580547</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003833493505744237</v>
+        <v>0.004018472328295282</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04170227071502242</v>
+        <v>0.0662593112388658</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003907599423027207</v>
+        <v>0.00356883387496244</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0662593112388658</v>
+        <v>0.02205952914580805</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003740412426643327</v>
+        <v>0.003830588793862635</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02013106890327954</v>
+        <v>0.023230887258191</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00436061198779013</v>
+        <v>0.004596706552635162</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02196823934913997</v>
+        <v>0.04578807532760415</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004600192206893085</v>
+        <v>0.004572229475739704</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04524547996580547</v>
+        <v>0.06922704597343787</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00448871909011707</v>
+        <v>0.004564678874070644</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0696229516959978</v>
+        <v>0.023230887258191</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004453935179369556</v>
+        <v>0.004596706552635162</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01981077479621264</v>
+        <v>0.02423164869274516</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005087380652421819</v>
+        <v>0.00549058389030059</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
+        <v>0.04771393544108979</v>
+      </c>
+      <c r="K72" s="171" t="n">
+        <v>0.005334267721696321</v>
+      </c>
+      <c r="L72" s="172" t="n">
+        <v>0.072685195999039</v>
+      </c>
+      <c r="M72" s="170" t="n">
+        <v>0.005325458686415751</v>
+      </c>
+      <c r="N72" s="171" t="n">
         <v>0.02423164869274516</v>
       </c>
-      <c r="K72" s="171" t="n">
+      <c r="O72" s="172" t="n">
         <v>0.00549058389030059</v>
-      </c>
-      <c r="L72" s="172" t="n">
-        <v>0.0481139970463427</v>
-      </c>
-      <c r="M72" s="170" t="n">
-        <v>0.00547063919223809</v>
-      </c>
-      <c r="N72" s="171" t="n">
-        <v>0.07344212626069752</v>
-      </c>
-      <c r="O72" s="172" t="n">
-        <v>0.005196257709264481</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02528571308886673</v>
+        <v>0.02447577675053467</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005814149317053507</v>
+        <v>0.006128942070180216</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02517406199077243</v>
+        <v>0.04822887324851574</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006133589609190779</v>
+        <v>0.006096305967652938</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05115592045251849</v>
+        <v>0.07546081167521324</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006252159076843532</v>
+        <v>0.006086238498760858</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07596844725453861</v>
+        <v>0.02447577675053467</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005938580239159407</v>
+        <v>0.006128942070180216</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03158073504433082</v>
+        <v>0.02544543588782378</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006540917981685196</v>
+        <v>0.006895059828952743</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02692548937998451</v>
+        <v>0.04963218814671777</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006900288310339626</v>
+        <v>0.006858344213609556</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05410886863595585</v>
+        <v>0.07765494256535843</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007033678961448974</v>
+        <v>0.006847018311105965</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07969907564866813</v>
+        <v>0.02544543588782378</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006680902769054334</v>
+        <v>0.006895059828952743</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02872069192569379</v>
+        <v>0.02621093085020035</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007267686646316884</v>
+        <v>0.00766117758772527</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02804239327563571</v>
+        <v>0.05142317953253167</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007666987011488474</v>
+        <v>0.007620382459566174</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05657113628653984</v>
+        <v>0.08106863823287214</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007815198846054415</v>
+        <v>0.007607798123451073</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.08253117241423286</v>
+        <v>0.02621093085020035</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00742322529894926</v>
+        <v>0.00766117758772527</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03641223283028917</v>
+        <v>0.0267717606463606</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008250549581783775</v>
+        <v>0.008427295346497797</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0296227578177813</v>
+        <v>0.05240114680279329</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008433685712637322</v>
+        <v>0.008382420705522791</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05834101809415576</v>
+        <v>0.08330294824115203</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008596718730659855</v>
+        <v>0.00836857793579618</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08646189852237968</v>
+        <v>0.0267717606463606</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008165547828844186</v>
+        <v>0.008427295346497797</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03166145577971534</v>
+        <v>0.02792742428500071</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008721223975580261</v>
+        <v>0.009193413105270325</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03086456714647653</v>
+        <v>0.05416538935433829</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009200384413786169</v>
+        <v>0.009144458951479409</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06071680874868882</v>
+        <v>0.08485892215359614</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009378238615265299</v>
+        <v>0.009129357748141288</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08988841494425548</v>
+        <v>0.02792742428500071</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008907870358739111</v>
+        <v>0.009193413105270325</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03461547255724959</v>
+        <v>0.02867742077481687</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00944799264021195</v>
+        <v>0.009959530864042851</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0321658054017767</v>
+        <v>0.05521520658400253</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009967083114935016</v>
+        <v>0.009906497197436026</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06339680294002417</v>
+        <v>0.08773760953360171</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01015975849987074</v>
+        <v>0.009890137560486395</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09190788265100719</v>
+        <v>0.02867742077481687</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009650192888634036</v>
+        <v>0.009959530864042851</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03859137115705981</v>
+        <v>0.02932124912450532</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01017476130484364</v>
+        <v>0.01072564862281538</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03322445672373706</v>
+        <v>0.05664989788862176</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01073378181608386</v>
+        <v>0.01066853544339264</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06517929535804701</v>
+        <v>0.09024005994456674</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01094127838447618</v>
+        <v>0.0106509173728315</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09551746261378163</v>
+        <v>0.02932124912450532</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01039251541852896</v>
+        <v>0.01072564862281538</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04257943531640301</v>
+        <v>0.02995840834276223</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01090152996947533</v>
+        <v>0.0114917663815879</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03473850525241287</v>
+        <v>0.05836876266503188</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01150048051723271</v>
+        <v>0.01143057368934926</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06726258069264257</v>
+        <v>0.09216732294988883</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01172279826908162</v>
+        <v>0.01141169718517661</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09821431580372569</v>
+        <v>0.02995840834276223</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01113483794842389</v>
+        <v>0.0114917663815879</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.04256994877253616</v>
+        <v>0.03048839743828385</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01162829863410701</v>
+        <v>0.01225788414036043</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03570593512785943</v>
+        <v>0.05957110031006849</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01226717921838156</v>
+        <v>0.01219261193530588</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06944495363369599</v>
+        <v>0.09412044811296583</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01250431815368706</v>
+        <v>0.01217247699752172</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1008956031919864</v>
+        <v>0.03048839743828385</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01187716047831881</v>
+        <v>0.01225788414036043</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04255319526271621</v>
+        <v>0.03151071541976633</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0123550672987387</v>
+        <v>0.01302400189913296</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03672473049013197</v>
+        <v>0.06045621022056757</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01303387791953041</v>
+        <v>0.01295465018126249</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07162470887109254</v>
+        <v>0.09680048499719524</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01328583803829251</v>
+        <v>0.01293325680986682</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1037584857497103</v>
+        <v>0.03151071541976633</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01261948300821374</v>
+        <v>0.01302400189913296</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.04251945852420019</v>
+        <v>0.03232486129590588</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01308183596337039</v>
+        <v>0.01379011965790549</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0378928754792858</v>
+        <v>0.06242339179336473</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01380057662067925</v>
+        <v>0.01371668842721911</v>
       </c>
       <c r="L83" t="n">
-        <v>0.07290014109471735</v>
+        <v>0.098908483165975</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01406735792289795</v>
+        <v>0.01369403662221193</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1062001244480446</v>
+        <v>0.03232486129590588</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01336180553810867</v>
+        <v>0.01379011965790549</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.05045902229424504</v>
+        <v>0.03273033407539871</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01380860462800208</v>
+        <v>0.01455623741667801</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03920835423537612</v>
+        <v>0.06367194442529583</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0145672753218281</v>
+        <v>0.01447872667317573</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07526954499445565</v>
+        <v>0.1007454921827026</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01484887780750339</v>
+        <v>0.01445481643455704</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1082176802581361</v>
+        <v>0.03273033407539871</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01410412806800359</v>
+        <v>0.01455623741667801</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.05336217031010777</v>
+        <v>0.03342663276694106</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01453537329263377</v>
+        <v>0.01532235517545054</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03996915089845825</v>
+        <v>0.06500116751319671</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01533397402297695</v>
+        <v>0.01524076491913235</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07623121526019264</v>
+        <v>0.102312561610776</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01563039769210883</v>
+        <v>0.01521559624690215</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1110083141511316</v>
+        <v>0.03342663276694106</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01484645059789852</v>
+        <v>0.01532235517545054</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.04921918630904534</v>
+        <v>0.03441325637922908</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01526214195726545</v>
+        <v>0.01608847293422307</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04077324960858747</v>
+        <v>0.06611036045390309</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0161006727241258</v>
+        <v>0.01600280316508896</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07768344658181348</v>
+        <v>0.1037107410135926</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01641191757671427</v>
+        <v>0.01597637605924725</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1128691870981782</v>
+        <v>0.03441325637922908</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01558877312779345</v>
+        <v>0.01608847293422307</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.05402035402831473</v>
+        <v>0.03508970392095899</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01598891062189714</v>
+        <v>0.01685459069299559</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04181863450581899</v>
+        <v>0.06729882264425077</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01686737142527464</v>
+        <v>0.01676484141104558</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07982453364920339</v>
+        <v>0.1054410799545504</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01719343746131971</v>
+        <v>0.01673715587159236</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1143974600704223</v>
+        <v>0.03508970392095899</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01633109565768837</v>
+        <v>0.01685459069299559</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.05275595720517293</v>
+        <v>0.03575547440082699</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01671567928652883</v>
+        <v>0.01762070845176812</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04270328973020812</v>
+        <v>0.06776585348107553</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01763407012642349</v>
+        <v>0.0175268796570022</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08035277115224759</v>
+        <v>0.1077046279970469</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01797495734592516</v>
+        <v>0.01749793568393747</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1160902940390113</v>
+        <v>0.03575547440082699</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0170734181875833</v>
+        <v>0.01762070845176812</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.05641627957687691</v>
+        <v>0.0364100668275293</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01744244795116052</v>
+        <v>0.01838682621054065</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04342519942181011</v>
+        <v>0.06951075236121312</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01840076882757234</v>
+        <v>0.01828891790295882</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08216645378083126</v>
+        <v>0.1090024347044799</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0187564772305306</v>
+        <v>0.01825871549628258</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1172448499750918</v>
+        <v>0.0364100668275293</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01781574071747822</v>
+        <v>0.01838682621054065</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.06199160488068366</v>
+        <v>0.0366529802097621</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01816921661579221</v>
+        <v>0.01915294396931317</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04408234772068026</v>
+        <v>0.06993281868149942</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01916746752872119</v>
+        <v>0.01905095614891543</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08266387622483956</v>
+        <v>0.1100355496402471</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01953799711513604</v>
+        <v>0.01901949530862768</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1189582888498108</v>
+        <v>0.0366529802097621</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01855806324737315</v>
+        <v>0.01915294396931317</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05747221685385015</v>
+        <v>0.03728371355622159</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0188959852804239</v>
+        <v>0.0199190617280857</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04447271876687379</v>
+        <v>0.07123135183877013</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01993416622987003</v>
+        <v>0.01981299439487205</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08314333317415773</v>
+        <v>0.1116050223677463</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02031951699974148</v>
+        <v>0.01978027512097279</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1212277716343152</v>
+        <v>0.03728371355622159</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01930038577726807</v>
+        <v>0.0199190617280857</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.06484839923363338</v>
+        <v>0.03810176587560399</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01962275394505559</v>
+        <v>0.02068517948685823</v>
       </c>
       <c r="J92" t="n">
-        <v>0.045194296700446</v>
+        <v>0.07290565122986109</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02070086493101888</v>
+        <v>0.02057503264082867</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08430311931867096</v>
+        <v>0.113911902450375</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02110103688434692</v>
+        <v>0.0205410549333179</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1220504592997518</v>
+        <v>0.03810176587560399</v>
       </c>
       <c r="O92" t="n">
-        <v>0.020042708307163</v>
+        <v>0.02068517948685823</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.06111043575729029</v>
+        <v>0.0387066361766055</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02034952260968727</v>
+        <v>0.02145129724563076</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04524506566145216</v>
+        <v>0.07335501625160809</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02146756363216773</v>
+        <v>0.02133707088678528</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08514152934826447</v>
+        <v>0.1151572394515311</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02188255676895236</v>
+        <v>0.02130183474566301</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1225235128172675</v>
+        <v>0.0387066361766055</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02078503083705793</v>
+        <v>0.02145129724563076</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.06024861016207789</v>
+        <v>0.03929782346792234</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02107629127431896</v>
+        <v>0.02221741500440328</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04572300978994752</v>
+        <v>0.07477874630084688</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02223426233331657</v>
+        <v>0.0220991091327419</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08525685795282345</v>
+        <v>0.1167420829346122</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02266407665355781</v>
+        <v>0.02206261455800811</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1235440931580092</v>
+        <v>0.03929782346792234</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02152735336695285</v>
+        <v>0.02221741500440328</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.06425320618525318</v>
+        <v>0.03997482675825065</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02180305993895065</v>
+        <v>0.02298353276317581</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04612611322598732</v>
+        <v>0.07537614077441324</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02300096103446542</v>
+        <v>0.02286114737869852</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08554739982223297</v>
+        <v>0.1178674824630161</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02344559653816325</v>
+        <v>0.02282339437035322</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1253093612931238</v>
+        <v>0.03997482675825065</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02226967589684778</v>
+        <v>0.02298353276317581</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.06411450756407311</v>
+        <v>0.04043714505628669</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02252982860358234</v>
+        <v>0.02374965052194834</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04655236010962691</v>
+        <v>0.07674649906914294</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02376765973561427</v>
+        <v>0.02362318562465514</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08601144964637841</v>
+        <v>0.1187344876001404</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02422711642276869</v>
+        <v>0.02358417418269832</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1258164781937581</v>
+        <v>0.04043714505628669</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0230119984267427</v>
+        <v>0.02374965052194834</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.06582279803579466</v>
+        <v>0.04118427737072666</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02325659726821403</v>
+        <v>0.02451576828072086</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04649973458092148</v>
+        <v>0.07768912058187183</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02453435843676312</v>
+        <v>0.02438522387061175</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08664730211514488</v>
+        <v>0.119344147909383</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02500863630737413</v>
+        <v>0.02434495399504343</v>
       </c>
       <c r="N97" t="n">
-        <v>0.125962604831059</v>
+        <v>0.04118427737072666</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02375432095663763</v>
+        <v>0.02451576828072086</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.06336836133767476</v>
+        <v>0.04141572271026674</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02398336593284572</v>
+        <v>0.02528188603949339</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04636622077992635</v>
+        <v>0.07880330470943567</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02530105713791196</v>
+        <v>0.02514726211656837</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08584388471790044</v>
+        <v>0.1213975129541414</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02579015619197957</v>
+        <v>0.02510573380738854</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1262449021761736</v>
+        <v>0.04141572271026674</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02449664348653256</v>
+        <v>0.02528188603949339</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06374148120697051</v>
+        <v>0.04183098008360314</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02471013459747741</v>
+        <v>0.02604800379826592</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04664167884521725</v>
+        <v>0.07908835084867016</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02606775583906082</v>
+        <v>0.02590930036252499</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0856401561409979</v>
+        <v>0.1219956322978134</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02657167607658502</v>
+        <v>0.02586651361973365</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1260605312002485</v>
+        <v>0.04183098008360314</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02523896601642748</v>
+        <v>0.02604800379826592</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.06593244138093882</v>
+        <v>0.04242954849943208</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0254369032621091</v>
+        <v>0.02681412155703845</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04620747349896702</v>
+        <v>0.08014355839641124</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02683445454020966</v>
+        <v>0.0266713386084816</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08564419136644097</v>
+        <v>0.1227395555037966</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02735319596119045</v>
+        <v>0.02662729343207875</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1254985214553669</v>
+        <v>0.04242954849943208</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02598128854632241</v>
+        <v>0.02681412155703845</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.06394499428875222</v>
+        <v>0.04321092696644971</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02616367192674078</v>
+        <v>0.02758023931581097</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04627507571191168</v>
+        <v>0.08146822674949461</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02760115324135851</v>
+        <v>0.02743337685443822</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08477883728048036</v>
+        <v>0.1242303321354888</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0281347158457959</v>
+        <v>0.02738807324442386</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1260500761036622</v>
+        <v>0.04321092696644971</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02672361107621734</v>
+        <v>0.02758023931581097</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.06485628130448737</v>
+        <v>0.0434746144933523</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02689044059137247</v>
+        <v>0.0283463570745835</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04585775621055736</v>
+        <v>0.08216165530475611</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02836785194250736</v>
+        <v>0.02819541510039484</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08416694076936698</v>
+        <v>0.1240690117562879</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02891623573040134</v>
+        <v>0.02814885305676897</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1249299641896323</v>
+        <v>0.0434746144933523</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02746593360611226</v>
+        <v>0.0283463570745835</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06868730542231327</v>
+        <v>0.043720110088836</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02761720925600416</v>
+        <v>0.02911247483335602</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04556878572141015</v>
+        <v>0.08232314345903141</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0291345506436562</v>
+        <v>0.02895745334635146</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08403134871935142</v>
+        <v>0.1258566439295913</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02969775561500678</v>
+        <v>0.02890963286911408</v>
       </c>
       <c r="N103" t="n">
-        <v>0.124553474835077</v>
+        <v>0.043720110088836</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02820825613600719</v>
+        <v>0.02911247483335602</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06844663174524965</v>
+        <v>0.04434691276159704</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02834397792063584</v>
+        <v>0.02987859259212855</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04502143497097617</v>
+        <v>0.08335199060915643</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02990124934480505</v>
+        <v>0.02971949159230807</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0825949080166844</v>
+        <v>0.1258942782187968</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03047927549961222</v>
+        <v>0.02967041268145918</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1240358971617965</v>
+        <v>0.04434691276159704</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02895057866590211</v>
+        <v>0.02987859259212855</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06514282537631624</v>
+        <v>0.04495452152033164</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02907074658526754</v>
+        <v>0.03064471035090108</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04442897468576153</v>
+        <v>0.0837474961519668</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0306679480459539</v>
+        <v>0.03048152983826469</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08178046554761681</v>
+        <v>0.1267829641873022</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03126079538421766</v>
+        <v>0.03043119249380429</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1235925202915906</v>
+        <v>0.04495452152033164</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02969290119579704</v>
+        <v>0.03064471035090108</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06878445141853268</v>
+        <v>0.04494243537373595</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02979751524989922</v>
+        <v>0.03141082810967361</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04380467559227229</v>
+        <v>0.08510895948429842</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03143464674710274</v>
+        <v>0.03124356808422131</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08091086819839938</v>
+        <v>0.1266237513985052</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0320423152688231</v>
+        <v>0.0311919723061494</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1222386333462596</v>
+        <v>0.04494243537373595</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03043522372569196</v>
+        <v>0.03141082810967361</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06638007497491871</v>
+        <v>0.04541015333050621</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03052428391453091</v>
+        <v>0.03217694586844613</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0432618084170146</v>
+        <v>0.08523568000298709</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03220134544825159</v>
+        <v>0.03200560633017793</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07950896285528272</v>
+        <v>0.1277176894158034</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03282383515342854</v>
+        <v>0.03195275211849451</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1214895254476032</v>
+        <v>0.04541015333050621</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03117754625558689</v>
+        <v>0.03217694586844613</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06193826114849399</v>
+        <v>0.04595717439933861</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0312510525791626</v>
+        <v>0.03294306362721866</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04291364388649455</v>
+        <v>0.08572695710486855</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03296804414940045</v>
+        <v>0.03276764457613455</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07869759640451779</v>
+        <v>0.1284658278025946</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03360535503803399</v>
+        <v>0.03271353193083961</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1206604857174216</v>
+        <v>0.04595717439933861</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03191986878548182</v>
+        <v>0.03294306362721866</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06246757504227826</v>
+        <v>0.04628299758892937</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03197782124379429</v>
+        <v>0.03370918138599119</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04217345272721824</v>
+        <v>0.0859820901867786</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03373474285054929</v>
+        <v>0.03352968282209116</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07749961573235517</v>
+        <v>0.1293692161222765</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03438687492263942</v>
+        <v>0.03347431174318472</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1183668032775146</v>
+        <v>0.04628299758892937</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03266219131537675</v>
+        <v>0.03370918138599119</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06697658175929122</v>
+        <v>0.04638712190797466</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03270458990842597</v>
+        <v>0.03447529914476372</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0416545056656918</v>
+        <v>0.08650037864555304</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03450144155169813</v>
+        <v>0.03429172106804778</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07573786772504568</v>
+        <v>0.1294289039382468</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03516839480724487</v>
+        <v>0.03423509155552983</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1174237672496823</v>
+        <v>0.04638712190797466</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03340451384527167</v>
+        <v>0.03447529914476372</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06347384640255249</v>
+        <v>0.0465690463651707</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03343135857305767</v>
+        <v>0.03524141690353624</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0411700734284213</v>
+        <v>0.08698112187802753</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03526814025284698</v>
+        <v>0.0350537593140044</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07553519926884011</v>
+        <v>0.1303459408139032</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03594991469185031</v>
+        <v>0.03499587136787494</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1162466667557248</v>
+        <v>0.0465690463651707</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0341468363751666</v>
+        <v>0.03524141690353624</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06296793407508183</v>
+        <v>0.04712826996921371</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03415812723768935</v>
+        <v>0.03600753466230877</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04083342674191287</v>
+        <v>0.08742361928103803</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03603483895399583</v>
+        <v>0.03581579755996102</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07461445724998914</v>
+        <v>0.1304213763126433</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03673143457645575</v>
+        <v>0.03575665118022004</v>
       </c>
       <c r="N112" t="n">
-        <v>0.115650790917442</v>
+        <v>0.04712826996921371</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03488915890506152</v>
+        <v>0.03600753466230877</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06046740987989893</v>
+        <v>0.04706429172879986</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03488489590232104</v>
+        <v>0.0367736524210813</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0405578363326726</v>
+        <v>0.08852717025142032</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03680153765514468</v>
+        <v>0.03657783580591763</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07319848855474356</v>
+        <v>0.130156259997865</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0375129544610612</v>
+        <v>0.03651743099256515</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1143514288566339</v>
+        <v>0.04706429172879986</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03563148143495645</v>
+        <v>0.0367736524210813</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06198083892002346</v>
+        <v>0.04757661065262539</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03561166456695273</v>
+        <v>0.03753977017985383</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04025657292720661</v>
+        <v>0.08859107418601009</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03756823635629353</v>
+        <v>0.03733987405187425</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07231014006935413</v>
+        <v>0.131051641432966</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03829447434566663</v>
+        <v>0.03727821080491026</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1126638696951005</v>
+        <v>0.04757661065262539</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03637380396485137</v>
+        <v>0.03753977017985383</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06551678629847515</v>
+        <v>0.04756472574938644</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03633843323158442</v>
+        <v>0.03830588793862635</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03994290725202101</v>
+        <v>0.08881463048164312</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03833493505744237</v>
+        <v>0.03810191229783087</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07257225868007158</v>
+        <v>0.1314085701813438</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03907599423027208</v>
+        <v>0.03803899061725537</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1107034025546418</v>
+        <v>0.04756472574938644</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03711612649474629</v>
+        <v>0.03830588793862635</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05808381711827365</v>
+        <v>0.04802813602777929</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03706520189621611</v>
+        <v>0.03907200569739887</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03993011003362186</v>
+        <v>0.0892971385351552</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03910163375859122</v>
+        <v>0.03886395054378749</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07220769127314669</v>
+        <v>0.1306280958063963</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03985751411487751</v>
+        <v>0.03879977042960047</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1095853165570579</v>
+        <v>0.04802813602777929</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03785844902464122</v>
+        <v>0.03907200569739887</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06369049648243873</v>
+        <v>0.04786634049650011</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0377919705608478</v>
+        <v>0.0398381234561714</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03992349796050773</v>
+        <v>0.08963789774338221</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03986833245974006</v>
+        <v>0.0396259887897441</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07153928473483015</v>
+        <v>0.1316112678715213</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04063903399948296</v>
+        <v>0.03956055024194558</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1082249008241487</v>
+        <v>0.04786634049650011</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03860077155453615</v>
+        <v>0.0398381234561714</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06234538949399002</v>
+        <v>0.04787883816424508</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03851873922547949</v>
+        <v>0.04060424121494393</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04008318704281305</v>
+        <v>0.08963620750315981</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04063503116088892</v>
+        <v>0.04038802703570072</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07146831057633979</v>
+        <v>0.1314591359401162</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04142055388408841</v>
+        <v>0.04032133005429069</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1071374444777141</v>
+        <v>0.04787883816424508</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03934309408443108</v>
+        <v>0.04060424121494393</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06105706125594723</v>
+        <v>0.04826512803971042</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03924550789011118</v>
+        <v>0.04137035897371646</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04019801590434435</v>
+        <v>0.08999136721132389</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04140172986203777</v>
+        <v>0.04115006528165734</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07234211885535205</v>
+        <v>0.131572749575579</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04220207376869384</v>
+        <v>0.0410821098666358</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1065382366395543</v>
+        <v>0.04826512803971042</v>
       </c>
       <c r="O119" t="n">
-        <v>0.040085416614326</v>
+        <v>0.04137035897371646</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06383407687133005</v>
+        <v>0.04822470913159235</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03997227655474286</v>
+        <v>0.04213647673248899</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04006365782582902</v>
+        <v>0.08990267626471021</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04216842856318661</v>
+        <v>0.04191210352761395</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07264679615394978</v>
+        <v>0.1322531583413072</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04298359365329928</v>
+        <v>0.0418428896789809</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1058425664314691</v>
+        <v>0.04822470913159235</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04082773914422093</v>
+        <v>0.04213647673248899</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06368500144315822</v>
+        <v>0.04846329738549032</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04069904521937455</v>
+        <v>0.04290259449126151</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04067578608799446</v>
+        <v>0.09049095993161094</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04293512726433546</v>
+        <v>0.04267414177357057</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07237131376947345</v>
+        <v>0.1325186224777316</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04376511353790472</v>
+        <v>0.04260366949132601</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1055657229752587</v>
+        <v>0.04846329738549032</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04157006167411585</v>
+        <v>0.04290259449126151</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05661840007445137</v>
+        <v>0.04826290788163692</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04142581388400624</v>
+        <v>0.04366871225003404</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04073007397156804</v>
+        <v>0.08979094469681476</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04370182596548431</v>
+        <v>0.04343618001952718</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07280464299926367</v>
+        <v>0.1325185595171511</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04454663342251017</v>
+        <v>0.04336444930367112</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1043229953927231</v>
+        <v>0.04826290788163692</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04231238420401078</v>
+        <v>0.04366871225003404</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06063062941540963</v>
+        <v>0.04845710217371352</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04215258254863793</v>
+        <v>0.04443483000880657</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0410221947572772</v>
+        <v>0.09017259421484575</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04446852466663315</v>
+        <v>0.04419821826548381</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0741357551406609</v>
+        <v>0.1317084235558541</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04532815330711561</v>
+        <v>0.04412522911601622</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1035296728056621</v>
+        <v>0.04845710217371352</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04305470673390571</v>
+        <v>0.04443483000880657</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06269496286458645</v>
+        <v>0.0482444750027248</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04287935121326961</v>
+        <v>0.04520094776757909</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0413478217258493</v>
+        <v>0.08982049998282926</v>
       </c>
       <c r="K124" t="n">
-        <v>0.045235223367782</v>
+        <v>0.04496025651144042</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07485362149100566</v>
+        <v>0.1316752313943139</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04610967319172105</v>
+        <v>0.04488600892836133</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1038010443358758</v>
+        <v>0.0482444750027248</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04379702926380064</v>
+        <v>0.04520094776757909</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06380711012073799</v>
+        <v>0.04822519908584498</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04360611987790131</v>
+        <v>0.04596706552635162</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04160262815801177</v>
+        <v>0.08993599576266409</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04600192206893085</v>
+        <v>0.04572229475739704</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07484721334763841</v>
+        <v>0.1324194439251445</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04689119307632649</v>
+        <v>0.04564678874070643</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1032523991051642</v>
+        <v>0.04822519908584498</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04453935179369556</v>
+        <v>0.04596706552635162</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06196394221331994</v>
+        <v>0.04829944714024813</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04433288854253299</v>
+        <v>0.04673318328512415</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04198228733449197</v>
+        <v>0.08962041531624948</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04676862077007969</v>
+        <v>0.04648433300335366</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0757055020078998</v>
+        <v>0.1317415083194353</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04767271296093193</v>
+        <v>0.04640756855305155</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1031323839806353</v>
+        <v>0.04829944714024813</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04528167432359048</v>
+        <v>0.04673318328512415</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05916233017178799</v>
+        <v>0.04826739188310841</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04505965720716468</v>
+        <v>0.04749930104389668</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04268247253601731</v>
+        <v>0.08957509240548417</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04753531947122854</v>
+        <v>0.04724637124931028</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07701745876913035</v>
+        <v>0.1322418717482756</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04845423284553738</v>
+        <v>0.04716834836539665</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1034214876821249</v>
+        <v>0.04826739188310841</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0460239968534854</v>
+        <v>0.04749930104389668</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05739914502559787</v>
+        <v>0.04792920603159996</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04578642587179637</v>
+        <v>0.0482654188026692</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0429988570433152</v>
+        <v>0.08900136079226723</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04830201817237739</v>
+        <v>0.04800840949526689</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07787205492867047</v>
+        <v>0.1317209813827547</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04923575273014281</v>
+        <v>0.04792912817774176</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1052950325813088</v>
+        <v>0.04792920603159996</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04676631938338034</v>
+        <v>0.0482654188026692</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05867125780420522</v>
+        <v>0.0480850623028969</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04651319453642806</v>
+        <v>0.04903153656144173</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04312711413711301</v>
+        <v>0.08880055423849786</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04906871687352624</v>
+        <v>0.04877044774122351</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07945826178386073</v>
+        <v>0.1319792843939621</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05001727261474825</v>
+        <v>0.04868990799008686</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1055231590178735</v>
+        <v>0.0480850623028969</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04750864191327526</v>
+        <v>0.04903153656144173</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05997553953706578</v>
+        <v>0.04793513341417337</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04723996320105974</v>
+        <v>0.04979765432021425</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04396291709813815</v>
+        <v>0.0893740065060748</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04983541557467509</v>
+        <v>0.04953248598718013</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0802650506320417</v>
+        <v>0.130617227952987</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0507987924993537</v>
+        <v>0.04945068780243198</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1066760073315052</v>
+        <v>0.04793513341417337</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04825096444317018</v>
+        <v>0.04979765432021425</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.06230886125363523</v>
+        <v>0.04807959208260351</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04796673186569143</v>
+        <v>0.05056377207898678</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04400193920711802</v>
+        <v>0.08922305135689723</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05060211427582393</v>
+        <v>0.05029452423313675</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08148139277055377</v>
+        <v>0.1308352592309187</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05158031238395914</v>
+        <v>0.05021146761477708</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1086237178618905</v>
+        <v>0.04807959208260351</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04899328697306511</v>
+        <v>0.05056377207898678</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06466809398336924</v>
+        <v>0.04771861102536146</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04869350053032312</v>
+        <v>0.0513298898377593</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04473985374478003</v>
+        <v>0.08804902255286406</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05136881297697278</v>
+        <v>0.05105656247909336</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08249625949673767</v>
+        <v>0.1306338253988467</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05236183226856458</v>
+        <v>0.05097224742712219</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1099364309487157</v>
+        <v>0.04771861102536146</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04973560950296003</v>
+        <v>0.0513298898377593</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05905010875572354</v>
+        <v>0.04775236295962135</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04942026919495481</v>
+        <v>0.05209600759653184</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04507233399185152</v>
+        <v>0.08775325385587435</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05213551167812163</v>
+        <v>0.05181860072504998</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08259862210793378</v>
+        <v>0.1307133736278601</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05314335215317003</v>
+        <v>0.05173302723946729</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1107842869316674</v>
+        <v>0.04775236295962135</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05047793203285496</v>
+        <v>0.05209600759653184</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05945177660015384</v>
+        <v>0.04798102060255731</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0501470378595865</v>
+        <v>0.05286212535530436</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04529505322905997</v>
+        <v>0.08823707902782707</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05290221037927047</v>
+        <v>0.0525806389710066</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08377745190148261</v>
+        <v>0.1306743510890484</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05392487203777546</v>
+        <v>0.05249380705181241</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1133374261504318</v>
+        <v>0.04798102060255731</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05122025456274989</v>
+        <v>0.05286212535530436</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06086996854611577</v>
+        <v>0.04790475667134347</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05087380652421819</v>
+        <v>0.05362824311407689</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04580368473713271</v>
+        <v>0.08750183183062116</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05366890908041932</v>
+        <v>0.05334267721696321</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0850217201747247</v>
+        <v>0.130317204953501</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0547063919223809</v>
+        <v>0.05325458686415751</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1144659889446955</v>
+        <v>0.04790475667134347</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05196257709264482</v>
+        <v>0.05362824311407689</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06530155562306508</v>
+        <v>0.047623743883154</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05160057518884988</v>
+        <v>0.05439436087284941</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04629390179679715</v>
+        <v>0.08704884602615581</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05443560778156818</v>
+        <v>0.05410471546291983</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08602039822500057</v>
+        <v>0.129842382392307</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05548791180698635</v>
+        <v>0.05401536667650262</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1169401156541448</v>
+        <v>0.047623743883154</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05270489962253974</v>
+        <v>0.05439436087284941</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06374340886045746</v>
+        <v>0.04753815495516299</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05232734385348157</v>
+        <v>0.05516047863162194</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04646137768878073</v>
+        <v>0.08637945537632979</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05520230648271701</v>
+        <v>0.05486675370887645</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08626245734965077</v>
+        <v>0.1296503305765559</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05626943169159179</v>
+        <v>0.05477614648884772</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1179299466184662</v>
+        <v>0.04753815495516299</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05344722215243467</v>
+        <v>0.05516047863162194</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06519239928774859</v>
+        <v>0.04744816260454462</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05305411251811325</v>
+        <v>0.05592659639039448</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04720178569381077</v>
+        <v>0.08669499364304234</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05596900518386587</v>
+        <v>0.05562879195483307</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08703686884601586</v>
+        <v>0.129741496677337</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05705095157619723</v>
+        <v>0.05553692630119283</v>
       </c>
       <c r="N138" t="n">
-        <v>0.120005622177346</v>
+        <v>0.04744816260454462</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05418954468232959</v>
+        <v>0.05592659639039448</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06164539793439416</v>
+        <v>0.04725393954847298</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05378088118274495</v>
+        <v>0.056692714149167</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04751079909261473</v>
+        <v>0.08599679458819226</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05673570388501471</v>
+        <v>0.05639083020078968</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08823260401143623</v>
+        <v>0.1293163278657397</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05783247146080267</v>
+        <v>0.05629770611353794</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1222372826704707</v>
+        <v>0.04725393954847298</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05493186721222452</v>
+        <v>0.056692714149167</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06609927582984987</v>
+        <v>0.04725565850412224</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05450764984737663</v>
+        <v>0.05745883190793952</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04748409116591995</v>
+        <v>0.08608619197367862</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05750240258616356</v>
+        <v>0.0571528684467463</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08873863414325256</v>
+        <v>0.1282752713128531</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05861399134540812</v>
+        <v>0.05705848592588305</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1240950684375267</v>
+        <v>0.04725565850412224</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05567418974211944</v>
+        <v>0.05745883190793952</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06755090400357142</v>
+        <v>0.04695349218866653</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05523441851200832</v>
+        <v>0.05822494966671204</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04761733519445389</v>
+        <v>0.08476451956140046</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05826910128731241</v>
+        <v>0.05791490669270292</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08974393053880519</v>
+        <v>0.1278187741897668</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05939551123001355</v>
+        <v>0.05781926573822815</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1258491198182005</v>
+        <v>0.04695349218866653</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05641651227201437</v>
+        <v>0.05822494966671204</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06999715348501453</v>
+        <v>0.04694761331927998</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05596118717664001</v>
+        <v>0.05899106742548458</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04780620445894389</v>
+        <v>0.08443311111325674</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05903579998846125</v>
+        <v>0.05867694493865954</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08933746449543484</v>
+        <v>0.1284472836675701</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06017703111461899</v>
+        <v>0.05858004555057326</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1269695771521783</v>
+        <v>0.04694761331927998</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0571588348019093</v>
+        <v>0.05899106742548458</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06843489530363484</v>
+        <v>0.04683819461313672</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05668795584127169</v>
+        <v>0.0597571851842571</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04814637224011738</v>
+        <v>0.08439330039114651</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0598024986896101</v>
+        <v>0.05943898318461615</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08960820731048191</v>
+        <v>0.1267612469173521</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06095855099922445</v>
+        <v>0.05934082536291837</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1286265807791468</v>
+        <v>0.04683819461313672</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05790115733180422</v>
+        <v>0.0597571851842571</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06686100048888807</v>
+        <v>0.04662540878741087</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05741472450590338</v>
+        <v>0.06052330294302963</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04846329738549032</v>
+        <v>0.0840464211569687</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06056919739075894</v>
+        <v>0.06020102143057277</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09049095993161094</v>
+        <v>0.1265611111102024</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06174007088382988</v>
+        <v>0.06010160517526347</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1291902710387922</v>
+        <v>0.04662540878741087</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05864347986169915</v>
+        <v>0.06052330294302963</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06527234007022992</v>
+        <v>0.0469094285592766</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05814149317053507</v>
+        <v>0.06128942070180216</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04826329735529757</v>
+        <v>0.08349380717262239</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06133589609190779</v>
+        <v>0.06096305967652939</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09060092117044577</v>
+        <v>0.1261473234172102</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06252159076843532</v>
+        <v>0.06086238498760858</v>
       </c>
       <c r="N145" t="n">
-        <v>0.130830788270801</v>
+        <v>0.0469094285592766</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05938580239159408</v>
+        <v>0.06128942070180216</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06466578507711607</v>
+        <v>0.04669042664590803</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05886826183516675</v>
+        <v>0.06205553846057468</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04846227093648103</v>
+        <v>0.08333679220000656</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06210259479305664</v>
+        <v>0.06172509792248601</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09023442991177222</v>
+        <v>0.125920331009465</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06330311065304076</v>
+        <v>0.06162316479995369</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1308182728148597</v>
+        <v>0.04669042664590803</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06012812492148899</v>
+        <v>0.06205553846057468</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06803820653900228</v>
+        <v>0.0465685757644793</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05959503049979845</v>
+        <v>0.06282165621934721</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04835924407894658</v>
+        <v>0.08247671000102019</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06286929349420549</v>
+        <v>0.06248713616844262</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09056436765826992</v>
+        <v>0.1258805810580559</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06408463053764621</v>
+        <v>0.0623839446122988</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1317228650106547</v>
+        <v>0.0465685757644793</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06087044745138392</v>
+        <v>0.06282165621934721</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06738647548534415</v>
+        <v>0.04634404863216454</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06032179916443014</v>
+        <v>0.06358777397811974</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04845426203715966</v>
+        <v>0.08181489433756228</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06363599219535433</v>
+        <v>0.06324917441439924</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09039066241878568</v>
+        <v>0.1256285207340724</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06486615042225165</v>
+        <v>0.0631447244246439</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1325186224777316</v>
+        <v>0.04634404863216454</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06161276998127885</v>
+        <v>0.06358777397811974</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.07282446566057835</v>
+        <v>0.04621701796613788</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06104856782906182</v>
+        <v>0.06435389173689227</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0481473700655857</v>
+        <v>0.08185267897153181</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06440269089650319</v>
+        <v>0.06401121266035585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09081324220216591</v>
+        <v>0.1242645972086037</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06564767030685709</v>
+        <v>0.06390550423698901</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1324901987459817</v>
+        <v>0.04621701796613788</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06235509251117378</v>
+        <v>0.06435389173689227</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06900683983166889</v>
+        <v>0.04628765648357348</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06177533649369351</v>
+        <v>0.06512000949566479</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04803861341869008</v>
+        <v>0.08079139766482785</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06516938959765203</v>
+        <v>0.06477325090631247</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09103203501725726</v>
+        <v>0.1244892576527393</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06642919019146254</v>
+        <v>0.06466628404933412</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1317401267072843</v>
+        <v>0.04628765648357348</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06309741504106869</v>
+        <v>0.06512000949566479</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07031674730015716</v>
+        <v>0.04615613690164545</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0625021051583252</v>
+        <v>0.06588612725443732</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0480280373509382</v>
+        <v>0.08083238417934935</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06593608829880089</v>
+        <v>0.0655352891522691</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09054696887290636</v>
+        <v>0.1234029492375683</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06721071007606798</v>
+        <v>0.06542706386167922</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1313883959498502</v>
+        <v>0.04615613690164545</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06383973757096363</v>
+        <v>0.06588612725443732</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0736385802687006</v>
+        <v>0.04592263193752794</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06322887382295689</v>
+        <v>0.06665224501320985</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04831568711679551</v>
+        <v>0.08067697227699538</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06670278699994973</v>
+        <v>0.06629732739822571</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09155797177795988</v>
+        <v>0.1240061191341803</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0679922299606734</v>
+        <v>0.06618784367402433</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1316350207098267</v>
+        <v>0.04592263193752794</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06458206010085855</v>
+        <v>0.06665224501320985</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06997017246665249</v>
+        <v>0.04568731430839505</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06395564248758857</v>
+        <v>0.06741836277198238</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04800160797072742</v>
+        <v>0.08012649571966485</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06746948570109858</v>
+        <v>0.06705936564418233</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09146497174126439</v>
+        <v>0.1224992145136645</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06877374984527884</v>
+        <v>0.06694862348636944</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1319800152233609</v>
+        <v>0.04568731430839505</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06532438263075349</v>
+        <v>0.06741836277198238</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06830935762336618</v>
+        <v>0.04545035673142099</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06468241115222027</v>
+        <v>0.0681844805307549</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04808584516719934</v>
+        <v>0.07918228826925686</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06823618440224742</v>
+        <v>0.06782140389013894</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09126789677166636</v>
+        <v>0.1228826825471102</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06955526972988429</v>
+        <v>0.06770940329871455</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1315233937265999</v>
+        <v>0.04545035673142099</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0660667051606484</v>
+        <v>0.0681844805307549</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06865396946819496</v>
+        <v>0.04541193192377982</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06540917981685195</v>
+        <v>0.06895059828952743</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04796844396067666</v>
+        <v>0.07874568368767032</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06900288310339626</v>
+        <v>0.06858344213609556</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09126667487801265</v>
+        <v>0.1220569704056068</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07033678961448973</v>
+        <v>0.06847018311105965</v>
       </c>
       <c r="N155" t="n">
-        <v>0.132665170455691</v>
+        <v>0.04541193192377982</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06680902769054334</v>
+        <v>0.06895059828952743</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06800184173049212</v>
+        <v>0.04537221260264571</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06613594848148364</v>
+        <v>0.06971671604829996</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04804944960562481</v>
+        <v>0.07831801573680428</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06976958180454512</v>
+        <v>0.06934548038205217</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09166123406914972</v>
+        <v>0.1210225252602437</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07111830949909517</v>
+        <v>0.06923096292340476</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1319053596467814</v>
+        <v>0.04537221260264571</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06755135022043826</v>
+        <v>0.06971671604829996</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.07535080813961098</v>
+        <v>0.04523137148519278</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06686271714611533</v>
+        <v>0.07048283380707247</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0482289073565092</v>
+        <v>0.07800061817855772</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07053628050569397</v>
+        <v>0.07010751862800879</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09145150235392424</v>
+        <v>0.1212797942821101</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07189982938370063</v>
+        <v>0.06999174273574987</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1326439755360181</v>
+        <v>0.04523137148519278</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0682936727503332</v>
+        <v>0.07048283380707247</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.07369870242490484</v>
+        <v>0.0449895812885952</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06758948581074702</v>
+        <v>0.07124895156584501</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04790686246779527</v>
+        <v>0.07799482477482966</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07130297920684281</v>
+        <v>0.07086955687396541</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09213740774118273</v>
+        <v>0.1205292246422953</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07268134926830606</v>
+        <v>0.07075252254809498</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1321810323595486</v>
+        <v>0.0449895812885952</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06903599528022811</v>
+        <v>0.07124895156584501</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.07204335831572703</v>
+        <v>0.04474701473002708</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0683162544753787</v>
+        <v>0.07201506932461754</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04788336019394838</v>
+        <v>0.07759799028465855</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07206967790799165</v>
+        <v>0.07163159511992204</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09191887823977185</v>
+        <v>0.1189712635118887</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0734628691529115</v>
+        <v>0.07151330236044008</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1319165443535198</v>
+        <v>0.04474701473002708</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06977831781012304</v>
+        <v>0.07201506932461754</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.07338260954143078</v>
+        <v>0.04450384452666255</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0690430231400104</v>
+        <v>0.07278118708339006</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04785844578943399</v>
+        <v>0.07650235195244129</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07283637660914051</v>
+        <v>0.07239363336587865</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09139584185853827</v>
+        <v>0.1195063580619798</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07424438903751694</v>
+        <v>0.07227408217278519</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1320505257540791</v>
+        <v>0.04450384452666255</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07052064034001797</v>
+        <v>0.07278118708339006</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06971428983136946</v>
+        <v>0.04446024339567575</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06976979180464209</v>
+        <v>0.0735473048421626</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0478321645087175</v>
+        <v>0.07620723935990487</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07360307531028935</v>
+        <v>0.07315567161183527</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09176822660632855</v>
+        <v>0.1180349554636577</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07502590892212239</v>
+        <v>0.0730348619851303</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1322829907973734</v>
+        <v>0.04446024339567575</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07126296286991289</v>
+        <v>0.0735473048421626</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.07303623291489636</v>
+        <v>0.04421638405424082</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07049656046927377</v>
+        <v>0.07431342260093511</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04810456160626431</v>
+        <v>0.07621221137354239</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07436977401143821</v>
+        <v>0.07391770985779188</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09243596049198927</v>
+        <v>0.1174575028880118</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07580742880672782</v>
+        <v>0.0737956417974754</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1325139537195502</v>
+        <v>0.04421638405424082</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07200528539980781</v>
+        <v>0.07431342260093511</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.07434627252136478</v>
+        <v>0.0441724392195319</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07122332913390546</v>
+        <v>0.07507954035970765</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04797568233653984</v>
+        <v>0.07541682685984702</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07513647271258705</v>
+        <v>0.0746797481037485</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09199897152436715</v>
+        <v>0.1174744475061315</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07658894869133326</v>
+        <v>0.07455642160982051</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1321434287567565</v>
+        <v>0.0441724392195319</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07274760792970274</v>
+        <v>0.07507954035970765</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.07364224238012804</v>
+        <v>0.04432858160872312</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07195009779853716</v>
+        <v>0.07584565811848017</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04804557195400952</v>
+        <v>0.07512064468531185</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0759031714137359</v>
+        <v>0.07544178634970511</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0924571877123086</v>
+        <v>0.1161862364891061</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07737046857593871</v>
+        <v>0.07531720142216562</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1321714301451395</v>
+        <v>0.04432858160872312</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07348993045959767</v>
+        <v>0.07584565811848017</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.07092197622053942</v>
+        <v>0.04398498393898859</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07267686646316884</v>
+        <v>0.07661177587725269</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04801427571313874</v>
+        <v>0.07472322371642995</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07666987011488474</v>
+        <v>0.07620382459566173</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09221053706466042</v>
+        <v>0.1155933170080249</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07815198846054415</v>
+        <v>0.07607798123451073</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1331979721208465</v>
+        <v>0.04398498393898859</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07423225298949258</v>
+        <v>0.07661177587725269</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07518330777195226</v>
+        <v>0.04394181892750249</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07340363512780053</v>
+        <v>0.07737789363602524</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04768183886839295</v>
+        <v>0.07412412281969444</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0774365688160336</v>
+        <v>0.07696586284161835</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09185894759026908</v>
+        <v>0.1148961362339773</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07893350834514959</v>
+        <v>0.07683876104685583</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1328230689200246</v>
+        <v>0.04394181892750249</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07497457551938752</v>
+        <v>0.07737789363602524</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.07842407076371979</v>
+        <v>0.04389925929143894</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07413040379243223</v>
+        <v>0.07814401139479775</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0477483066742375</v>
+        <v>0.07382290086159843</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07820326751718244</v>
+        <v>0.07772790108757498</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09230234729798137</v>
+        <v>0.1142951413380525</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07971502822975503</v>
+        <v>0.07759954085920094</v>
       </c>
       <c r="N167" t="n">
-        <v>0.132946734778821</v>
+        <v>0.04389925929143894</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07571689804928244</v>
+        <v>0.07814401139479775</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.07864209892519541</v>
+        <v>0.04365747774797207</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0748571724570639</v>
+        <v>0.07891012915357028</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04761372438513786</v>
+        <v>0.07321911670863504</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07896996621833129</v>
+        <v>0.07848993933353159</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09204066419664375</v>
+        <v>0.11459077949134</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08049654811436048</v>
+        <v>0.07836032067154605</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1327689839333828</v>
+        <v>0.04365747774797207</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07645922057917738</v>
+        <v>0.07891012915357028</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.07683522598573236</v>
+        <v>0.04351664701427602</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0755839411216956</v>
+        <v>0.0796762469123428</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04797813725555941</v>
+        <v>0.0737123292272974</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07973666491948013</v>
+        <v>0.07925197757948821</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09247382629510287</v>
+        <v>0.1139834978649291</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08127806799896592</v>
+        <v>0.07912110048389116</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1331898306198574</v>
+        <v>0.04351664701427602</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07720154310907229</v>
+        <v>0.0796762469123428</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.07500128567468395</v>
+        <v>0.04327668505293605</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07631070978632729</v>
+        <v>0.08044236467111533</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04754159053996758</v>
+        <v>0.07310209728407854</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08050336362062897</v>
+        <v>0.08001401582544482</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09200176160220536</v>
+        <v>0.1136737436299091</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08205958788357136</v>
+        <v>0.07988188029623626</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1328092890743918</v>
+        <v>0.04327668505293605</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07794386563896723</v>
+        <v>0.08044236467111533</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.07613811172140353</v>
+        <v>0.0429346686175022</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07703747845095897</v>
+        <v>0.08120848242988786</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04770412949282776</v>
+        <v>0.07228797974547166</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08127006232177783</v>
+        <v>0.08077605407140144</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09222439812679784</v>
+        <v>0.1125619639573692</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08284110776817681</v>
+        <v>0.08064266010858137</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1327273735331333</v>
+        <v>0.0429346686175022</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07868618816886215</v>
+        <v>0.08120848242988786</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.07624353785524438</v>
+        <v>0.04288965587072083</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07776424711559066</v>
+        <v>0.08197460018866039</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04746579936860541</v>
+        <v>0.07216953547796981</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08203676102292667</v>
+        <v>0.08153809231735805</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09204166387772689</v>
+        <v>0.1116251182504076</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08362262765278224</v>
+        <v>0.08140343992092648</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1329440982322289</v>
+        <v>0.04288965587072083</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07942851069875707</v>
+        <v>0.08197460018866039</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.07831539780555977</v>
+        <v>0.04264156145905945</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07849101578022236</v>
+        <v>0.08274071794743292</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04752664542176592</v>
+        <v>0.0715463233480661</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08280345972407553</v>
+        <v>0.08230013056331467</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09255348686383907</v>
+        <v>0.1112061170222027</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08440414753738767</v>
+        <v>0.08216421973327159</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1331594774078261</v>
+        <v>0.04264156145905945</v>
       </c>
       <c r="O173" t="n">
-        <v>0.080170833228652</v>
+        <v>0.08274071794743292</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.07235152530170305</v>
+        <v>0.04289030002898553</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07921778444485403</v>
+        <v>0.08350683570620544</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04778671290677468</v>
+        <v>0.07081790222225365</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08357015842522438</v>
+        <v>0.08306216880927129</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09265979509398115</v>
+        <v>0.1101082128319605</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08518566742199313</v>
+        <v>0.08292499954561669</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1323735252960718</v>
+        <v>0.04289030002898553</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08091315575854692</v>
+        <v>0.08350683570620544</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.07235038691175583</v>
+        <v>0.04263578622696659</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07994455310948573</v>
+        <v>0.08427295346497797</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04754604707809712</v>
+        <v>0.07108383096702559</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08433685712637322</v>
+        <v>0.0838242070552279</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09195686318143809</v>
+        <v>0.1089377969904701</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08596718730659857</v>
+        <v>0.0836857793579618</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1332862561331133</v>
+        <v>0.04263578622696659</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08165547828844186</v>
+        <v>0.08427295346497797</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.07931449324791426</v>
+        <v>0.04257793469947008</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08067132177411741</v>
+        <v>0.0850390712237505</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04750429611557333</v>
+        <v>0.07074366844887492</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08510355582752206</v>
+        <v>0.08458624530118453</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09220660614372939</v>
+        <v>0.1088012608085203</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08674870719120401</v>
+        <v>0.08444655917030691</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1320976841550978</v>
+        <v>0.04257793469947008</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08239780081833678</v>
+        <v>0.0850390712237505</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.07724569440748538</v>
+        <v>0.04201666009296351</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0813980904387491</v>
+        <v>0.08580518898252303</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04755545989572602</v>
+        <v>0.0699969735342949</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08587025452867092</v>
+        <v>0.08534828354714113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09210105950605962</v>
+        <v>0.1080049955969001</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08753022707580944</v>
+        <v>0.08520733898265202</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1329078235981724</v>
+        <v>0.04201666009296351</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0831401233482317</v>
+        <v>0.08580518898252303</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0721455214586196</v>
+        <v>0.04205187705391433</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08212485910338078</v>
+        <v>0.08657130674129554</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04759771449186048</v>
+        <v>0.06964330508977856</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08663695322981976</v>
+        <v>0.08611032179309776</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0922429195080568</v>
+        <v>0.1067553926663984</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0883117469604149</v>
+        <v>0.08596811879499712</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1322166886984844</v>
+        <v>0.04205187705391433</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08388244587812663</v>
+        <v>0.08657130674129554</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.07901550546946731</v>
+        <v>0.04178350022879011</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08285162776801248</v>
+        <v>0.08733742450006808</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04733133317422222</v>
+        <v>0.06858222198181899</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08740365193096862</v>
+        <v>0.08687236003905437</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09153488238934898</v>
+        <v>0.1060588433278042</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08909326684502034</v>
+        <v>0.08672889860734223</v>
       </c>
       <c r="N179" t="n">
-        <v>0.132224293692181</v>
+        <v>0.04178350022879011</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08462476840802156</v>
+        <v>0.08733742450006808</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.07685717750817886</v>
+        <v>0.04191144426405823</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08357839643264416</v>
+        <v>0.08810354225884061</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04735658921305676</v>
+        <v>0.06821328307690933</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08817035063211746</v>
+        <v>0.087634398285011</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0913796443895642</v>
+        <v>0.1036217388919064</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08987478672962577</v>
+        <v>0.08748967841968734</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1324306528154092</v>
+        <v>0.04191144426405823</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08536709093791647</v>
+        <v>0.08810354225884061</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.07167206864290465</v>
+        <v>0.04133562380618627</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08430516509727586</v>
+        <v>0.08886966001761314</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04727375587860957</v>
+        <v>0.06753604724154266</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08893704933326629</v>
+        <v>0.08839643653096761</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09097990174833043</v>
+        <v>0.102650470669494</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09065630661423123</v>
+        <v>0.08825045823203244</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1330357803043164</v>
+        <v>0.04133562380618627</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08610941346781141</v>
+        <v>0.08886966001761314</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.07146170994179515</v>
+        <v>0.04135595350164166</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08503193376190754</v>
+        <v>0.08963577777638566</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04708310644112615</v>
+        <v>0.06735007334221219</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08970374803441515</v>
+        <v>0.08915847477692423</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09123835070527592</v>
+        <v>0.1016514299713559</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09143782649883665</v>
+        <v>0.08901123804437755</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1325396903950496</v>
+        <v>0.04135595350164166</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08685173599770633</v>
+        <v>0.08963577777638566</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.07322763247300071</v>
+        <v>0.04097234799689191</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08575870242653923</v>
+        <v>0.09040189553515818</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04678491417085202</v>
+        <v>0.06695492024541086</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09047044673556399</v>
+        <v>0.08992051302288084</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09055768750002846</v>
+        <v>0.1010310081082811</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09221934638344209</v>
+        <v>0.08977201785672266</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1333423973237562</v>
+        <v>0.04097234799689191</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08759405852760127</v>
+        <v>0.09040189553515818</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.07097136730467168</v>
+        <v>0.04108472193840447</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08648547109117093</v>
+        <v>0.09116801329393072</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04687945233803262</v>
+        <v>0.06625014681763189</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09123714543671285</v>
+        <v>0.09068255126883747</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09064060837221621</v>
+        <v>0.09959559639105836</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09300086626804753</v>
+        <v>0.09053279766906777</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1331439153265832</v>
+        <v>0.04108472193840447</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08833638105749618</v>
+        <v>0.09116801329393072</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.07269444550495857</v>
+        <v>0.04059298997264689</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08721223975580261</v>
+        <v>0.09193413105270323</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04656699421291349</v>
+        <v>0.06643531192536833</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0920038441378617</v>
+        <v>0.09144458951479408</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0892898095614672</v>
+        <v>0.09785158613047679</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09378238615265298</v>
+        <v>0.09129357748141287</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1330419260105553</v>
+        <v>0.04059298997264689</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08907870358739112</v>
+        <v>0.09193413105270323</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.07739839814201169</v>
+        <v>0.04049706674608662</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0879390084204343</v>
+        <v>0.09270024881147576</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0468478130657401</v>
+        <v>0.06520997443511334</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09277054283901054</v>
+        <v>0.0922066277607507</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08940798730740956</v>
+        <v>0.09650536863732534</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09456390603725842</v>
+        <v>0.09205435729375798</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1328650259863288</v>
+        <v>0.04049706674608662</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08982102611728604</v>
+        <v>0.09270024881147576</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.07008475628398148</v>
+        <v>0.04059686690519114</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08866577708506598</v>
+        <v>0.0934663665702483</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04662218216675793</v>
+        <v>0.06507369321336001</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09353724154015938</v>
+        <v>0.09296866600670732</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08909783784967124</v>
+        <v>0.09606333522239291</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09534542592186386</v>
+        <v>0.09281513710610309</v>
       </c>
       <c r="N187" t="n">
-        <v>0.133184348614298</v>
+        <v>0.04059686690519114</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09056334864718096</v>
+        <v>0.0934663665702483</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0717550509990183</v>
+        <v>0.04029230509642795</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08939254574969768</v>
+        <v>0.09423248432902082</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04649037478621253</v>
+        <v>0.06402602712660144</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09430394024130824</v>
+        <v>0.09373070425266394</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0885620574278802</v>
+        <v>0.09463187719646837</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09612694580646931</v>
+        <v>0.0935759169184482</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1324063872281604</v>
+        <v>0.04029230509642795</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09130567117707589</v>
+        <v>0.09423248432902082</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.07141081335527258</v>
+        <v>0.03988329596626454</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09011931441432935</v>
+        <v>0.09499860208779336</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04645266419434933</v>
+        <v>0.0637665350413307</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09507063894245708</v>
+        <v>0.09449274249862055</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08730334228166464</v>
+        <v>0.09351738587034075</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09690846569107475</v>
+        <v>0.0943366967307933</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1312376351616134</v>
+        <v>0.03988329596626454</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09204799370697081</v>
+        <v>0.09499860208779336</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.06905357442089469</v>
+        <v>0.0396697541611684</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09084608307896105</v>
+        <v>0.09576471984656587</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04590932366141387</v>
+        <v>0.06299477582404098</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09583733764360594</v>
+        <v>0.09525478074457717</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08692438865065261</v>
+        <v>0.09152625255479896</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09768998557568019</v>
+        <v>0.09509747654313841</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1316845857483545</v>
+        <v>0.0396697541611684</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09279031623686575</v>
+        <v>0.09576471984656587</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.07068486526403506</v>
+        <v>0.03975159432760698</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09157285174359274</v>
+        <v>0.0965308376053384</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04596062645765162</v>
+        <v>0.06301030834122531</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09660403634475478</v>
+        <v>0.09601681899053378</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08682789277447206</v>
+        <v>0.09056486856063206</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09847150546028563</v>
+        <v>0.09585825635548352</v>
       </c>
       <c r="N191" t="n">
-        <v>0.130653732322081</v>
+        <v>0.03975159432760698</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09353263876676067</v>
+        <v>0.0965308376053384</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.07030621695284406</v>
+        <v>0.03952873111204783</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09229962040822443</v>
+        <v>0.09729695536411093</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04600684585330807</v>
+        <v>0.06161269145937684</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09737073504590363</v>
+        <v>0.09677885723649041</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08601655089275095</v>
+        <v>0.08963962519862873</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09925302534489107</v>
+        <v>0.09661903616782863</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1303515682164904</v>
+        <v>0.03952873111204783</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09427496129665559</v>
+        <v>0.09729695536411093</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.07191916055547209</v>
+        <v>0.03930107916095837</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09302638907285611</v>
+        <v>0.09806307312288345</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04554825511862874</v>
+        <v>0.06100148404498867</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09813743374705247</v>
+        <v>0.09754089548244702</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08539305924511753</v>
+        <v>0.08835691377957816</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1000345452294965</v>
+        <v>0.09737981598017373</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1291845867652801</v>
+        <v>0.03930107916095837</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09501728382655052</v>
+        <v>0.09806307312288345</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.07052522714006954</v>
+        <v>0.03896855312080613</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09375315773748781</v>
+        <v>0.09882919088165598</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04548512752385908</v>
+        <v>0.0603762449645539</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09890413244820132</v>
+        <v>0.09830293372840364</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08486011407119981</v>
+        <v>0.08712312561426921</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1008160651141019</v>
+        <v>0.09814059579251884</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1294592813021475</v>
+        <v>0.03896855312080613</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09575960635644545</v>
+        <v>0.09882919088165598</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.07212594777478684</v>
+        <v>0.0386310676380586</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09447992640211948</v>
+        <v>0.09959530864042851</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04551773633924465</v>
+        <v>0.06001326762680304</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09967083114935017</v>
+        <v>0.09906497197436026</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08372041161062566</v>
+        <v>0.08604465201349082</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1015975849987074</v>
+        <v>0.09890137560486395</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1277821451607899</v>
+        <v>0.0386310676380586</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09650192888634036</v>
+        <v>0.09959530864042851</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.07272285352777441</v>
+        <v>0.03838853735918325</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09520669506675118</v>
+        <v>0.100361426399201</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04534635483503088</v>
+        <v>0.05977277239906204</v>
       </c>
       <c r="K196" t="n">
-        <v>0.100437529850499</v>
+        <v>0.09982701022031687</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08367664810302328</v>
+        <v>0.08620812563822405</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1023791048833128</v>
+        <v>0.09966215541720906</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1273596716749049</v>
+        <v>0.03838853735918325</v>
       </c>
       <c r="O196" t="n">
-        <v>0.0972442514162353</v>
+        <v>0.100361426399201</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.06931747546718253</v>
+        <v>0.03834087693064758</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09593346373138287</v>
+        <v>0.1011275441579736</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0450712562814633</v>
+        <v>0.05826139191132731</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1012042285516479</v>
+        <v>0.1005890484662735</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08273151978802062</v>
+        <v>0.08418165543998107</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1031606247679183</v>
+        <v>0.1004229352295542</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1270983541781898</v>
+        <v>0.03834087693064758</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09798657394613022</v>
+        <v>0.1011275441579736</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.06691134466116175</v>
+        <v>0.03788800099891904</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09666023239601455</v>
+        <v>0.1018936619167461</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0448927139487874</v>
+        <v>0.05798682870709285</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1019709272527967</v>
+        <v>0.1013510867122301</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08158772290524585</v>
+        <v>0.08446441755302841</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1039421446525237</v>
+        <v>0.1011837150418993</v>
       </c>
       <c r="N198" t="n">
-        <v>0.126204686004342</v>
+        <v>0.03788800099891904</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09872889647602516</v>
+        <v>0.1018936619167461</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.06850599217786232</v>
+        <v>0.03782982421046516</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09738700106064624</v>
+        <v>0.1026597796755186</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04441100110724866</v>
+        <v>0.05725678532985262</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1027376259539456</v>
+        <v>0.1021131249581867</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08144795369432689</v>
+        <v>0.08245619424426981</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1047236645371292</v>
+        <v>0.1019444948542444</v>
       </c>
       <c r="N199" t="n">
-        <v>0.124485160487059</v>
+        <v>0.03782982421046516</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09947121900592007</v>
+        <v>0.1026597796755186</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.06810294908543474</v>
+        <v>0.03716626121175341</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09811376972527794</v>
+        <v>0.1034258974342911</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04442639102709257</v>
+        <v>0.05547896432310068</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1035043246550944</v>
+        <v>0.1028751632041433</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08061490839489183</v>
+        <v>0.08175676778060864</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1055051844217346</v>
+        <v>0.1027052746665895</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1235462709600382</v>
+        <v>0.03716626121175341</v>
       </c>
       <c r="O200" t="n">
-        <v>0.100213541535815</v>
+        <v>0.1034258974342911</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.07070374645202937</v>
+        <v>0.03699722664925126</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09884053838990962</v>
+        <v>0.1041920151930637</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04423915697856463</v>
+        <v>0.05526106823033086</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1042710233562433</v>
+        <v>0.1036372014501</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08049128324656873</v>
+        <v>0.08066592042894877</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1062867043063401</v>
+        <v>0.1034660544789346</v>
       </c>
       <c r="N201" t="n">
-        <v>0.122994510756977</v>
+        <v>0.03699722664925126</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1009558640657099</v>
+        <v>0.1041920151930637</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.06830991534579664</v>
+        <v>0.03672263516942625</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09956730705454131</v>
+        <v>0.1049581329518362</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04384957223191038</v>
+        <v>0.05381079959503718</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1050377220573921</v>
+        <v>0.1043992396960566</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07937977448898562</v>
+        <v>0.08078343445619351</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1070682241909455</v>
+        <v>0.1042268342912797</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1220363732115728</v>
+        <v>0.03672263516942625</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1016981865956049</v>
+        <v>0.1049581329518362</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.06392298683488687</v>
+        <v>0.0367424014187458</v>
       </c>
       <c r="G203" t="n">
-        <v>0.100294075719173</v>
+        <v>0.1057242507106087</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04375791005737524</v>
+        <v>0.05313586096071368</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1058044207585409</v>
+        <v>0.1051612779420132</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07908162447513542</v>
+        <v>0.07950909212924673</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1078497440755509</v>
+        <v>0.1049876141036248</v>
       </c>
       <c r="N203" t="n">
-        <v>0.120378351657523</v>
+        <v>0.0367424014187458</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1024405091254998</v>
+        <v>0.1057242507106087</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.06854449198745055</v>
+        <v>0.0360492113752294</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1010208443838047</v>
+        <v>0.1064903684693812</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04356444372520477</v>
+        <v>0.05194395487085424</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1065711194596898</v>
+        <v>0.1059233161879698</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07867959247000433</v>
+        <v>0.07844267571501173</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1086312639601564</v>
+        <v>0.1057483939159699</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1203269394285251</v>
+        <v>0.0360492113752294</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1031828316553947</v>
+        <v>0.1064903684693812</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.06817596187163802</v>
+        <v>0.03572067904485425</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1017476130484364</v>
+        <v>0.1072564862281538</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04366944650564439</v>
+        <v>0.05084278386895291</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1073378181608386</v>
+        <v>0.1066853544339264</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07736795299221227</v>
+        <v>0.07838396748039239</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1094127838447618</v>
+        <v>0.106509173728315</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1189886298582764</v>
+        <v>0.03572067904485425</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1039251541852896</v>
+        <v>0.1072564862281538</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.06881892755559971</v>
+        <v>0.03535819331054244</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1024743817130681</v>
+        <v>0.1080226039869263</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04337311742030664</v>
+        <v>0.04984005049850357</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1081045168619875</v>
+        <v>0.107447392679883</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07754671817817321</v>
+        <v>0.07683274969229215</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1101943037293672</v>
+        <v>0.1072699535406601</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1186699162804743</v>
+        <v>0.03535819331054244</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1046674767151846</v>
+        <v>0.1080226039869263</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.06747492010748599</v>
+        <v>0.03536509282531906</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1032011503776998</v>
+        <v>0.1087887217456988</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04327137879425048</v>
+        <v>0.04784345730300021</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1088712155631364</v>
+        <v>0.1082094309258397</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07681590016430098</v>
+        <v>0.07618880461761462</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1109758236139727</v>
+        <v>0.1080307333530052</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1167772920288164</v>
+        <v>0.03536509282531906</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1054097992450795</v>
+        <v>0.1087887217456988</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.06314547059544723</v>
+        <v>0.03464471624220926</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1039279190423314</v>
+        <v>0.1095548395044714</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04286180741520423</v>
+        <v>0.04766070682593687</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1096379142642852</v>
+        <v>0.1089714691717963</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07617551108700951</v>
+        <v>0.07485191452326345</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1117573434985781</v>
+        <v>0.1087915131653503</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1164172504369999</v>
+        <v>0.03464471624220926</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1061521217749744</v>
+        <v>0.1095548395044714</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0638321100876339</v>
+        <v>0.03410040221423809</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1046546877069631</v>
+        <v>0.1103209572632439</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04284445744080362</v>
+        <v>0.04599950161080751</v>
       </c>
       <c r="K209" t="n">
-        <v>0.110404612965434</v>
+        <v>0.1097335074177529</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0749255630827127</v>
+        <v>0.07382186167614213</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1125388633831836</v>
+        <v>0.1095522929776954</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1158962848387223</v>
+        <v>0.03410040221423809</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1068944443048693</v>
+        <v>0.1103209572632439</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.06753636965219637</v>
+        <v>0.03373548939443069</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1053814563715948</v>
+        <v>0.1110870750220164</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04221938302868429</v>
+        <v>0.04556754420110604</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1111713116665829</v>
+        <v>0.1104955456637095</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07476606828782445</v>
+        <v>0.07389842834315435</v>
       </c>
       <c r="M210" t="n">
-        <v>0.113320383267789</v>
+        <v>0.1103130727900406</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1145157924828492</v>
+        <v>0.03373548939443069</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1076367668347643</v>
+        <v>0.1110870750220164</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.067259780357285</v>
+        <v>0.03345331643581213</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1061082250362265</v>
+        <v>0.111853192780789</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04218663833648192</v>
+        <v>0.04377253714032645</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1119380103677317</v>
+        <v>0.1112575839096661</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07409703883875862</v>
+        <v>0.07268139679120372</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1141019031523945</v>
+        <v>0.1110738526023857</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1141406025717102</v>
+        <v>0.03345331643581213</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1083790893646592</v>
+        <v>0.111853192780789</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.06800387327105023</v>
+        <v>0.03295722199140759</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1068349937008582</v>
+        <v>0.1126193105395615</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04184627752183223</v>
+        <v>0.0427221829719627</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1127047090688806</v>
+        <v>0.1120196221556228</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07281848687192913</v>
+        <v>0.07257054928719381</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1148834230369999</v>
+        <v>0.1118346324147308</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1127627321897464</v>
+        <v>0.03295722199140759</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1091214118945541</v>
+        <v>0.1126193105395615</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.06077017946164243</v>
+        <v>0.03215054471424209</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1075617623654899</v>
+        <v>0.113385428298334</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04159835474237086</v>
+        <v>0.04242418423950883</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1134714077700294</v>
+        <v>0.1127816604015794</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07293042452374984</v>
+        <v>0.07076566809802814</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1156649429216053</v>
+        <v>0.1125954122270759</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1118821583851821</v>
+        <v>0.03215054471424209</v>
       </c>
       <c r="O213" t="n">
-        <v>0.109863734424449</v>
+        <v>0.113385428298334</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.06756022999721206</v>
+        <v>0.03183662325734075</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1082885310301216</v>
+        <v>0.1141515460571065</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04154292415573349</v>
+        <v>0.04128624348645876</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1142381064711783</v>
+        <v>0.113543698647536</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07133286393063468</v>
+        <v>0.07046653549061038</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1164464628062108</v>
+        <v>0.113356192039421</v>
       </c>
       <c r="N214" t="n">
-        <v>0.111198858206242</v>
+        <v>0.03183662325734075</v>
       </c>
       <c r="O214" t="n">
-        <v>0.110606056954344</v>
+        <v>0.1141515460571065</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.06637555594590941</v>
+        <v>0.03141879627372871</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1090152996947533</v>
+        <v>0.114917663815879</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04108003991955585</v>
+        <v>0.04071606325630639</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1150048051723271</v>
+        <v>0.1143057368934926</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07132581722899753</v>
+        <v>0.0699729337318441</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1172279826908162</v>
+        <v>0.1141169718517661</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1112128087011508</v>
+        <v>0.03141879627372871</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1113483794842389</v>
+        <v>0.114917663815879</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.06620770796770656</v>
+        <v>0.03080040241643103</v>
       </c>
       <c r="G216" t="n">
-        <v>0.109742068359385</v>
+        <v>0.1156837815746516</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04080975619147358</v>
+        <v>0.04042134609254583</v>
       </c>
       <c r="K216" t="n">
-        <v>0.115771503873476</v>
+        <v>0.1150677751394492</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07080929655525228</v>
+        <v>0.06908464508863288</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1180095025754217</v>
+        <v>0.1148777516641112</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1102239869181328</v>
+        <v>0.03080040241643103</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1120907020141338</v>
+        <v>0.1156837815746516</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.06704052319792318</v>
+        <v>0.03018478033847288</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1104688370240166</v>
+        <v>0.1164498993334241</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04083212712912235</v>
+        <v>0.03930979453867095</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1165382025746248</v>
+        <v>0.1158298133854058</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06948331404581284</v>
+        <v>0.06790145182788043</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1187910224600271</v>
+        <v>0.1156385314764563</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1088323699054128</v>
+        <v>0.03018478033847288</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1128330245440287</v>
+        <v>0.1164498993334241</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.06687384608216099</v>
+        <v>0.02997526869287929</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1111956056886483</v>
+        <v>0.1172160170921966</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04024720689013789</v>
+        <v>0.0385885300295172</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1173049012757737</v>
+        <v>0.1165918516313625</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06904788183709312</v>
+        <v>0.06752313621649014</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1195725423446325</v>
+        <v>0.1163993112888014</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1087379347112153</v>
+        <v>0.02997526869287929</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1135753470739237</v>
+        <v>0.1172160170921966</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.06270779105230706</v>
+        <v>0.0294752061326754</v>
       </c>
       <c r="G219" t="n">
-        <v>0.11192237435328</v>
+        <v>0.1179821348509692</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04015504963215583</v>
+        <v>0.03830653235661929</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1180715999769225</v>
+        <v>0.1173538898773191</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06800301206550693</v>
+        <v>0.06704948052136583</v>
       </c>
       <c r="M219" t="n">
-        <v>0.120354062229238</v>
+        <v>0.1171600911011465</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1072406583837648</v>
+        <v>0.0294752061326754</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1143176696038186</v>
+        <v>0.1179821348509692</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.06654247254024852</v>
+        <v>0.02888793131088631</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1126491430179117</v>
+        <v>0.1187482526097417</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03995570951281188</v>
+        <v>0.03832725697184344</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1188382986780714</v>
+        <v>0.1181159281232757</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06724871686746825</v>
+        <v>0.06518026700941099</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1211355821138434</v>
+        <v>0.1179208709134916</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1066405179712859</v>
+        <v>0.02888793131088631</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1150599921337135</v>
+        <v>0.1187482526097417</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.06137800497787239</v>
+        <v>0.02811678288053712</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1133759116825434</v>
+        <v>0.1195143703685142</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0393492406897417</v>
+        <v>0.03785105764558475</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1196049973792202</v>
+        <v>0.1188779663692323</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06708500837939091</v>
+        <v>0.06431527794752923</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1219171019984489</v>
+        <v>0.1186816507258367</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1055374905220032</v>
+        <v>0.02811678288053712</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1158023146636084</v>
+        <v>0.1195143703685142</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.06221450279706583</v>
+        <v>0.02766509949465296</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1141026803471751</v>
+        <v>0.1202804881272867</v>
       </c>
       <c r="J222" t="n">
-        <v>0.038935697320581</v>
+        <v>0.03737828814823835</v>
       </c>
       <c r="K222" t="n">
-        <v>0.120371696080369</v>
+        <v>0.1196400046151889</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06631189873768883</v>
+        <v>0.06425429560262402</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1226986218830543</v>
+        <v>0.1194424305381818</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1045315530841411</v>
+        <v>0.02766509949465296</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1165446371935034</v>
+        <v>0.1202804881272867</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.06405208042971591</v>
+        <v>0.02733621980625889</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1148294490118068</v>
+        <v>0.1210466058860593</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03881513356296543</v>
+        <v>0.03630930225019949</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1211383947815179</v>
+        <v>0.1204020428611455</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06492940007877596</v>
+        <v>0.06279710224159918</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1234801417676598</v>
+        <v>0.1202032103505269</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1042226827059244</v>
+        <v>0.02733621980625889</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1172869597233983</v>
+        <v>0.1210466058860593</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.06489085230770973</v>
+        <v>0.02703348246838003</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1155562176764384</v>
+        <v>0.1218127236448318</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0382876035745307</v>
+        <v>0.03614445372186317</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1219050934826668</v>
+        <v>0.1211640811071022</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06413752453906615</v>
+        <v>0.06204348013135808</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1242616616522652</v>
+        <v>0.1209639901628721</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1039108564355776</v>
+        <v>0.02703348246838003</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1180292822532932</v>
+        <v>0.1218127236448318</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.06273093286293437</v>
+        <v>0.02656022613404152</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1162829863410701</v>
+        <v>0.1225788414036043</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03805316151291248</v>
+        <v>0.03558409633362464</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1226717921838156</v>
+        <v>0.1219261193530588</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06303628425497323</v>
+        <v>0.0623932115388045</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1250431815368706</v>
+        <v>0.1217247699752172</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1031960513213253</v>
+        <v>0.02656022613404152</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1187716047831882</v>
+        <v>0.1225788414036043</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.06057243652727695</v>
+        <v>0.02611978945626843</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1170097550057018</v>
+        <v>0.1233449591623768</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03771186153574645</v>
+        <v>0.03502858385587893</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1234384908849644</v>
+        <v>0.1226881575990154</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06262569136291118</v>
+        <v>0.06134607873084191</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1258247014214761</v>
+        <v>0.1224855497875623</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1019782444113919</v>
+        <v>0.02611978945626843</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1195139273130831</v>
+        <v>0.1233449591623768</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.06241547773262453</v>
+        <v>0.02621551108808584</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1177365236703335</v>
+        <v>0.1241110769211494</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03736375780066828</v>
+        <v>0.0343782700590213</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1242051895861133</v>
+        <v>0.123450195844972</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06180575799929386</v>
+        <v>0.06000186397437407</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1266062213060815</v>
+        <v>0.1232463295999074</v>
       </c>
       <c r="N227" t="n">
-        <v>0.100657412754002</v>
+        <v>0.02621551108808584</v>
       </c>
       <c r="O227" t="n">
-        <v>0.120256249842978</v>
+        <v>0.1241110769211494</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.06526017091086421</v>
+        <v>0.02573414572805233</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1184632923349652</v>
+        <v>0.1248771946799219</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03700890446531366</v>
+        <v>0.03453350871344679</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1249718882872621</v>
+        <v>0.1242122340909286</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06077649630053514</v>
+        <v>0.05966036151171517</v>
       </c>
       <c r="M228" t="n">
-        <v>0.127387741190687</v>
+        <v>0.1240071094122525</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1004335333973802</v>
+        <v>0.02573414572805233</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1209985723728729</v>
+        <v>0.1248771946799219</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05810663049388308</v>
+        <v>0.02535419571054796</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1191900609995969</v>
+        <v>0.1256433124386944</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03654735568731828</v>
+        <v>0.03389465358955057</v>
       </c>
       <c r="K229" t="n">
-        <v>0.125738586988411</v>
+        <v>0.1249742723368852</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06043791840304899</v>
+        <v>0.05942186914290298</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1281692610752924</v>
+        <v>0.1247678892245976</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09990658338975122</v>
+        <v>0.02535419571054796</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1217408949027678</v>
+        <v>0.1256433124386944</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.06095497091356827</v>
+        <v>0.02517580025054493</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1199168296642286</v>
+        <v>0.126409430197467</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03617916562431781</v>
+        <v>0.03306205845772778</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1265052856895598</v>
+        <v>0.1257363105828419</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05969003644324924</v>
+        <v>0.05778663430287734</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1289507809598978</v>
+        <v>0.1255286690369427</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09887653977933936</v>
+        <v>0.02517580025054493</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1224832174326628</v>
+        <v>0.126409430197467</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.06180530660180682</v>
+        <v>0.02469924151416726</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1206435983288603</v>
+        <v>0.1271755479562395</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03610438843394793</v>
+        <v>0.03333607708837358</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1272719843907087</v>
+        <v>0.1264983488287985</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05853286255754975</v>
+        <v>0.05755470205999663</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1297323008445033</v>
+        <v>0.1262894488492878</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09744337961436933</v>
+        <v>0.02469924151416726</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1232255399625577</v>
+        <v>0.1271755479562395</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05865775199048587</v>
+        <v>0.02442480166753896</v>
       </c>
       <c r="G232" t="n">
-        <v>0.121370366993492</v>
+        <v>0.127941665715012</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03542307827384433</v>
+        <v>0.03271706325188306</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1280386830918575</v>
+        <v>0.1272603870747551</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05766640888236454</v>
+        <v>0.05602611748261938</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1305138207291087</v>
+        <v>0.1270502286616329</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09730707994306576</v>
+        <v>0.02442480166753896</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1239678624924526</v>
+        <v>0.127941665715012</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05751242151149248</v>
+        <v>0.02415276287678413</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1220971356581236</v>
+        <v>0.1287077834737845</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03523528930164266</v>
+        <v>0.03220537071865143</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1288053817930064</v>
+        <v>0.1280224253207117</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05679068755410741</v>
+        <v>0.0554009256391042</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1312953406137142</v>
+        <v>0.127811008473978</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09656761781365308</v>
+        <v>0.02415276287678413</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1247101850223476</v>
+        <v>0.1287077834737845</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.06136942959671375</v>
+        <v>0.02398340730802678</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1228239043227553</v>
+        <v>0.1294739012325571</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03464107567497866</v>
+        <v>0.03150135325907372</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1295720804941552</v>
+        <v>0.1287844635666683</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05580571070919221</v>
+        <v>0.05567917159780955</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1320768604983196</v>
+        <v>0.1285717882863231</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09582497027435594</v>
+        <v>0.02398340730802678</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1254525075522425</v>
+        <v>0.1294739012325571</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.06422889067803678</v>
+        <v>0.02401701712739095</v>
       </c>
       <c r="G235" t="n">
-        <v>0.123550672987387</v>
+        <v>0.1302400189913296</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03444049155148797</v>
+        <v>0.03140536464354515</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1303387791953041</v>
+        <v>0.1295465018126249</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05451149048403292</v>
+        <v>0.05496090042709395</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1328583803829251</v>
+        <v>0.1293325680986682</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09387911437339885</v>
+        <v>0.02401701712739095</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1261948300821374</v>
+        <v>0.1302400189913296</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05709091918734865</v>
+        <v>0.02375387450100065</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1242774416520187</v>
+        <v>0.1310061367501021</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03413359108880629</v>
+        <v>0.03061775864246083</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1311054778964529</v>
+        <v>0.1303085400585816</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05410803901504341</v>
+        <v>0.05344615719531592</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1336399002675305</v>
+        <v>0.1300933479110133</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09363002715900642</v>
+        <v>0.02375387450100065</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1269371526120323</v>
+        <v>0.1310061367501021</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05695562955653648</v>
+        <v>0.02339426159497998</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1250042103166504</v>
+        <v>0.1317722545088746</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03382042844456927</v>
+        <v>0.03073888902621594</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1318721765976018</v>
+        <v>0.1310705783045382</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05309536843863757</v>
+        <v>0.05323498697083406</v>
       </c>
       <c r="M237" t="n">
-        <v>0.134421420152136</v>
+        <v>0.1308541277233584</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09237768567940313</v>
+        <v>0.02339426159497998</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1276794751419273</v>
+        <v>0.1317722545088746</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.06382313621748735</v>
+        <v>0.02293846057545297</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1257309789812821</v>
+        <v>0.1325383722676472</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03300105777641262</v>
+        <v>0.03056910956520556</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1326388752987506</v>
+        <v>0.1318326165504948</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05227349089122932</v>
+        <v>0.05272743482200687</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1352029400367414</v>
+        <v>0.1316149075357036</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09212206698281361</v>
+        <v>0.02293846057545297</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1284217976718222</v>
+        <v>0.1325383722676472</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.06369355360208834</v>
+        <v>0.02258675360854365</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1264577476459138</v>
+        <v>0.1333044900264197</v>
       </c>
       <c r="J239" t="n">
-        <v>0.032875533241972</v>
+        <v>0.02960877402982487</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1334055739998995</v>
+        <v>0.1325946547964514</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05174241850923253</v>
+        <v>0.05162354581719286</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1359844599213468</v>
+        <v>0.1323756873480487</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09166314811746251</v>
+        <v>0.02258675360854365</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1291641202017171</v>
+        <v>0.1333044900264197</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05856699614222655</v>
+        <v>0.02273942286037603</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1271845163105455</v>
+        <v>0.1340706077851922</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03224390899888313</v>
+        <v>0.02895823619046892</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1341722727010483</v>
+        <v>0.133356693042408</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05020216342906106</v>
+        <v>0.0512233650247505</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1367659798059523</v>
+        <v>0.1331364671603938</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09080090613157421</v>
+        <v>0.02273942286037603</v>
       </c>
       <c r="O240" t="n">
-        <v>0.129906442731612</v>
+        <v>0.1340706077851922</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.06244357826978907</v>
+        <v>0.02209675049707421</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1279112849751771</v>
+        <v>0.1348367255439648</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03200623920478163</v>
+        <v>0.02901784981753303</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1349389714021972</v>
+        <v>0.1341187312883647</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04965273778712878</v>
+        <v>0.05032693751303846</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1375474996905577</v>
+        <v>0.1338972469727389</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08973531807337343</v>
+        <v>0.02209675049707421</v>
       </c>
       <c r="O241" t="n">
-        <v>0.130648765261507</v>
+        <v>0.1348367255439648</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05732341441666298</v>
+        <v>0.0222590186847622</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1286380536398088</v>
+        <v>0.1356028433027373</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03166257801730324</v>
+        <v>0.02828796868141212</v>
       </c>
       <c r="K242" t="n">
-        <v>0.135705670103346</v>
+        <v>0.1348807695343213</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04849415371984972</v>
+        <v>0.0491343083504151</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1383290195751632</v>
+        <v>0.134658026785084</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0886663609910846</v>
+        <v>0.0222590186847622</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1313910877914019</v>
+        <v>0.1356028433027373</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05720661901473541</v>
+        <v>0.02172650958956403</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1293648223044405</v>
+        <v>0.1363689610615098</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0310129795940836</v>
+        <v>0.02866894655250149</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1364723688044948</v>
+        <v>0.1356428077802779</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04702642336363763</v>
+        <v>0.04854552260523903</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1391105394597686</v>
+        <v>0.1354188065974291</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08719401193293252</v>
+        <v>0.02172650958956403</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1321334103212968</v>
+        <v>0.1363689610615098</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.06109330649589344</v>
+        <v>0.02159950537760373</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1300915909690722</v>
+        <v>0.1371350788202823</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03055749809275841</v>
+        <v>0.02856113720119621</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1372390675056437</v>
+        <v>0.1364048460262345</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0460495588549065</v>
+        <v>0.04826062534586889</v>
       </c>
       <c r="M244" t="n">
-        <v>0.139892059344374</v>
+        <v>0.1361795864097742</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08731824794714149</v>
+        <v>0.02159950537760373</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1328757328511918</v>
+        <v>0.1371350788202823</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05998359129202414</v>
+        <v>0.02117828821500541</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1308183596337039</v>
+        <v>0.1379011965790549</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02999618767096339</v>
+        <v>0.02826489439789145</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1380057662067925</v>
+        <v>0.1371668842721911</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04536357233007018</v>
+        <v>0.04797966164066303</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1406735792289795</v>
+        <v>0.1369403662221193</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08533904608193621</v>
+        <v>0.02117828821500541</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1336180553810867</v>
+        <v>0.1379011965790549</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.05787758783501463</v>
+        <v>0.02116314026789302</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1315451282983356</v>
+        <v>0.1386673143378274</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02952910248633411</v>
+        <v>0.02798057191298228</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1387724649079414</v>
+        <v>0.1379289225181478</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04406847592554261</v>
+        <v>0.04750267655798007</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1414550991135849</v>
+        <v>0.1377011460344644</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08535638338554119</v>
+        <v>0.02116314026789302</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1343603779109816</v>
+        <v>0.1386673143378274</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05677541055675199</v>
+        <v>0.02115434370239069</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1322718969629673</v>
+        <v>0.1394334320965999</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02935629669650637</v>
+        <v>0.02690852351686393</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1395391636090902</v>
+        <v>0.1386909607641043</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04306428177773761</v>
+        <v>0.04602971516617849</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1422366189981903</v>
+        <v>0.1384619258468095</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08377023690618096</v>
+        <v>0.02115434370239069</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1351027004408765</v>
+        <v>0.1394334320965999</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0596771738891233</v>
+        <v>0.0207521806846224</v>
       </c>
       <c r="G248" t="n">
-        <v>0.132998665627599</v>
+        <v>0.1401995498553724</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0288778244591158</v>
+        <v>0.02724910297993144</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1403058623102391</v>
+        <v>0.139452999010061</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04295100202306909</v>
+        <v>0.04536082253361678</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1430181388827958</v>
+        <v>0.1392227056591546</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08258058369208027</v>
+        <v>0.0207521806846224</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1358450229707714</v>
+        <v>0.1401995498553724</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0555829922640157</v>
+        <v>0.02035693338071221</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1337254342922307</v>
+        <v>0.1409656676141449</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02809373993179808</v>
+        <v>0.02720266407258004</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1410725610113879</v>
+        <v>0.1402150372560176</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04172864879795096</v>
+        <v>0.04529604372865365</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1437996587674013</v>
+        <v>0.1399834854714997</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08208740079146343</v>
+        <v>0.02035693338071221</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1365873455006664</v>
+        <v>0.1409656676141449</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.06049298011331623</v>
+        <v>0.02056888395678415</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1344522029568624</v>
+        <v>0.1417317853729175</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02780409727218885</v>
+        <v>0.02646956056520483</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1418392597125368</v>
+        <v>0.1409770755019742</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04069723423879712</v>
+        <v>0.04403542381964742</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1445811786520067</v>
+        <v>0.1407442652838448</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08139066525255528</v>
+        <v>0.02056888395678415</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1373296680305613</v>
+        <v>0.1417317853729175</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.06240725186891201</v>
+        <v>0.01998831457896229</v>
       </c>
       <c r="G251" t="n">
-        <v>0.135178971621494</v>
+        <v>0.14249790313169</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02720895063792388</v>
+        <v>0.02665014622820094</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1426059584136856</v>
+        <v>0.1417391137479308</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03915677048202149</v>
+        <v>0.04387900787495669</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1453626985366121</v>
+        <v>0.14150504509619</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08029035412358015</v>
+        <v>0.01998831457896229</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1380719905604562</v>
+        <v>0.14249790313169</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05632592196269012</v>
+        <v>0.02011550741337063</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1359057402861257</v>
+        <v>0.1432640208904626</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02670835418663879</v>
+        <v>0.0257447748319635</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1433726571148345</v>
+        <v>0.1425011519938874</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03870726966403798</v>
+        <v>0.04282684096294004</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1461442184212176</v>
+        <v>0.1422658249085351</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0800864444527627</v>
+        <v>0.02011550741337063</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1388143130903512</v>
+        <v>0.1432640208904626</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.06024910482653766</v>
+        <v>0.01965074462613325</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1366325089507574</v>
+        <v>0.1440301386492351</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02640236207596929</v>
+        <v>0.02605380014688768</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1441393558159833</v>
+        <v>0.1432631902398441</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03724874392126035</v>
+        <v>0.04187896815195596</v>
       </c>
       <c r="M253" t="n">
-        <v>0.146925738305823</v>
+        <v>0.1430266047208802</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07817891328832749</v>
+        <v>0.01965074462613325</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1395566356202461</v>
+        <v>0.1440301386492351</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.05517691489234171</v>
+        <v>0.01949430838337417</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1373592776153891</v>
+        <v>0.1447962564080076</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02579102846355102</v>
+        <v>0.02567757594336856</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1449060545171322</v>
+        <v>0.1440252284858007</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03638120539010259</v>
+        <v>0.04223543451036293</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1477072581904284</v>
+        <v>0.1437873845332253</v>
       </c>
       <c r="N254" t="n">
-        <v>0.077067737678499</v>
+        <v>0.01949430838337417</v>
       </c>
       <c r="O254" t="n">
-        <v>0.140298958150141</v>
+        <v>0.1447962564080076</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0571094665919894</v>
+        <v>0.01964648085121744</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1380860462800208</v>
+        <v>0.1455623741667801</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02507440750701972</v>
+        <v>0.0259164559918014</v>
       </c>
       <c r="K255" t="n">
-        <v>0.145672753218281</v>
+        <v>0.1447872667317573</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03560466620697861</v>
+        <v>0.04129628510651956</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1484887780750339</v>
+        <v>0.1445481643455704</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07745289467150202</v>
+        <v>0.01964648085121744</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1410412806800359</v>
+        <v>0.1455623741667801</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.05604687435736778</v>
+        <v>0.0195075441957871</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1388128149446525</v>
+        <v>0.1463284919255527</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02475255336401103</v>
+        <v>0.02587079406258119</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1464394519194299</v>
+        <v>0.1455493049777139</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03391913850830225</v>
+        <v>0.04046156500878434</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1492702979596393</v>
+        <v>0.1453089441579155</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07573436131556088</v>
+        <v>0.0195075441957871</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1417836032099309</v>
+        <v>0.1463284919255527</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.05598925262036397</v>
+        <v>0.01947778058320718</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1395395836092842</v>
+        <v>0.1470946096843252</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02412552019216063</v>
+        <v>0.02544094392610316</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1472061506205787</v>
+        <v>0.1463113432236705</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03342463443048743</v>
+        <v>0.03973131928551588</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1500518178442448</v>
+        <v>0.1460697239702606</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07491211465890035</v>
+        <v>0.01947778058320718</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1425259257398258</v>
+        <v>0.1470946096843252</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.05493671581286505</v>
+        <v>0.0191574721796017</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1402663522739159</v>
+        <v>0.1478607274430977</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02359336214910422</v>
+        <v>0.0255272593527624</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1479728493217276</v>
+        <v>0.1470733814696271</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03192116610994805</v>
+        <v>0.03890559300507251</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1508333377288502</v>
+        <v>0.1468305037826057</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07428613174974469</v>
+        <v>0.0191574721796017</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1432682482697207</v>
+        <v>0.1478607274430977</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.05788937836675812</v>
+        <v>0.01924690115109479</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1409931209385475</v>
+        <v>0.1486268452018702</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02325613339247747</v>
+        <v>0.02463009411295405</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1487395480228764</v>
+        <v>0.1478354197155838</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03050874568309803</v>
+        <v>0.03788443123581292</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1516148576134556</v>
+        <v>0.1475912835949508</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07255638963631883</v>
+        <v>0.01924690115109479</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1440105707996156</v>
+        <v>0.1486268452018702</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.05884735471393027</v>
+        <v>0.01884634966381041</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1417198896031792</v>
+        <v>0.1493929629606428</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02271388807991608</v>
+        <v>0.02534980197707332</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1495062467240253</v>
+        <v>0.1485974579615404</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02938738528635121</v>
+        <v>0.03776787904609558</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1523963774980611</v>
+        <v>0.1483520634072959</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07242286536684706</v>
+        <v>0.01884634966381041</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1447528933295106</v>
+        <v>0.1493929629606428</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05881075928626858</v>
+        <v>0.01905609988387259</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1424466582678109</v>
+        <v>0.1501590807194153</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02216668036905571</v>
+        <v>0.02518673671551527</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1502729454251741</v>
+        <v>0.149359496207497</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02885709705612152</v>
+        <v>0.03755598150427902</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1531778973826665</v>
+        <v>0.149112843219641</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07148553598955409</v>
+        <v>0.01905609988387259</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1454952158594055</v>
+        <v>0.1501590807194153</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.06077970651566018</v>
+        <v>0.01897643397740544</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1431734269324426</v>
+        <v>0.1509251984781878</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02141456441753202</v>
+        <v>0.02534125209867508</v>
       </c>
       <c r="K262" t="n">
-        <v>0.151039644126323</v>
+        <v>0.1501215344534536</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02711789312882282</v>
+        <v>0.03724878367872175</v>
       </c>
       <c r="M262" t="n">
-        <v>0.153959417267272</v>
+        <v>0.1498736230319861</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06994437855266444</v>
+        <v>0.01897643397740544</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1462375383893004</v>
+        <v>0.1509251984781878</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.06175431083399212</v>
+        <v>0.01880763411053296</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1439001955970743</v>
+        <v>0.1516913162369603</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02105759438298073</v>
+        <v>0.02481370189694782</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1518063428274718</v>
+        <v>0.1508835726994102</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02596978564086899</v>
+        <v>0.0360463306377824</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1547409371518774</v>
+        <v>0.1506344028443312</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06999937010440266</v>
+        <v>0.01880763411053296</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1469798609191953</v>
+        <v>0.1516913162369603</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05673468667315153</v>
+        <v>0.01864998244937918</v>
       </c>
       <c r="G264" t="n">
-        <v>0.144626964261706</v>
+        <v>0.1524574339957329</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02009582442303751</v>
+        <v>0.02470443988072873</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1525730415286206</v>
+        <v>0.1516456109453669</v>
       </c>
       <c r="L264" t="n">
-        <v>0.025212786728674</v>
+        <v>0.03604866744981933</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1555224570364829</v>
+        <v>0.1513951826566763</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06875048769299325</v>
+        <v>0.01864998244937918</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1477221834490903</v>
+        <v>0.1524574339957329</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1060.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1060.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8263518223330697</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.05779719496871297</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.05779719496871297</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.09247551194994075</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.1195650109434297</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02423164869274516</v>
+        <v>0.04962241094342973</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00549058389030059</v>
+        <v>0.01124380819392793</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00661032470446489</v>
+        <v>0.004941127397398826</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000766117758772527</v>
+        <v>0.0006182455373124034</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.01704618318661844</v>
+        <v>0.007057399999999991</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007620382459566173</v>
+        <v>0.001119382055555554</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01905739999999995</v>
+        <v>0.01171777309811917</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007185237122442395</v>
+        <v>0.0007630715660032553</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.00661032470446489</v>
+        <v>0.01922547299167032</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000766117758772527</v>
+        <v>0.0007616808240931872</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01220642680566454</v>
+        <v>0.009704074542305874</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001532235517545054</v>
+        <v>0.001236491074624807</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.03001736835638169</v>
+        <v>0.008857791011366092</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001524076491913235</v>
+        <v>0.001532235517545054</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03609824255977839</v>
+        <v>0.0190574</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001521559624690215</v>
+        <v>0.001295882240526238</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01220642680566454</v>
+        <v>0.02905739999999996</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001532235517545054</v>
+        <v>0.001194155010579655</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01692758025960719</v>
+        <v>0.01425141298607954</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002298353276317581</v>
+        <v>0.00185473661193721</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.04105739999999999</v>
+        <v>0.01270631845173491</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002552555926636406</v>
+        <v>0.002298353276317581</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.05136894041938028</v>
+        <v>0.02965207877109383</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002282339437035322</v>
+        <v>0.002289214698009766</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01692758025960719</v>
+        <v>0.0479451778111461</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002298353276317581</v>
+        <v>0.002285042472279562</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02105739999999999</v>
+        <v>0.01854571428007831</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003339937611111109</v>
+        <v>0.002472982149249613</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.04295166125800365</v>
+        <v>0.01652057224896231</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003048152983826469</v>
+        <v>0.003064471035090108</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.06104114905219343</v>
+        <v>0.0366098140902304</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003043119249380429</v>
+        <v>0.003052286264013021</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02105739999999999</v>
+        <v>0.0590843895098721</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003339937611111109</v>
+        <v>0.003046723296372749</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003339937611111109</v>
+        <v>0.005500366387855851</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02105739999999999</v>
+        <v>0.03467831698122778</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02205952914580805</v>
+        <v>0.02254954997566062</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003830588793862635</v>
+        <v>0.003091227686562017</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.04524547996580547</v>
+        <v>0.01979912409549871</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004018472328295282</v>
+        <v>0.003830588793862635</v>
       </c>
       <c r="L70" s="172" t="n">
+        <v>0.04262507190960077</v>
+      </c>
+      <c r="M70" s="170" t="n">
+        <v>0.003815357830016277</v>
+      </c>
+      <c r="N70" s="171" t="n">
         <v>0.0662593112388658</v>
       </c>
-      <c r="M70" s="170" t="n">
-        <v>0.00356883387496244</v>
-      </c>
-      <c r="N70" s="171" t="n">
-        <v>0.02205952914580805</v>
-      </c>
       <c r="O70" s="172" t="n">
-        <v>0.003830588793862635</v>
+        <v>0.00389002892370906</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.023230887258191</v>
+        <v>0.02622549162418493</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004596706552635162</v>
+        <v>0.00370947322387442</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.04578807532760415</v>
+        <v>0.02204054568379446</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004572229475739704</v>
+        <v>0.004596706552635162</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.06922704597343787</v>
+        <v>0.04524547996580547</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004564678874070644</v>
+        <v>0.004395204109072966</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.023230887258191</v>
+        <v>0.06866049805234148</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004596706552635162</v>
+        <v>0.004570084944559123</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02423164869274516</v>
+        <v>0.02953611077700964</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00549058389030059</v>
+        <v>0.004327718761186823</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.04771393544108979</v>
+        <v>0.02423164869274516</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005334267721696321</v>
+        <v>0.00549058389030059</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.072685195999039</v>
+        <v>0.0473665554558938</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005325458686415751</v>
+        <v>0.005341500962022787</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02423164869274516</v>
+        <v>0.07099927247316867</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00549058389030059</v>
+        <v>0.005331765768652311</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02447577675053467</v>
+        <v>0.03244397898549325</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006128942070180216</v>
+        <v>0.004945964298499227</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.04822887324851574</v>
+        <v>0.02498982322584514</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006096305967652938</v>
+        <v>0.006128942070180216</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.07546081167521324</v>
+        <v>0.04876194935209779</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006086238498760858</v>
+        <v>0.006104572528026042</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.02447577675053467</v>
+        <v>0.07366004682797661</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006128942070180216</v>
+        <v>0.006093446592745497</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02544543588782378</v>
+        <v>0.03467831698122778</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006895059828952743</v>
+        <v>0.005500366387855851</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.04963218814671777</v>
+        <v>0.02589721329642033</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006858344213609556</v>
+        <v>0.006895059828952743</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.07765494256535843</v>
+        <v>0.05070706944378509</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006847018311105965</v>
+        <v>0.006867644094029297</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.02544543588782378</v>
+        <v>0.07674370134308017</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006895059828952743</v>
+        <v>0.006855127416838685</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02621093085020035</v>
+        <v>0.03711204696451258</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00766117758772527</v>
+        <v>0.006182455373124033</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.05142317953253167</v>
+        <v>0.02668015705654384</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007620382459566174</v>
+        <v>0.00766117758772527</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.08106863823287214</v>
+        <v>0.05320240756622413</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007607798123451073</v>
+        <v>0.007630715660032554</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.02621093085020035</v>
+        <v>0.07865111624479459</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00766117758772527</v>
+        <v>0.007616808240931872</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0267717606463606</v>
+        <v>0.03916774627794463</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008427295346497797</v>
+        <v>0.006800700910436437</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.05240114680279329</v>
+        <v>0.02803880427087684</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008382420705522791</v>
+        <v>0.008427295346497797</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.08330294824115203</v>
+        <v>0.05464845555468334</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00836857793579618</v>
+        <v>0.008393787226035808</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0267717606463606</v>
+        <v>0.0810831717594348</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008427295346497797</v>
+        <v>0.008378489065025059</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02792742428500071</v>
+        <v>0.04107926578517998</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007418946447748841</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.02877330470408054</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009193413105270325</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.05416538935433829</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009144458951479409</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.08485892215359614</v>
+        <v>0.05624570524443109</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009129357748141288</v>
+        <v>0.009156858792039063</v>
       </c>
       <c r="N77" t="n">
-        <v>0.02792742428500071</v>
+        <v>0.08424074811331589</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009193413105270325</v>
+        <v>0.009140169889118246</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02867742077481687</v>
+        <v>0.04284532737055337</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008037191985061243</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.02978380812081624</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.009959530864042851</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.05521520658400253</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.009906497197436026</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.08773760953360171</v>
+        <v>0.05789464847073586</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009890137560486395</v>
+        <v>0.009919930358042318</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02867742077481687</v>
+        <v>0.08672472553275312</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009959530864042851</v>
+        <v>0.009901850713211433</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02932124912450532</v>
+        <v>0.04446465291839954</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008655437522373646</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.03037046428574512</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01072564862281538</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.05664989788862176</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01066853544339264</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.09024005994456674</v>
+        <v>0.0595957770688661</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0106509173728315</v>
+        <v>0.01068300192404557</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02932124912450532</v>
+        <v>0.08843598424406129</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01072564862281538</v>
+        <v>0.01066353153730462</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02995840834276223</v>
+        <v>0.04593596431305326</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009273683059686051</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.03133342296352838</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.0114917663815879</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.05836876266503188</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01143057368934926</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.09216732294988883</v>
+        <v>0.06114958287409017</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01141169718517661</v>
+        <v>0.01144607349004883</v>
       </c>
       <c r="N80" t="n">
-        <v>0.02995840834276223</v>
+        <v>0.09037540447355569</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0114917663815879</v>
+        <v>0.01142521236139781</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03048839743828385</v>
+        <v>0.04725798343884929</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009891928596998454</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.03247283391882727</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01225788414036043</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.05957110031006849</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01219261193530588</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.09412044811296583</v>
+        <v>0.06205655772167648</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01217247699752172</v>
+        <v>0.01220914505605208</v>
       </c>
       <c r="N81" t="n">
-        <v>0.03048839743828385</v>
+        <v>0.09284386644755127</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01225788414036043</v>
+        <v>0.01218689318549099</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03151071541976633</v>
+        <v>0.04842943218012236</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01051017413431086</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.03318884691630301</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01302400189913296</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.06045621022056757</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01295465018126249</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.09680048499719524</v>
+        <v>0.06401719344689347</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01293325680986682</v>
+        <v>0.01297221662205534</v>
       </c>
       <c r="N82" t="n">
-        <v>0.03151071541976633</v>
+        <v>0.09504225039236314</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01302400189913296</v>
+        <v>0.01294857400958418</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.03232486129590588</v>
+        <v>0.04962241094342973</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01124380819392793</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.03408161172061683</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01379011965790549</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.06242339179336473</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01371668842721911</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.098908483165975</v>
+        <v>0.06543198188500962</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01369403662221193</v>
+        <v>0.01373528818805859</v>
       </c>
       <c r="N83" t="n">
-        <v>0.03232486129590588</v>
+        <v>0.0974714365343064</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01379011965790549</v>
+        <v>0.01371025483367737</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03273033407539871</v>
+        <v>0.05035612466316977</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01174666520893566</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.03455127809642995</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01455623741667801</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.06367194442529583</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01447872667317573</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.1007454921827026</v>
+        <v>0.06660141487129334</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01445481643455704</v>
+        <v>0.01449835975406185</v>
       </c>
       <c r="N84" t="n">
-        <v>0.03273033407539871</v>
+        <v>0.09923230509969611</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01455623741667801</v>
+        <v>0.01447193565777056</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03342663276694106</v>
+        <v>0.05123046860977183</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01236491074624807</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.03519799580840359</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01532235517545054</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.06500116751319671</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01524076491913235</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.102312561610776</v>
+        <v>0.06792598424101301</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01521559624690215</v>
+        <v>0.01526143132006511</v>
       </c>
       <c r="N85" t="n">
-        <v>0.03342663276694106</v>
+        <v>0.1015257363148473</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01532235517545054</v>
+        <v>0.01523361648186374</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03441325637922908</v>
+        <v>0.0520747355267232</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01298315628356047</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.03592191462119898</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01608847293422307</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.06611036045390309</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01600280316508896</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.1037107410135926</v>
+        <v>0.06960618182943701</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01597637605924725</v>
+        <v>0.01602450288606836</v>
       </c>
       <c r="N86" t="n">
-        <v>0.03441325637922908</v>
+        <v>0.1023526104060751</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01608847293422307</v>
+        <v>0.01599529730595693</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03508970392095899</v>
+        <v>0.05288946849657851</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01360140182087287</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.03672318429947732</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01685459069299559</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.06729882264425077</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01676484141104558</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1054410799545504</v>
+        <v>0.07054249947183386</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01673715587159236</v>
+        <v>0.01678757445207162</v>
       </c>
       <c r="N87" t="n">
-        <v>0.03508970392095899</v>
+        <v>0.1045138075996946</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01685459069299559</v>
+        <v>0.01675697813005012</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03575547440082699</v>
+        <v>0.05367521060189225</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01421964735818528</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.03770195460789985</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01762070845176812</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.06776585348107553</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0175268796570022</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1077046279970469</v>
+        <v>0.07223542900347193</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01749793568393747</v>
+        <v>0.01755064601807487</v>
       </c>
       <c r="N88" t="n">
-        <v>0.03575547440082699</v>
+        <v>0.1066102081220209</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01762070845176812</v>
+        <v>0.01751865895414331</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0364100668275293</v>
+        <v>0.05443250492521899</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01483789289549768</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.03825837531112782</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01838682621054065</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06951075236121312</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01828891790295882</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1090024347044799</v>
+        <v>0.07278546225961968</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01825871549628258</v>
+        <v>0.01831371758407813</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0364100668275293</v>
+        <v>0.1085426921993689</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01838682621054065</v>
+        <v>0.01828033977823649</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0366529802097621</v>
+        <v>0.05516189454911327</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01545613843281008</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.03879259617382239</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01915294396931317</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.06993281868149942</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01905095614891543</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1100355496402471</v>
+        <v>0.07439309107554551</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01901949530862768</v>
+        <v>0.01907678915008138</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0366529802097621</v>
+        <v>0.1096121400580539</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01915294396931317</v>
+        <v>0.01904202060232968</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03728371355622159</v>
+        <v>0.05586392255612967</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01607438397012249</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.03930476696064486</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.0199190617280857</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.07123135183877013</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.01981299439487205</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1116050223677463</v>
+        <v>0.07535880728651781</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01978027512097279</v>
+        <v>0.01983986071608464</v>
       </c>
       <c r="N91" t="n">
-        <v>0.03728371355622159</v>
+        <v>0.1114194319243907</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0199190617280857</v>
+        <v>0.01980370142642287</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03810176587560399</v>
+        <v>0.05653913202882271</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01669262950743489</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.03999503743625638</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02068517948685823</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.07290565122986109</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02057503264082867</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.113911902450375</v>
+        <v>0.07618310272780507</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0205410549333179</v>
+        <v>0.02060293228208789</v>
       </c>
       <c r="N92" t="n">
-        <v>0.03810176587560399</v>
+        <v>0.1127654480246948</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02068517948685823</v>
+        <v>0.02056538225051606</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0387066361766055</v>
+        <v>0.05718806604974697</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01731087504474729</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.04036355736531823</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02145129724563076</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.07335501625160809</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02133707088678528</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1151572394515311</v>
+        <v>0.07686646923467566</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02130183474566301</v>
+        <v>0.02136600384809115</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0387066361766055</v>
+        <v>0.1143510685852808</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02145129724563076</v>
+        <v>0.02132706307460924</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03929782346792234</v>
+        <v>0.05781126770145698</v>
       </c>
       <c r="G94" t="n">
+        <v>0.0179291205820597</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.04121047651249161</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02221741500440328</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.07477874630084688</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.0220991091327419</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1167420829346122</v>
+        <v>0.07790939864239804</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02206261455800811</v>
+        <v>0.0221290754140944</v>
       </c>
       <c r="N94" t="n">
-        <v>0.03929782346792234</v>
+        <v>0.1158771738324641</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02221741500440328</v>
+        <v>0.02208874389870243</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03997482675825065</v>
+        <v>0.05840928006650731</v>
       </c>
       <c r="G95" t="n">
+        <v>0.0185473661193721</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.04163594464243774</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02298353276317581</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07537614077441324</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02286114737869852</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1178674824630161</v>
+        <v>0.07851238278624059</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02282339437035322</v>
+        <v>0.02289214698009766</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03997482675825065</v>
+        <v>0.1167446439925596</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02298353276317581</v>
+        <v>0.02285042472279562</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04043714505628669</v>
+        <v>0.05898264622745247</v>
       </c>
       <c r="G96" t="n">
+        <v>0.0191656116566845</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.04224011151981784</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02374965052194834</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.07674649906914294</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02362318562465514</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1187344876001404</v>
+        <v>0.07977591350147178</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02358417418269832</v>
+        <v>0.02365521854610091</v>
       </c>
       <c r="N96" t="n">
-        <v>0.04043714505628669</v>
+        <v>0.1180543592918824</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02374965052194834</v>
+        <v>0.0236121055468888</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04118427737072666</v>
+        <v>0.05953190926684705</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01978385719399691</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.04262312690929317</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02451576828072086</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.07768912058187183</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02438522387061175</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.119344147909383</v>
+        <v>0.08020048262335999</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02434495399504343</v>
+        <v>0.02441829011210417</v>
       </c>
       <c r="N97" t="n">
-        <v>0.04118427737072666</v>
+        <v>0.1190071999567477</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02451576828072086</v>
+        <v>0.02437378637098199</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04141572271026674</v>
+        <v>0.0600576122672456</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02040210273130931</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.04328514057552491</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02528188603949339</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.07880330470943567</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02514726211656837</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1213975129541414</v>
+        <v>0.0817865819871737</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02510573380738854</v>
+        <v>0.02518136167810742</v>
       </c>
       <c r="N98" t="n">
-        <v>0.04141572271026674</v>
+        <v>0.1206040462134704</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02528188603949339</v>
+        <v>0.02513546719507518</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04183098008360314</v>
+        <v>0.06056029831120265</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02102034826862171</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.04352630228317429</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02604800379826592</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.07908835084867016</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02590930036252499</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1219956322978134</v>
+        <v>0.08243470342818127</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02586651361973365</v>
+        <v>0.02594443324411068</v>
       </c>
       <c r="N99" t="n">
-        <v>0.04183098008360314</v>
+        <v>0.1217457782883657</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02604800379826592</v>
+        <v>0.02589714801916836</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04242954849943208</v>
+        <v>0.06104051048127278</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02163859380593412</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.04384676179690257</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02681412155703845</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.08014355839641124</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.0266713386084816</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1227395555037966</v>
+        <v>0.08244533878165106</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02662729343207875</v>
+        <v>0.02670750481011393</v>
       </c>
       <c r="N100" t="n">
-        <v>0.04242954849943208</v>
+        <v>0.1224332764077487</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02681412155703845</v>
+        <v>0.02665882884326155</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04321092696644971</v>
+        <v>0.0614987918600105</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02225683934324652</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.04434666888137091</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02758023931581097</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.08146822674949461</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02743337685443822</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1242303321354888</v>
+        <v>0.08401897988285167</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02738807324442386</v>
+        <v>0.02747057637611719</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04321092696644971</v>
+        <v>0.1226674207979344</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02758023931581097</v>
+        <v>0.02742050966735474</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0434746144933523</v>
+        <v>0.06193568552997041</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02287508488055892</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.04492617330124059</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.0283463570745835</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.08216165530475611</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02819541510039484</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1240690117562879</v>
+        <v>0.08375611856705145</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02814885305676897</v>
+        <v>0.02823364794212044</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0434746144933523</v>
+        <v>0.1235490916852378</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0283463570745835</v>
+        <v>0.02818219049144792</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.043720110088836</v>
+        <v>0.06235173457370705</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02349333041787133</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.04488542482117282</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02911247483335602</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.08232314345903141</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02895745334635146</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1258566439295913</v>
+        <v>0.08475724666951884</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02890963286911408</v>
+        <v>0.0289967195081237</v>
       </c>
       <c r="N103" t="n">
-        <v>0.043720110088836</v>
+        <v>0.1241791692959742</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02911247483335602</v>
+        <v>0.02894387131554111</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04434691276159704</v>
+        <v>0.06274748207377495</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02411157595518373</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.04562457320582883</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.02987859259212855</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.08335199060915643</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.02971949159230807</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1258942782187968</v>
+        <v>0.08582285602552214</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02967041268145918</v>
+        <v>0.02975979107412696</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04434691276159704</v>
+        <v>0.1255585338564584</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02987859259212855</v>
+        <v>0.0297055521396343</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04495452152033164</v>
+        <v>0.06312347111272865</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02472982149249613</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.04554376821986979</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03064471035090108</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.0837474961519668</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03048152983826469</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1267829641873022</v>
+        <v>0.08635343847032989</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03043119249380429</v>
+        <v>0.03052286264013021</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04495452152033164</v>
+        <v>0.1255880655930056</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03064471035090108</v>
+        <v>0.03046723296372749</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04494243537373595</v>
+        <v>0.06348024477312272</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02534806702980854</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.04604315962795698</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03141082810967361</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.08510895948429842</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03124356808422131</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1266237513985052</v>
+        <v>0.08624948583921049</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0311919723061494</v>
+        <v>0.03128593420613347</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04494243537373595</v>
+        <v>0.1274686447319309</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03141082810967361</v>
+        <v>0.03122891378782067</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04541015333050621</v>
+        <v>0.06381834613751175</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02596631256712094</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.04622289719475163</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03217694586844613</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.08523568000298709</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03200560633017793</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1277176894158034</v>
+        <v>0.08681148996743232</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03195275211849451</v>
+        <v>0.03204900577213672</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04541015333050621</v>
+        <v>0.1273011514995494</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03217694586844613</v>
+        <v>0.03199059461191386</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04595717439933861</v>
+        <v>0.06413831828845021</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02658455810443335</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.0464831306849149</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03294306362721866</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.08572695710486855</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03276764457613455</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1284658278025946</v>
+        <v>0.08733994269026396</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03271353193083961</v>
+        <v>0.03281207733813998</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04595717439933861</v>
+        <v>0.1283864661221761</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03294306362721866</v>
+        <v>0.03275227543600705</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04628299758892937</v>
+        <v>0.06444072770272864</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02720280364174575</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0467240098631081</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03370918138599119</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.0859820901867786</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03352968282209116</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1293692161222765</v>
+        <v>0.08803533584297357</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03347431174318472</v>
+        <v>0.03357514890414323</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04628299758892937</v>
+        <v>0.1290254688261262</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03370918138599119</v>
+        <v>0.03351395626010024</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04638712190797466</v>
+        <v>0.06473452584723535</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02782104917905815</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.04714568449399237</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03447529914476372</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.08650037864555304</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03429172106804778</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1294289039382468</v>
+        <v>0.08799816126082982</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03423509155552983</v>
+        <v>0.03433822047014649</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04638712190797466</v>
+        <v>0.1285190398377145</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03447529914476372</v>
+        <v>0.03427563708419343</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0465690463651707</v>
+        <v>0.06502658101384738</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02843929471637056</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.04734830434222898</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03524141690353624</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.08698112187802753</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.0350537593140044</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1303459408139032</v>
+        <v>0.08802891077910102</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03499587136787494</v>
+        <v>0.03510129203614974</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0465690463651707</v>
+        <v>0.1290680593832564</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03524141690353624</v>
+        <v>0.03503731790828661</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04712826996921371</v>
+        <v>0.06531675683179809</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02905754025368296</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04723201917247914</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03600753466230877</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.08742361928103803</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03581579755996102</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1304213763126433</v>
+        <v>0.0884280762330556</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03575665118022004</v>
+        <v>0.035864363602153</v>
       </c>
       <c r="N112" t="n">
-        <v>0.04712826996921371</v>
+        <v>0.1297734076890668</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03600753466230877</v>
+        <v>0.0357989987323798</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04706429172879986</v>
+        <v>0.06560491693032089</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02967578579099536</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0473969787494041</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.0367736524210813</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.08852717025142032</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03657783580591763</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.130156259997865</v>
+        <v>0.089196149457962</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03651743099256515</v>
+        <v>0.03662743516815625</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04706429172879986</v>
+        <v>0.1299359649814608</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0367736524210813</v>
+        <v>0.03656067955647298</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04757661065262539</v>
+        <v>0.06589092493864918</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03029403132830776</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04784333283766502</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03753977017985383</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.08859107418601009</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03733987405187425</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.131051641432966</v>
+        <v>0.08933362228908853</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03727821080491026</v>
+        <v>0.03739050673415951</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04757661065262539</v>
+        <v>0.1304566114867535</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03753977017985383</v>
+        <v>0.03732236038056617</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04756472574938644</v>
+        <v>0.06617464448601634</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03091227686562016</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04797123120192322</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03830588793862635</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.08881463048164312</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03810191229783087</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1314085701813438</v>
+        <v>0.08894098656170385</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03803899061725537</v>
+        <v>0.03815357830016276</v>
       </c>
       <c r="N115" t="n">
-        <v>0.04756472574938644</v>
+        <v>0.1310362274312599</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03830588793862635</v>
+        <v>0.03808404120465936</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04802813602777929</v>
+        <v>0.06645593920165579</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03153052240293257</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04798082360683983</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03907200569739887</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.0892971385351552</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03886395054378749</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1306280958063963</v>
+        <v>0.08911873411107613</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03879977042960047</v>
+        <v>0.03891664986616602</v>
       </c>
       <c r="N116" t="n">
-        <v>0.04802813602777929</v>
+        <v>0.1317756930412952</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03907200569739887</v>
+        <v>0.03884572202875255</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04786634049650011</v>
+        <v>0.06673467271480092</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03214876794024497</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.04797225981707613</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.0398381234561714</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.08963789774338221</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0396259887897441</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1316112678715213</v>
+        <v>0.08946735677247403</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03956055024194558</v>
+        <v>0.03967972143216927</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04786634049650011</v>
+        <v>0.1320758885431743</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0398381234561714</v>
+        <v>0.03960740285284573</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04787883816424508</v>
+        <v>0.06701070865468511</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03276701347755737</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.04794568959729334</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04060424121494393</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.08963620750315981</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04038802703570072</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1314591359401162</v>
+        <v>0.0902873463811657</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04032133005429069</v>
+        <v>0.04044279299817253</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04787883816424508</v>
+        <v>0.1320376941632125</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04060424121494393</v>
+        <v>0.04036908367693892</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04826512803971042</v>
+        <v>0.06728391065054179</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03338525901486979</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.04820126271215264</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04137035897371646</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.08999136721132389</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04115006528165734</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.131572749575579</v>
+        <v>0.09007919477241977</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0410821098666358</v>
+        <v>0.04120586456417578</v>
       </c>
       <c r="N119" t="n">
-        <v>0.04826512803971042</v>
+        <v>0.1320619901277246</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04137035897371646</v>
+        <v>0.04113076450103211</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04822470913159235</v>
+        <v>0.06755414233160437</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03400350455218219</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.04833912892631528</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04213647673248899</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.08990267626471021</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04191210352761395</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1322531583413072</v>
+        <v>0.0902433937815047</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0418428896789809</v>
+        <v>0.04196893613017904</v>
       </c>
       <c r="N120" t="n">
-        <v>0.04822470913159235</v>
+        <v>0.1324496566630259</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04213647673248899</v>
+        <v>0.0418924453251253</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
+        <v>0.06782126732710617</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.03462175008949459</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.04846329738549032</v>
       </c>
-      <c r="G121" t="n">
+      <c r="K121" t="n">
         <v>0.04290259449126151</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.09049095993161094</v>
       </c>
-      <c r="K121" t="n">
-        <v>0.04267414177357057</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
+        <v>0.04273200769618229</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.1325186224777316</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.04260366949132601</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.04846329738549032</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.04290259449126151</v>
+        <v>0.04265412614921849</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04826290788163692</v>
+        <v>0.06808514926628065</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03523999562680699</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04806263548477539</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04366871225003404</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.08979094469681476</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04343618001952718</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1325185595171511</v>
+        <v>0.09029071710722353</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04336444930367112</v>
+        <v>0.04349507926218555</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04826290788163692</v>
+        <v>0.1319186223092913</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04366871225003404</v>
+        <v>0.04341580697331167</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04845710217371352</v>
+        <v>0.06834565177836122</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03585824116411939</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04815279403947736</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04443483000880657</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.09017259421484575</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04419821826548381</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1317084235558541</v>
+        <v>0.08956516633207018</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04412522911601622</v>
+        <v>0.04425815082818881</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04845710217371352</v>
+        <v>0.1316961251775112</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04443483000880657</v>
+        <v>0.04417748779740486</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0482444750027248</v>
+        <v>0.06860263849258119</v>
       </c>
       <c r="G124" t="n">
+        <v>0.0364764867014318</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04813146147138544</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04520094776757909</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.08982049998282926</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04496025651144042</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1316752313943139</v>
+        <v>0.0902988259908809</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04488600892836133</v>
+        <v>0.04502122239419206</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0482444750027248</v>
+        <v>0.1323299174402884</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04520094776757909</v>
+        <v>0.04493916862149804</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04822519908584498</v>
+        <v>0.06885597303817409</v>
       </c>
       <c r="G125" t="n">
+        <v>0.0370947322387442</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04799901385052568</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04596706552635162</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.08993599576266409</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04572229475739704</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1324194439251445</v>
+        <v>0.08949350806966694</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04564678874070643</v>
+        <v>0.04578429396019532</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04822519908584498</v>
+        <v>0.1318215541171299</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04596706552635162</v>
+        <v>0.04570084944559123</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04829944714024813</v>
+        <v>0.06910551904437318</v>
       </c>
       <c r="G126" t="n">
+        <v>0.0377129777760566</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04805582724692418</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04673318328512415</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.08962041531624948</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04648433300335366</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1317415083194353</v>
+        <v>0.08985102455443983</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04640756855305155</v>
+        <v>0.04654736552619857</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04829944714024813</v>
+        <v>0.1308725902275429</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04673318328512415</v>
+        <v>0.04646253026968442</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04826739188310841</v>
+        <v>0.06935114014041197</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03833122331336901</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04820227773060697</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04749930104389668</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.08957509240548417</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04724637124931028</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1322418717482756</v>
+        <v>0.08927318743121077</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04716834836539665</v>
+        <v>0.04731043709220183</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04826739188310841</v>
+        <v>0.1317845807910349</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04749930104389668</v>
+        <v>0.04722421109377761</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04792920603159996</v>
+        <v>0.06959269995552381</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03894946885068142</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04793874137160013</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.0482654188026692</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.08900136079226723</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04800840949526689</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1317209813827547</v>
+        <v>0.08956180868599095</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04792912817774176</v>
+        <v>0.04807350865820508</v>
       </c>
       <c r="N128" t="n">
-        <v>0.04792920603159996</v>
+        <v>0.1314590808271126</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0482654188026692</v>
+        <v>0.04798589191787079</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0480850623028969</v>
+        <v>0.06983006211894208</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03956771438799381</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0479655942399297</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04903153656144173</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.08880055423849786</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04877044774122351</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1319792843939621</v>
+        <v>0.08901870030479186</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04868990799008686</v>
+        <v>0.04883658022420834</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0480850623028969</v>
+        <v>0.1312976453552834</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04903153656144173</v>
+        <v>0.04874757274196398</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04793513341417337</v>
+        <v>0.07006309025990018</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04018595992530621</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04768321240562179</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.04979765432021425</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.0893740065060748</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.04953248598718013</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.130617227952987</v>
+        <v>0.08924567427362473</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04945068780243198</v>
+        <v>0.04959965179021159</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04793513341417337</v>
+        <v>0.1301018293950546</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04979765432021425</v>
+        <v>0.04950925356605717</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04807959208260351</v>
+        <v>0.07029164800763155</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04080420546261862</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04779197193870242</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05056377207898678</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.08922305135689723</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05029452423313675</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1308352592309187</v>
+        <v>0.08844454257850098</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05021146761477708</v>
+        <v>0.05036272335621485</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04807959208260351</v>
+        <v>0.1296731879659332</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05056377207898678</v>
+        <v>0.05027093439015035</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04771861102536146</v>
+        <v>0.07051559899136958</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04142245099993103</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04759224890919771</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.0513298898377593</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.08804902255286406</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05105656247909336</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1306338253988467</v>
+        <v>0.08831711720543173</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05097224742712219</v>
+        <v>0.0511257949222181</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04771861102536146</v>
+        <v>0.1301132760874263</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0513298898377593</v>
+        <v>0.05103261521424354</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04775236295962135</v>
+        <v>0.07073480684034761</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04204069653724343</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04768441938713365</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05209600759653184</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.08775325385587435</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05181860072504998</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1307133736278601</v>
+        <v>0.08806521014042851</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05173302723946729</v>
+        <v>0.05188886648822136</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04775236295962135</v>
+        <v>0.1295236487790415</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05209600759653184</v>
+        <v>0.05179429603833673</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04798102060255731</v>
+        <v>0.07094913518379911</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04265894207455583</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.04746885944253637</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05286212535530436</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.08823707902782707</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.0525806389710066</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1306743510890484</v>
+        <v>0.08709063336950246</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05249380705181241</v>
+        <v>0.05265193805422461</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04798102060255731</v>
+        <v>0.1290058610602856</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05286212535530436</v>
+        <v>0.05255597686242992</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04790475667134347</v>
+        <v>0.07115844765095744</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04327718761186824</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.04724594514543191</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05362824311407689</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.08750183183062116</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05334267721696321</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.130317204953501</v>
+        <v>0.08689519887866504</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05325458686415751</v>
+        <v>0.05341500962022787</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04790475667134347</v>
+        <v>0.1290614679506658</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05362824311407689</v>
+        <v>0.0533176576865231</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.047623743883154</v>
+        <v>0.07136260787105597</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04389543314918064</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04731605256584634</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05439436087284941</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.08704884602615581</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05410471546291983</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.129842382392307</v>
+        <v>0.08708071865392747</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05401536667650262</v>
+        <v>0.05417808118623112</v>
       </c>
       <c r="N136" t="n">
-        <v>0.047623743883154</v>
+        <v>0.1282920244696895</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05439436087284941</v>
+        <v>0.05407933851061628</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04753815495516299</v>
+        <v>0.07156147947332817</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04451367868649304</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04697955777380572</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05516047863162194</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.08637945537632979</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05486675370887645</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1296503305765559</v>
+        <v>0.08584900468130108</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05477614648884772</v>
+        <v>0.05494115275223438</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04753815495516299</v>
+        <v>0.1277990856368637</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05516047863162194</v>
+        <v>0.05484101933470948</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04744816260454462</v>
+        <v>0.0717549260870074</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04513192422380544</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04683683683933612</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05592659639039448</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.08669499364304234</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05562879195483307</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.129741496677337</v>
+        <v>0.08610186894679722</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05553692630119283</v>
+        <v>0.05570422431823763</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04744816260454462</v>
+        <v>0.1272842064716956</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05592659639039448</v>
+        <v>0.05560270015880266</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04725393954847298</v>
+        <v>0.07194281134132705</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04575016976111784</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0468882658324636</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.056692714149167</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.08599679458819226</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05639083020078968</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1293163278657397</v>
+        <v>0.08564112343642721</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05629770611353794</v>
+        <v>0.05646729588424088</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04725393954847298</v>
+        <v>0.1265489419936925</v>
       </c>
       <c r="O139" t="n">
-        <v>0.056692714149167</v>
+        <v>0.05636438098289585</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04725565850412224</v>
+        <v>0.07212499886552051</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04636841529843026</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04643422082321422</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05745883190793952</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.08608619197367862</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.0571528684467463</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1282752713128531</v>
+        <v>0.08456858013620233</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05705848592588305</v>
+        <v>0.05723036745024414</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04725565850412224</v>
+        <v>0.1257948472223615</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05745883190793952</v>
+        <v>0.05712606180698904</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04695349218866653</v>
+        <v>0.0723013522888212</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04698666083574266</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04627507788161404</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05822494966671204</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.08476451956140046</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05791490669270292</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1278187741897668</v>
+        <v>0.08398605103213386</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05781926573822815</v>
+        <v>0.0579934390162474</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04695349218866653</v>
+        <v>0.1256234771772097</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05822494966671204</v>
+        <v>0.05788774263108223</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04694761331927998</v>
+        <v>0.07247173524046252</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04760490637305505</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04641121307768915</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05899106742548458</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.08443311111325674</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05867694493865954</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1284472836675701</v>
+        <v>0.0837953481102332</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05858004555057326</v>
+        <v>0.05875651058225065</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04694761331927998</v>
+        <v>0.1245363868777445</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05899106742548458</v>
+        <v>0.05864942345517541</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04683819461313672</v>
+        <v>0.07263601134967784</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04822315191036747</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04604300248146562</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.0597571851842571</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.08439330039114651</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.05943898318461615</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1267612469173521</v>
+        <v>0.08379828335651168</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05934082536291837</v>
+        <v>0.05951958214825391</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04683819461313672</v>
+        <v>0.1246351313434728</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0597571851842571</v>
+        <v>0.0594111042792686</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04662540878741087</v>
+        <v>0.07279404424570057</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04884139744767987</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.04607082216296947</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06052330294302963</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.0840464211569687</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06020102143057277</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1265611111102024</v>
+        <v>0.08319666875698056</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06010160517526347</v>
+        <v>0.06028265371425717</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04662540878741087</v>
+        <v>0.123421265593902</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06052330294302963</v>
+        <v>0.06017278510336179</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0469094285592766</v>
+        <v>0.07294569755776412</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04945964298499227</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.04569504819222682</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06128942070180216</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.08349380717262239</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06096305967652939</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1261473234172102</v>
+        <v>0.08199231629765108</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06086238498760858</v>
+        <v>0.06104572528026043</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0469094285592766</v>
+        <v>0.1235963446485393</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06128942070180216</v>
+        <v>0.06093446592745497</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04669042664590803</v>
+        <v>0.07309083491510188</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05007788852230467</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.04551605663926368</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06205553846057468</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.08333679220000656</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06172509792248601</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.125920331009465</v>
+        <v>0.08228703796453474</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06162316479995369</v>
+        <v>0.06180879684626368</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04669042664590803</v>
+        <v>0.1225619235268917</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06205553846057468</v>
+        <v>0.06169614675154816</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0465685757644793</v>
+        <v>0.07322931994694723</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05069613405961707</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.04533422357410616</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06282165621934721</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.08247671000102019</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06248713616844262</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1258805810580559</v>
+        <v>0.08158264574364277</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0623839446122988</v>
+        <v>0.06257186841226693</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0465685757644793</v>
+        <v>0.1212195572484665</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06282165621934721</v>
+        <v>0.06245782757564135</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04634404863216454</v>
+        <v>0.07336101628253361</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05131437959692948</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.04504992506678029</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06358777397811974</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.08181489433756228</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06324917441439924</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1256285207340724</v>
+        <v>0.08118095162098637</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0631447244246439</v>
+        <v>0.06333493997827019</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04634404863216454</v>
+        <v>0.1216708008327709</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06358777397811974</v>
+        <v>0.06321950839973454</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04621701796613788</v>
+        <v>0.07348578755109436</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05193262513424188</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.04516353718731216</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06435389173689227</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.08185267897153181</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06401121266035585</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1242645972086037</v>
+        <v>0.08008376758257707</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06390550423698901</v>
+        <v>0.06409801154427344</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04621701796613788</v>
+        <v>0.121017209299312</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06435389173689227</v>
+        <v>0.06398118922382773</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04628765648357348</v>
+        <v>0.07360349738186295</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05255087067155428</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.04467543600572782</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06512000949566479</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.08079139766482785</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06477325090631247</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1244892576527393</v>
+        <v>0.08029290561442598</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06466628404933412</v>
+        <v>0.06486108311027669</v>
       </c>
       <c r="N150" t="n">
-        <v>0.04628765648357348</v>
+        <v>0.119360337667597</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06512000949566479</v>
+        <v>0.06474287004792091</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04615613690164545</v>
+        <v>0.07371400940407272</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05316911620886669</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.04488599759205335</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06588612725443732</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.08083238417934935</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.0655352891522691</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1234029492375683</v>
+        <v>0.07961017770254455</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06542706386167922</v>
+        <v>0.06562415467627995</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04615613690164545</v>
+        <v>0.1191017409571331</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06588612725443732</v>
+        <v>0.06550455087201411</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04592263193752794</v>
+        <v>0.07381718724695707</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05378736174617909</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.04439559801631481</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06665224501320985</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.08067697227699538</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06629732739822571</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1240061191341803</v>
+        <v>0.07903739583294409</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06618784367402433</v>
+        <v>0.06638722624228321</v>
       </c>
       <c r="N152" t="n">
-        <v>0.04592263193752794</v>
+        <v>0.1179429741874275</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06665224501320985</v>
+        <v>0.06626623169610729</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04568731430839505</v>
+        <v>0.07391289453974945</v>
       </c>
       <c r="G153" t="n">
+        <v>0.0544056072834915</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.04410461334853825</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06741836277198238</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.08012649571966485</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06705936564418233</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1224992145136645</v>
+        <v>0.07807637199163583</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06694862348636944</v>
+        <v>0.06715029780828646</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04568731430839505</v>
+        <v>0.1184855923779873</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06741836277198238</v>
+        <v>0.06702791252020047</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04545035673142099</v>
+        <v>0.07400099491168319</v>
       </c>
       <c r="G154" t="n">
+        <v>0.0550238528208039</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.04431341965874977</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.0681844805307549</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.07918228826925686</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06782140389013894</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1228826825471102</v>
+        <v>0.07782891816463117</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06770940329871455</v>
+        <v>0.06791336937428973</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04545035673142099</v>
+        <v>0.1170311505483198</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0681844805307549</v>
+        <v>0.06778959334429366</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04541193192377982</v>
+        <v>0.07408135199199173</v>
       </c>
       <c r="G155" t="n">
+        <v>0.0556420983581163</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.04402239301697539</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06895059828952743</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.07874568368767032</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06858344213609556</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1220569704056068</v>
+        <v>0.07759684633794137</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06847018311105965</v>
+        <v>0.06867644094029297</v>
       </c>
       <c r="N155" t="n">
-        <v>0.04541193192377982</v>
+        <v>0.1171812037179322</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06895059828952743</v>
+        <v>0.06855127416838686</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04537221260264571</v>
+        <v>0.07415382940990844</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05626034389542871</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.04373190949324121</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.06971671604829996</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.07831801573680428</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.06934548038205217</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1210225252602437</v>
+        <v>0.07698196849757782</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06923096292340476</v>
+        <v>0.06943951250629622</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04537221260264571</v>
+        <v>0.1161373069063316</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06971671604829996</v>
+        <v>0.06931295499248004</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04523137148519278</v>
+        <v>0.07421829079466674</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05687858943274111</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.04354234515757327</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07048283380707247</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.07800061817855772</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07010751862800879</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1212797942821101</v>
+        <v>0.07708609662955174</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06999174273574987</v>
+        <v>0.07020258407229948</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04523137148519278</v>
+        <v>0.1156010151330251</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07048283380707247</v>
+        <v>0.07007463581657322</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0449895812885952</v>
+        <v>0.07427459977550005</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05749683497005351</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.04314583693410366</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07124895156584501</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.07799482477482966</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07086955687396541</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1205292246422953</v>
+        <v>0.07640593486958136</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07075252254809498</v>
+        <v>0.07096565563830275</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0449895812885952</v>
+        <v>0.1146587023687096</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07124895156584501</v>
+        <v>0.07083631664066641</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04474701473002708</v>
+        <v>0.07432261998164169</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05811508050736592</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.04322923318788315</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07201506932461754</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.07759799028465855</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07163159511992204</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1189712635118887</v>
+        <v>0.07583316400561885</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07151330236044008</v>
+        <v>0.07172872720430599</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04474701473002708</v>
+        <v>0.1137867632239594</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07201506932461754</v>
+        <v>0.0715979974647596</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04450384452666255</v>
+        <v>0.07436221504232512</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05873332604467831</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.04299349259430889</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07278118708339006</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.07650235195244129</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07239363336587865</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1195063580619798</v>
+        <v>0.07556695452917619</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07227408217278519</v>
+        <v>0.07249179877030926</v>
       </c>
       <c r="N160" t="n">
-        <v>0.04450384452666255</v>
+        <v>0.1125859962861083</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07278118708339006</v>
+        <v>0.07235967828885279</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04446024339567575</v>
+        <v>0.07439324858678376</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05935157158199073</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.04263980829704225</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.0735473048421626</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.07620723935990487</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07315567161183527</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1180349554636577</v>
+        <v>0.07550661308378845</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0730348619851303</v>
+        <v>0.07325487033631251</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04446024339567575</v>
+        <v>0.1118575617652147</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0735473048421626</v>
+        <v>0.07312135911294597</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04421638405424082</v>
+        <v>0.07441558424425093</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05996981711930313</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.04226937343974463</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07431342260093511</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.07621221137354239</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07391770985779188</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1174575028880118</v>
+        <v>0.07535144631299051</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0737956417974754</v>
+        <v>0.07401794190231575</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04421638405424082</v>
+        <v>0.112202619871337</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07431342260093511</v>
+        <v>0.07388303993703917</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0441724392195319</v>
+        <v>0.07442908564396006</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06058806265661552</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.04208338116607734</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07507954035970765</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.07541682685984702</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.0746797481037485</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1174744475061315</v>
+        <v>0.07480076086031745</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07455642160982051</v>
+        <v>0.07478101346831902</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0441724392195319</v>
+        <v>0.1111223308145334</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07507954035970765</v>
+        <v>0.07464472076113235</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04432858160872312</v>
+        <v>0.07443361641514459</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06120630819392794</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.04198302461970181</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07584565811848017</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.07512064468531185</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07544178634970511</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1161862364891061</v>
+        <v>0.07375386336930412</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07531720142216562</v>
+        <v>0.07554408503432226</v>
       </c>
       <c r="N164" t="n">
-        <v>0.04432858160872312</v>
+        <v>0.1108178548048626</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07584565811848017</v>
+        <v>0.07540640158522553</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04398498393898859</v>
+        <v>0.07443361641514459</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06120630819392794</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.04126949694427938</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07661177587725269</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.07472322371642995</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07620382459566173</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1155933170080249</v>
+        <v>0.0735100604834856</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07607798123451073</v>
+        <v>0.07630715660032553</v>
       </c>
       <c r="N165" t="n">
-        <v>0.04398498393898859</v>
+        <v>0.1096903520523828</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07661177587725269</v>
+        <v>0.07616808240931872</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04394181892750249</v>
+        <v>0.07318954673367811</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06120603966546392</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.04094399128347143</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07737789363602524</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.07412412281969444</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07696586284161835</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1148961362339773</v>
+        <v>0.07356865884639677</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07683876104685583</v>
+        <v>0.07707022816632879</v>
       </c>
       <c r="N166" t="n">
-        <v>0.04394181892750249</v>
+        <v>0.1081409827671526</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07737789363602524</v>
+        <v>0.07692976323341191</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04389925929143894</v>
+        <v>0.07195947049681953</v>
       </c>
       <c r="G167" t="n">
+        <v>0.0612057711369999</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.04090770078093932</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07814401139479775</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.07382290086159843</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07772790108757498</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1142951413380525</v>
+        <v>0.07362896510157271</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07759954085920094</v>
+        <v>0.07783329973233204</v>
       </c>
       <c r="N167" t="n">
-        <v>0.04389925929143894</v>
+        <v>0.1072709071592304</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07814401139479775</v>
+        <v>0.0776914440575051</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04365747774797207</v>
+        <v>0.07074405897728481</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06120550260853588</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04036181858034445</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.07891012915357028</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.07321911670863504</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07848993933353159</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.11459077949134</v>
+        <v>0.07299028589254825</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07836032067154605</v>
+        <v>0.07859637129833529</v>
       </c>
       <c r="N168" t="n">
-        <v>0.04365747774797207</v>
+        <v>0.1060812854386745</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07891012915357028</v>
+        <v>0.07845312488159828</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04351664701427602</v>
+        <v>0.06954398344794829</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06120523408007186</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04030753782534814</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.0796762469123428</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.0737123292272974</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.07925197757948821</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1139834978649291</v>
+        <v>0.07295192786285848</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07912110048389116</v>
+        <v>0.07935944286433855</v>
       </c>
       <c r="N169" t="n">
-        <v>0.04351664701427602</v>
+        <v>0.1054732778155434</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0796762469123428</v>
+        <v>0.07921480570569146</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04327668505293605</v>
+        <v>0.0683599151815254</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06120496555160785</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0396460516596118</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08044236467111533</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.07310209728407854</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08001401582544482</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1136737436299091</v>
+        <v>0.07241319765603826</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07988188029623626</v>
+        <v>0.0801225144303418</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04327668505293605</v>
+        <v>0.1044480444998954</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08044236467111533</v>
+        <v>0.07997648652978466</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0429346686175022</v>
+        <v>0.06719252545078458</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06120469702314384</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03917855322679678</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08120848242988786</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.07228797974547166</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08077605407140144</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1125619639573692</v>
+        <v>0.07187340191562269</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08064266010858137</v>
+        <v>0.08088558599634506</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0429346686175022</v>
+        <v>0.103306745701789</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08120848242988786</v>
+        <v>0.08073816735387784</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04288965587072083</v>
+        <v>0.0660424855284448</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06120442849467981</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.03890623567056446</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08197460018866039</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.07216953547796981</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08153809231735805</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1116251182504076</v>
+        <v>0.07193184728514665</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08140343992092648</v>
+        <v>0.08164865756234832</v>
       </c>
       <c r="N172" t="n">
-        <v>0.04288965587072083</v>
+        <v>0.1031505416312826</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08197460018866039</v>
+        <v>0.08149984817797103</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04264156145905945</v>
+        <v>0.06491046668737466</v>
       </c>
       <c r="G173" t="n">
+        <v>0.0612041599662158</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03883029213457621</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08274071794743292</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.0715463233480661</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08230013056331467</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1112061170222027</v>
+        <v>0.07108784040814514</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08216421973327159</v>
+        <v>0.08241172912835157</v>
       </c>
       <c r="N173" t="n">
-        <v>0.04264156145905945</v>
+        <v>0.1019805924984347</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08274071794743292</v>
+        <v>0.08226152900206422</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04289030002898553</v>
+        <v>0.06379714020029234</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06120389143775178</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03845191576249342</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08350683570620544</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.07081790222225365</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08306216880927129</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1101082128319605</v>
+        <v>0.07124068792815313</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08292499954561669</v>
+        <v>0.08317480069435482</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04289030002898553</v>
+        <v>0.1008980585133036</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08350683570620544</v>
+        <v>0.08302320982615741</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04263578622696659</v>
+        <v>0.06270317733996639</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06120362290928777</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03807229969797742</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08427295346497797</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.07108383096702559</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.0838242070552279</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1089377969904701</v>
+        <v>0.07038969648870558</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0836857793579618</v>
+        <v>0.08393787226035808</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04263578622696659</v>
+        <v>0.1001040998859478</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08427295346497797</v>
+        <v>0.08378489065025059</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04257793469947008</v>
+        <v>0.06162924937911901</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06120335438082374</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.0375926370846896</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.0850390712237505</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.07074366844887492</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08458624530118453</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1088012608085203</v>
+        <v>0.06973417273333749</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08444655917030691</v>
+        <v>0.08470094382636133</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04257793469947008</v>
+        <v>0.09929987682642555</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0850390712237505</v>
+        <v>0.08454657147434377</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04201666009296351</v>
+        <v>0.06057602759061229</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06120308585235973</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03711412106629135</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08580518898252303</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.0699969735342949</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08534828354714113</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1080049955969001</v>
+        <v>0.06947342330558376</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08520733898265202</v>
+        <v>0.08546401539236459</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04201666009296351</v>
+        <v>0.09858654954479551</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08580518898252303</v>
+        <v>0.08530825229843697</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04205187705391433</v>
+        <v>0.05954418324716762</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06120281732389571</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.036537944786444</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08657130674129554</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.06964330508977856</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08611032179309776</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1067553926663984</v>
+        <v>0.06970675484897948</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08596811879499712</v>
+        <v>0.08622708695836785</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04205187705391433</v>
+        <v>0.09646527825111589</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08657130674129554</v>
+        <v>0.08606993312253015</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04178350022879011</v>
+        <v>0.05853438762155351</v>
       </c>
       <c r="G179" t="n">
+        <v>0.0612025487954317</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.03656530138880895</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08733742450006808</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.06858222198181899</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08687236003905437</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1060588433278042</v>
+        <v>0.06853347400705945</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08672889860734223</v>
+        <v>0.0869901585243711</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04178350022879011</v>
+        <v>0.09603722315544522</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08733742450006808</v>
+        <v>0.08683161394662334</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04191144426405823</v>
+        <v>0.05754731198649608</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06120228026696767</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03599738401704757</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08810354225884061</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.06821328307690933</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.087634398285011</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1036217388919064</v>
+        <v>0.06865288742335882</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08748967841968734</v>
+        <v>0.08775323009037436</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04191144426405823</v>
+        <v>0.09560354446784186</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08810354225884061</v>
+        <v>0.08759329477071652</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04133562380618627</v>
+        <v>0.05658362761484982</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06120201173850365</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03553538581482123</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08886966001761314</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.06753604724154266</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08839643653096761</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.102650470669494</v>
+        <v>0.06806430174141245</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08825045823203244</v>
+        <v>0.08851630165637761</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04133562380618627</v>
+        <v>0.09446540239836426</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08886966001761314</v>
+        <v>0.08835497559480972</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04135595350164166</v>
+        <v>0.05564400577933981</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06120174321003964</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.03548049992579128</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.08963577777638566</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.06735007334221219</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.08915847477692423</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1016514299713559</v>
+        <v>0.06746702360475534</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08901123804437755</v>
+        <v>0.08927937322238086</v>
       </c>
       <c r="N182" t="n">
-        <v>0.04135595350164166</v>
+        <v>0.09222395715707077</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08963577777638566</v>
+        <v>0.0891166564189029</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04097234799689191</v>
+        <v>0.0547291177527346</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06120147468157563</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.0350339194936191</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09040189553515818</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.06695492024541086</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.08992051302288084</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1010310081082811</v>
+        <v>0.06776035965692245</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08977201785672266</v>
+        <v>0.09004244478838412</v>
       </c>
       <c r="N183" t="n">
-        <v>0.04097234799689191</v>
+        <v>0.09208036895401983</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09040189553515818</v>
+        <v>0.08987833724299608</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04108472193840447</v>
+        <v>0.05383963480776463</v>
       </c>
       <c r="G184" t="n">
+        <v>0.0612012061531116</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03479683766196609</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09116801329393072</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.06625014681763189</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09068255126883747</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.09959559639105836</v>
+        <v>0.06684361654144882</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09053279766906777</v>
+        <v>0.09080551635438738</v>
       </c>
       <c r="N184" t="n">
-        <v>0.04108472193840447</v>
+        <v>0.09143579799926987</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09116801329393072</v>
+        <v>0.09064001806708928</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04059298997264689</v>
+        <v>0.05297622821727584</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06120093762464759</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03427044757449359</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09193413105270323</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.06643531192536833</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09144458951479408</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.09785158613047679</v>
+        <v>0.0670161009018693</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09129357748141287</v>
+        <v>0.09156858792039063</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04059298997264689</v>
+        <v>0.09039140450287941</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09193413105270323</v>
+        <v>0.09140169889118246</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04049706674608662</v>
+        <v>0.05213956925399754</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06120066909618357</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03385594237486296</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09270024881147576</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.06520997443511334</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.0922066277607507</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.09650536863732534</v>
+        <v>0.06637711938171895</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09205435729375798</v>
+        <v>0.09233165948639389</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04049706674608662</v>
+        <v>0.08924834867490672</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09270024881147576</v>
+        <v>0.09216337971527565</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04059686690519114</v>
+        <v>0.0513303291906983</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06120040056771956</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03345451520673559</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.0934663665702483</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.06507369321336001</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09296866600670732</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.09606333522239291</v>
+        <v>0.06592597862453267</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09281513710610309</v>
+        <v>0.09309473105239714</v>
       </c>
       <c r="N187" t="n">
-        <v>0.04059686690519114</v>
+        <v>0.08770779072541024</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0934663665702483</v>
+        <v>0.09292506053936883</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04029230509642795</v>
+        <v>0.05054917930011325</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06120013203925553</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.03326735921377287</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09423248432902082</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.06402602712660144</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09373070425266394</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.09463187719646837</v>
+        <v>0.06486198527384554</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0935759169184482</v>
+        <v>0.09385780261840039</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04029230509642795</v>
+        <v>0.08647089086444837</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09423248432902082</v>
+        <v>0.09368674136346203</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03988329596626454</v>
+        <v>0.049796790855079</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06119986351079152</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03299566753963612</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09499860208779336</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.0637665350413307</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09449274249862055</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.09351738587034075</v>
+        <v>0.06438444597319243</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0943366967307933</v>
+        <v>0.09462087418440365</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03988329596626454</v>
+        <v>0.08583880930207954</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09499860208779336</v>
+        <v>0.09444842218755521</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0396697541611684</v>
+        <v>0.04907109409785809</v>
       </c>
       <c r="G190" t="n">
+        <v>0.0611995949823275</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03264063332798675</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09576471984656587</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.06299477582404098</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09525478074457717</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.09152625255479896</v>
+        <v>0.06419266736610837</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09509747654313841</v>
+        <v>0.09538394575040691</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0396697541611684</v>
+        <v>0.08481270624836224</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09576471984656587</v>
+        <v>0.09521010301164839</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03975159432760698</v>
+        <v>0.04835631411838938</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06119932645386349</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03260344972248612</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.0965308376053384</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.06301030834122531</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09601681899053378</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.09056486856063206</v>
+        <v>0.06418595609612829</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09585825635548352</v>
+        <v>0.09614701731641016</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03975159432760698</v>
+        <v>0.08399374191335479</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0965308376053384</v>
+        <v>0.09597178383574158</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03952873111204783</v>
+        <v>0.04765038115893905</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06119905792539946</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03228530986679561</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09729695536411093</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.06161269145937684</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09677885723649041</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.08963962519862873</v>
+        <v>0.06326361880678716</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09661903616782863</v>
+        <v>0.09691008888241343</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03952873111204783</v>
+        <v>0.08238307650711557</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09729695536411093</v>
+        <v>0.09673346465983478</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03930107916095837</v>
+        <v>0.04695396649233714</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06119878939693545</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.03228168005585767</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09806307312288345</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.06100148404498867</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09754089548244702</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.08835691377957816</v>
+        <v>0.06249642847935347</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09737981598017373</v>
+        <v>0.09767316044841667</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03930107916095837</v>
+        <v>0.08155242557058678</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09806307312288345</v>
+        <v>0.09749514548392796</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03896855312080613</v>
+        <v>0.04626774139132128</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06119852086847143</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.03178559059108767</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.09882919088165598</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0603762449645539</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09830293372840364</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.08712312561426921</v>
+        <v>0.06235347504030991</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09814059579251884</v>
+        <v>0.09843623201441992</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03896855312080613</v>
+        <v>0.08036960608725002</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09882919088165598</v>
+        <v>0.09825682630802114</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0386310676380586</v>
+        <v>0.04559237712866</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06119825234000742</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03159662468768262</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.09959530864042851</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.06001326762680304</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.09906497197436026</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.08604465201349082</v>
+        <v>0.06153969869490419</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09890137560486395</v>
+        <v>0.09919930358042318</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0386310676380586</v>
+        <v>0.07933865036088733</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09959530864042851</v>
+        <v>0.09901850713211434</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03838853735918325</v>
+        <v>0.04492854497709325</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06119798381154339</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03151438653285756</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.100361426399201</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.05977277239906204</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.09982701022031687</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.08620812563822405</v>
+        <v>0.06006010196457218</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09966215541720906</v>
+        <v>0.09996237514642643</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03838853735918325</v>
+        <v>0.07756366074022586</v>
       </c>
       <c r="O196" t="n">
-        <v>0.100361426399201</v>
+        <v>0.09978018795620752</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03834087693064758</v>
+        <v>0.04427691620944739</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06119771528307938</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03133848031382752</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1011275441579736</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.05826139191132731</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1005890484662735</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.08418165543998107</v>
+        <v>0.05961968737074957</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1004229352295542</v>
+        <v>0.1007254467124297</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03834087693064758</v>
+        <v>0.07684873957399296</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1011275441579736</v>
+        <v>0.1005418687803007</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03788800099891904</v>
+        <v>0.04363816209846179</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06119744675461537</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0311685102178076</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1018936619167461</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.05798682870709285</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1013510867122301</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.08446441755302841</v>
+        <v>0.05852345743487219</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1011837150418993</v>
+        <v>0.101488518278433</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03788800099891904</v>
+        <v>0.07549798921091561</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1018936619167461</v>
+        <v>0.1013035496043939</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03782982421046516</v>
+        <v>0.04301295391690503</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06119717822615135</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03110408043201279</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1026597796755186</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.05725678532985262</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1021131249581867</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.08245619424426981</v>
+        <v>0.05817641467837584</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1019444948542444</v>
+        <v>0.1022515898444362</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03782982421046516</v>
+        <v>0.07431551199972114</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1026597796755186</v>
+        <v>0.1020652304284871</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03716626121175341</v>
+        <v>0.04240196293751937</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06119690969768733</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03104479514365821</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1034258974342911</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.05547896432310068</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1028751632041433</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.08175676778060864</v>
+        <v>0.05718356162269622</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1027052746665895</v>
+        <v>0.1030146614104395</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03716626121175341</v>
+        <v>0.07270541028913668</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1034258974342911</v>
+        <v>0.1028269112525803</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03699722664925126</v>
+        <v>0.0418058604331266</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06119664116922331</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03079025853995887</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1041920151930637</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.05526106823033086</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1036372014501</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.08066592042894877</v>
+        <v>0.05614990078926912</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1034660544789346</v>
+        <v>0.1037777329764427</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03699722664925126</v>
+        <v>0.07197178642788948</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1041920151930637</v>
+        <v>0.1035885920766735</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03672263516942625</v>
+        <v>0.04122531767646835</v>
       </c>
       <c r="G202" t="n">
+        <v>0.0611963726407593</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03054007480812983</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1049581329518362</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.05381079959503718</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1043992396960566</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.08078343445619351</v>
+        <v>0.05508043469953031</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1042268342912797</v>
+        <v>0.104540804542446</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03672263516942625</v>
+        <v>0.0706187427647067</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1049581329518362</v>
+        <v>0.1043502729007666</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0367424014187458</v>
+        <v>0.04066100594031319</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06119610411229528</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03059384813538611</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1057242507106087</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.05313586096071368</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1051612779420132</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.07950909212924673</v>
+        <v>0.05368016587491559</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1049876141036248</v>
+        <v>0.1053038761084492</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0367424014187458</v>
+        <v>0.06965038164831561</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1057242507106087</v>
+        <v>0.1051119537248598</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0360492113752294</v>
+        <v>0.0401135964974062</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06119583558383126</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03035118270894278</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1064903684693812</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.05194395487085424</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1059233161879698</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.07844267571501173</v>
+        <v>0.05265409683686079</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1057483939159699</v>
+        <v>0.1060669476744525</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0360492113752294</v>
+        <v>0.06717080542744319</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1064903684693812</v>
+        <v>0.105873634548953</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03572067904485425</v>
+        <v>0.03958376062056361</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06119556705536724</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03001168271601493</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1072564862281538</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.05084278386895291</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1066853544339264</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.07838396748039239</v>
+        <v>0.05100723010680158</v>
       </c>
       <c r="M205" t="n">
-        <v>0.106509173728315</v>
+        <v>0.1068300192404557</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03572067904485425</v>
+        <v>0.06668411645081695</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1072564862281538</v>
+        <v>0.1066353153730462</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03535819331054244</v>
+        <v>0.03907216958252979</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06119529852690322</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.03007495234381755</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1080226039869263</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.04984005049850357</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.107447392679883</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.07683274969229215</v>
+        <v>0.05034456820617378</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1072699535406601</v>
+        <v>0.107593090806459</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03535819331054244</v>
+        <v>0.06469441706716372</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1080226039869263</v>
+        <v>0.1073969961971394</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03536509282531906</v>
+        <v>0.03857949465607328</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06119502999843921</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02994059577956572</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1087887217456988</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.04784345730300021</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1082094309258397</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.07618880461761462</v>
+        <v>0.0490711136564132</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1080307333530052</v>
+        <v>0.1083561623724622</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03536509282531906</v>
+        <v>0.06310580962521101</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1087887217456988</v>
+        <v>0.1081586770212326</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03464471624220926</v>
+        <v>0.03810640711394249</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06119476146997518</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02960821721047451</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1095548395044714</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.04766070682593687</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1089714691717963</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.07485191452326345</v>
+        <v>0.04819186897895553</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1087915131653503</v>
+        <v>0.1091192339384655</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03464471624220926</v>
+        <v>0.06192239647368591</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1095548395044714</v>
+        <v>0.1089203578453258</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03410040221423809</v>
+        <v>0.03765357822894716</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06119449294151117</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.0296774208237589</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1103209572632439</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.04599950161080751</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1097335074177529</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.07382186167614213</v>
+        <v>0.04631183669523664</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1095522929776954</v>
+        <v>0.1098823055044688</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03410040221423809</v>
+        <v>0.0611482799613155</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1103209572632439</v>
+        <v>0.109682038669419</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03373548939443069</v>
+        <v>0.03722167927383485</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06119422441304716</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02964781080663402</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1110870750220164</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.04556754420110604</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1104955456637095</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.07389842834315435</v>
+        <v>0.04503601932669218</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1103130727900406</v>
+        <v>0.110645377070472</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03373548939443069</v>
+        <v>0.05998756243682712</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1110870750220164</v>
+        <v>0.1104437194935121</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03345331643581213</v>
+        <v>0.03681138152137409</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06119395588458314</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02951899134631487</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.111853192780789</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.04377253714032645</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1112575839096661</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.07268139679120372</v>
+        <v>0.04406941939475809</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1110738526023857</v>
+        <v>0.1114084486364753</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03345331643581213</v>
+        <v>0.05834434624894785</v>
       </c>
       <c r="O211" t="n">
-        <v>0.111853192780789</v>
+        <v>0.1112054003176053</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03295722199140759</v>
+        <v>0.03642335624431703</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06119368735611912</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02949056663001652</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1126193105395615</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.0427221829719627</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1120196221556228</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.07257054928719381</v>
+        <v>0.04341703942087005</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1118346324147308</v>
+        <v>0.1121715202024785</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03295722199140759</v>
+        <v>0.05682273374640501</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1126193105395615</v>
+        <v>0.1119670811416985</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03215054471424209</v>
+        <v>0.03605827471546605</v>
       </c>
       <c r="G213" t="n">
+        <v>0.0611934188276551</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.029362140844954</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.113385428298334</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.04242418423950883</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1127816604015794</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.07076566809802814</v>
+        <v>0.04198388192646385</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1125954122270759</v>
+        <v>0.1129345917684818</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03215054471424209</v>
+        <v>0.05512682727792567</v>
       </c>
       <c r="O213" t="n">
-        <v>0.113385428298334</v>
+        <v>0.1127287619657917</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03183662325734075</v>
+        <v>0.0357168082075723</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06119315029919109</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02923331817834239</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1141515460571065</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.04128624348645876</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.113543698647536</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.07046653549061038</v>
+        <v>0.04057494943297518</v>
       </c>
       <c r="M214" t="n">
-        <v>0.113356192039421</v>
+        <v>0.113697663334485</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03183662325734075</v>
+        <v>0.05386072919223706</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1141515460571065</v>
+        <v>0.1134904427898849</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03141879627372871</v>
+        <v>0.0357168082075723</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06119315029919109</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02890370281739674</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.114917663815879</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.04071606325630639</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1143057368934926</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.0699729337318441</v>
+        <v>0.03959524446183996</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1141169718517661</v>
+        <v>0.1144607349004883</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03141879627372871</v>
+        <v>0.05252854183806649</v>
       </c>
       <c r="O215" t="n">
-        <v>0.114917663815879</v>
+        <v>0.1142521236139781</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03080040241643103</v>
+        <v>0.03477585352646603</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06115223391881473</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02877289894933206</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1156837815746516</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.04042134609254583</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1150677751394492</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.06908464508863288</v>
+        <v>0.03914976953449389</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1148777516641112</v>
+        <v>0.1152238064664916</v>
       </c>
       <c r="N216" t="n">
-        <v>0.03080040241643103</v>
+        <v>0.05203436756414098</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1156837815746516</v>
+        <v>0.1150138044380713</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03018478033847288</v>
+        <v>0.03384501209037796</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06111131753843836</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02874051076136344</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1164498993334241</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03930979453867095</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1158298133854058</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.06790145182788043</v>
+        <v>0.03794352717237276</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1156385314764563</v>
+        <v>0.1159868780324948</v>
       </c>
       <c r="N217" t="n">
-        <v>0.03018478033847288</v>
+        <v>0.05008230871918784</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1164498993334241</v>
+        <v>0.1157754852621645</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02997526869287929</v>
+        <v>0.0329246895639061</v>
       </c>
       <c r="G218" t="n">
+        <v>0.061070401158062</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02860614244070592</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1172160170921966</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.0385885300295172</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1165918516313625</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.06752313621649014</v>
+        <v>0.0363815198969123</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1163993112888014</v>
+        <v>0.116749949598498</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02997526869287929</v>
+        <v>0.05007646765193413</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1172160170921966</v>
+        <v>0.1165371660862576</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0294752061326754</v>
+        <v>0.03201529161164766</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06102948477768564</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02836939817457453</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1179821348509692</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.03830653235661929</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1173538898773191</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.06704948052136583</v>
+        <v>0.03606875022954836</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1171600911011465</v>
+        <v>0.1175130211645013</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0294752061326754</v>
+        <v>0.04792094671110719</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1179821348509692</v>
+        <v>0.1172988469103508</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02888793131088631</v>
+        <v>0.03111722389819989</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06098856839730928</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02802988215018434</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1187482526097417</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03832725697184344</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1181159281232757</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.06518026700941099</v>
+        <v>0.03551022069171667</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1179208709134916</v>
+        <v>0.1182760927305046</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02888793131088631</v>
+        <v>0.04771984824543413</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1187482526097417</v>
+        <v>0.118060527734444</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02811678288053712</v>
+        <v>0.03023089208816075</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06094765201693292</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02808719855475042</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1195143703685142</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03785105764558475</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1188779663692323</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.06431527794752923</v>
+        <v>0.03381093380485298</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1186816507258367</v>
+        <v>0.1190391642965078</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02811678288053712</v>
+        <v>0.04587727460364227</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1195143703685142</v>
+        <v>0.1188222085585372</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02766509949465296</v>
+        <v>0.02935670184612726</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06090673563655655</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02814095157548778</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1202804881272867</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03737828814823835</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1196400046151889</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.06425429560262402</v>
+        <v>0.03317589209039315</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1194424305381818</v>
+        <v>0.1198022358625111</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02766509949465296</v>
+        <v>0.04569732813445854</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1202804881272867</v>
+        <v>0.1195838893826304</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02733621980625889</v>
+        <v>0.0284950588366974</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06086581925618019</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02799074539961149</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1210466058860593</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03630930225019949</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1204020428611455</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.06279710224159918</v>
+        <v>0.03291009806977285</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1202032103505269</v>
+        <v>0.1205653074285143</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02733621980625889</v>
+        <v>0.04498411118661039</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1210466058860593</v>
+        <v>0.1203455702067236</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02703348246838003</v>
+        <v>0.02764636872446836</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06082490287580383</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02783618421433658</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1218127236448318</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03614445372186317</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1211640811071022</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.06204348013135808</v>
+        <v>0.03181855426442792</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1209639901628721</v>
+        <v>0.1213283789945176</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02703348246838003</v>
+        <v>0.04334172610882492</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1218127236448318</v>
+        <v>0.1211072510308168</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02656022613404152</v>
+        <v>0.02681103717403743</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06078398649542746</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02757687220687813</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1225788414036043</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03558409633362464</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1219261193530588</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.0623932115388045</v>
+        <v>0.03140626319579412</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1217247699752172</v>
+        <v>0.1220914505605209</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02656022613404152</v>
+        <v>0.04337427524982934</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1225788414036043</v>
+        <v>0.1218689318549099</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02611978945626843</v>
+        <v>0.02598946985000257</v>
       </c>
       <c r="G226" t="n">
+        <v>0.0607430701150511</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02721241356445118</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1233449591623768</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03502858385587893</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1226881575990154</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.06134607873084191</v>
+        <v>0.03107822738530724</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1224855497875623</v>
+        <v>0.1228545221265241</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02611978945626843</v>
+        <v>0.04208586095835082</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1233449591623768</v>
+        <v>0.1226306126790031</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02621551108808584</v>
+        <v>0.02518207241696098</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06070215373467475</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02704241247427078</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1241110769211494</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.0343782700590213</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.123450195844972</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.06000186397437407</v>
+        <v>0.03113944935440305</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1232463295999074</v>
+        <v>0.1236175936925274</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02621551108808584</v>
+        <v>0.04158058558311656</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1241110769211494</v>
+        <v>0.1233922935030963</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02573414572805233</v>
+        <v>0.02438925053950997</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06066123735429838</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02686647312355198</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1248771946799219</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03453350871344679</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1242122340909286</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.05966036151171517</v>
+        <v>0.03109493162451729</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1240071094122525</v>
+        <v>0.1243806652585306</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02573414572805233</v>
+        <v>0.04176255147285379</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1248771946799219</v>
+        <v>0.1241539743271895</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02535419571054796</v>
+        <v>0.02361140988224743</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06062032097392202</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0269841996995098</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1256433124386944</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03389465358955057</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1249742723368852</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.05942186914290298</v>
+        <v>0.03014967671708574</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1247678892245976</v>
+        <v>0.1251437368245339</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02535419571054796</v>
+        <v>0.0419358609762896</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1256433124386944</v>
+        <v>0.1249156551512827</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02517580025054493</v>
+        <v>0.02284895610977043</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06057940459354565</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02669521481409752</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.126409430197467</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.03306205845772778</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1257363105828419</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.05778663430287734</v>
+        <v>0.0306079351905465</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1255286690369427</v>
+        <v>0.1259068083905371</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02517580025054493</v>
+        <v>0.04190407348616032</v>
       </c>
       <c r="O230" t="n">
-        <v>0.126409430197467</v>
+        <v>0.1256773359753759</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02469924151416726</v>
+        <v>0.02210229488667688</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06053848821316929</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02640071666770184</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1271755479562395</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.03333607708837358</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1264983488287985</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.05755470205999663</v>
+        <v>0.03040823323690275</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1262894488492878</v>
+        <v>0.1266698799565404</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02469924151416726</v>
+        <v>0.0412136085002649</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1271755479562395</v>
+        <v>0.1264390167994691</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02442480166753896</v>
+        <v>0.02137183187756407</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06049757183279293</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02600166944782621</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.127941665715012</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.03271706325188306</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1272603870747551</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.05602611748261938</v>
+        <v>0.03020996479626664</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1270502286616329</v>
+        <v>0.1274329515225436</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02442480166753896</v>
+        <v>0.04072698373136285</v>
       </c>
       <c r="O232" t="n">
-        <v>0.127941665715012</v>
+        <v>0.1272006976235623</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02415276287678413</v>
+        <v>0.02065797274702923</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06045665545241656</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02589815034984018</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1287077834737845</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.03220537071865143</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1280224253207117</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0554009256391042</v>
+        <v>0.03081441258911494</v>
       </c>
       <c r="M233" t="n">
-        <v>0.127811008473978</v>
+        <v>0.1281960230885469</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02415276287678413</v>
+        <v>0.04094431274537613</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1287077834737845</v>
+        <v>0.1279623784476555</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02398340730802678</v>
+        <v>0.01996112315967027</v>
       </c>
       <c r="G234" t="n">
+        <v>0.0604157390720402</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02569023656911337</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1294739012325571</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.03150135325907372</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1287844635666683</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.05567917159780955</v>
+        <v>0.0302228593359245</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1285717882863231</v>
+        <v>0.1289590946545501</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02398340730802678</v>
+        <v>0.04036570910822584</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1294739012325571</v>
+        <v>0.1287240592717487</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02401701712739095</v>
+        <v>0.01928168878008452</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06037482269166385</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02547800530101541</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1302400189913296</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.03140536464354515</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1295465018126249</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.05496090042709395</v>
+        <v>0.03023658775717203</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1293325680986682</v>
+        <v>0.1297221662205534</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02401701712739095</v>
+        <v>0.04039128638583372</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1302400189913296</v>
+        <v>0.1294857400958418</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02375387450100065</v>
+        <v>0.0186200752728692</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06033390631128747</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02516153374091588</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1310061367501021</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.03061775864246083</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1303085400585816</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.05344615719531592</v>
+        <v>0.03105688057333433</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1300933479110133</v>
+        <v>0.1304852377865566</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02375387450100065</v>
+        <v>0.03972115814412125</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1310061367501021</v>
+        <v>0.130247420919935</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02339426159497998</v>
+        <v>0.01797668830262224</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06029298993091112</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02504089908418443</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1317722545088746</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.03073888902621594</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1310705783045382</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.05323498697083406</v>
+        <v>0.03018502050488817</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1308541277233584</v>
+        <v>0.1312483093525599</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02339426159497998</v>
+        <v>0.04045543794900985</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1317722545088746</v>
+        <v>0.1310091017440282</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02293846057545297</v>
+        <v>0.01735193353394086</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06025207355053476</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02491617852619062</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1325383722676472</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.03056910956520556</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1318326165504948</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.05272743482200687</v>
+        <v>0.03062229027231039</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1316149075357036</v>
+        <v>0.1320113809185632</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02293846057545297</v>
+        <v>0.03969423936642114</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1325383722676472</v>
+        <v>0.1317707825681214</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02258675360854365</v>
+        <v>0.01674621663142244</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06021115717015839</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.0248874492623041</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1333044900264197</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02960877402982487</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1325946547964514</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.05162354581719286</v>
+        <v>0.03076997259607769</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1323756873480487</v>
+        <v>0.1327744524845664</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02258675360854365</v>
+        <v>0.03983767596227661</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1333044900264197</v>
+        <v>0.1325324633922146</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02273942286037603</v>
+        <v>0.01615828679589171</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06017024078978203</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02465478848789447</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1340706077851922</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02895823619046892</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.133356693042408</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.0512233650247505</v>
+        <v>0.03122935019666689</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1331364671603938</v>
+        <v>0.1335375240505697</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02273942286037603</v>
+        <v>0.03988586130249772</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1340706077851922</v>
+        <v>0.1332941442163078</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02209675049707421</v>
+        <v>0.01557861090930748</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06012932440940566</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02421827339833132</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1348367255439648</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02901784981753303</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1341187312883647</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.05032693751303846</v>
+        <v>0.03100170579455477</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1338972469727389</v>
+        <v>0.1343005956165729</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02209675049707421</v>
+        <v>0.03933890895300612</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1348367255439648</v>
+        <v>0.1340558250404009</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0222590186847622</v>
+        <v>0.01500593817249449</v>
       </c>
       <c r="G242" t="n">
+        <v>0.0600884080290293</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02417798118898429</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1356028433027373</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02828796868141212</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1348807695343213</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.0491343083504151</v>
+        <v>0.03108832211021809</v>
       </c>
       <c r="M242" t="n">
-        <v>0.134658026785084</v>
+        <v>0.1350636671825762</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0222590186847622</v>
+        <v>0.03989693247972309</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1356028433027373</v>
+        <v>0.1348175058644941</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02172650958956403</v>
+        <v>0.01444067425005011</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06004749164865295</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02363398905522297</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1363689610615098</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02866894655250149</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1356428077802779</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.04854552260523903</v>
+        <v>0.03079048186413363</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1354188065974291</v>
+        <v>0.1358267387485795</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02172650958956403</v>
+        <v>0.03856004544857039</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1363689610615098</v>
+        <v>0.1355791866885873</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02159950537760373</v>
+        <v>0.01388322480657157</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06000657526827657</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02338637419241694</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1371350788202823</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02856113720119621</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1364048460262345</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.04826062534586889</v>
+        <v>0.03150946777677821</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1361795864097742</v>
+        <v>0.1365898103145827</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02159950537760373</v>
+        <v>0.03882836142546942</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1371350788202823</v>
+        <v>0.1363408675126805</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02117828821500541</v>
+        <v>0.01333399550665676</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05996565888790022</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02313521379593587</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1379011965790549</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02826489439789145</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1371668842721911</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.04797966164066303</v>
+        <v>0.03094656256862857</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1369403662221193</v>
+        <v>0.1373528818805859</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02117828821500541</v>
+        <v>0.03820199397634161</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1379011965790549</v>
+        <v>0.1371025483367737</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02116314026789302</v>
+        <v>0.01279339201490297</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05992474250752386</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02318058506114933</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1386673143378274</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02798057191298228</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1379289225181478</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.04750267655798007</v>
+        <v>0.03160304896016147</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1377011460344644</v>
+        <v>0.1381159534465892</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02116314026789302</v>
+        <v>0.03878105666710868</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1386673143378274</v>
+        <v>0.1378642291608669</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02115434370239069</v>
+        <v>0.01226181999590753</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05988382612714749</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02282256518342693</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1394334320965999</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02690852351686393</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1386909607641043</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.04602971516617849</v>
+        <v>0.03158020967185374</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1384619258468095</v>
+        <v>0.1388790250125924</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02115434370239069</v>
+        <v>0.03816566306369196</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1394334320965999</v>
+        <v>0.1386259099849601</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0207521806846224</v>
+        <v>0.01173968511426822</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05984290974677113</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02236123135813831</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1401995498553724</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02724910297993144</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.139452999010061</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.04536082253361678</v>
+        <v>0.03177932742418213</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1392227056591546</v>
+        <v>0.1396420965785957</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0207521806846224</v>
+        <v>0.03855592673201308</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1401995498553724</v>
+        <v>0.1393875908090533</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02035693338071221</v>
+        <v>0.01122739303458241</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05980199336639477</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02229666078065302</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1409656676141449</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02720266407258004</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1402150372560176</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.04529604372865365</v>
+        <v>0.03250168493762343</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1399834854714997</v>
+        <v>0.140405168144599</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02035693338071221</v>
+        <v>0.03775196123799351</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1409656676141449</v>
+        <v>0.1401492716331464</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02056888395678415</v>
+        <v>0.0107253494214474</v>
       </c>
       <c r="G250" t="n">
+        <v>0.0597610769860184</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02172893064634074</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1417317853729175</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02646956056520483</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1409770755019742</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.04403542381964742</v>
+        <v>0.03184856493265439</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1407442652838448</v>
+        <v>0.1411682397106022</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02056888395678415</v>
+        <v>0.03875388014755476</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1417317853729175</v>
+        <v>0.1409109524572396</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01998831457896229</v>
+        <v>0.01023395993946097</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05972016060564204</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02185811815057102</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.14249790313169</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02665014622820094</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1417391137479308</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.04387900787495669</v>
+        <v>0.03242125012975186</v>
       </c>
       <c r="M251" t="n">
-        <v>0.14150504509619</v>
+        <v>0.1419313112766055</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01998831457896229</v>
+        <v>0.03866179702661832</v>
       </c>
       <c r="O251" t="n">
-        <v>0.14249790313169</v>
+        <v>0.1416726332813328</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02011550741337063</v>
+        <v>0.009753630253220319</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05967924422526567</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.0213843004887135</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1432640208904626</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.0257447748319635</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1425011519938874</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.04282684096294004</v>
+        <v>0.03282102324939254</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1422658249085351</v>
+        <v>0.1426943828426087</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02011550741337063</v>
+        <v>0.03827582544110575</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1432640208904626</v>
+        <v>0.142434314105426</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01965074462613325</v>
+        <v>0.009284766027323227</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05963832784488932</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02110755485613777</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1440301386492351</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02605380014688768</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1432631902398441</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.04187896815195596</v>
+        <v>0.03344916701205325</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1430266047208802</v>
+        <v>0.143457454408612</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01965074462613325</v>
+        <v>0.03839607895693853</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1440301386492351</v>
+        <v>0.1431959949295192</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01949430838337417</v>
+        <v>0.008827772926367022</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05959741146451296</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02062795844821348</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1447962564080076</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02567757594336856</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1440252284858007</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.04223543451036293</v>
+        <v>0.03350696413821078</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1437873845332253</v>
+        <v>0.1442205259746152</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01949430838337417</v>
+        <v>0.03752267114003827</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1447962564080076</v>
+        <v>0.1439576757536124</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01964648085121744</v>
+        <v>0.008383056614949064</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05955649508413659</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.0205455884603102</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1455623741667801</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.0259164559918014</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1447872667317573</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.04129628510651956</v>
+        <v>0.03439569734834189</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1445481643455704</v>
+        <v>0.1449835975406185</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01964648085121744</v>
+        <v>0.0381557155563263</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1455623741667801</v>
+        <v>0.1447193565777056</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0195075441957871</v>
+        <v>0.007951022757667112</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05951557870376023</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02036052208779754</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1463284919255527</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.02587079406258119</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1455493049777139</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.04046156500878434</v>
+        <v>0.03411664936292333</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1453089441579155</v>
+        <v>0.1457466691066218</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0195075441957871</v>
+        <v>0.0381953257717243</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1463284919255527</v>
+        <v>0.1454810374017988</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01947778058320718</v>
+        <v>0.007532077019118483</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05947466232338387</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02007283652604512</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1470946096843252</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.02544094392610316</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1463113432236705</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.03973131928551588</v>
+        <v>0.03497110290243194</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1460697239702606</v>
+        <v>0.146509740672625</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01947778058320718</v>
+        <v>0.03814161535215371</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1470946096843252</v>
+        <v>0.1462427182258919</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0191574721796017</v>
+        <v>0.007126625063900549</v>
       </c>
       <c r="G258" t="n">
+        <v>0.0594337459430075</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01968260897042255</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1478607274430977</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.0255272593527624</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1470733814696271</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.03890559300507251</v>
+        <v>0.03506034068734445</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1468305037826057</v>
+        <v>0.1472728122386283</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0191574721796017</v>
+        <v>0.03739469786353611</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1478607274430977</v>
+        <v>0.1470043990499851</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01924690115109479</v>
+        <v>0.006735072556611071</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05939282956263114</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01928991661629946</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1486268452018702</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02463009411295405</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1478354197155838</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.03788443123581292</v>
+        <v>0.03618564543813768</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1475912835949508</v>
+        <v>0.1480358838046315</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01924690115109479</v>
+        <v>0.03835468687179294</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1486268452018702</v>
+        <v>0.1477660798740783</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01884634966381041</v>
+        <v>0.006357825161847255</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05935191318225477</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.0189948366590454</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1493929629606428</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.02534980197707332</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1485974579615404</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.03776787904609558</v>
+        <v>0.0360482998752884</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1483520634072959</v>
+        <v>0.1487989553706348</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01884634966381041</v>
+        <v>0.03822169594284575</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1493929629606428</v>
+        <v>0.1485277606981715</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01905609988387259</v>
+        <v>0.005995288544206834</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05931099680187842</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01899744629403002</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1501590807194153</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02518673671551527</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.149359496207497</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.03755598150427902</v>
+        <v>0.03704958671927333</v>
       </c>
       <c r="M261" t="n">
-        <v>0.149112843219641</v>
+        <v>0.149562026936638</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01905609988387259</v>
+        <v>0.03759583864261606</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1501590807194153</v>
+        <v>0.1492894415222647</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01897643397740544</v>
+        <v>0.005647868368287193</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05927008042150206</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01829782271662293</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1509251984781878</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02534125209867508</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1501215344534536</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.03724878367872175</v>
+        <v>0.03809078869056931</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1498736230319861</v>
+        <v>0.1503250985026413</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01897643397740544</v>
+        <v>0.03827722853702531</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1509251984781878</v>
+        <v>0.1500511223463579</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01880763411053296</v>
+        <v>0.00531597029868569</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05922916404112569</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01839604312219376</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1516913162369603</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.02481370189694782</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1508835726994102</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.0360463306377824</v>
+        <v>0.03877318850965314</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1506344028443312</v>
+        <v>0.1510881700686445</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01880763411053296</v>
+        <v>0.03726597919199504</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1516913162369603</v>
+        <v>0.1508128031704511</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01864998244937918</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05918824766074933</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01769218470611207</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1524574339957329</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02470443988072873</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1516456109453669</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.03604866744981933</v>
+        <v>0.03939806889700154</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1513951826566763</v>
+        <v>0.1518512416346478</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01864998244937918</v>
+        <v>0.03716220417344696</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1524574339957329</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1515744839945443</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05917508976601248</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005921756015086571</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0591753582944765</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006838445059886442</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05917562682294051</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007750010233717963</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05917589535140454</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008656394635780634</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05917616387986855</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.009557541365393066</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05917643240833257</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01045339352183404</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05917670093679658</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01134389420442106</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05917696946526061</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01222898651235542</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05917723799372462</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01310861354495482</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05917750652218864</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01398271840149805</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05917777505065265</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01485124418130165</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05917804357911668</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01571413398356881</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05917831210758069</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01657133090761632</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0591785806360447</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01742277805272294</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05917884916450872</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01826841851820422</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05917911769297274</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01910819540326533</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05917938622143676</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01994205180722204</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05917965474990078</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02076993082935318</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05917992327836479</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.0215917755689732</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05918019180682882</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02240752912528939</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05918046033529283</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02321713459761646</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05918072886375685</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02402053508523323</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05918099739222086</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02481767368745311</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05918126592068489</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02560849350348549</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0591815344491489</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02639316997725548</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05918180297761291</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02717304027571084</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05918207150607693</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02794827984277549</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05918234003454095</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02871883177766077</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05918260856300497</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02948463917967938</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05918287709146899</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.03024564514811008</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.059183145619933</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.03100179278226453</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05918341414839703</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.03175302518135574</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05918368267686104</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.03249928544469555</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05918395120532505</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.03324051667156273</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05918421973378907</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0339766619612681</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05918448826225309</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03470766441302633</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05918475679071711</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03543346712614846</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05918502531918112</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03615401319991328</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05918529384764513</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0368692457336306</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05918556237610916</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03757910782651702</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05918583090457318</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03828354257788259</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05918609943303719</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03898249308700615</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05918636796150121</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03967590245319653</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05918663648996523</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.04036371377567224</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05918690501842925</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.04104587015374239</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05918717354689326</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.04172231468668579</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05918744207535728</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.04239299047381034</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0591877106038213</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.04305784061433646</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05918797913228532</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0437168082075723</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05918824766074933</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0437168082075723</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05917508976601248</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.04448878185380017</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05921654320331688</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04525412755462743</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05925799664062128</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04601269270571726</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05929945007792568</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04676432470273256</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05934090351523007</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04750887094133698</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05938235695253447</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04824617881719345</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05942381038983886</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04897609572596515</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05946526382714326</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04969846906331521</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05950671726444766</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.05041314622490684</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05954817070175206</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.05111997460640319</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05958962413905646</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.05181880160346725</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05963107757636085</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.05250947461176256</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05967253101366524</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0531918410269521</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05971398445096964</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.05386574824469902</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05975543788827404</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.05453104366066651</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05979689132557844</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05518757467051776</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05983834476288283</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05583518866991587</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05987979820018724</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05647373305452387</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05992125163749162</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05710305522000529</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05996270507479602</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05772300256202312</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06000415851210042</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05833342247624053</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06004561194940482</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05893416235832064</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06008706538670922</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05952506960392667</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06012851882401362</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.06010599160872178</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06016997226131802</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.06067739890274436</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0602114256986224</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0612428776879103</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0602528791359268</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.061802898494258</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0602943325732312</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.06235730871745064</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0603357860105356</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06290595575315136</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06037723944783999</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06344868699702337</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0604186928851444</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06398534984472981</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0604601463224488</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06451579169193369</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06050159975975318</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06503985993429849</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06054305319705758</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06555740196748723</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06058450663436198</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06606826518716306</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06062596007166637</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06657229698898919</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06066741350897078</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06706934476862873</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06070886694627518</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06755925592174492</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06075032038357957</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06804187784400073</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06079177382088396</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.06851705793105961</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06083322725818836</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06898464357858461</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06087468069549275</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.06944448218223889</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06091613413279715</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.06989642113768557</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06095758757010156</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07034030784058795</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06099904100740595</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07077598968660906</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06104049444471035</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.071203314071412</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06108194788201474</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07162212839066018</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06112340131931913</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07203228004001666</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06116485475662353</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07243361641514459</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06120630819392794</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07243361641514459</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06120630819392794</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07424724389973902</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06289329040085762</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07601185113297726</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06458027260778729</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07772573909650615</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06626725481471699</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07938720877197233</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06795423702164666</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.08099456114102269</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06964121922857634</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0825460971853039</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07132820143550603</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.08404011788646279</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07301518364243571</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.08547492422614605</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07470216584936538</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.08684881718600049</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07638914805629507</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08816009774767286</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07807613026322474</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08940706689280997</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07976311247015444</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.09058802560305854</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08145009467708411</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.09170127486006532</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0831370768840138</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.09274511564547708</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08482405909094348</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.09371784894094068</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08651104129787317</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.0946177757281027</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08819802350480284</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.09544319698861004</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08988500571173252</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.09619241370410944</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.0915719879186622</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.09686372685624767</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09325897012559188</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.09745543742667145</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09494595233252157</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.09796584639702757</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09663293453945125</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.09839325474896282</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09831991674638094</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.09873596346412394</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1000068989533106</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09899227352415768</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1016938811602403</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09924482188685946</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.10338086336717</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.09923890160543009</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1050678455740996</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.09922748886812943</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1067548277810293</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0991334912282589</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.108441809987959</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.0989623127792591</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1101287921948887</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.09871897931030543</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1118157744018184</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.09840851661057337</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1135027566087481</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0980359504692383</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1151897388156777</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.09760630667547571</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1168767210226074</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09712461101846098</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1185637032295371</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.09659588928736965</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1202506854364668</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09602516727137703</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1219376676433965</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09541747075965865</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1236246498503261</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09477782554138986</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1253116320572558</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09411125740574622</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1269986142641855</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09342279214190308</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1286855964711152</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.0927174555390359</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1303725786780449</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09200027338632011</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1320595608849746</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.09127627147293116</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1337465430919043</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.09055047558804447</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1354335252988339</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.08982791152083547</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1371205075057636</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.08911360506047966</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1388074897126933</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0884125819961524</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.140494471919623</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.08772986811702921</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1421814541265526</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.08707048921228544</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1438684363334823</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.08643947107109656</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.145555418540412</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.08580986731720386</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1472424007473417</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.08514097140048457</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1489293829542714</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.08443667410075334</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.08370119248415175</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1523033473681308</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.08293874361682146</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1539903295750604</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.08215354456490398</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1556773117819901</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.08134981239454095</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1573642939889198</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.08053176417187388</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1590512761958495</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.07970361696304445</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1607382584027792</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.07886958783419415</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1624252406097088</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.07803389385146467</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1641122228166385</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0772007520809975</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1657992050235682</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.07637437958893431</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1674861872304979</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.07555899344141662</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1691731694374276</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.07475881070458604</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1708601516443572</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.07397804844458414</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1725471338512869</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.07322092372755254</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1742341160582166</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.07249165361963283</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1759210982651463</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.07179445518696656</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.177608080472076</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.07113354549569531</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1792950626790057</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.07051314161196071</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1809820448859353</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.06993746060190431</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.182669027092865</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.06941071953166775</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1843560092997947</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.06893713546739252</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1860429915067244</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.06852092547522029</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.187729973713654</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.06816512511812678</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1894169559205837</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.06783077466936402</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1911039381275134</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.06749817488843149</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1927909203344431</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.06716854546005387</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1944779025413728</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.06684310606895581</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1961648847483025</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.06652307639986196</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1978518669552321</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.06620967613749706</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1995388491621618</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.06590412496658572</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2012258313690915</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.06560764257185261</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2029128135760212</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.06532144863802244</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2045997957829509</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.06504676284981983</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2062867779898806</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0647848048919695</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2079737601968102</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.06453679444919609</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2096607424037399</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.06430395120622427</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2113477246106696</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.06408749484777873</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2130347068175993</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0638886450585841</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2147216890245289</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.06370862152336508</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2164086712314587</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.06354864392684634</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2180956534383883</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.06340993195375254</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.219782635645318</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.06329370528880836</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2214696178522477</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.06320118361673845</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2231566000591774</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.06313358662226751</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.224843582266107</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.06309213399012017</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2265305644730367</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.06307804540502115</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2282175466799664</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1060.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1060.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.1195650109434297</v>
+        <v>0.1063548328302892</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04962241094342973</v>
+        <v>0.03641223283028917</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01124380819392793</v>
+        <v>0.008250549581783775</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004941127397398826</v>
+        <v>0.01115466119655979</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006182455373124034</v>
+        <v>0.001623682201502685</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.007057399999999991</v>
+        <v>0.01049138999999999</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001119382055555554</v>
+        <v>0.001664051024999998</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01171777309811917</v>
+        <v>0.02549138999999997</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007630715660032553</v>
+        <v>0.001808751114130433</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01922547299167032</v>
+        <v>0.0298166900574896</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007616808240931872</v>
+        <v>0.001317590441901456</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.009704074542305874</v>
+        <v>0.01733915849061389</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001236491074624807</v>
+        <v>0.002750183193927926</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008857791011366092</v>
+        <v>0.01804176935841158</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001532235517545054</v>
+        <v>0.003214616699419603</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0190574</v>
+        <v>0.03541508983813357</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001295882240526238</v>
+        <v>0.003218979516177304</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02905739999999996</v>
+        <v>0.05109227066164612</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001194155010579655</v>
+        <v>0.003218393116075463</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01425141298607954</v>
+        <v>0.02328892526902512</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00185473661193721</v>
+        <v>0.004871046604508053</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01270631845173491</v>
+        <v>0.02423164869274516</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002298353276317581</v>
+        <v>0.004992153074999994</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02965207877109383</v>
+        <v>0.04524547996580547</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002289214698009766</v>
+        <v>0.005426253342391299</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0479451778111461</v>
+        <v>0.0662593112388658</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002285042472279562</v>
+        <v>0.005367906532258059</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01854571428007831</v>
+        <v>0.02784995640641451</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002472982149249613</v>
+        <v>0.006494728806010738</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01652057224896231</v>
+        <v>0.02664319717646847</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003064471035090108</v>
+        <v>0.006429233398839206</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0366098140902304</v>
+        <v>0.04805255066404496</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003052286264013021</v>
+        <v>0.006437959032354609</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0590843895098721</v>
+        <v>0.0706830084416607</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003046723296372749</v>
+        <v>0.006436786232150926</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.005500366387855851</v>
+        <v>0.002750183193927926</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03467831698122778</v>
+        <v>0.01733915849061389</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02254954997566062</v>
+        <v>0.03641223283028917</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003091227686562017</v>
+        <v>0.008250549581783775</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01979912409549871</v>
+        <v>0.02898629111007715</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003830588793862635</v>
+        <v>0.008036541748549007</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04262507190960077</v>
+        <v>0.05188589227082668</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003815357830016277</v>
+        <v>0.00804744879044326</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0662593112388658</v>
+        <v>0.07705718569796333</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00389002892370906</v>
+        <v>0.008045982790188658</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02622549162418493</v>
+        <v>0.03351768777271313</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00370947322387442</v>
+        <v>0.009742093209016107</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02204054568379446</v>
+        <v>0.03117766610147374</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004596706552635162</v>
+        <v>0.009643850098258808</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04524547996580547</v>
+        <v>0.05587308964506621</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004395204109072966</v>
+        <v>0.009656938548531913</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06866049805234148</v>
+        <v>0.08287066305469204</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004570084944559123</v>
+        <v>0.009655179348226389</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02953611077700964</v>
+        <v>0.04272017773405588</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004327718761186823</v>
+        <v>0.01136577541051879</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02423164869274516</v>
+        <v>0.03313453184059863</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00549058389030059</v>
+        <v>0.01125115844796861</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0473665554558938</v>
+        <v>0.05952754146848369</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005341500962022787</v>
+        <v>0.01126642830662056</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07099927247316867</v>
+        <v>0.08795080734701244</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005331765768652311</v>
+        <v>0.01126437590626412</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.03244397898549325</v>
+        <v>0.04473448313551392</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004945964298499227</v>
+        <v>0.01298945761202148</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02498982322584514</v>
+        <v>0.03487409801739223</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006128942070180216</v>
+        <v>0.01285846679767841</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04876194935209779</v>
+        <v>0.06276264642279922</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006104572528026042</v>
+        <v>0.01287591806470922</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07366004682797661</v>
+        <v>0.09352498541008997</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006093446592745497</v>
+        <v>0.01287357246430185</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03467831698122778</v>
+        <v>0.04255798502349623</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005500366387855851</v>
+        <v>0.01461313981352416</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02589721329642033</v>
+        <v>0.03611357432179499</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006895059828952743</v>
+        <v>0.01446577514738821</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05070706944378509</v>
+        <v>0.06599180318973297</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006867644094029297</v>
+        <v>0.01448540782279787</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07674370134308017</v>
+        <v>0.09782056407909029</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006855127416838685</v>
+        <v>0.01448276902233958</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03711204696451258</v>
+        <v>0.04718806444441176</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006182455373124033</v>
+        <v>0.01623682201502685</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02668015705654384</v>
+        <v>0.03757017044374727</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00766117758772527</v>
+        <v>0.01607308349709801</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05320240756622413</v>
+        <v>0.06842841045100501</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007630715660032554</v>
+        <v>0.01609489758088652</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07865111624479459</v>
+        <v>0.100764910189179</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007616808240931872</v>
+        <v>0.01609196558037732</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03916774627794463</v>
+        <v>0.05062210244466946</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006800700910436437</v>
+        <v>0.01786050421652953</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02803880427087684</v>
+        <v>0.03866109607318952</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008427295346497797</v>
+        <v>0.01768039184680782</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05464845555468334</v>
+        <v>0.07168586688833548</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008393787226035808</v>
+        <v>0.01770438733897517</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0810831717594348</v>
+        <v>0.1052853905755218</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008378489065025059</v>
+        <v>0.01770116213841505</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.04107926578517998</v>
+        <v>0.05285748007067829</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007418946447748841</v>
+        <v>0.01948418641803221</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02877330470408054</v>
+        <v>0.04000356090006212</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009193413105270325</v>
+        <v>0.01928770019651762</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05624570524443109</v>
+        <v>0.07337757118344454</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009156858792039063</v>
+        <v>0.01931387709706383</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08424074811331589</v>
+        <v>0.1075093720732841</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009140169889118246</v>
+        <v>0.01931035869645278</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.04284532737055337</v>
+        <v>0.05389157836884728</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008037191985061243</v>
+        <v>0.0211078686195349</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02978380812081624</v>
+        <v>0.0409147746143055</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009959530864042851</v>
+        <v>0.02089500854622742</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05789464847073586</v>
+        <v>0.07561692201805231</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009919930358042318</v>
+        <v>0.02092336685515248</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08672472553275312</v>
+        <v>0.1110642215176317</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009901850713211433</v>
+        <v>0.02091955525449051</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.04446465291839954</v>
+        <v>0.05972177838558534</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008655437522373646</v>
+        <v>0.02273155082103758</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03037046428574512</v>
+        <v>0.04171194690586004</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01072564862281538</v>
+        <v>0.02250231689593722</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0595957770688661</v>
+        <v>0.07721731807387891</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01068300192404557</v>
+        <v>0.02253285661324113</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08843598424406129</v>
+        <v>0.1126773057437301</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01066353153730462</v>
+        <v>0.02252875181252824</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04593596431305326</v>
+        <v>0.05934546116730152</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009273683059686051</v>
+        <v>0.02435523302254027</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03133342296352838</v>
+        <v>0.04211228746466619</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0114917663815879</v>
+        <v>0.02410962524564702</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06114958287409017</v>
+        <v>0.07899215803264437</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01144607349004883</v>
+        <v>0.02414234637132978</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09037540447355569</v>
+        <v>0.1149759915867449</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01142521236139781</v>
+        <v>0.02413794837056597</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.04725798343884929</v>
+        <v>0.05876000776040469</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009891928596998454</v>
+        <v>0.02597891522404295</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03247283391882727</v>
+        <v>0.04303300598066433</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01225788414036043</v>
+        <v>0.02571693359535682</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06205655772167648</v>
+        <v>0.07975484057606891</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01220914505605208</v>
+        <v>0.02575183612941843</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09284386644755127</v>
+        <v>0.1171876458818418</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01218689318549099</v>
+        <v>0.0257471449286037</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04842943218012236</v>
+        <v>0.05796279921130387</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01051017413431086</v>
+        <v>0.02760259742554564</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03318884691630301</v>
+        <v>0.04350479252998879</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01302400189913296</v>
+        <v>0.02732424194506662</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06401719344689347</v>
+        <v>0.08064492906458232</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01297221662205534</v>
+        <v>0.02736132588750708</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09504225039236314</v>
+        <v>0.1186763057269547</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01294857400958418</v>
+        <v>0.02735634148664143</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.04962241094342973</v>
+        <v>0.06395121656640802</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01124380819392793</v>
+        <v>0.02922627962704832</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03408161172061683</v>
+        <v>0.0440604508124319</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01379011965790549</v>
+        <v>0.02893155029477643</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06543198188500962</v>
+        <v>0.08209151277907906</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01373528818805859</v>
+        <v>0.02897081564559574</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0974714365343064</v>
+        <v>0.1194072157936955</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01371025483367737</v>
+        <v>0.02896553804467916</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.05035612466316977</v>
+        <v>0.05881459594515999</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01174666520893566</v>
+        <v>0.03084996182855101</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03455127809642995</v>
+        <v>0.04449726771928506</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01455623741667801</v>
+        <v>0.03053885864448623</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06660141487129334</v>
+        <v>0.08330447057597123</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01449835975406185</v>
+        <v>0.03058030540368439</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09923230509969611</v>
+        <v>0.1220885759163525</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01447193565777056</v>
+        <v>0.0305747346027169</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.05123046860977183</v>
+        <v>0.06465355402493786</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01236491074624807</v>
+        <v>0.03247364403005369</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03519799580840359</v>
+        <v>0.04521165490114579</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01532235517545054</v>
+        <v>0.03214616699419603</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06792598424101301</v>
+        <v>0.08387707495056157</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01526143132006511</v>
+        <v>0.03218979516177304</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1015257363148473</v>
+        <v>0.1236105394481293</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01523361648186374</v>
+        <v>0.03218393116075463</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0520747355267232</v>
+        <v>0.06146264868246437</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01298315628356047</v>
+        <v>0.03409732623155638</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03592191462119898</v>
+        <v>0.04540002400861176</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01608847293422307</v>
+        <v>0.03375347534390583</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06960618182943701</v>
+        <v>0.08490259839815273</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01602450288606836</v>
+        <v>0.03379928491986169</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1023526104060751</v>
+        <v>0.1239632597422294</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01599529730595693</v>
+        <v>0.03379312771879236</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.05288946849657851</v>
+        <v>0.06123632132879828</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01360140182087287</v>
+        <v>0.03572100843305906</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03672318429947732</v>
+        <v>0.04585878669228054</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01685459069299559</v>
+        <v>0.03536078369361564</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07054249947183386</v>
+        <v>0.0861743134140473</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01678757445207162</v>
+        <v>0.03540877467795035</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1045138075996946</v>
+        <v>0.1251368901518565</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01675697813005012</v>
+        <v>0.03540232427683009</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.05367521060189225</v>
+        <v>0.06396901337499825</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01421964735818528</v>
+        <v>0.03734469063456175</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03770195460789985</v>
+        <v>0.04628435460274968</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01762070845176812</v>
+        <v>0.03696809204332543</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07223542900347193</v>
+        <v>0.08618549249354773</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01755064601807487</v>
+        <v>0.037018264436039</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1066102081220209</v>
+        <v>0.1271215840302142</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01751865895414331</v>
+        <v>0.03701152083486783</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.05443250492521899</v>
+        <v>0.06365516623212306</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01483789289549768</v>
+        <v>0.03896837283606443</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03825837531112782</v>
+        <v>0.04697313939061683</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01838682621054065</v>
+        <v>0.03857540039303523</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07278546225961968</v>
+        <v>0.08762940813195702</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01831371758407813</v>
+        <v>0.03862775419412765</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1085426921993689</v>
+        <v>0.1284074947305061</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01828033977823649</v>
+        <v>0.03862071739290555</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.05516189454911327</v>
+        <v>0.06528922131123141</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01545613843281008</v>
+        <v>0.04059205503756711</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03879259617382239</v>
+        <v>0.04702155270647958</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01915294396931317</v>
+        <v>0.04018270874274504</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07439309107554551</v>
+        <v>0.08829933282457747</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01907678915008138</v>
+        <v>0.0402372439522163</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1096121400580539</v>
+        <v>0.1286847756059358</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01904202060232968</v>
+        <v>0.04022991395094328</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05586392255612967</v>
+        <v>0.06886562002338206</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01607438397012249</v>
+        <v>0.0422157372390698</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03930476696064486</v>
+        <v>0.0476260062009355</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0199190617280857</v>
+        <v>0.04179001709245483</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07535880728651781</v>
+        <v>0.08858853906671188</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01983986071608464</v>
+        <v>0.04184673371030495</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1114194319243907</v>
+        <v>0.1294435800097068</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01980370142642287</v>
+        <v>0.04183911050898102</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05653913202882271</v>
+        <v>0.0653788037796337</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01669262950743489</v>
+        <v>0.04383941944057249</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03999503743625638</v>
+        <v>0.04768291152458219</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02068517948685823</v>
+        <v>0.04339732544216464</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07618310272780507</v>
+        <v>0.08879029935366289</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02060293228208789</v>
+        <v>0.0434562234683936</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1127654480246948</v>
+        <v>0.1303740612950229</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02056538225051606</v>
+        <v>0.04344830706701875</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05718806604974697</v>
+        <v>0.06982321399104507</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01731087504474729</v>
+        <v>0.04546310164207517</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04036355736531823</v>
+        <v>0.04778868032801725</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02145129724563076</v>
+        <v>0.04500463379187444</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07686646923467566</v>
+        <v>0.08949788618073296</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02136600384809115</v>
+        <v>0.04506571322648226</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1143510685852808</v>
+        <v>0.1313663728150875</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02132706307460924</v>
+        <v>0.04505750362505648</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05781126770145698</v>
+        <v>0.06519329206867489</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0179291205820597</v>
+        <v>0.04708678384357785</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04121047651249161</v>
+        <v>0.04803972426183829</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02221741500440328</v>
+        <v>0.04661194214158424</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07790939864239804</v>
+        <v>0.09020457204322491</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0221290754140944</v>
+        <v>0.04667520298457091</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1158771738324641</v>
+        <v>0.1320106679231045</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02208874389870243</v>
+        <v>0.04666670018309421</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05840928006650731</v>
+        <v>0.07048347942358194</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0185473661193721</v>
+        <v>0.04871046604508054</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04163594464243774</v>
+        <v>0.04846329738549032</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02298353276317581</v>
+        <v>0.04821925049129404</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07851238278624059</v>
+        <v>0.09049095993161094</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02289214698009766</v>
+        <v>0.04828469274265956</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1167446439925596</v>
+        <v>0.1325186224777316</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02285042472279562</v>
+        <v>0.04827589674113195</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05898264622745247</v>
+        <v>0.06668821746682485</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0191656116566845</v>
+        <v>0.05033414824658322</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04224011151981784</v>
+        <v>0.04816329089009347</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02374965052194834</v>
+        <v>0.04982655884100384</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07977591350147178</v>
+        <v>0.08968833085568467</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02365521854610091</v>
+        <v>0.04989418250074822</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1180543592918824</v>
+        <v>0.1313158223158092</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0236121055468888</v>
+        <v>0.04988509329916967</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05953190926684705</v>
+        <v>0.07282446566057835</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01978385719399691</v>
+        <v>0.05195783044808591</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04262312690929317</v>
+        <v>0.04814694832903837</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02451576828072086</v>
+        <v>0.05143386719071365</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08020048262335999</v>
+        <v>0.09017240677894278</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02441829011210417</v>
+        <v>0.05150367225883687</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1190071999567477</v>
+        <v>0.1312893440339639</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02437378637098199</v>
+        <v>0.05149428985720741</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0600576122672456</v>
+        <v>0.06882187387044328</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02040210273130931</v>
+        <v>0.05358151264958859</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04328514057552491</v>
+        <v>0.04800047169010659</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02528188603949339</v>
+        <v>0.05304117554042345</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0817865819871737</v>
+        <v>0.08989793054581902</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02518136167810742</v>
+        <v>0.05311316201692552</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1206040462134704</v>
+        <v>0.1312778376984792</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02513546719507518</v>
+        <v>0.05310348641524514</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06056029831120265</v>
+        <v>0.06578239474048797</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02102034826862171</v>
+        <v>0.05520519485109128</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04352630228317429</v>
+        <v>0.04802575213691544</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02604800379826592</v>
+        <v>0.05464848389013324</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08243470342818127</v>
+        <v>0.09026977802326669</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02594443324411068</v>
+        <v>0.05472265177501417</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1217457782883657</v>
+        <v>0.1316879112286879</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02589714801916836</v>
+        <v>0.05471268297328286</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.06104051048127278</v>
+        <v>0.07269763213915528</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02163859380593412</v>
+        <v>0.05682887705259396</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04384676179690257</v>
+        <v>0.04782468083308226</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02681412155703845</v>
+        <v>0.05625579223984305</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08244533878165106</v>
+        <v>0.0894914948002718</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02670750481011393</v>
+        <v>0.05633214153310282</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1224332764077487</v>
+        <v>0.1314247540914134</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02665882884326155</v>
+        <v>0.0563218795313206</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0614987918600105</v>
+        <v>0.068570515603118</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02225683934324652</v>
+        <v>0.05845255925409664</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04434666888137091</v>
+        <v>0.04809914894222435</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02758023931581097</v>
+        <v>0.05786310058955285</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08401897988285167</v>
+        <v>0.08956662646582036</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02747057637611719</v>
+        <v>0.05794163129119147</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1226674207979344</v>
+        <v>0.1304935557534789</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02742050966735474</v>
+        <v>0.05793107608935832</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.06193568552997041</v>
+        <v>0.06540397466904904</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02287508488055892</v>
+        <v>0.06007624145559933</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04492617330124059</v>
+        <v>0.04785104762795907</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0283463570745835</v>
+        <v>0.05947040893926266</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08375611856705145</v>
+        <v>0.08929871860889843</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02823364794212044</v>
+        <v>0.05955112104928012</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1235490916852378</v>
+        <v>0.1304995056817076</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02818219049144792</v>
+        <v>0.05954027264739606</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06235173457370705</v>
+        <v>0.06820093887362125</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02349333041787133</v>
+        <v>0.06169992365710202</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04488542482117282</v>
+        <v>0.04748226805390372</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02911247483335602</v>
+        <v>0.06107771728897245</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08475724666951884</v>
+        <v>0.08919131681849196</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0289967195081237</v>
+        <v>0.06116061080736877</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1241791692959742</v>
+        <v>0.1299477933429227</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02894387131554111</v>
+        <v>0.06114946920543379</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06274748207377495</v>
+        <v>0.06796433775350749</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02411157595518373</v>
+        <v>0.06332360585860469</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04562457320582883</v>
+        <v>0.04759470138367565</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02987859259212855</v>
+        <v>0.06268502563868225</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08582285602552214</v>
+        <v>0.08874796668358692</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02975979107412696</v>
+        <v>0.06277010056545743</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1255585338564584</v>
+        <v>0.1296436082039476</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0297055521396343</v>
+        <v>0.06275866576347151</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06312347111272865</v>
+        <v>0.06569710084538066</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02472982149249613</v>
+        <v>0.06494728806010738</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04554376821986979</v>
+        <v>0.04709023878089218</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03064471035090108</v>
+        <v>0.06429233398839206</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08635343847032989</v>
+        <v>0.08797221379316927</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03052286264013021</v>
+        <v>0.06437959032354608</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1255880655930056</v>
+        <v>0.1293921397316054</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03046723296372749</v>
+        <v>0.06436786232150926</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06348024477312272</v>
+        <v>0.0704021576859136</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02534806702980854</v>
+        <v>0.06657097026161007</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04604315962795698</v>
+        <v>0.04687077140917062</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03141082810967361</v>
+        <v>0.06589964233810186</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08624948583921049</v>
+        <v>0.08756760373622507</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03128593420613347</v>
+        <v>0.06598908008163473</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1274686447319309</v>
+        <v>0.1279985773927194</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03122891378782067</v>
+        <v>0.065977058879547</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06381834613751175</v>
+        <v>0.07008243781177917</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02596631256712094</v>
+        <v>0.06819465246311275</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04622289719475163</v>
+        <v>0.04693819043212831</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03217694586844613</v>
+        <v>0.06750695068781166</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08681148996743232</v>
+        <v>0.08723768210174032</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03204900577213672</v>
+        <v>0.06759856983972339</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1273011514995494</v>
+        <v>0.128368110654113</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03199059461191386</v>
+        <v>0.06758625543758472</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06413831828845021</v>
+        <v>0.06674087075965029</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02658455810443335</v>
+        <v>0.06981833466461544</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0464831306849149</v>
+        <v>0.04659438701338257</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03294306362721866</v>
+        <v>0.06911425903752146</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08733994269026396</v>
+        <v>0.08648599447870092</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03281207733813998</v>
+        <v>0.06920805959781204</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1283864661221761</v>
+        <v>0.1269059289826092</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03275227543600705</v>
+        <v>0.06919545199562245</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06444072770272864</v>
+        <v>0.07038038606619978</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02720280364174575</v>
+        <v>0.07144201686611812</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0467240098631081</v>
+        <v>0.04634125231655076</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03370918138599119</v>
+        <v>0.07072156738723127</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08803533584297357</v>
+        <v>0.085916086456093</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03357514890414323</v>
+        <v>0.07081754935590069</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1290254688261262</v>
+        <v>0.1258172218450314</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03351395626010024</v>
+        <v>0.07080464855366018</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06473452584723535</v>
+        <v>0.06700391326810051</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02782104917905815</v>
+        <v>0.0730656990676208</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04714568449399237</v>
+        <v>0.04618067750525016</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03447529914476372</v>
+        <v>0.07232887573694106</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08799816126082982</v>
+        <v>0.08613150362290245</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03433822047014649</v>
+        <v>0.07242703911398934</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1285190398377145</v>
+        <v>0.1254071787082028</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03427563708419343</v>
+        <v>0.07241384511169791</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06502658101384738</v>
+        <v>0.06861438190202537</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02843929471637056</v>
+        <v>0.0746893812691235</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04734830434222898</v>
+        <v>0.04581455374309813</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03524141690353624</v>
+        <v>0.07393618408665086</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08802891077910102</v>
+        <v>0.08533579156811522</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03510129203614974</v>
+        <v>0.074036528872078</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1290680593832564</v>
+        <v>0.1251809890389467</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03503731790828661</v>
+        <v>0.07402304166973565</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06531675683179809</v>
+        <v>0.06921472150464719</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02905754025368296</v>
+        <v>0.07631306347062618</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04723201917247914</v>
+        <v>0.04564477219371199</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03600753466230877</v>
+        <v>0.07554349243636067</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0884280762330556</v>
+        <v>0.08503249588071743</v>
       </c>
       <c r="M112" t="n">
-        <v>0.035864363602153</v>
+        <v>0.07564601863016665</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1297734076890668</v>
+        <v>0.1241438423040864</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0357989987323798</v>
+        <v>0.07563223822777337</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06560491693032089</v>
+        <v>0.06880786161263891</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02967578579099536</v>
+        <v>0.07793674567212885</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0473969787494041</v>
+        <v>0.04527322402070906</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0367736524210813</v>
+        <v>0.07715080078607046</v>
       </c>
       <c r="L113" t="n">
-        <v>0.089196149457962</v>
+        <v>0.08462516214969507</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03662743516815625</v>
+        <v>0.0772555083882553</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1299359649814608</v>
+        <v>0.124000927970445</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03656067955647298</v>
+        <v>0.07724143478581111</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06589092493864918</v>
+        <v>0.06739673176267333</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03029403132830776</v>
+        <v>0.07956042787363155</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04784333283766502</v>
+        <v>0.04470180038770669</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03753977017985383</v>
+        <v>0.07875810913578027</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08933362228908853</v>
+        <v>0.08431733596403407</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03739050673415951</v>
+        <v>0.07886499814634396</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1304566114867535</v>
+        <v>0.1231574355048458</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03732236038056617</v>
+        <v>0.07885063134384884</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06617464448601634</v>
+        <v>0.06298426149142336</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03091227686562016</v>
+        <v>0.08118411007513422</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04797123120192322</v>
+        <v>0.04443239245832217</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03830588793862635</v>
+        <v>0.08036541748549007</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08894098656170385</v>
+        <v>0.08321256291272039</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03815357830016276</v>
+        <v>0.08047448790443261</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1310362274312599</v>
+        <v>0.1215185543741122</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03808404120465936</v>
+        <v>0.08045982790188656</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06645593920165579</v>
+        <v>0.06257338033556184</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03153052240293257</v>
+        <v>0.08280779227663693</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04798082360683983</v>
+        <v>0.04446215589396493</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03907200569739887</v>
+        <v>0.08197272583519988</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08911873411107613</v>
+        <v>0.0833117595414154</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03891664986616602</v>
+        <v>0.08208397766252125</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1317756930412952</v>
+        <v>0.121684710078955</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03884572202875255</v>
+        <v>0.0820690244599243</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06673467271480092</v>
+        <v>0.06616701783176164</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03214876794024497</v>
+        <v>0.0844314744781396</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04797225981707613</v>
+        <v>0.04405797452718752</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0398381234561714</v>
+        <v>0.08358003418490967</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08946735677247403</v>
+        <v>0.08205775384993902</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03967972143216927</v>
+        <v>0.0836934674206099</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1320758885431743</v>
+        <v>0.1211706105079243</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03960740285284573</v>
+        <v>0.08367822101796203</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06701070865468511</v>
+        <v>0.06073525754490283</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03276701347755737</v>
+        <v>0.08605515667964228</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04794568959729334</v>
+        <v>0.04351812812815849</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04060424121494393</v>
+        <v>0.08518734253461947</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0902873463811657</v>
+        <v>0.0812346717575233</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04044279299817253</v>
+        <v>0.08530295717869855</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1320376941632125</v>
+        <v>0.1191558423714679</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04036908367693892</v>
+        <v>0.08528741757599977</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06728391065054179</v>
+        <v>0.05924432484804085</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03338525901486979</v>
+        <v>0.08767883888114497</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04820126271215264</v>
+        <v>0.04314877833400378</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04137035897371646</v>
+        <v>0.08679465088432928</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09007919477241977</v>
+        <v>0.08085406521690736</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04120586456417578</v>
+        <v>0.08691244693678721</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1320619901277246</v>
+        <v>0.1180573135728203</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04113076450103211</v>
+        <v>0.0868966141340375</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06755414233160437</v>
+        <v>0.06370364213210485</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03400350455218219</v>
+        <v>0.08930252108264765</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04833912892631528</v>
+        <v>0.04315608678184933</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04213647673248899</v>
+        <v>0.08840195923403908</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0902433937815047</v>
+        <v>0.08052748618083028</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04196893613017904</v>
+        <v>0.08852193669487586</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1324496566630259</v>
+        <v>0.1176919320152156</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0418924453251253</v>
+        <v>0.08850581069207522</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06782126732710617</v>
+        <v>0.06212275417775785</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03462175008949459</v>
+        <v>0.09092620328415034</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04846329738549032</v>
+        <v>0.04234621510882104</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04290259449126151</v>
+        <v>0.09000926758374889</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09049095993161094</v>
+        <v>0.07986648660203124</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04273200769618229</v>
+        <v>0.09013142645296451</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1325186224777316</v>
+        <v>0.116676605601888</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04265412614921849</v>
+        <v>0.09011500725011296</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06808514926628065</v>
+        <v>0.06051120576566289</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03523999562680699</v>
+        <v>0.09254988548565303</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04806263548477539</v>
+        <v>0.04222532495204484</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04366871225003404</v>
+        <v>0.09161657593345868</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09029071710722353</v>
+        <v>0.07898261843324941</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04349507926218555</v>
+        <v>0.09174091621105317</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1319186223092913</v>
+        <v>0.1153282422360718</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04341580697331167</v>
+        <v>0.09172420380815069</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06834565177836122</v>
+        <v>0.05987854167648302</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03585824116411939</v>
+        <v>0.09417356768715571</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04815279403947736</v>
+        <v>0.04189957794864663</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04443483000880657</v>
+        <v>0.09322388428316848</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08956516633207018</v>
+        <v>0.0777874336272239</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04425815082818881</v>
+        <v>0.09335040596914182</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1316961251775112</v>
+        <v>0.1136637498210012</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04417748779740486</v>
+        <v>0.09333340036618842</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06860263849258119</v>
+        <v>0.0602343066908812</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0364764867014318</v>
+        <v>0.09579724988865838</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04813146147138544</v>
+        <v>0.04127513573575234</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04520094776757909</v>
+        <v>0.09483119263287829</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0902988259908809</v>
+        <v>0.07729248413669385</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04502122239419206</v>
+        <v>0.09495989572723047</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1323299174402884</v>
+        <v>0.1133000362599105</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04493916862149804</v>
+        <v>0.09494259692422616</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06885597303817409</v>
+        <v>0.05658804558952053</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0370947322387442</v>
+        <v>0.09742093209016107</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04799901385052568</v>
+        <v>0.0408581599504879</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04596706552635162</v>
+        <v>0.09643850098258808</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08949350806966694</v>
+        <v>0.07650932191439835</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04578429396019532</v>
+        <v>0.09656938548531913</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1318215541171299</v>
+        <v>0.1112540094560339</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04570084944559123</v>
+        <v>0.09655179348226389</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06910551904437318</v>
+        <v>0.05594930315306401</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0377129777760566</v>
+        <v>0.09904461429166377</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04805582724692418</v>
+        <v>0.04045481222997921</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04673318328512415</v>
+        <v>0.0980458093322979</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08985102455443983</v>
+        <v>0.07524949891307664</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04654736552619857</v>
+        <v>0.09817887524340778</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1308725902275429</v>
+        <v>0.1109425773126055</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04646253026968442</v>
+        <v>0.09816099004030161</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.06935114014041197</v>
+        <v>0.05932762416217467</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03833122331336901</v>
+        <v>0.1006682964931664</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04820227773060697</v>
+        <v>0.04007021760686497</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04749930104389668</v>
+        <v>0.09965311768200769</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08927318743121077</v>
+        <v>0.07492456708546777</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04731043709220183</v>
+        <v>0.09978836500149643</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1317845807910349</v>
+        <v>0.1098826334984301</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04722421109377761</v>
+        <v>0.09977018659833935</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06959269995552381</v>
+        <v>0.05873255339751553</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03894946885068142</v>
+        <v>0.1022919786946691</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04793874137160013</v>
+        <v>0.0396666972536374</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0482654188026692</v>
+        <v>0.1012604260317175</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08956180868599095</v>
+        <v>0.07378367778979714</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04807350865820508</v>
+        <v>0.1013978547595851</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1314590808271126</v>
+        <v>0.1084951337045373</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04798589191787079</v>
+        <v>0.1013793831563771</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.06983006211894208</v>
+        <v>0.05714084044330285</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03956771438799381</v>
+        <v>0.1039156608961718</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0479655942399297</v>
+        <v>0.03942914792413062</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04903153656144173</v>
+        <v>0.1028677343814273</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08901870030479186</v>
+        <v>0.07357603914272448</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04883658022420834</v>
+        <v>0.1030073445176737</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1312976453552834</v>
+        <v>0.1073105034862951</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04874757274196398</v>
+        <v>0.1029885797144148</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.07006309025990018</v>
+        <v>0.05349422090765119</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04018595992530621</v>
+        <v>0.1055393430976745</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04768321240562179</v>
+        <v>0.03896639000369541</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04979765432021425</v>
+        <v>0.1044750427311371</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08924567427362473</v>
+        <v>0.07271817728811766</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04959965179021159</v>
+        <v>0.1046168342757624</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1301018293950546</v>
+        <v>0.1054529465121365</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04950925356605717</v>
+        <v>0.1045977762724526</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07029164800763155</v>
+        <v>0.05380400755715964</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04080420546261862</v>
+        <v>0.1071630252991772</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04779197193870242</v>
+        <v>0.03838724387768261</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05056377207898678</v>
+        <v>0.1060823510808469</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08844454257850098</v>
+        <v>0.07122662884970696</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05036272335621485</v>
+        <v>0.106226324033851</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1296731879659332</v>
+        <v>0.1044466664504948</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05027093439015035</v>
+        <v>0.1062069728304903</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07051559899136958</v>
+        <v>0.05508386374814353</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04142245099993103</v>
+        <v>0.1087867075006799</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04759224890919771</v>
+        <v>0.038000529931443</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0513298898377593</v>
+        <v>0.1076896594305567</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08831711720543173</v>
+        <v>0.07021793045122257</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0511257949222181</v>
+        <v>0.1078358137919397</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1301132760874263</v>
+        <v>0.1032158669698029</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05103261521424354</v>
+        <v>0.107816169388528</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07073480684034761</v>
+        <v>0.0563474528369181</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04204069653724343</v>
+        <v>0.1104103897021826</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04768441938713365</v>
+        <v>0.03711506855032742</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05209600759653184</v>
+        <v>0.1092969677802665</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08806521014042851</v>
+        <v>0.06990861871639484</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05188886648822136</v>
+        <v>0.1094453035500283</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1295236487790415</v>
+        <v>0.1021847517384937</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05179429603833673</v>
+        <v>0.1094253659465657</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.07094913518379911</v>
+        <v>0.05660843817979869</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04265894207455583</v>
+        <v>0.1120340719036852</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04746885944253637</v>
+        <v>0.03693968011968668</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05286212535530436</v>
+        <v>0.1109042761299763</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08709063336950246</v>
+        <v>0.06861523026895389</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05265193805422461</v>
+        <v>0.111054793308117</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1290058610602856</v>
+        <v>0.1012775244250001</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05255597686242992</v>
+        <v>0.1110345625046035</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07115844765095744</v>
+        <v>0.05488048313310054</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04327718761186824</v>
+        <v>0.1136577541051879</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04724594514543191</v>
+        <v>0.03638318502487158</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05362824311407689</v>
+        <v>0.1125115844796861</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08689519887866504</v>
+        <v>0.06825430173263</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05341500962022787</v>
+        <v>0.1126642830662056</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1290614679506658</v>
+        <v>0.09891838869775527</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0533176576865231</v>
+        <v>0.1126437590626412</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07136260787105597</v>
+        <v>0.05417725105313891</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04389543314918064</v>
+        <v>0.1152814363066906</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04731605256584634</v>
+        <v>0.03605440365123297</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05439436087284941</v>
+        <v>0.1141188928293959</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08708071865392747</v>
+        <v>0.06724236973115341</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05417808118623112</v>
+        <v>0.1142737728242943</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1282920244696895</v>
+        <v>0.09823154822519214</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05407933851061628</v>
+        <v>0.1142529556206789</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07156147947332817</v>
+        <v>0.05451240529622911</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04451367868649304</v>
+        <v>0.1169051185081933</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04697955777380572</v>
+        <v>0.03566215638412161</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05516047863162194</v>
+        <v>0.1157262011791057</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08584900468130108</v>
+        <v>0.06629597088825437</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05494115275223438</v>
+        <v>0.1158832625823829</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1277990856368637</v>
+        <v>0.09744120667574385</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05484101933470948</v>
+        <v>0.1158621521787166</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0717549260870074</v>
+        <v>0.0498996092186864</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04513192422380544</v>
+        <v>0.118528800709696</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04683683683933612</v>
+        <v>0.03501526360888833</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05592659639039448</v>
+        <v>0.1173335095288155</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08610186894679722</v>
+        <v>0.06543164182766309</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05570422431823763</v>
+        <v>0.1174927523404716</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1272842064716956</v>
+        <v>0.09587156771784311</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05560270015880266</v>
+        <v>0.1174713487367544</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07194281134132705</v>
+        <v>0.0483525261768261</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04575016976111784</v>
+        <v>0.1201524829111987</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0468882658324636</v>
+        <v>0.03472254571088397</v>
       </c>
       <c r="K139" t="n">
-        <v>0.056692714149167</v>
+        <v>0.1189408178785253</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08564112343642721</v>
+        <v>0.06476591917310984</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05646729588424088</v>
+        <v>0.1191022420985602</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1265489419936925</v>
+        <v>0.09534683501992314</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05636438098289585</v>
+        <v>0.1190805452947921</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07212499886552051</v>
+        <v>0.05188481952696346</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04636841529843026</v>
+        <v>0.1217761651127014</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04643422082321422</v>
+        <v>0.03479282307545929</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05745883190793952</v>
+        <v>0.1205481262282351</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08456858013620233</v>
+        <v>0.06441533954832482</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05723036745024414</v>
+        <v>0.1207117318566489</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1257948472223615</v>
+        <v>0.09459121225041689</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05712606180698904</v>
+        <v>0.1206897418528299</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0723013522888212</v>
+        <v>0.05151015262541375</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04698666083574266</v>
+        <v>0.123399847314204</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04627507788161404</v>
+        <v>0.03463491608796516</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05822494966671204</v>
+        <v>0.1221554345779449</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08398605103213386</v>
+        <v>0.06439643957703833</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0579934390162474</v>
+        <v>0.1223212216147375</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1256234771772097</v>
+        <v>0.09382890307775732</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05788774263108223</v>
+        <v>0.1222989384108676</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07247173524046252</v>
+        <v>0.04824218882849228</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04760490637305505</v>
+        <v>0.1250235295157067</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04641121307768915</v>
+        <v>0.03425764513375236</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05899106742548458</v>
+        <v>0.1237627429276547</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0837953481102332</v>
+        <v>0.06462575588298056</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05875651058225065</v>
+        <v>0.1239307113728262</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1245363868777445</v>
+        <v>0.09448411117037742</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05864942345517541</v>
+        <v>0.1239081349689053</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.07263601134967784</v>
+        <v>0.05009459149251431</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04822315191036747</v>
+        <v>0.1266472117172094</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04604300248146562</v>
+        <v>0.03465388659609106</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0597571851842571</v>
+        <v>0.1253700512773645</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08379828335651168</v>
+        <v>0.06410371658617553</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05951958214825391</v>
+        <v>0.1255402011309149</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1246351313434728</v>
+        <v>0.09375512221860827</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0594111042792686</v>
+        <v>0.125517331526943</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07279404424570057</v>
+        <v>0.048071142404011</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04884139744767987</v>
+        <v>0.1282708939187121</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04607082216296947</v>
+        <v>0.03456868588924433</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06052330294302963</v>
+        <v>0.1269773596270743</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08319666875698056</v>
+        <v>0.0642274588112095</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06028265371425717</v>
+        <v>0.1271496908890035</v>
       </c>
       <c r="N144" t="n">
-        <v>0.123421265593902</v>
+        <v>0.09439066086034653</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06017278510336179</v>
+        <v>0.1271265280849808</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.07294569755776412</v>
+        <v>0.0500893618204038</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04945964298499227</v>
+        <v>0.1298945761202148</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04569504819222682</v>
+        <v>0.03469595558997966</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06128942070180216</v>
+        <v>0.1285846679767841</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08199231629765108</v>
+        <v>0.06477474672838676</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06104572528026043</v>
+        <v>0.1287591806470922</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1235963446485393</v>
+        <v>0.09476062931925172</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06093446592745497</v>
+        <v>0.1287357246430185</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07309083491510188</v>
+        <v>0.04512691487553765</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05007788852230467</v>
+        <v>0.1315182583217175</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04551605663926368</v>
+        <v>0.03433504757959444</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06205553846057468</v>
+        <v>0.1301919763264939</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08228703796453474</v>
+        <v>0.06394436523261929</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06180879684626368</v>
+        <v>0.1303686704051808</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1225619235268917</v>
+        <v>0.09386324911858396</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06169614675154816</v>
+        <v>0.1303449212010563</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.07322931994694723</v>
+        <v>0.04818279759096764</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05069613405961707</v>
+        <v>0.1331419405232201</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04533422357410616</v>
+        <v>0.03468531373938605</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06282165621934721</v>
+        <v>0.1317992846762037</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08158264574364277</v>
+        <v>0.0645350992188192</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06257186841226693</v>
+        <v>0.1319781601632695</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1212195572484665</v>
+        <v>0.0942967417816033</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06245782757564135</v>
+        <v>0.131954117759094</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.07336101628253361</v>
+        <v>0.05025600598824884</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05131437959692948</v>
+        <v>0.1347656227247228</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04504992506678029</v>
+        <v>0.03474610595065195</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06358777397811974</v>
+        <v>0.1334065930259135</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08118095162098637</v>
+        <v>0.06444573358189856</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06333493997827019</v>
+        <v>0.1335876499213581</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1216708008327709</v>
+        <v>0.09455932883157009</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06321950839973454</v>
+        <v>0.1335633143171317</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.07348578755109436</v>
+        <v>0.04734553608893632</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05193262513424188</v>
+        <v>0.1363893049262255</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04516353718731216</v>
+        <v>0.03461677609468951</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06435389173689227</v>
+        <v>0.1350139013756233</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08008376758257707</v>
+        <v>0.06437505321676937</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06409801154427344</v>
+        <v>0.1351971396794468</v>
       </c>
       <c r="N149" t="n">
-        <v>0.121017209299312</v>
+        <v>0.09414923179174439</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06398118922382773</v>
+        <v>0.1351725108751694</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07360349738186295</v>
+        <v>0.04645038391458517</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05255087067155428</v>
+        <v>0.1380129871277282</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04467543600572782</v>
+        <v>0.03469667605279612</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06512000949566479</v>
+        <v>0.1366212097253331</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08029290561442598</v>
+        <v>0.06472184301834374</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06486108311027669</v>
+        <v>0.1368066294375354</v>
       </c>
       <c r="N150" t="n">
-        <v>0.119360337667597</v>
+        <v>0.09536467218538641</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06474287004792091</v>
+        <v>0.1367817074332072</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07371400940407272</v>
+        <v>0.04656954548675046</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05316911620886669</v>
+        <v>0.1396366693292309</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04488599759205335</v>
+        <v>0.03508515770626924</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06588612725443732</v>
+        <v>0.1382285180750429</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07961017770254455</v>
+        <v>0.06518488788153376</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06562415467627995</v>
+        <v>0.1384161191956241</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1191017409571331</v>
+        <v>0.09510387153575633</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06550455087201411</v>
+        <v>0.1383909039912449</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07381718724695707</v>
+        <v>0.05170201682698729</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05378736174617909</v>
+        <v>0.1412603515307336</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04439559801631481</v>
+        <v>0.03518157293640624</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06665224501320985</v>
+        <v>0.1398358264247527</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07903739583294409</v>
+        <v>0.06566297270125146</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06638722624228321</v>
+        <v>0.1400256089537127</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1179429741874275</v>
+        <v>0.09526505136611424</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06626623169610729</v>
+        <v>0.1400001005492826</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.07391289453974945</v>
+        <v>0.05284679395685073</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0544056072834915</v>
+        <v>0.1428840337322362</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04410461334853825</v>
+        <v>0.03498527362450456</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06741836277198238</v>
+        <v>0.1414431347744625</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07807637199163583</v>
+        <v>0.06535488237240891</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06715029780828646</v>
+        <v>0.1416350987118014</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1184855923779873</v>
+        <v>0.0959464331997204</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06702791252020047</v>
+        <v>0.1416092971073204</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.07400099491168319</v>
+        <v>0.05000287289789582</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0550238528208039</v>
+        <v>0.1445077159337389</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04431341965874977</v>
+        <v>0.03539561165186156</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0681844805307549</v>
+        <v>0.1430504431241723</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07782891816463117</v>
+        <v>0.0658594017899182</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06791336937428973</v>
+        <v>0.14324458846989</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1170311505483198</v>
+        <v>0.09654623855983496</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06778959334429366</v>
+        <v>0.1432184936653581</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.07408135199199173</v>
+        <v>0.05216924967167767</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0556420983581163</v>
+        <v>0.1461313981352416</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04402239301697539</v>
+        <v>0.03512088091401716</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06895059828952743</v>
+        <v>0.1446577514738821</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07759684633794137</v>
+        <v>0.06578187950505668</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06867644094029297</v>
+        <v>0.1448540782279787</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1171812037179322</v>
+        <v>0.09647390560823349</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06855127416838686</v>
+        <v>0.1448276902233958</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07415382940990844</v>
+        <v>0.04835243136722352</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05626034389542871</v>
+        <v>0.1477550803367443</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04373190949324121</v>
+        <v>0.03563944699739716</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06971671604829996</v>
+        <v>0.1462650598235919</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07698196849757782</v>
+        <v>0.06666100012513476</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06943951250629622</v>
+        <v>0.1464635679860674</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1161373069063316</v>
+        <v>0.09693488523075272</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06931295499248004</v>
+        <v>0.1464368867814335</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.07421829079466674</v>
+        <v>0.05366876920164514</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05687858943274111</v>
+        <v>0.149378762538247</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04354234515757327</v>
+        <v>0.03595406977472919</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07048283380707247</v>
+        <v>0.1478723681733017</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07708609662955174</v>
+        <v>0.06722533481681039</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07020258407229948</v>
+        <v>0.148073057744156</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1156010151330251</v>
+        <v>0.09846594455450924</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07007463581657322</v>
+        <v>0.1480460833394713</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.07427459977550005</v>
+        <v>0.05413510548325252</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05749683497005351</v>
+        <v>0.1510024447397497</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04314583693410366</v>
+        <v>0.03644518410667223</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07124895156584501</v>
+        <v>0.1494796765230115</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07640593486958136</v>
+        <v>0.0679382024902396</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07096565563830275</v>
+        <v>0.1496825475022447</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1146587023687096</v>
+        <v>0.09951339565923423</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07083631664066641</v>
+        <v>0.149655279897509</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.07432261998164169</v>
+        <v>0.05072113252598183</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05811508050736592</v>
+        <v>0.1526261269412524</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04322923318788315</v>
+        <v>0.03669322485388524</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07201506932461754</v>
+        <v>0.1510869848727213</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07583316400561885</v>
+        <v>0.06846292205557833</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07172872720430599</v>
+        <v>0.1512920372603333</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1137867632239594</v>
+        <v>0.1002235506246585</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0715979974647596</v>
+        <v>0.1512644764555467</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.07436221504232512</v>
+        <v>0.04939654264376923</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05873332604467831</v>
+        <v>0.154249809142755</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04299349259430889</v>
+        <v>0.03707862687702725</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07278118708339006</v>
+        <v>0.1526942932224311</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07556695452917619</v>
+        <v>0.06916281242298256</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07249179877030926</v>
+        <v>0.152901527018422</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1125859962861083</v>
+        <v>0.1018427215305135</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07235967828885279</v>
+        <v>0.1528736730135845</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.07439324858678376</v>
+        <v>0.05013102815055093</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05935157158199073</v>
+        <v>0.1558734913442577</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04263980829704225</v>
+        <v>0.0374818250367572</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0735473048421626</v>
+        <v>0.1543016015721409</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07550661308378845</v>
+        <v>0.06980119250260824</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07325487033631251</v>
+        <v>0.1545110167765106</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1118575617652147</v>
+        <v>0.1026172204565302</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07312135911294597</v>
+        <v>0.1544828695716222</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.07441558424425093</v>
+        <v>0.05189428136026306</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05996981711930313</v>
+        <v>0.1574971735457604</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04226937343974463</v>
+        <v>0.03838325419373408</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07431342260093511</v>
+        <v>0.1559089099218507</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07535144631299051</v>
+        <v>0.07144138120461141</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07401794190231575</v>
+        <v>0.1561205065345993</v>
       </c>
       <c r="N162" t="n">
-        <v>0.112202619871337</v>
+        <v>0.1041933594824397</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07388303993703917</v>
+        <v>0.15609206612966</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.07442908564396006</v>
+        <v>0.05765599458684179</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06058806265661552</v>
+        <v>0.1591208557472631</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04208338116607734</v>
+        <v>0.03856334920861688</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07507954035970765</v>
+        <v>0.1575162182715605</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07480076086031745</v>
+        <v>0.07164669743914795</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07478101346831902</v>
+        <v>0.1577299962926879</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1111223308145334</v>
+        <v>0.1055174506879732</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07464472076113235</v>
+        <v>0.1577012626876977</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.07443361641514459</v>
+        <v>0.05338586014422331</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06120630819392794</v>
+        <v>0.1607445379487658</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04198302461970181</v>
+        <v>0.03930254494206457</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07584565811848017</v>
+        <v>0.1591235266212704</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07375386336930412</v>
+        <v>0.07248046011637391</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07554408503432226</v>
+        <v>0.1593394860507766</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1108178548048626</v>
+        <v>0.1065358061528615</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07540640158522553</v>
+        <v>0.1593104592457354</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.07443361641514459</v>
+        <v>0.05405357034634378</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06120630819392794</v>
+        <v>0.1623682201502684</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04126949694427938</v>
+        <v>0.03968272535663492</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07661177587725269</v>
+        <v>0.1607308349709801</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0735100604834856</v>
+        <v>0.07340631278187087</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07630715660032553</v>
+        <v>0.1609489758088652</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1096903520523828</v>
+        <v>0.1071954833724026</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07616808240931872</v>
+        <v>0.1609196558037731</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07318954673367811</v>
+        <v>0.05663103061690668</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06120603966546392</v>
+        <v>0.1639919023517711</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04094399128347143</v>
+        <v>0.03973442100147506</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07737789363602524</v>
+        <v>0.1623381433206899</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07356865884639677</v>
+        <v>0.07386611325993792</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07707022816632879</v>
+        <v>0.1625584655669539</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1081409827671526</v>
+        <v>0.1080611070087201</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07692976323341191</v>
+        <v>0.1625288523618109</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.07195947049681953</v>
+        <v>0.0581648078657076</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0612057711369999</v>
+        <v>0.1656155845532739</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04090770078093932</v>
+        <v>0.03997758320416024</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07814401139479775</v>
+        <v>0.1639454516703998</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07362896510157271</v>
+        <v>0.07470978220641381</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07783329973233204</v>
+        <v>0.1641679553250425</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1072709071592304</v>
+        <v>0.1103031459949174</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0776914440575051</v>
+        <v>0.1641380489198486</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.07074405897728481</v>
+        <v>0.05968551083346506</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06120550260853588</v>
+        <v>0.1672392667547765</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04036181858034445</v>
+        <v>0.04031283262979717</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07891012915357028</v>
+        <v>0.1655527600201095</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07299028589254825</v>
+        <v>0.07503848325587062</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07859637129833529</v>
+        <v>0.1657774450831312</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1060812854386745</v>
+        <v>0.1112233034734146</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07845312488159828</v>
+        <v>0.1657472454778863</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.06954398344794829</v>
+        <v>0.05819410097120054</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06120523408007186</v>
+        <v>0.1688629489562792</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04030753782534814</v>
+        <v>0.04104078994349257</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0796762469123428</v>
+        <v>0.1671600683698193</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07295192786285848</v>
+        <v>0.07565338004288025</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07935944286433855</v>
+        <v>0.1673869348412198</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1054732778155434</v>
+        <v>0.1121232825866315</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07921480570569146</v>
+        <v>0.1673564420359241</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0683599151815254</v>
+        <v>0.05669153972993558</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06120496555160785</v>
+        <v>0.1704866311577819</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0396460516596118</v>
+        <v>0.04116207581035322</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08044236467111533</v>
+        <v>0.1687673767195292</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07241319765603826</v>
+        <v>0.07665563620201482</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0801225144303418</v>
+        <v>0.1689964245993085</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1044480444998954</v>
+        <v>0.1127047864769879</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07997648652978466</v>
+        <v>0.1689656385939618</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.06719252545078458</v>
+        <v>0.05617878856069172</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06120469702314384</v>
+        <v>0.1721103133592846</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03917855322679678</v>
+        <v>0.04147731089548581</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08120848242988786</v>
+        <v>0.1703746850692389</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07187340191562269</v>
+        <v>0.07684641536784623</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08088558599634506</v>
+        <v>0.1706059143573971</v>
       </c>
       <c r="N171" t="n">
-        <v>0.103306745701789</v>
+        <v>0.1126695182869041</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08073816735387784</v>
+        <v>0.1705748351519995</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0660424855284448</v>
+        <v>0.05665680891449046</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06120442849467981</v>
+        <v>0.1737339955607873</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03890623567056446</v>
+        <v>0.04158711586399712</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08197460018866039</v>
+        <v>0.1719819934189488</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07193184728514665</v>
+        <v>0.07752688117494652</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08164865756234832</v>
+        <v>0.1722154041154858</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1031505416312826</v>
+        <v>0.1136191811587999</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08149984817797103</v>
+        <v>0.1721840317100373</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06491046668737466</v>
+        <v>0.06012656224235334</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0612041599662158</v>
+        <v>0.1753576777622899</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03883029213457621</v>
+        <v>0.04229211138099385</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08274071794743292</v>
+        <v>0.1735893017686586</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07108784040814514</v>
+        <v>0.07869819725788765</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08241172912835157</v>
+        <v>0.1738248938735744</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1019805924984347</v>
+        <v>0.1145554782350952</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08226152900206422</v>
+        <v>0.173793228268075</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.06379714020029234</v>
+        <v>0.06058900999530187</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06120389143775178</v>
+        <v>0.1769813599637926</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03845191576249342</v>
+        <v>0.04259291811158272</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08350683570620544</v>
+        <v>0.1751966101183683</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07124068792815313</v>
+        <v>0.07906152725124166</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08317480069435482</v>
+        <v>0.1754343836316631</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1008980585133036</v>
+        <v>0.1155801126582099</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08302320982615741</v>
+        <v>0.1754024248261127</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.06270317733996639</v>
+        <v>0.06204511362435758</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06120362290928777</v>
+        <v>0.1786050421652953</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03807229969797742</v>
+        <v>0.04289015672087051</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08427295346497797</v>
+        <v>0.1768039184680782</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07038969648870558</v>
+        <v>0.07981803478958055</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08393787226035808</v>
+        <v>0.1770438733897517</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1001040998859478</v>
+        <v>0.1164947875705643</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08378489065025059</v>
+        <v>0.1770116213841504</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.06162924937911901</v>
+        <v>0.062495834580542</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06120335438082374</v>
+        <v>0.180228724366798</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0375926370846896</v>
+        <v>0.04298444787396391</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0850390712237505</v>
+        <v>0.178411226817788</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06973417273333749</v>
+        <v>0.07966888350747625</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08470094382636133</v>
+        <v>0.1786533631478404</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09929987682642555</v>
+        <v>0.1167012061145779</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08454657147434377</v>
+        <v>0.1786208179421882</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.06057602759061229</v>
+        <v>0.05794213431487663</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06120308585235973</v>
+        <v>0.1818524065683007</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03711412106629135</v>
+        <v>0.04328322185147573</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08580518898252303</v>
+        <v>0.1800185351674978</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06947342330558376</v>
+        <v>0.0807243319796897</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08546401539236459</v>
+        <v>0.180262852905929</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09858654954479551</v>
+        <v>0.1184150568086631</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08530825229843697</v>
+        <v>0.1802300145002259</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.05954418324716762</v>
+        <v>0.05939871386490729</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06120281732389571</v>
+        <v>0.1834760887698033</v>
       </c>
       <c r="J178" t="n">
-        <v>0.036537944786444</v>
+        <v>0.04339921922636054</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08657130674129554</v>
+        <v>0.1816258435172076</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06970675484897948</v>
+        <v>0.08151218269011307</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08622708695836785</v>
+        <v>0.1818723426640177</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09646527825111589</v>
+        <v>0.1183763826489245</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08606993312253015</v>
+        <v>0.1818392110582636</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.05853438762155351</v>
+        <v>0.06588077920051617</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0612025487954317</v>
+        <v>0.1850997709713061</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03656530138880895</v>
+        <v>0.04412283613698571</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08733742450006808</v>
+        <v>0.1832331518669174</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06853347400705945</v>
+        <v>0.08141662921497644</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0869901585243711</v>
+        <v>0.1834818324221063</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09603722315544522</v>
+        <v>0.1201615447768301</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08683161394662334</v>
+        <v>0.1834484076163014</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05754731198649608</v>
+        <v>0.06137233629728117</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06120228026696767</v>
+        <v>0.1867234531728087</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03599738401704757</v>
+        <v>0.04424341065150217</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08810354225884061</v>
+        <v>0.1848404602166271</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06865288742335882</v>
+        <v>0.08201768236466833</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08775323009037436</v>
+        <v>0.185091322180195</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09560354446784186</v>
+        <v>0.1203412862094853</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08759329477071652</v>
+        <v>0.1850576041743391</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.05658362761484982</v>
+        <v>0.06485686912239094</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06120201173850365</v>
+        <v>0.1883471353743114</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03553538581482123</v>
+        <v>0.04475028083806087</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08886966001761314</v>
+        <v>0.186447768566337</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06806430174141245</v>
+        <v>0.08259535294957682</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08851630165637761</v>
+        <v>0.1867008119382836</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09446540239836426</v>
+        <v>0.1211863499639959</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08835497559480972</v>
+        <v>0.1866668007323768</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.05564400577933981</v>
+        <v>0.06231786164303407</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06120174321003964</v>
+        <v>0.1899708175758141</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03548049992579128</v>
+        <v>0.04463278476481276</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08963577777638566</v>
+        <v>0.1880550769160468</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06746702360475534</v>
+        <v>0.08402965178009025</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08927937322238086</v>
+        <v>0.1883103016963723</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09222395715707077</v>
+        <v>0.1227674790574675</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0891166564189029</v>
+        <v>0.1882759972904146</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0547291177527346</v>
+        <v>0.06573879782639919</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06120147468157563</v>
+        <v>0.1915944997773168</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0350339194936191</v>
+        <v>0.04528026049990871</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09040189553515818</v>
+        <v>0.1896623852657566</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06776035965692245</v>
+        <v>0.08390058966659714</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09004244478838412</v>
+        <v>0.1899197914544609</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09208036895401983</v>
+        <v>0.1227554165070059</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08987833724299608</v>
+        <v>0.1898851938484523</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.05383963480776463</v>
+        <v>0.06810316163967489</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0612012061531116</v>
+        <v>0.1932181819788195</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03479683766196609</v>
+        <v>0.04538204611149969</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09116801329393072</v>
+        <v>0.1912696936154664</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06684361654144882</v>
+        <v>0.08468817741948564</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09080551635438738</v>
+        <v>0.1915292812125496</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09143579799926987</v>
+        <v>0.1240209053297167</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09064001806708928</v>
+        <v>0.1914943904064901</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.05297622821727584</v>
+        <v>0.06139443705004979</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06120093762464759</v>
+        <v>0.1948418641803221</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03427044757449359</v>
+        <v>0.0456276704267345</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09193413105270323</v>
+        <v>0.1928770019651762</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0670161009018693</v>
+        <v>0.08447242584914405</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09156858792039063</v>
+        <v>0.1931387709706383</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09039140450287941</v>
+        <v>0.1235346885427055</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09140169889118246</v>
+        <v>0.1931035869645278</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.05213956925399754</v>
+        <v>0.06759999227934418</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06120066909618357</v>
+        <v>0.1964655463818248</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03385594237486296</v>
+        <v>0.04534508587344427</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09270024881147576</v>
+        <v>0.194484310314886</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06637711938171895</v>
+        <v>0.08459251061869311</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09233165948639389</v>
+        <v>0.1947482607287269</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08924834867490672</v>
+        <v>0.1243567764074813</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09216337971527565</v>
+        <v>0.1947127835225655</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0513303291906983</v>
+        <v>0.06877743070858508</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06120040056771956</v>
+        <v>0.1980892285833275</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03345451520673559</v>
+        <v>0.04565999508546663</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0934663665702483</v>
+        <v>0.1960916186645958</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06592597862453267</v>
+        <v>0.08520785731069269</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09309473105239714</v>
+        <v>0.1963577504868156</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08770779072541024</v>
+        <v>0.1241719837590049</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09292506053936883</v>
+        <v>0.1963219800806032</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.05054917930011325</v>
+        <v>0.06795101299476689</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06120013203925553</v>
+        <v>0.1997129107848302</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03326735921377287</v>
+        <v>0.04577235882544968</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09423248432902082</v>
+        <v>0.1976989270143056</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06486198527384554</v>
+        <v>0.08491844584923358</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09385780261840039</v>
+        <v>0.1979672402449042</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08647089086444837</v>
+        <v>0.1250802241060475</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09368674136346203</v>
+        <v>0.197931176638641</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.049796790855079</v>
+        <v>0.06312067835665394</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06119986351079152</v>
+        <v>0.2013365929863329</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03299566753963612</v>
+        <v>0.04598213785604145</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09499860208779336</v>
+        <v>0.1993062353640154</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06438444597319243</v>
+        <v>0.08552420267139305</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09462087418440365</v>
+        <v>0.1995767300029929</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08583880930207954</v>
+        <v>0.1258813897789532</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09444842218755521</v>
+        <v>0.1995403731966787</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04907109409785809</v>
+        <v>0.06328636601301063</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0611995949823275</v>
+        <v>0.2029602751878356</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03264063332798675</v>
+        <v>0.04588929293989</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09576471984656587</v>
+        <v>0.2009135437137252</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06419266736610837</v>
+        <v>0.08582505421424846</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09538394575040691</v>
+        <v>0.2011862197610815</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08481270624836224</v>
+        <v>0.1250753731080658</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09521010301164839</v>
+        <v>0.2011495697547164</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04835631411838938</v>
+        <v>0.06744801518260132</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06119932645386349</v>
+        <v>0.2045839573893383</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03260344972248612</v>
+        <v>0.04599378483964339</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0965308376053384</v>
+        <v>0.202520852063435</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06418595609612829</v>
+        <v>0.08552092691487717</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09614701731641016</v>
+        <v>0.2027957095191702</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08399374191335479</v>
+        <v>0.1259620664237295</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09597178383574158</v>
+        <v>0.2027587663127541</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04765038115893905</v>
+        <v>0.0626055650841903</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06119905792539946</v>
+        <v>0.206207639590841</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03228530986679561</v>
+        <v>0.04639557431794966</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09729695536411093</v>
+        <v>0.2041281604131448</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06326361880678716</v>
+        <v>0.0864117472103566</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09691008888241343</v>
+        <v>0.2044051992772588</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08238307650711557</v>
+        <v>0.1267413620562882</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09673346465983478</v>
+        <v>0.2043679628707919</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04695396649233714</v>
+        <v>0.06275895493654202</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06119878939693545</v>
+        <v>0.2078313217923436</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03228168005585767</v>
+        <v>0.04629462213745689</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09806307312288345</v>
+        <v>0.2057354687628546</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06249642847935347</v>
+        <v>0.08649744153776395</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09767316044841667</v>
+        <v>0.2060146890353475</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08155242557058678</v>
+        <v>0.1261131523360858</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09749514548392796</v>
+        <v>0.2059771594288296</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.04626774139132128</v>
+        <v>0.06790812395842072</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06119852086847143</v>
+        <v>0.2094550039938463</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03178559059108767</v>
+        <v>0.0463908890608131</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09882919088165598</v>
+        <v>0.2073427771125644</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06235347504030991</v>
+        <v>0.08687793633417679</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09843623201441992</v>
+        <v>0.2076241787934361</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08036960608725002</v>
+        <v>0.1271773295934664</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09825682630802114</v>
+        <v>0.2075863559868674</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.04559237712866</v>
+        <v>0.06305301136859084</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06119825234000742</v>
+        <v>0.211078686195349</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03159662468768262</v>
+        <v>0.04628433585066638</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09959530864042851</v>
+        <v>0.2089500854622742</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06153969869490419</v>
+        <v>0.0864531580366722</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09919930358042318</v>
+        <v>0.2092336685515248</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07933865036088733</v>
+        <v>0.1269337861587739</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09901850713211434</v>
+        <v>0.2091955525449051</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04492854497709325</v>
+        <v>0.0631935563858167</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06119798381154339</v>
+        <v>0.2127023683968517</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03151438653285756</v>
+        <v>0.04647492326966476</v>
       </c>
       <c r="K196" t="n">
-        <v>0.100361426399201</v>
+        <v>0.210557393811984</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06006010196457218</v>
+        <v>0.08652303308232767</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09996237514642643</v>
+        <v>0.2108431583096134</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07756366074022586</v>
+        <v>0.1273824143623523</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09978018795620752</v>
+        <v>0.2108047491029428</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.04427691620944739</v>
+        <v>0.06832969822886267</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06119771528307938</v>
+        <v>0.2143260505983544</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03133848031382752</v>
+        <v>0.04686261208045631</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1011275441579736</v>
+        <v>0.2121647021616938</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05961968737074957</v>
+        <v>0.08718748790822062</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1007254467124297</v>
+        <v>0.2124526480677021</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07684873957399296</v>
+        <v>0.1275231065345456</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1005418687803007</v>
+        <v>0.2124139456609806</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.04363816209846179</v>
+        <v>0.06446137611649308</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06119744675461537</v>
+        <v>0.215949732799857</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0311685102178076</v>
+        <v>0.04654736304568907</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1018936619167461</v>
+        <v>0.2137720105114036</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05852345743487219</v>
+        <v>0.08684644895142835</v>
       </c>
       <c r="M198" t="n">
-        <v>0.101488518278433</v>
+        <v>0.2140621378257908</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07549798921091561</v>
+        <v>0.1282557550056978</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1013035496043939</v>
+        <v>0.2140231422190183</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.04301295391690503</v>
+        <v>0.06358852926747227</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06119717822615135</v>
+        <v>0.2175734150013598</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03110408043201279</v>
+        <v>0.0466291369280111</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1026597796755186</v>
+        <v>0.2153793188611134</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05817641467837584</v>
+        <v>0.08769984264902819</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1022515898444362</v>
+        <v>0.2156716275838794</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07431551199972114</v>
+        <v>0.1283802521061528</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1020652304284871</v>
+        <v>0.215632338777056</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.04240196293751937</v>
+        <v>0.06771109690056465</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06119690969768733</v>
+        <v>0.2191970972028624</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03104479514365821</v>
+        <v>0.04690789449007043</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1034258974342911</v>
+        <v>0.2169866272108232</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05718356162269622</v>
+        <v>0.08794759543809749</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1030146614104395</v>
+        <v>0.217281117341968</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07270541028913668</v>
+        <v>0.1285964901662547</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1028269112525803</v>
+        <v>0.2172415353350937</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0418058604331266</v>
+        <v>0.06982901823453458</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06119664116922331</v>
+        <v>0.2208207794043651</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03079025853995887</v>
+        <v>0.0470835964945152</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1041920151930637</v>
+        <v>0.218593935560533</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05614990078926912</v>
+        <v>0.08778963375571353</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1037777329764427</v>
+        <v>0.2188906071000567</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07197178642788948</v>
+        <v>0.1282043615163473</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1035885920766735</v>
+        <v>0.2188507318931315</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.04122531767646835</v>
+        <v>0.06694223248814629</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0611963726407593</v>
+        <v>0.2224444616058678</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03054007480812983</v>
+        <v>0.04685620370399338</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1049581329518362</v>
+        <v>0.2202012439102428</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05508043469953031</v>
+        <v>0.08732588403895386</v>
       </c>
       <c r="M202" t="n">
-        <v>0.104540804542446</v>
+        <v>0.2205000968581453</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0706187427647067</v>
+        <v>0.1287037584867748</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1043502729007666</v>
+        <v>0.2204599284511692</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.04066100594031319</v>
+        <v>0.0670506788801643</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06119610411229528</v>
+        <v>0.2240681438073705</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03059384813538611</v>
+        <v>0.04712567688115303</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1057242507106087</v>
+        <v>0.2218085522599526</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05368016587491559</v>
+        <v>0.08745627272489565</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1053038761084492</v>
+        <v>0.222109586616234</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06965038164831561</v>
+        <v>0.1290945734078811</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1051119537248598</v>
+        <v>0.2220691250092069</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0401135964974062</v>
+        <v>0.06815429662935282</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06119583558383126</v>
+        <v>0.2256918260088732</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03035118270894278</v>
+        <v>0.04739197678864225</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1064903684693812</v>
+        <v>0.2234158606096624</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05265409683686079</v>
+        <v>0.08848072625061632</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1060669476744525</v>
+        <v>0.2237190763743226</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06717080542744319</v>
+        <v>0.1292766986100101</v>
       </c>
       <c r="O204" t="n">
-        <v>0.105873634548953</v>
+        <v>0.2236783215672447</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03958376062056361</v>
+        <v>0.0712530249544763</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06119556705536724</v>
+        <v>0.2273155082103759</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03001168271601493</v>
+        <v>0.04725506418910905</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1072564862281538</v>
+        <v>0.2250231689593722</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05100723010680158</v>
+        <v>0.08829917105319324</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1068300192404557</v>
+        <v>0.2253285661324113</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06668411645081695</v>
+        <v>0.1291500264235059</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1066353153730462</v>
+        <v>0.2252875181252824</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03907216958252979</v>
+        <v>0.06434680307429907</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06119529852690322</v>
+        <v>0.2289391904118785</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03007495234381755</v>
+        <v>0.04731489984520151</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1080226039869263</v>
+        <v>0.226630477309082</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05034456820617378</v>
+        <v>0.0884115335697036</v>
       </c>
       <c r="M206" t="n">
-        <v>0.107593090806459</v>
+        <v>0.2269380558905</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06469441706716372</v>
+        <v>0.1299144491787123</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1073969961971394</v>
+        <v>0.2268967146833201</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03857949465607328</v>
+        <v>0.06443557020758545</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06119502999843921</v>
+        <v>0.2305628726133812</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02994059577956572</v>
+        <v>0.0475714445195677</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1087887217456988</v>
+        <v>0.2282377856587918</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0490711136564132</v>
+        <v>0.08831774023722505</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1083561623724622</v>
+        <v>0.2285475456485886</v>
       </c>
       <c r="N207" t="n">
-        <v>0.06310580962521101</v>
+        <v>0.1294698592059735</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1081586770212326</v>
+        <v>0.2285059112413579</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03810640711394249</v>
+        <v>0.06951926557309984</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06119476146997518</v>
+        <v>0.2321865548148839</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02960821721047451</v>
+        <v>0.04732465897485563</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1095548395044714</v>
+        <v>0.2298450940085016</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04819186897895553</v>
+        <v>0.08841771749283467</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1091192339384655</v>
+        <v>0.2301570354066772</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06192239647368591</v>
+        <v>0.1302161488356334</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1089203578453258</v>
+        <v>0.2301151077993956</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03765357822894716</v>
+        <v>0.06859782838960654</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06119449294151117</v>
+        <v>0.2338102370163866</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0296774208237589</v>
+        <v>0.04737450397371339</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1103209572632439</v>
+        <v>0.2314524023582114</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04631183669523664</v>
+        <v>0.08841139177361002</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1098823055044688</v>
+        <v>0.2317665251647659</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0611482799613155</v>
+        <v>0.1301532103980358</v>
       </c>
       <c r="O209" t="n">
-        <v>0.109682038669419</v>
+        <v>0.2317243043574333</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03722167927383485</v>
+        <v>0.06667119787586998</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06119422441304716</v>
+        <v>0.2354339192178893</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02964781080663402</v>
+        <v>0.04742094027878901</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1110870750220164</v>
+        <v>0.2330597107079212</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04503601932669218</v>
+        <v>0.08879868951662828</v>
       </c>
       <c r="M210" t="n">
-        <v>0.110645377070472</v>
+        <v>0.2333760149228546</v>
       </c>
       <c r="N210" t="n">
-        <v>0.05998756243682712</v>
+        <v>0.130180936223525</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1104437194935121</v>
+        <v>0.233333500915471</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03681138152137409</v>
+        <v>0.06973931325065447</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06119395588458314</v>
+        <v>0.237057601419392</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02951899134631487</v>
+        <v>0.04766392865273054</v>
       </c>
       <c r="K211" t="n">
-        <v>0.111853192780789</v>
+        <v>0.234667019057631</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04406941939475809</v>
+        <v>0.08847953715896695</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1114084486364753</v>
+        <v>0.2349855046809432</v>
       </c>
       <c r="N211" t="n">
-        <v>0.05834434624894785</v>
+        <v>0.1300992186424448</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1112054003176053</v>
+        <v>0.2349426974735088</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03642335624431703</v>
+        <v>0.06980211373272432</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06119368735611912</v>
+        <v>0.2386812836208947</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02949056663001652</v>
+        <v>0.04760342985818608</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1126193105395615</v>
+        <v>0.2362743274073408</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04341703942087005</v>
+        <v>0.08855386113770325</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1121715202024785</v>
+        <v>0.2365949944390318</v>
       </c>
       <c r="N212" t="n">
-        <v>0.05682273374640501</v>
+        <v>0.1303079499851392</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1119670811416985</v>
+        <v>0.2365518940315465</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03605827471546605</v>
+        <v>0.07085953854084398</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0611934188276551</v>
+        <v>0.2403049658223973</v>
       </c>
       <c r="J213" t="n">
-        <v>0.029362140844954</v>
+        <v>0.04763940465780363</v>
       </c>
       <c r="K213" t="n">
-        <v>0.113385428298334</v>
+        <v>0.2378816357570506</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04198388192646385</v>
+        <v>0.08852158788991454</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1129345917684818</v>
+        <v>0.2382044841971205</v>
       </c>
       <c r="N213" t="n">
-        <v>0.05512682727792567</v>
+        <v>0.1295070225819521</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1127287619657917</v>
+        <v>0.2381610905895842</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0357168082075723</v>
+        <v>0.06891152689377772</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06119315029919109</v>
+        <v>0.2419286480239</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02923331817834239</v>
+        <v>0.04777181381423129</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1141515460571065</v>
+        <v>0.2394889441067604</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04057494943297518</v>
+        <v>0.08928264385267831</v>
       </c>
       <c r="M214" t="n">
-        <v>0.113697663334485</v>
+        <v>0.2398139739552092</v>
       </c>
       <c r="N214" t="n">
-        <v>0.05386072919223706</v>
+        <v>0.1298963287632277</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1134904427898849</v>
+        <v>0.239770287147622</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0357168082075723</v>
+        <v>0.06895801801028992</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06119315029919109</v>
+        <v>0.2435523302254027</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02890370281739674</v>
+        <v>0.04750061809011707</v>
       </c>
       <c r="K215" t="n">
-        <v>0.114917663815879</v>
+        <v>0.2410962524564702</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03959524446183996</v>
+        <v>0.08883695546307174</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1144607349004883</v>
+        <v>0.2414234637132978</v>
       </c>
       <c r="N215" t="n">
-        <v>0.05252854183806649</v>
+        <v>0.1300757608593098</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1142521236139781</v>
+        <v>0.2413794837056597</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03477585352646603</v>
+        <v>0.06599895110914497</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06115223391881473</v>
+        <v>0.2451760124269054</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02877289894933206</v>
+        <v>0.0476257782481091</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1156837815746516</v>
+        <v>0.24270356080618</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03914976953449389</v>
+        <v>0.08858444915817221</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1152238064664916</v>
+        <v>0.2430329534713865</v>
       </c>
       <c r="N216" t="n">
-        <v>0.05203436756414098</v>
+        <v>0.1306452112005423</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1150138044380713</v>
+        <v>0.2429886802636974</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03384501209037796</v>
+        <v>0.07203426540910715</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06111131753843836</v>
+        <v>0.2467996946284081</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02874051076136344</v>
+        <v>0.04774725505085534</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1164498993334241</v>
+        <v>0.2443108691558898</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03794352717237276</v>
+        <v>0.08912505137505722</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1159868780324948</v>
+        <v>0.2446424432294751</v>
       </c>
       <c r="N217" t="n">
-        <v>0.05008230871918784</v>
+        <v>0.1309045721172695</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1157754852621645</v>
+        <v>0.2445978768217352</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0329246895639061</v>
+        <v>0.06906390012894087</v>
       </c>
       <c r="G218" t="n">
-        <v>0.061070401158062</v>
+        <v>0.2484233768299108</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02860614244070592</v>
+        <v>0.04796500926100389</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1172160170921966</v>
+        <v>0.2459181775055996</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0363815198969123</v>
+        <v>0.08945868855080402</v>
       </c>
       <c r="M218" t="n">
-        <v>0.116749949598498</v>
+        <v>0.2462519329875638</v>
       </c>
       <c r="N218" t="n">
-        <v>0.05007646765193413</v>
+        <v>0.1309537359398351</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1165371660862576</v>
+        <v>0.2462070733797729</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03201529161164766</v>
+        <v>0.06708779448741048</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06102948477768564</v>
+        <v>0.2500470590314134</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02836939817457453</v>
+        <v>0.04757900164120282</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1179821348509692</v>
+        <v>0.2475254858553094</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03606875022954836</v>
+        <v>0.08868528712248991</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1175130211645013</v>
+        <v>0.2478614227456524</v>
       </c>
       <c r="N219" t="n">
-        <v>0.04792094671110719</v>
+        <v>0.1302925949985832</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1172988469103508</v>
+        <v>0.2478162699378107</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03111722389819989</v>
+        <v>0.07210588770328033</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06098856839730928</v>
+        <v>0.2516707412329161</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02802988215018434</v>
+        <v>0.04798919295410015</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1187482526097417</v>
+        <v>0.2491327942050192</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03551022069171667</v>
+        <v>0.08940477352719234</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1182760927305046</v>
+        <v>0.2494709125037411</v>
       </c>
       <c r="N220" t="n">
-        <v>0.04771984824543413</v>
+        <v>0.1309210416238577</v>
       </c>
       <c r="O220" t="n">
-        <v>0.118060527734444</v>
+        <v>0.2494254664958483</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03023089208816075</v>
+        <v>0.06811811899531475</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06094765201693292</v>
+        <v>0.2532944234344188</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02808719855475042</v>
+        <v>0.04779554396234395</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1195143703685142</v>
+        <v>0.250740102554729</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03381093380485298</v>
+        <v>0.08891707420198858</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1190391642965078</v>
+        <v>0.2510804022618297</v>
       </c>
       <c r="N221" t="n">
-        <v>0.04587727460364227</v>
+        <v>0.1309389681460027</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1188222085585372</v>
+        <v>0.2510346630538861</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02935670184612726</v>
+        <v>0.0681244275822781</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06090673563655655</v>
+        <v>0.2549181056359215</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02814095157548778</v>
+        <v>0.04769801542858229</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1202804881272867</v>
+        <v>0.2523474109044389</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03317589209039315</v>
+        <v>0.08902211558395601</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1198022358625111</v>
+        <v>0.2526898920199184</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04569732813445854</v>
+        <v>0.1305462668953621</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1195838893826304</v>
+        <v>0.2526438596119238</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0284950588366974</v>
+        <v>0.07010673149578364</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06086581925618019</v>
+        <v>0.2565417878374242</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02799074539961149</v>
+        <v>0.04775263170733995</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1210466058860593</v>
+        <v>0.2539547192541486</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03291009806977285</v>
+        <v>0.0890478297477067</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1205653074285143</v>
+        <v>0.254299381778007</v>
       </c>
       <c r="N223" t="n">
-        <v>0.04498411118661039</v>
+        <v>0.1302354759469434</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1203455702067236</v>
+        <v>0.2542530561699616</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02764636872446836</v>
+        <v>0.06993594966656891</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06082490287580383</v>
+        <v>0.2581654700389269</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02783618421433658</v>
+        <v>0.04779474571612305</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1218127236448318</v>
+        <v>0.2555620276038584</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03181855426442792</v>
+        <v>0.08876370318584542</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1213283789945176</v>
+        <v>0.2559088715360957</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04334172610882492</v>
+        <v>0.1303172790663184</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1211072510308168</v>
+        <v>0.2558622527279993</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02681103717403743</v>
+        <v>0.07160214583136057</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06078398649542746</v>
+        <v>0.2597891522404295</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02757687220687813</v>
+        <v>0.04713553306958315</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1225788414036043</v>
+        <v>0.2571693359535682</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03140626319579412</v>
+        <v>0.08788862171636952</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1220914505605209</v>
+        <v>0.2575183612941843</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04337427524982934</v>
+        <v>0.1296197865969302</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1218689318549099</v>
+        <v>0.257471449286037</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02598946985000257</v>
+        <v>0.07112426813815201</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0607430701150511</v>
+        <v>0.2614128344419323</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02721241356445118</v>
+        <v>0.04708722575253639</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1233449591623768</v>
+        <v>0.258776644303278</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03107822738530724</v>
+        <v>0.08724551809361264</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1228545221265241</v>
+        <v>0.259127851052273</v>
       </c>
       <c r="N226" t="n">
-        <v>0.04208586095835082</v>
+        <v>0.1284765638415397</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1226306126790031</v>
+        <v>0.2590806458440748</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02518207241696098</v>
+        <v>0.06652126473493652</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06070215373467475</v>
+        <v>0.2630365166434349</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02704241247427078</v>
+        <v>0.04636205574979889</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1241110769211494</v>
+        <v>0.2603839526529878</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03113944935440305</v>
+        <v>0.08675732507190853</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1236175936925274</v>
+        <v>0.2607373408103617</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04158058558311656</v>
+        <v>0.1271211761029075</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1233922935030963</v>
+        <v>0.2606898424021125</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02438925053950997</v>
+        <v>0.06681208376970754</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06066123735429838</v>
+        <v>0.2646601988449376</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02686647312355198</v>
+        <v>0.04607225504618674</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1248771946799219</v>
+        <v>0.2619912610026976</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03109493162451729</v>
+        <v>0.08574697540559056</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1243806652585306</v>
+        <v>0.2623468305684503</v>
       </c>
       <c r="N228" t="n">
-        <v>0.04176255147285379</v>
+        <v>0.1255871886837945</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1241539743271895</v>
+        <v>0.2622990389601502</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02361140988224743</v>
+        <v>0.06701567339045836</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06062032097392202</v>
+        <v>0.2662838810464403</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0269841996995098</v>
+        <v>0.04563005562651606</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1256433124386944</v>
+        <v>0.2635985693524074</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03014967671708574</v>
+        <v>0.08473740184899248</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1251437368245339</v>
+        <v>0.2639563203265389</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0419358609762896</v>
+        <v>0.1239081668869612</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1249156551512827</v>
+        <v>0.263908235518188</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02284895610977043</v>
+        <v>0.06215098174518233</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06057940459354565</v>
+        <v>0.267907563247943</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02669521481409752</v>
+        <v>0.04484768947560296</v>
       </c>
       <c r="K230" t="n">
-        <v>0.126409430197467</v>
+        <v>0.2652058777021172</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0306079351905465</v>
+        <v>0.08375153715644784</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1259068083905371</v>
+        <v>0.2655658100846276</v>
       </c>
       <c r="N230" t="n">
-        <v>0.04190407348616032</v>
+        <v>0.1223176760151686</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1256773359753759</v>
+        <v>0.2655174320762257</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02210229488667688</v>
+        <v>0.06423695698187279</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06053848821316929</v>
+        <v>0.2695312454494456</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02640071666770184</v>
+        <v>0.04423738857826352</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1271755479562395</v>
+        <v>0.2668131860518271</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03040823323690275</v>
+        <v>0.08311231408229036</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1266698799565404</v>
+        <v>0.2671752998427163</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0412136085002649</v>
+        <v>0.1207492813711774</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1264390167994691</v>
+        <v>0.2671266286342634</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02137183187756407</v>
+        <v>0.06129254724852314</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06049757183279293</v>
+        <v>0.2711549276509483</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02600166944782621</v>
+        <v>0.04371138491931387</v>
       </c>
       <c r="K232" t="n">
-        <v>0.127941665715012</v>
+        <v>0.2684204944015369</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03020996479626664</v>
+        <v>0.08144266538085354</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1274329515225436</v>
+        <v>0.2687847896008049</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04072698373136285</v>
+        <v>0.1198365482577482</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1272006976235623</v>
+        <v>0.2687358251923011</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02065797274702923</v>
+        <v>0.06333670069312669</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06045665545241656</v>
+        <v>0.272778609852451</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02589815034984018</v>
+        <v>0.04328191048357014</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1287077834737845</v>
+        <v>0.2700278027512467</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03081441258911494</v>
+        <v>0.07996552380647104</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1281960230885469</v>
+        <v>0.2703942793588935</v>
       </c>
       <c r="N233" t="n">
-        <v>0.04094431274537613</v>
+        <v>0.1184130419776419</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1279623784476555</v>
+        <v>0.2703450217503389</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01996112315967027</v>
+        <v>0.06338836546367677</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0604157390720402</v>
+        <v>0.2744022920539537</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02569023656911337</v>
+        <v>0.04236119725584842</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1294739012325571</v>
+        <v>0.2716351111009565</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0302228593359245</v>
+        <v>0.07890382211347646</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1289590946545501</v>
+        <v>0.2720037691169822</v>
       </c>
       <c r="N234" t="n">
-        <v>0.04036570910822584</v>
+        <v>0.1160123278336193</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1287240592717487</v>
+        <v>0.2719542183083766</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01928168878008452</v>
+        <v>0.06046648970816679</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06037482269166385</v>
+        <v>0.2760259742554564</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02547800530101541</v>
+        <v>0.04206147722096477</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1302400189913296</v>
+        <v>0.2732424194506662</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03023658775717203</v>
+        <v>0.07768049305620342</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1297221662205534</v>
+        <v>0.2736132588750709</v>
       </c>
       <c r="N235" t="n">
-        <v>0.04039128638583372</v>
+        <v>0.115067971128441</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1294857400958418</v>
+        <v>0.2735634148664143</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0186200752728692</v>
+        <v>0.06059002157459006</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06033390631128747</v>
+        <v>0.2776496564569591</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02516153374091588</v>
+        <v>0.04129498236373537</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1310061367501021</v>
+        <v>0.274849727800376</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03105688057333433</v>
+        <v>0.07751846938898554</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1304852377865566</v>
+        <v>0.2752227486331595</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03972115814412125</v>
+        <v>0.1131135371648677</v>
       </c>
       <c r="O236" t="n">
-        <v>0.130247420919935</v>
+        <v>0.2751726114244521</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01797668830262224</v>
+        <v>0.05777790921093995</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06029298993091112</v>
+        <v>0.2792733386584618</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02504089908418443</v>
+        <v>0.04077394466897628</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1317722545088746</v>
+        <v>0.2764570361500858</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03018502050488817</v>
+        <v>0.07574068386615643</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1312483093525599</v>
+        <v>0.2768322383912482</v>
       </c>
       <c r="N237" t="n">
-        <v>0.04045543794900985</v>
+        <v>0.1117825912456604</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1310091017440282</v>
+        <v>0.2767818079824898</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01735193353394086</v>
+        <v>0.05602476759324987</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06025207355053476</v>
+        <v>0.2808970208599644</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02491617852619062</v>
+        <v>0.04027975297240574</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1325383722676472</v>
+        <v>0.2780643444997956</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03062229027231039</v>
+        <v>0.07561665644613286</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1320113809185632</v>
+        <v>0.2784417281493368</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03969423936642114</v>
+        <v>0.1100296706589749</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1317707825681214</v>
+        <v>0.2783910045405276</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01674621663142244</v>
+        <v>0.05827254772669077</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06021115717015839</v>
+        <v>0.2825207030614671</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0248874492623041</v>
+        <v>0.03968373352858361</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1333044900264197</v>
+        <v>0.2796716528495054</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03076997259607769</v>
+        <v>0.07408934864615171</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1327744524845664</v>
+        <v>0.2800512179074255</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03983767596227661</v>
+        <v>0.1081719074426157</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1325324633922146</v>
+        <v>0.2800002010985653</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01615828679589171</v>
+        <v>0.05251748023205523</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06017024078978203</v>
+        <v>0.2841443852629698</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02465478848789447</v>
+        <v>0.03908584969033778</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1340706077851922</v>
+        <v>0.2812789611992152</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03122935019666689</v>
+        <v>0.0729585520228769</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1335375240505697</v>
+        <v>0.2816607076655141</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03988586130249772</v>
+        <v>0.1071090365513821</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1332941442163078</v>
+        <v>0.281609397656603</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01557861090930748</v>
+        <v>0.05875952022047795</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06012932440940566</v>
+        <v>0.2857680674644725</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02421827339833132</v>
+        <v>0.03888607247964262</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1348367255439648</v>
+        <v>0.2828862695489251</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03100170579455477</v>
+        <v>0.07232421224776303</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1343005956165729</v>
+        <v>0.2832701974236028</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03933890895300612</v>
+        <v>0.1062409784678273</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1340558250404009</v>
+        <v>0.2832185942146407</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01500593817249449</v>
+        <v>0.0569986228030937</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0600884080290293</v>
+        <v>0.2873917496659752</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02417798118898429</v>
+        <v>0.03828437291847253</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1356028433027373</v>
+        <v>0.2844935778986349</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03108832211021809</v>
+        <v>0.07128627499226461</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1350636671825762</v>
+        <v>0.2848796871816914</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03989693247972309</v>
+        <v>0.1043676536745042</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1348175058644941</v>
+        <v>0.2848277907726784</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01444067425005011</v>
+        <v>0.0572347430910372</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06004749164865295</v>
+        <v>0.2890154318674779</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02363398905522297</v>
+        <v>0.03758072202880189</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1363689610615098</v>
+        <v>0.2861008862483447</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03079048186413363</v>
+        <v>0.0702446859278362</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1358267387485795</v>
+        <v>0.2864891769397801</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03856004544857039</v>
+        <v>0.103488982653966</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1355791866885873</v>
+        <v>0.2864369873307162</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01388322480657157</v>
+        <v>0.05446783619544317</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06000657526827657</v>
+        <v>0.2906391140689805</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02338637419241694</v>
+        <v>0.03727509083260498</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1371350788202823</v>
+        <v>0.2877081945980545</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03150946777677821</v>
+        <v>0.06989939072593243</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1365898103145827</v>
+        <v>0.2880986666978687</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03882836142546942</v>
+        <v>0.1012048858887656</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1363408675126805</v>
+        <v>0.2880461838887539</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01333399550665676</v>
+        <v>0.0526978572274464</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05996565888790022</v>
+        <v>0.2922627962704832</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02313521379593587</v>
+        <v>0.03686745035185628</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1379011965790549</v>
+        <v>0.2893155029477643</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03094656256862857</v>
+        <v>0.06845033505800771</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1373528818805859</v>
+        <v>0.2897081564559574</v>
       </c>
       <c r="N245" t="n">
-        <v>0.03820199397634161</v>
+        <v>0.09991528386145609</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1371025483367737</v>
+        <v>0.2896553804467916</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01279339201490297</v>
+        <v>0.04792476129818157</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05992474250752386</v>
+        <v>0.293886478471986</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02318058506114933</v>
+        <v>0.03605777160853005</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1386673143378274</v>
+        <v>0.290922811297474</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03160304896016147</v>
+        <v>0.06749746459551675</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1381159534465892</v>
+        <v>0.291317646214046</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03878105666710868</v>
+        <v>0.09842009705459048</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1378642291608669</v>
+        <v>0.2912645770048294</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01226181999590753</v>
+        <v>0.05414850351878349</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05988382612714749</v>
+        <v>0.2955101606734886</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02282256518342693</v>
+        <v>0.03594602562460072</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1394334320965999</v>
+        <v>0.2925301196471838</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03158020967185374</v>
+        <v>0.06664072500991403</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1388790250125924</v>
+        <v>0.2929271359721347</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03816566306369196</v>
+        <v>0.09811924595072191</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1386259099849601</v>
+        <v>0.2928737735628671</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01173968511426822</v>
+        <v>0.04836903900038686</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05984290974677113</v>
+        <v>0.2971338428749913</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02236123135813831</v>
+        <v>0.03503218342204263</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1401995498553724</v>
+        <v>0.2941374279968936</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03177932742418213</v>
+        <v>0.06538006197265414</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1396420965785957</v>
+        <v>0.2945366257302233</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03855592673201308</v>
+        <v>0.09661265103240324</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1393875908090533</v>
+        <v>0.2944829701209049</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01122739303458241</v>
+        <v>0.04558632285412642</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05980199336639477</v>
+        <v>0.298757525076494</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02229666078065302</v>
+        <v>0.03471621602283015</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1409656676141449</v>
+        <v>0.2957447363466034</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03250168493762343</v>
+        <v>0.06501542115519163</v>
       </c>
       <c r="M249" t="n">
-        <v>0.140405168144599</v>
+        <v>0.296146115488312</v>
       </c>
       <c r="N249" t="n">
-        <v>0.03775196123799351</v>
+        <v>0.09480023278218774</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1401492716331464</v>
+        <v>0.2960921666789426</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0107253494214474</v>
+        <v>0.05180031019113694</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0597610769860184</v>
+        <v>0.3003812072779967</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02172893064634074</v>
+        <v>0.03439809444893765</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1417317853729175</v>
+        <v>0.2973520446963133</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03184856493265439</v>
+        <v>0.06334674822898101</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1411682397106022</v>
+        <v>0.2977556052464007</v>
       </c>
       <c r="N250" t="n">
-        <v>0.03875388014755476</v>
+        <v>0.09388191168262822</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1409109524572396</v>
+        <v>0.2977013632369803</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01023395993946097</v>
+        <v>0.04401095612255311</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05972016060564204</v>
+        <v>0.3020048894794993</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02185811815057102</v>
+        <v>0.0338777897223395</v>
       </c>
       <c r="K251" t="n">
-        <v>0.14249790313169</v>
+        <v>0.2989593530460231</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03242125012975186</v>
+        <v>0.06307398886547688</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1419313112766055</v>
+        <v>0.2993650950044893</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03866179702661832</v>
+        <v>0.0915576082162779</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1416726332813328</v>
+        <v>0.2993105597950181</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.009753630253220319</v>
+        <v>0.04321821575950971</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05967924422526567</v>
+        <v>0.303628571681002</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0213843004887135</v>
+        <v>0.03325527286501008</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1432640208904626</v>
+        <v>0.3005666613957329</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03282102324939254</v>
+        <v>0.06199708873613383</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1426943828426087</v>
+        <v>0.3009745847625779</v>
       </c>
       <c r="N252" t="n">
-        <v>0.03827582544110575</v>
+        <v>0.08992724286568982</v>
       </c>
       <c r="O252" t="n">
-        <v>0.142434314105426</v>
+        <v>0.3009197563530557</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.009284766027323227</v>
+        <v>0.04342204421314147</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05963832784488932</v>
+        <v>0.3052522538825047</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02110755485613777</v>
+        <v>0.03243051489892372</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1440301386492351</v>
+        <v>0.3021739697454427</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03344916701205325</v>
+        <v>0.06061599351240635</v>
       </c>
       <c r="M253" t="n">
-        <v>0.143457454408612</v>
+        <v>0.3025840745206666</v>
       </c>
       <c r="N253" t="n">
-        <v>0.03839607895693853</v>
+        <v>0.08969073611341688</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1431959949295192</v>
+        <v>0.3025289529110935</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008827772926367022</v>
+        <v>0.04162239659458312</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05959741146451296</v>
+        <v>0.3068759360840074</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02062795844821348</v>
+        <v>0.0319034868460548</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1447962564080076</v>
+        <v>0.3037812780951525</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03350696413821078</v>
+        <v>0.059930648865749</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1442205259746152</v>
+        <v>0.3041935642787553</v>
       </c>
       <c r="N254" t="n">
-        <v>0.03752267114003827</v>
+        <v>0.0881480084420122</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1439576757536124</v>
+        <v>0.3041381494691312</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.008383056614949064</v>
+        <v>0.04581922801496943</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05955649508413659</v>
+        <v>0.30849961828551</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0205455884603102</v>
+        <v>0.03167415972837771</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1455623741667801</v>
+        <v>0.3053885864448623</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03439569734834189</v>
+        <v>0.05934100046761648</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1449835975406185</v>
+        <v>0.3058030540368439</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0381557155563263</v>
+        <v>0.08569898033402878</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1447193565777056</v>
+        <v>0.305747346027169</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007951022757667112</v>
+        <v>0.0400124935854351</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05951557870376023</v>
+        <v>0.3101233004870128</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02036052208779754</v>
+        <v>0.03094250456786679</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1463284919255527</v>
+        <v>0.3069958947945721</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03411664936292333</v>
+        <v>0.05814699398946313</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1457466691066218</v>
+        <v>0.3074125437949325</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0381953257717243</v>
+        <v>0.08484357227201977</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1454810374017988</v>
+        <v>0.3073565425852067</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.007532077019118483</v>
+        <v>0.04520214841711491</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05947466232338387</v>
+        <v>0.3117469826885154</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02007283652604512</v>
+        <v>0.03030849238649642</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1470946096843252</v>
+        <v>0.3086032031442819</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03497110290243194</v>
+        <v>0.05714857510274365</v>
       </c>
       <c r="M257" t="n">
-        <v>0.146509740672625</v>
+        <v>0.3090220335530212</v>
       </c>
       <c r="N257" t="n">
-        <v>0.03814161535215371</v>
+        <v>0.08278170473853808</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1462427182258919</v>
+        <v>0.3089657391432444</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.007126625063900549</v>
+        <v>0.03938814762114354</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0594337459430075</v>
+        <v>0.3133706648900181</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01968260897042255</v>
+        <v>0.02987209420624094</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1478607274430977</v>
+        <v>0.3102105114939916</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03506034068734445</v>
+        <v>0.05584568947891255</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1472728122386283</v>
+        <v>0.3106315233111098</v>
       </c>
       <c r="N258" t="n">
-        <v>0.03739469786353611</v>
+        <v>0.08221329821613682</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1470043990499851</v>
+        <v>0.3105749357012821</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006735072556611071</v>
+        <v>0.03857044630865579</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05939282956263114</v>
+        <v>0.3149943470915209</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01928991661629946</v>
+        <v>0.02933328104907476</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1486268452018702</v>
+        <v>0.3118178198437014</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03618564543813768</v>
+        <v>0.05453828278942441</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1480358838046315</v>
+        <v>0.3122410130691985</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03835468687179294</v>
+        <v>0.07983827318736908</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1477660798740783</v>
+        <v>0.3121841322593199</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006357825161847255</v>
+        <v>0.0437489995907864</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05935191318225477</v>
+        <v>0.3166180292930235</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0189948366590454</v>
+        <v>0.02879202393697218</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1493929629606428</v>
+        <v>0.3134251281934113</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0360482998752884</v>
+        <v>0.05402630070573375</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1487989553706348</v>
+        <v>0.3138505028272872</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03822169594284575</v>
+        <v>0.07855655013478785</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1485277606981715</v>
+        <v>0.3137933288173576</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005995288544206834</v>
+        <v>0.03792376257867008</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05931099680187842</v>
+        <v>0.3182417114945262</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01899744629403002</v>
+        <v>0.02844829389190762</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1501590807194153</v>
+        <v>0.3150324365431211</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03704958671927333</v>
+        <v>0.05330968889929513</v>
       </c>
       <c r="M261" t="n">
-        <v>0.149562026936638</v>
+        <v>0.3154599925853758</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03759583864261606</v>
+        <v>0.07786804954094617</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1492894415222647</v>
+        <v>0.3154025253753954</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005647868368287193</v>
+        <v>0.03909469038344159</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05927008042150206</v>
+        <v>0.3198653936960289</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01829782271662293</v>
+        <v>0.02760206193585545</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1509251984781878</v>
+        <v>0.3166397448928309</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03809078869056931</v>
+        <v>0.05208839304156315</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1503250985026413</v>
+        <v>0.3170694823434644</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03827722853702531</v>
+        <v>0.07527269188839697</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1500511223463579</v>
+        <v>0.3170117219334331</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00531597029868569</v>
+        <v>0.03626173811623566</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05922916404112569</v>
+        <v>0.3214890758975316</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01839604312219376</v>
+        <v>0.02725329909079</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1516913162369603</v>
+        <v>0.3182470532425407</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03877318850965314</v>
+        <v>0.05046235880399233</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1510881700686445</v>
+        <v>0.3186789721015531</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03726597919199504</v>
+        <v>0.07507039765969364</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1508128031704511</v>
+        <v>0.3186209184914708</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.005000000000000004</v>
+        <v>0.04042486088818704</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05918824766074933</v>
+        <v>0.3231127580990342</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01769218470611207</v>
+        <v>0.02680197637868567</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1524574339957329</v>
+        <v>0.3198543615922505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03939806889700154</v>
+        <v>0.04993153185803725</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1518512416346478</v>
+        <v>0.3202884618596418</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03716220417344696</v>
+        <v>0.07246108733738882</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1515744839945443</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.005000000000000004</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05917508976601248</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005921756015086571</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0591753582944765</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006838445059886442</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05917562682294051</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007750010233717963</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05917589535140454</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.008656394635780634</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05917616387986855</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.009557541365393066</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05917643240833257</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.01045339352183404</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05917670093679658</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01134389420442106</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05917696946526061</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01222898651235542</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05917723799372462</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01310861354495482</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05917750652218864</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01398271840149805</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05917777505065265</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01485124418130165</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05917804357911668</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01571413398356881</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05917831210758069</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01657133090761632</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0591785806360447</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01742277805272294</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05917884916450872</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01826841851820422</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05917911769297274</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01910819540326533</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05917938622143676</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01994205180722204</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05917965474990078</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.02076993082935318</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05917992327836479</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.0215917755689732</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05918019180682882</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.02240752912528939</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05918046033529283</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.02321713459761646</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05918072886375685</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.02402053508523323</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05918099739222086</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02481767368745311</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05918126592068489</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02560849350348549</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0591815344491489</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02639316997725548</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05918180297761291</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02717304027571084</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05918207150607693</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02794827984277549</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05918234003454095</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02871883177766077</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05918260856300497</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02948463917967938</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05918287709146899</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.03024564514811008</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.059183145619933</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.03100179278226453</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05918341414839703</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.03175302518135574</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05918368267686104</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.03249928544469555</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05918395120532505</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.03324051667156273</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05918421973378907</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.0339766619612681</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05918448826225309</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.03470766441302633</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05918475679071711</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.03543346712614846</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05918502531918112</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03615401319991328</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05918529384764513</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.0368692457336306</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05918556237610916</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03757910782651702</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05918583090457318</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03828354257788259</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05918609943303719</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03898249308700615</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05918636796150121</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03967590245319653</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05918663648996523</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.04036371377567224</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05918690501842925</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.04104587015374239</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05918717354689326</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.04172231468668579</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05918744207535728</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.04239299047381034</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0591877106038213</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.04305784061433646</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05918797913228532</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.0437168082075723</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05918824766074933</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.0437168082075723</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05917508976601248</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.04448878185380017</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05921654320331688</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.04525412755462743</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05925799664062128</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.04601269270571726</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05929945007792568</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.04676432470273256</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05934090351523007</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.04750887094133698</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05938235695253447</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.04824617881719345</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05942381038983886</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04897609572596515</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05946526382714326</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04969846906331521</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05950671726444766</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.05041314622490684</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05954817070175206</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.05111997460640319</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05958962413905646</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.05181880160346725</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05963107757636085</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.05250947461176256</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05967253101366524</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.0531918410269521</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05971398445096964</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.05386574824469902</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05975543788827404</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.05453104366066651</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05979689132557844</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.05518757467051776</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05983834476288283</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.05583518866991587</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05987979820018724</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.05647373305452387</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05992125163749162</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.05710305522000529</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05996270507479602</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.05772300256202312</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06000415851210042</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.05833342247624053</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06004561194940482</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.05893416235832064</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06008706538670922</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.05952506960392667</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06012851882401362</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.06010599160872178</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06016997226131802</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.06067739890274436</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.0602114256986224</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.0612428776879103</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0602528791359268</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.061802898494258</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.0602943325732312</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.06235730871745064</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.0603357860105356</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.06290595575315136</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06037723944783999</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.06344868699702337</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.0604186928851444</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.06398534984472981</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.0604601463224488</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.06451579169193369</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06050159975975318</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.06503985993429849</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06054305319705758</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.06555740196748723</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06058450663436198</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.06606826518716306</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06062596007166637</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.06657229698898919</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06066741350897078</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.06706934476862873</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06070886694627518</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.06755925592174492</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06075032038357957</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.06804187784400073</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06079177382088396</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.06851705793105961</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06083322725818836</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.06898464357858461</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06087468069549275</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.06944448218223889</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06091613413279715</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.06989642113768557</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06095758757010156</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.07034030784058795</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06099904100740595</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.07077598968660906</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06104049444471035</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.071203314071412</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06108194788201474</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.07162212839066018</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06112340131931913</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.07203228004001666</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06116485475662353</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.07243361641514459</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06120630819392794</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.07243361641514459</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06120630819392794</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.07424724389973902</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06289329040085762</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.07601185113297726</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06458027260778729</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.07772573909650615</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06626725481471699</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.07938720877197233</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06795423702164666</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.08099456114102269</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06964121922857634</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.0825460971853039</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07132820143550603</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.08404011788646279</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07301518364243571</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.08547492422614605</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07470216584936538</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.08684881718600049</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07638914805629507</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.08816009774767286</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07807613026322474</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.08940706689280997</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07976311247015444</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.09058802560305854</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08145009467708411</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.09170127486006532</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.0831370768840138</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.09274511564547708</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08482405909094348</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.09371784894094068</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08651104129787317</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.0946177757281027</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08819802350480284</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.09544319698861004</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08988500571173252</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.09619241370410944</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.0915719879186622</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.09686372685624767</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09325897012559188</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.09745543742667145</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09494595233252157</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.09796584639702757</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.09663293453945125</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.09839325474896282</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09831991674638094</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.09873596346412394</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1000068989533106</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.09899227352415768</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1016938811602403</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.09924482188685946</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.10338086336717</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.09923890160543009</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1050678455740996</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.09922748886812943</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1067548277810293</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0991334912282589</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.108441809987959</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.0989623127792591</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1101287921948887</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.09871897931030543</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1118157744018184</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.09840851661057337</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1135027566087481</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.0980359504692383</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1151897388156777</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.09760630667547571</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1168767210226074</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.09712461101846098</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1185637032295371</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.09659588928736965</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1202506854364668</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.09602516727137703</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1219376676433965</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.09541747075965865</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1236246498503261</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.09477782554138986</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1253116320572558</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.09411125740574622</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1269986142641855</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.09342279214190308</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1286855964711152</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.0927174555390359</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1303725786780449</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.09200027338632011</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1320595608849746</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.09127627147293116</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1337465430919043</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.09055047558804447</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1354335252988339</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.08982791152083547</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1371205075057636</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.08911360506047966</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1388074897126933</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.0884125819961524</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.140494471919623</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.08772986811702921</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1421814541265526</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.08707048921228544</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1438684363334823</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.08643947107109656</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.145555418540412</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.08580986731720386</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1472424007473417</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.08514097140048457</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1489293829542714</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.08443667410075334</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.08370119248415175</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1523033473681308</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.08293874361682146</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1539903295750604</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.08215354456490398</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1556773117819901</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.08134981239454095</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1573642939889198</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.08053176417187388</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1590512761958495</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.07970361696304445</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1607382584027792</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.07886958783419415</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1624252406097088</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.07803389385146467</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1641122228166385</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.0772007520809975</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1657992050235682</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.07637437958893431</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1674861872304979</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.07555899344141662</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1691731694374276</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.07475881070458604</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1708601516443572</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.07397804844458414</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1725471338512869</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.07322092372755254</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1742341160582166</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.07249165361963283</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1759210982651463</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.07179445518696656</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.177608080472076</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.07113354549569531</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1792950626790057</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.07051314161196071</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1809820448859353</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.06993746060190431</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.182669027092865</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.06941071953166775</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1843560092997947</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.06893713546739252</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1860429915067244</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.06852092547522029</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.187729973713654</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.06816512511812678</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1894169559205837</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.06783077466936402</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1911039381275134</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.06749817488843149</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1927909203344431</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.06716854546005387</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1944779025413728</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.06684310606895581</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1961648847483025</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.06652307639986196</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1978518669552321</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.06620967613749706</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1995388491621618</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.06590412496658572</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2012258313690915</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.06560764257185261</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2029128135760212</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.06532144863802244</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2045997957829509</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.06504676284981983</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2062867779898806</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.0647848048919695</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2079737601968102</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.06453679444919609</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2096607424037399</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.06430395120622427</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2113477246106696</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.06408749484777873</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2130347068175993</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.0638886450585841</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2147216890245289</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.06370862152336508</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2164086712314587</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.06354864392684634</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2180956534383883</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.06340993195375254</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.219782635645318</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.06329370528880836</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2214696178522477</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.06320118361673845</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2231566000591774</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.06313358662226751</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.224843582266107</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.06309213399012017</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2265305644730367</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.06307804540502115</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2282175466799664</v>
-      </c>
-    </row>
+        <v>0.3202301150495085</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1060.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1060.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.01115466119655979</v>
+        <v>0.003502149191894698</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001623682201502685</v>
+        <v>0.0004870762584018563</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.01049138999999999</v>
+        <v>0.01163119137251768</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001664051024999998</v>
+        <v>0.001844836187140999</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.02549138999999997</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001808751114130433</v>
+        <v>0.001848945583333332</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0298166900574896</v>
+        <v>0.02716631760793498</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001317590441901456</v>
+        <v>0.001033739167689352</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01733915849061389</v>
+        <v>0.006900613358868241</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002750183193927926</v>
+        <v>0.0009741525168037126</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01804176935841158</v>
+        <v>0.02097725599408733</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003214616699419603</v>
+        <v>0.004008643966921431</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03541508983813357</v>
+        <v>0.04524547996580547</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003218979516177304</v>
+        <v>0.004688217716344496</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05109227066164612</v>
+        <v>0.0662593112388658</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003218393116075463</v>
+        <v>0.003601878633063944</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.02328892526902512</v>
+        <v>0.01012796577550987</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004871046604508053</v>
+        <v>0.001461228775205569</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
         <v>0.02423164869274516</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004992153074999994</v>
+        <v>0.00549058389030059</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04524547996580547</v>
+        <v>0.04688126334940676</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.005426253342391299</v>
+        <v>0.006000869977910447</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0662593112388658</v>
+        <v>0.07040059733978726</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.005367906532258059</v>
+        <v>0.005984493006805715</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02784995640641451</v>
+        <v>0.01311677971640886</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006494728806010738</v>
+        <v>0.001948305033607425</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02664319717646847</v>
+        <v>0.02554701898293973</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006429233398839206</v>
+        <v>0.008017287933842862</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04805255066404496</v>
+        <v>0.04861684701930358</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006437959032354609</v>
+        <v>0.008001159970547263</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0706830084416607</v>
+        <v>0.07319065823151855</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006436786232150926</v>
+        <v>0.007979324009074288</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.01733915849061389</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.03641223283028917</v>
+        <v>0.01579962845615443</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008250549581783775</v>
+        <v>0.002435381292009282</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02898629111007715</v>
+        <v>0.02672025049443866</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008036541748549007</v>
+        <v>0.01002160991730358</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05188589227082668</v>
+        <v>0.05076996955677654</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00804744879044326</v>
+        <v>0.01000144996318408</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07705718569796333</v>
+        <v>0.07669613880489989</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008045982790188658</v>
+        <v>0.009974155011342861</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.03351768777271313</v>
+        <v>0.01733915849061389</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009742093209016107</v>
+        <v>0.002750183193927926</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03117766610147374</v>
+        <v>0.02780223688371823</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009643850098258808</v>
+        <v>0.01202593190076429</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05587308964506621</v>
+        <v>0.052748830368471</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009656938548531913</v>
+        <v>0.01200173995582089</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.08287066305469204</v>
+        <v>0.07933085510993637</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009655179348226389</v>
+        <v>0.01196898601361143</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.04272017773405588</v>
+        <v>0.02038760243293884</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01136577541051879</v>
+        <v>0.003409533808812994</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03313453184059863</v>
+        <v>0.02899707603157921</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01125115844796861</v>
+        <v>0.01403025388422501</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05952754146848369</v>
+        <v>0.05466162886103232</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01126642830662056</v>
+        <v>0.01400202994845771</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08795080734701244</v>
+        <v>0.08150862319663282</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01126437590626412</v>
+        <v>0.01396381701588</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.04473448313551392</v>
+        <v>0.02261172230936169</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01298945761202148</v>
+        <v>0.00389661006721485</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03487409801739223</v>
+        <v>0.02990886581882239</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01285846679767841</v>
+        <v>0.01603457586768572</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06276264642279922</v>
+        <v>0.05621656444110582</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01287591806470922</v>
+        <v>0.01600231994109453</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.09352498541008997</v>
+        <v>0.0847432591149942</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01287357246430185</v>
+        <v>0.01595864801814858</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.04255798502349623</v>
+        <v>0.02477856437372485</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01461313981352416</v>
+        <v>0.004383686325616707</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03611357432179499</v>
+        <v>0.03064170412624853</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01446577514738821</v>
+        <v>0.01803889785114644</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06599180318973297</v>
+        <v>0.05752183651533682</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01448540782279787</v>
+        <v>0.01800260993373134</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.09782056407909029</v>
+        <v>0.08614857891502542</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01448276902233958</v>
+        <v>0.01795347902041715</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.04718806444441176</v>
+        <v>0.02685804564359826</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01623682201502685</v>
+        <v>0.004870762584018563</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03757017044374727</v>
+        <v>0.03129968883465845</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01607308349709801</v>
+        <v>0.02004321983460716</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06842841045100501</v>
+        <v>0.05958564449037076</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01609489758088652</v>
+        <v>0.02000289992636816</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.100764910189179</v>
+        <v>0.08793839864673159</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01609196558037732</v>
+        <v>0.01994831002268572</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.05062210244466946</v>
+        <v>0.02882008313655203</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01786050421652953</v>
+        <v>0.005357838842420419</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03866109607318952</v>
+        <v>0.03198691782485287</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01768039184680782</v>
+        <v>0.02204754181806787</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07168586688833548</v>
+        <v>0.06031618777285297</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01770438733897517</v>
+        <v>0.02200318991900497</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1052853905755218</v>
+        <v>0.09012653436011753</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01770116213841505</v>
+        <v>0.02194314102495429</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.05285748007067829</v>
+        <v>0.03063459387015614</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01948418641803221</v>
+        <v>0.005844915100822276</v>
       </c>
       <c r="J77" t="n">
-        <v>0.04000356090006212</v>
+        <v>0.03250748897763259</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01928770019651762</v>
+        <v>0.02405186380152859</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07337757118344454</v>
+        <v>0.06132166576942874</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01931387709706383</v>
+        <v>0.02400347991164179</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1075093720732841</v>
+        <v>0.09192680210518811</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01931035869645278</v>
+        <v>0.02393797202722286</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.05389157836884728</v>
+        <v>0.03227149486198069</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0211078686195349</v>
+        <v>0.006331991359224133</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0409147746143055</v>
+        <v>0.03306550017379836</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02089500854622742</v>
+        <v>0.02605618578498931</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07561692201805231</v>
+        <v>0.06281027788674345</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02092336685515248</v>
+        <v>0.0260037699042786</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1110642215176317</v>
+        <v>0.09295301793194843</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02091955525449051</v>
+        <v>0.02593280302949143</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.05972177838558534</v>
+        <v>0.03370070312959569</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02273155082103758</v>
+        <v>0.006819067617625988</v>
       </c>
       <c r="J79" t="n">
-        <v>0.04171194690586004</v>
+        <v>0.033665049294151</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02250231689593722</v>
+        <v>0.02806050776845002</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07721731807387891</v>
+        <v>0.06329022353144251</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02253285661324113</v>
+        <v>0.02800405989691542</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1126773057437301</v>
+        <v>0.09381899789040338</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02252875181252824</v>
+        <v>0.02792763403176001</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.05934546116730152</v>
+        <v>0.03489213569057115</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02435523302254027</v>
+        <v>0.007306143876027844</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04211228746466619</v>
+        <v>0.03431023421949124</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02410962524564702</v>
+        <v>0.03006482975191073</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07899215803264437</v>
+        <v>0.06416970211017117</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02414234637132978</v>
+        <v>0.03000434988955223</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1149759915867449</v>
+        <v>0.09493855803055795</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02413794837056597</v>
+        <v>0.02992246503402858</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.05876000776040469</v>
+        <v>0.03581570956247716</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02597891522404295</v>
+        <v>0.007793220134429701</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04303300598066433</v>
+        <v>0.0347051528306199</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02571693359535682</v>
+        <v>0.03206915173537145</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07975484057606891</v>
+        <v>0.06515691302957485</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02575183612941843</v>
+        <v>0.03200463988218905</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1171876458818418</v>
+        <v>0.09622551440241695</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0257471449286037</v>
+        <v>0.03191729603629715</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.05796279921130387</v>
+        <v>0.03641223283028917</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02760259742554564</v>
+        <v>0.008250549581783775</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04350479252998879</v>
+        <v>0.03475390300833771</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02732424194506662</v>
+        <v>0.03407347371883217</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08064492906458232</v>
+        <v>0.06506005569629886</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02736132588750708</v>
+        <v>0.03400492987482587</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1186763057269547</v>
+        <v>0.09619368305598541</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02735634148664143</v>
+        <v>0.03391212703856572</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.06395121656640802</v>
+        <v>0.03692434880181061</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02922627962704832</v>
+        <v>0.008767372651233413</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0440604508124319</v>
+        <v>0.03526058263344546</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02893155029477643</v>
+        <v>0.03607779570229288</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08209151277907906</v>
+        <v>0.06598732951698857</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02897081564559574</v>
+        <v>0.03600521986746268</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1194072157936955</v>
+        <v>0.09705688004126833</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02896553804467916</v>
+        <v>0.0359069580408343</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.05881459594515999</v>
+        <v>0.03739930309278107</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03084996182855101</v>
+        <v>0.00925444890963527</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04449726771928506</v>
+        <v>0.03542928958674395</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03053885864448623</v>
+        <v>0.0380821176857536</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08330447057597123</v>
+        <v>0.06634693389828933</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03058030540368439</v>
+        <v>0.0380055098600995</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1220885759163525</v>
+        <v>0.09852892140827058</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0305747346027169</v>
+        <v>0.03790178904310287</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.06465355402493786</v>
+        <v>0.03786683832001937</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03247364403005369</v>
+        <v>0.009741525168037127</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04521165490114579</v>
+        <v>0.03556412174903391</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03214616699419603</v>
+        <v>0.04008643966921431</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08387707495056157</v>
+        <v>0.06654706824684645</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03218979516177304</v>
+        <v>0.04000579985273631</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1236105394481293</v>
+        <v>0.09862362320699708</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03218393116075463</v>
+        <v>0.03989662004537144</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.06146264868246437</v>
+        <v>0.03832699269812199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03409732623155638</v>
+        <v>0.01022860142643898</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04540002400861176</v>
+        <v>0.03586917700111616</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03375347534390583</v>
+        <v>0.04209076165267503</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08490259839815273</v>
+        <v>0.06709593196930536</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03379928491986169</v>
+        <v>0.04200608984537313</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1239632597422294</v>
+        <v>0.09845480148745289</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03379312771879236</v>
+        <v>0.04189145104764001</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.06123632132879828</v>
+        <v>0.03877980444168531</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03572100843305906</v>
+        <v>0.01071567768484084</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04585878669228054</v>
+        <v>0.03594855322379145</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03536078369361564</v>
+        <v>0.04409508363613574</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0861743134140473</v>
+        <v>0.06770172447231135</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03540877467795035</v>
+        <v>0.04400637983800994</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1251368901518565</v>
+        <v>0.09893627229964291</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03540232427683009</v>
+        <v>0.04388628204990858</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.06396901337499825</v>
+        <v>0.03922531176530578</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03734469063456175</v>
+        <v>0.0112027539432427</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04628435460274968</v>
+        <v>0.03620634829786054</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03696809204332543</v>
+        <v>0.04609940561959646</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08618549249354773</v>
+        <v>0.06797264516250975</v>
       </c>
       <c r="M88" t="n">
-        <v>0.037018264436039</v>
+        <v>0.04600666983064676</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1271215840302142</v>
+        <v>0.1001818516935721</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03701152083486783</v>
+        <v>0.04588111305217715</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.06365516623212306</v>
+        <v>0.03966355288357983</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03896837283606443</v>
+        <v>0.01168983020164455</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04697313939061683</v>
+        <v>0.03664666010412422</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03857540039303523</v>
+        <v>0.04810372760305718</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08762940813195702</v>
+        <v>0.06781689344654596</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03862775419412765</v>
+        <v>0.04800695982328358</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1284074947305061</v>
+        <v>0.1004053557192452</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03862071739290555</v>
+        <v>0.04787594405444572</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.06528922131123141</v>
+        <v>0.04009456601110385</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04059205503756711</v>
+        <v>0.01217690646004641</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04702155270647958</v>
+        <v>0.0364735865233833</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04018270874274504</v>
+        <v>0.05010804958651789</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08829933282457747</v>
+        <v>0.06834266873106531</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0402372439522163</v>
+        <v>0.0500072498159204</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1286847756059358</v>
+        <v>0.09992055312121134</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04022991395094328</v>
+        <v>0.0498707750567143</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.06886562002338206</v>
+        <v>0.0405183893624743</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0422157372390698</v>
+        <v>0.01266398271844827</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0476260062009355</v>
+        <v>0.03669132315334035</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04179001709245483</v>
+        <v>0.05211237156997861</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08858853906671188</v>
+        <v>0.06835812439735822</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04184673371030495</v>
+        <v>0.05200753980855721</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1294435800097068</v>
+        <v>0.101131010101012</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04183911050898102</v>
+        <v>0.05186560605898287</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0653788037796337</v>
+        <v>0.04093506115228761</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04383941944057249</v>
+        <v>0.01315105897685012</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04768291152458219</v>
+        <v>0.03670485219529396</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04339732544216464</v>
+        <v>0.05411669355343933</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08879029935366289</v>
+        <v>0.06836768284346847</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0434562234683936</v>
+        <v>0.05400782980119403</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1303740612950229</v>
+        <v>0.100533075984129</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04344830706701875</v>
+        <v>0.05386043706125145</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.06982321399104507</v>
+        <v>0.0413446195951402</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04546310164207517</v>
+        <v>0.01363813523525198</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04778868032801725</v>
+        <v>0.036915271738084</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04500463379187444</v>
+        <v>0.05612101553690004</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08949788618073296</v>
+        <v>0.06877141752646221</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04506571322648226</v>
+        <v>0.05600811979383084</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1313663728150875</v>
+        <v>0.1011265789042869</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04505750362505648</v>
+        <v>0.05585526806352002</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.06519329206867489</v>
+        <v>0.0417471029056285</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04708678384357785</v>
+        <v>0.01412521149365383</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04803972426183829</v>
+        <v>0.03722251802720902</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04661194214158424</v>
+        <v>0.05812533752036075</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09020457204322491</v>
+        <v>0.06896921012052371</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04667520298457091</v>
+        <v>0.05800840978646766</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1320106679231045</v>
+        <v>0.1020113469952104</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04666670018309421</v>
+        <v>0.05785009906578858</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.07048347942358194</v>
+        <v>0.04214254929834892</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04871046604508054</v>
+        <v>0.01461228775205569</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04846329738549032</v>
+        <v>0.03722652730816747</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04821925049129404</v>
+        <v>0.06012965950382147</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09049095993161094</v>
+        <v>0.06936094229983725</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04828469274265956</v>
+        <v>0.06000869977910447</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1325186224777316</v>
+        <v>0.100987208390624</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04827589674113195</v>
+        <v>0.05984493006805716</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.06668821746682485</v>
+        <v>0.0425309969878979</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05033414824658322</v>
+        <v>0.01509936401045755</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04816329089009347</v>
+        <v>0.03732723582645785</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04982655884100384</v>
+        <v>0.06213398148728219</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08968833085568467</v>
+        <v>0.0690464957385872</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04989418250074822</v>
+        <v>0.06200898977174128</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1313158223158092</v>
+        <v>0.1024539912242524</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04988509329916967</v>
+        <v>0.06183976107032573</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.07282446566057835</v>
+        <v>0.04291248418887188</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05195783044808591</v>
+        <v>0.0155864402688594</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04814694832903837</v>
+        <v>0.03712457982757864</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05143386719071365</v>
+        <v>0.0641383034707429</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09017240677894278</v>
+        <v>0.06942575211095783</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05150367225883687</v>
+        <v>0.0640092797643781</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1312893440339639</v>
+        <v>0.1027115236298202</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05149428985720741</v>
+        <v>0.0638345920725943</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.06882187387044328</v>
+        <v>0.04328704911586724</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05358151264958859</v>
+        <v>0.01607351652726126</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04800047169010659</v>
+        <v>0.0376184955570283</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05304117554042345</v>
+        <v>0.06614262545420362</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08989793054581902</v>
+        <v>0.06959859309113345</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05311316201692552</v>
+        <v>0.06600956975701493</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1312778376984792</v>
+        <v>0.1029596337410519</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05310348641524514</v>
+        <v>0.06582942307486288</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06578239474048797</v>
+        <v>0.04365472998348048</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05520519485109128</v>
+        <v>0.01656059278566312</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04802575213691544</v>
+        <v>0.03770891926030535</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05464848389013324</v>
+        <v>0.06814694743766433</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09026977802326669</v>
+        <v>0.07026490035329835</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05472265177501417</v>
+        <v>0.06800985974965174</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1316879112286879</v>
+        <v>0.1020981496916722</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05471268297328286</v>
+        <v>0.06782425407713144</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.07269763213915528</v>
+        <v>0.04401556500630796</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05682887705259396</v>
+        <v>0.01704766904406497</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04782468083308226</v>
+        <v>0.03749578718290827</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05625579223984305</v>
+        <v>0.07015126942112505</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0894914948002718</v>
+        <v>0.07002455557163689</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05633214153310282</v>
+        <v>0.07001014974228854</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1314247540914134</v>
+        <v>0.1026268996154057</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0563218795313206</v>
+        <v>0.06981908507940002</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.068570515603118</v>
+        <v>0.04436959239894613</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05845255925409664</v>
+        <v>0.01753474530246683</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04809914894222435</v>
+        <v>0.03767903557033554</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05786310058955285</v>
+        <v>0.07215559140458576</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08956662646582036</v>
+        <v>0.06987744042033325</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05794163129119147</v>
+        <v>0.07201043973492537</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1304935557534789</v>
+        <v>0.102545711645977</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05793107608935832</v>
+        <v>0.07181391608166859</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.06540397466904904</v>
+        <v>0.04471685037599143</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06007624145559933</v>
+        <v>0.01802182156086869</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04785104762795907</v>
+        <v>0.03785860066808563</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05947040893926266</v>
+        <v>0.07415991338804648</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08929871860889843</v>
+        <v>0.07032343657357187</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05955112104928012</v>
+        <v>0.07401072972756217</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1304995056817076</v>
+        <v>0.1029544139171107</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05954027264739606</v>
+        <v>0.07380874708393716</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06820093887362125</v>
+        <v>0.04505737715204028</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06169992365710202</v>
+        <v>0.01850889781927054</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04748226805390372</v>
+        <v>0.03763441872165706</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06107771728897245</v>
+        <v>0.0761642353715072</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08919131681849196</v>
+        <v>0.07106242570553697</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06116061080736877</v>
+        <v>0.076011019720199</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1299477933429227</v>
+        <v>0.1036528345625313</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06114946920543379</v>
+        <v>0.07580357808620573</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06796433775350749</v>
+        <v>0.04539121094168909</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06332360585860469</v>
+        <v>0.0189959740776724</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04759470138367565</v>
+        <v>0.03800642597654828</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06268502563868225</v>
+        <v>0.07816855735496792</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08874796668358692</v>
+        <v>0.07099428949041284</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06277010056545743</v>
+        <v>0.07801130971283582</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1296436082039476</v>
+        <v>0.1039408017159636</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06275866576347151</v>
+        <v>0.07779840908847431</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06569710084538066</v>
+        <v>0.04571838995953431</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06494728806010738</v>
+        <v>0.01948305033607425</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04709023878089218</v>
+        <v>0.03797455867825779</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06429233398839206</v>
+        <v>0.08017287933842862</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08797221379316927</v>
+        <v>0.07101890960238388</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06437959032354608</v>
+        <v>0.08001159970547263</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1293921397316054</v>
+        <v>0.1045181435111321</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06436786232150926</v>
+        <v>0.07979324009074289</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0704021576859136</v>
+        <v>0.04603895242017235</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06657097026161007</v>
+        <v>0.01997012659447611</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04687077140917062</v>
+        <v>0.03813875307228408</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06589964233810186</v>
+        <v>0.08217720132188935</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08756760373622507</v>
+        <v>0.07103616771563429</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06598908008163473</v>
+        <v>0.08201188969810944</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1279985773927194</v>
+        <v>0.1043846880817614</v>
       </c>
       <c r="O106" t="n">
-        <v>0.065977058879547</v>
+        <v>0.08178807109301145</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.07008243781177917</v>
+        <v>0.04635293653819965</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06819465246311275</v>
+        <v>0.02045720285287797</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04693819043212831</v>
+        <v>0.03789894540412564</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06750695068781166</v>
+        <v>0.08418152330535006</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08723768210174032</v>
+        <v>0.07084594550434845</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06759856983972339</v>
+        <v>0.08401217969074626</v>
       </c>
       <c r="N107" t="n">
-        <v>0.128368110654113</v>
+        <v>0.1043402635615762</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06758625543758472</v>
+        <v>0.08378290209528001</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06674087075965029</v>
+        <v>0.04666038052821263</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06981833466461544</v>
+        <v>0.02094427911127982</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04659438701338257</v>
+        <v>0.03795507191928092</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06911425903752146</v>
+        <v>0.08618584528881078</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08648599447870092</v>
+        <v>0.07154812464271065</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06920805959781204</v>
+        <v>0.08601246968338308</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1269059289826092</v>
+        <v>0.104384698084301</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06919545199562245</v>
+        <v>0.08577773309754859</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.07038038606619978</v>
+        <v>0.04696132260480772</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07144201686611812</v>
+        <v>0.02143135536968168</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04634125231655076</v>
+        <v>0.03800706886324845</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07072156738723127</v>
+        <v>0.08819016727227148</v>
       </c>
       <c r="L109" t="n">
-        <v>0.085916086456093</v>
+        <v>0.07104258680490511</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07081754935590069</v>
+        <v>0.08801275967601989</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1258172218450314</v>
+        <v>0.1051178197836604</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07080464855366018</v>
+        <v>0.08777256409981717</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06700391326810051</v>
+        <v>0.04725580098258134</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0730656990676208</v>
+        <v>0.02191843162808354</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04618067750525016</v>
+        <v>0.03825487248152669</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07232887573694106</v>
+        <v>0.09019448925573222</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08613150362290245</v>
+        <v>0.07092921366511623</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07242703911398934</v>
+        <v>0.09001304966865671</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1254071787082028</v>
+        <v>0.104439456793379</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07241384511169791</v>
+        <v>0.08976739510208574</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06861438190202537</v>
+        <v>0.04754385387612993</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0746893812691235</v>
+        <v>0.02240550788648539</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04581455374309813</v>
+        <v>0.03809841901961414</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07393618408665086</v>
+        <v>0.09219881123919292</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08533579156811522</v>
+        <v>0.07130788689752826</v>
       </c>
       <c r="M111" t="n">
-        <v>0.074036528872078</v>
+        <v>0.09201333966129352</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1251809890389467</v>
+        <v>0.1053494372471815</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07402304166973565</v>
+        <v>0.09176222610435431</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06921472150464719</v>
+        <v>0.0478255195000499</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07631306347062618</v>
+        <v>0.02289258414488725</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04564477219371199</v>
+        <v>0.03813764472300926</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07554349243636067</v>
+        <v>0.09420313322265364</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08503249588071743</v>
+        <v>0.07127848817632551</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07564601863016665</v>
+        <v>0.09401362965393034</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1241438423040864</v>
+        <v>0.1046475892787924</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07563223822777337</v>
+        <v>0.09375705710662288</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06880786161263891</v>
+        <v>0.04810083606893768</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07793674567212885</v>
+        <v>0.0233796604032891</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04527322402070906</v>
+        <v>0.03817248583721056</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07715080078607046</v>
+        <v>0.09620745520611436</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08462516214969507</v>
+        <v>0.07194089917569238</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0772555083882553</v>
+        <v>0.09601391964656715</v>
       </c>
       <c r="N113" t="n">
-        <v>0.124000927970445</v>
+        <v>0.1051337410219365</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07724143478581111</v>
+        <v>0.09575188810889144</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06739673176267333</v>
+        <v>0.04836984179738971</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07956042787363155</v>
+        <v>0.02386673666169096</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04470180038770669</v>
+        <v>0.03820287860771651</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07875810913578027</v>
+        <v>0.09821177718957508</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08431733596403407</v>
+        <v>0.07119500156981301</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07886499814634396</v>
+        <v>0.09801420963920397</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1231574355048458</v>
+        <v>0.1048077206103382</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07885063134384884</v>
+        <v>0.09774671911116002</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06298426149142336</v>
+        <v>0.04863257490000242</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08118411007513422</v>
+        <v>0.02435381292009282</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04443239245832217</v>
+        <v>0.03842875928002559</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08036541748549007</v>
+        <v>0.1002160991730358</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08321256291272039</v>
+        <v>0.07214067703287183</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08047448790443261</v>
+        <v>0.1000144996318408</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1215185543741122</v>
+        <v>0.1049693561777222</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08045982790188656</v>
+        <v>0.0997415501134286</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06257338033556184</v>
+        <v>0.04888907359137221</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08280779227663693</v>
+        <v>0.02484088917849467</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04446215589396493</v>
+        <v>0.03845006409963632</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08197272583519988</v>
+        <v>0.1022204211564965</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0833117595414154</v>
+        <v>0.07207780723905313</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08208397766252125</v>
+        <v>0.1020147896244776</v>
       </c>
       <c r="N116" t="n">
-        <v>0.121684710078955</v>
+        <v>0.105018475857813</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0820690244599243</v>
+        <v>0.1017363811156972</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06616701783176164</v>
+        <v>0.04913937608609552</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0844314744781396</v>
+        <v>0.02532796543689653</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04405797452718752</v>
+        <v>0.03846672931204714</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08358003418490967</v>
+        <v>0.1042247431399572</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08205775384993902</v>
+        <v>0.07190627386254111</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0836934674206099</v>
+        <v>0.1040150796171144</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1211706105079243</v>
+        <v>0.1057549077843353</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08367822101796203</v>
+        <v>0.1037312121179657</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06073525754490283</v>
+        <v>0.04938352059876878</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08605515667964228</v>
+        <v>0.02581504169529839</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04351812812815849</v>
+        <v>0.03867869116275659</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08518734253461947</v>
+        <v>0.1062290651234179</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0812346717575233</v>
+        <v>0.07222595857752018</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08530295717869855</v>
+        <v>0.1060153696097512</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1191558423714679</v>
+        <v>0.1050784800910137</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08528741757599977</v>
+        <v>0.1057260431202343</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05924432484804085</v>
+        <v>0.04962154534398842</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08767883888114497</v>
+        <v>0.02630211795370024</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04314877833400378</v>
+        <v>0.03848588589726308</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08679465088432928</v>
+        <v>0.1082333871068787</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08085406521690736</v>
+        <v>0.0717367430581746</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08691244693678721</v>
+        <v>0.1080156596023881</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1180573135728203</v>
+        <v>0.1044890209115727</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0868966141340375</v>
+        <v>0.1077208741225029</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06370364213210485</v>
+        <v>0.04985348853635087</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08930252108264765</v>
+        <v>0.0267891942121021</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04315608678184933</v>
+        <v>0.03848823599011617</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08840195923403908</v>
+        <v>0.1102377090903394</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08052748618083028</v>
+        <v>0.07162795410132938</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08852193669487586</v>
+        <v>0.1100159495950249</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1176919320152156</v>
+        <v>0.1051077147911753</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08850581069207522</v>
+        <v>0.1097157051247715</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06212275417775785</v>
+        <v>0.05007938839045253</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09092620328415034</v>
+        <v>0.02727627047050395</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04234621510882104</v>
+        <v>0.03852612012166701</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09000926758374889</v>
+        <v>0.1122420310738001</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07986648660203124</v>
+        <v>0.07155177780417166</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09013142645296451</v>
+        <v>0.1120162395876617</v>
       </c>
       <c r="N121" t="n">
-        <v>0.116676605601888</v>
+        <v>0.1044403120442557</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09011500725011296</v>
+        <v>0.11171053612704</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06051120576566289</v>
+        <v>0.05029928312088988</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09254988548565303</v>
+        <v>0.02776334672890581</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04222532495204484</v>
+        <v>0.03836091393058404</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09161657593345868</v>
+        <v>0.1142463530572608</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07898261843324941</v>
+        <v>0.07119776340373668</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09174091621105317</v>
+        <v>0.1140165295802985</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1153282422360718</v>
+        <v>0.1038412641067268</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09172420380815069</v>
+        <v>0.1137053671293086</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05987854167648302</v>
+        <v>0.0505132109422593</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09417356768715571</v>
+        <v>0.02825042298730767</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04189957794864663</v>
+        <v>0.03791856100016094</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09322388428316848</v>
+        <v>0.1162506750407215</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0777874336272239</v>
+        <v>0.07051406115737682</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09335040596914182</v>
+        <v>0.1160168195729353</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1136637498210012</v>
+        <v>0.1035805084249667</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09333340036618842</v>
+        <v>0.1157001981315772</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0602343066908812</v>
+        <v>0.05072121006915722</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09579724988865838</v>
+        <v>0.02873749924570952</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04127513573575234</v>
+        <v>0.03772500491369134</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09483119263287829</v>
+        <v>0.1182549970241822</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07729248413669385</v>
+        <v>0.07034882132244441</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09495989572723047</v>
+        <v>0.1180171095655721</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1133000362599105</v>
+        <v>0.1028279824453536</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09494259692422616</v>
+        <v>0.1176950291338457</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05658804558952053</v>
+        <v>0.05092331871618011</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09742093209016107</v>
+        <v>0.02922457550411138</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0408581599504879</v>
+        <v>0.03750618925446887</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09643850098258808</v>
+        <v>0.1202593190076429</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07650932191439835</v>
+        <v>0.06945019415629175</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09656938548531913</v>
+        <v>0.1200173995582089</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1112540094560339</v>
+        <v>0.1017536236142654</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09655179348226389</v>
+        <v>0.1196898601361143</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05594930315306401</v>
+        <v>0.05111957509792434</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09904461429166377</v>
+        <v>0.02971165176251324</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04045481222997921</v>
+        <v>0.03718805760578718</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0980458093322979</v>
+        <v>0.1222636409911037</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07524949891307664</v>
+        <v>0.06916632991627117</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09817887524340778</v>
+        <v>0.1220176895508458</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1109425773126055</v>
+        <v>0.1011273693780805</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09816099004030161</v>
+        <v>0.1216846911383829</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05932762416217467</v>
+        <v>0.05131001742898635</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1006682964931664</v>
+        <v>0.03019872802091509</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04007021760686497</v>
+        <v>0.03699655355093992</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09965311768200769</v>
+        <v>0.1242679629745644</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07492456708546777</v>
+        <v>0.06894537885973501</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09978836500149643</v>
+        <v>0.1240179795434826</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1098826334984301</v>
+        <v>0.1006191571831768</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09977018659833935</v>
+        <v>0.1236795221406515</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05873255339751553</v>
+        <v>0.0514946839239626</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1022919786946691</v>
+        <v>0.03068580427931695</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0396666972536374</v>
+        <v>0.03665762067322069</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1012604260317175</v>
+        <v>0.1262722849580251</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07378367778979714</v>
+        <v>0.06803549124403566</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1013978547595851</v>
+        <v>0.1260182695361194</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1084951337045373</v>
+        <v>0.09979892447593242</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1013793831563771</v>
+        <v>0.12567435314292</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05714084044330285</v>
+        <v>0.05167361279744948</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1039156608961718</v>
+        <v>0.0311728805377188</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03942914792413062</v>
+        <v>0.03629327568137557</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1028677343814273</v>
+        <v>0.1282766069414858</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07357603914272448</v>
+        <v>0.06765620426615254</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1030073445176737</v>
+        <v>0.1280185595287562</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1073105034862951</v>
+        <v>0.09911751589476592</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1029885797144148</v>
+        <v>0.1276691841451886</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05349422090765119</v>
+        <v>0.05184684226404343</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1055393430976745</v>
+        <v>0.03165995679612066</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03896639000369541</v>
+        <v>0.03645460366752343</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1044750427311371</v>
+        <v>0.1302809289249465</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07271817728811766</v>
+        <v>0.06759973530288735</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1046168342757624</v>
+        <v>0.130018849521393</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1054529465121365</v>
+        <v>0.09834718853401497</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1045977762724526</v>
+        <v>0.1296640151474572</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05380400755715964</v>
+        <v>0.05201441053834088</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1071630252991772</v>
+        <v>0.03214703305452252</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03838724387768261</v>
+        <v>0.03632023433554674</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1060823510808469</v>
+        <v>0.1322852509084072</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07122662884970696</v>
+        <v>0.06695189394109846</v>
       </c>
       <c r="M131" t="n">
-        <v>0.106226324033851</v>
+        <v>0.1320191395140299</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1044466664504948</v>
+        <v>0.09839066114017792</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1062069728304903</v>
+        <v>0.1316588461497258</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05508386374814353</v>
+        <v>0.05217635583493828</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1087867075006799</v>
+        <v>0.03263410931292438</v>
       </c>
       <c r="J132" t="n">
-        <v>0.038000529931443</v>
+        <v>0.03589141622987418</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1076896594305567</v>
+        <v>0.134289572891868</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07021793045122257</v>
+        <v>0.06751499742952047</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1078358137919397</v>
+        <v>0.1340194295066666</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1032158669698029</v>
+        <v>0.09825129947842431</v>
       </c>
       <c r="O132" t="n">
-        <v>0.107816169388528</v>
+        <v>0.1336536771519943</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0563474528369181</v>
+        <v>0.05233271636843201</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1104103897021826</v>
+        <v>0.03312118557132623</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03711506855032742</v>
+        <v>0.03596939789493443</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1092969677802665</v>
+        <v>0.1362938948753287</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06990861871639484</v>
+        <v>0.06729136301688782</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1094453035500283</v>
+        <v>0.1360197194993035</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1021847517384937</v>
+        <v>0.09713246931392427</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1094253659465657</v>
+        <v>0.1356485081542629</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05660843817979869</v>
+        <v>0.05248353035341853</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1120340719036852</v>
+        <v>0.03360826182972809</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03693968011968668</v>
+        <v>0.03575542787515615</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1109042761299763</v>
+        <v>0.1382982168587894</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06861523026895389</v>
+        <v>0.06648330795193519</v>
       </c>
       <c r="M134" t="n">
-        <v>0.111054793308117</v>
+        <v>0.1380200094919403</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1012775244250001</v>
+        <v>0.0969375364118476</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1110345625046035</v>
+        <v>0.1376433391565315</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05488048313310054</v>
+        <v>0.05262883600449425</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1136577541051879</v>
+        <v>0.03409533808812994</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03638318502487158</v>
+        <v>0.03575075471496801</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1125115844796861</v>
+        <v>0.1403025388422501</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06825430173263</v>
+        <v>0.06599314948339699</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1126642830662056</v>
+        <v>0.1400202994845771</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09891838869775527</v>
+        <v>0.09736986653736401</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1126437590626412</v>
+        <v>0.1396381701588</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05417725105313891</v>
+        <v>0.0527686715362556</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1152814363066906</v>
+        <v>0.0345824143465318</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03605440365123297</v>
+        <v>0.03565662695879875</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1141188928293959</v>
+        <v>0.1423068608257108</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06724236973115341</v>
+        <v>0.06592320486000786</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1142737728242943</v>
+        <v>0.1420205894772139</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09823154822519214</v>
+        <v>0.09653282545564357</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1142529556206789</v>
+        <v>0.1416330011610686</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05451240529622911</v>
+        <v>0.05290307516329902</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1169051185081933</v>
+        <v>0.03506949060493365</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03566215638412161</v>
+        <v>0.03537429315107696</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1157262011791057</v>
+        <v>0.1443111828091715</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06629597088825437</v>
+        <v>0.06587579133050223</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1158832625823829</v>
+        <v>0.1440208794698507</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09744120667574385</v>
+        <v>0.09692977893185595</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1158621521787166</v>
+        <v>0.1436278321633372</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0498996092186864</v>
+        <v>0.05303208510022092</v>
       </c>
       <c r="G138" t="n">
-        <v>0.118528800709696</v>
+        <v>0.03555656686333551</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03501526360888833</v>
+        <v>0.03530500183623135</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1173335095288155</v>
+        <v>0.1463155047926323</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06543164182766309</v>
+        <v>0.06585322614361475</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1174927523404716</v>
+        <v>0.1460211694624876</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09587156771784311</v>
+        <v>0.09666409273117116</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1174713487367544</v>
+        <v>0.1456226631656057</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0483525261768261</v>
+        <v>0.05315573956161773</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1201524829111987</v>
+        <v>0.03604364312173737</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03472254571088397</v>
+        <v>0.03555000155869061</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1189408178785253</v>
+        <v>0.148319826776093</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06476591917310984</v>
+        <v>0.06595782654807986</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1191022420985602</v>
+        <v>0.1480214594551243</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09534683501992314</v>
+        <v>0.09693913261875903</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1190805452947921</v>
+        <v>0.1476174941678743</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05188481952696346</v>
+        <v>0.0532740767620859</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1217761651127014</v>
+        <v>0.03653071938013922</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03479282307545929</v>
+        <v>0.03551054086288341</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1205481262282351</v>
+        <v>0.1503241487595537</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06441533954832482</v>
+        <v>0.0662918974974275</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1207117318566489</v>
+        <v>0.1500217494477612</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09459121225041689</v>
+        <v>0.09705613182588035</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1206897418528299</v>
+        <v>0.1496123251701429</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05151015262541375</v>
+        <v>0.05338713491622181</v>
       </c>
       <c r="G141" t="n">
-        <v>0.123399847314204</v>
+        <v>0.03701779563854108</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03463491608796516</v>
+        <v>0.03518430206727721</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1221554345779449</v>
+        <v>0.1523284707430144</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06439643957703833</v>
+        <v>0.06614608588202589</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1223212216147375</v>
+        <v>0.152022039440398</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09382890307775732</v>
+        <v>0.09649411873196984</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1222989384108676</v>
+        <v>0.1516071561724115</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04824218882849228</v>
+        <v>0.05349495223862193</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1250235295157067</v>
+        <v>0.03750487189694294</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03425764513375236</v>
+        <v>0.03536356688946345</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1237627429276547</v>
+        <v>0.1543327927264751</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06462575588298056</v>
+        <v>0.06540955433364368</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1239307113728262</v>
+        <v>0.1540223294330348</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09448411117037742</v>
+        <v>0.09594465209902692</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1239081349689053</v>
+        <v>0.15360198717468</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05009459149251431</v>
+        <v>0.05359756694388268</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1266472117172094</v>
+        <v>0.03799194815534479</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03465388659609106</v>
+        <v>0.03504701765480087</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1253700512773645</v>
+        <v>0.1563371147099358</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06410371658617553</v>
+        <v>0.06528031970063186</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1255402011309149</v>
+        <v>0.1560226194256716</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09375512221860827</v>
+        <v>0.09690485143233063</v>
       </c>
       <c r="O143" t="n">
-        <v>0.125517331526943</v>
+        <v>0.1555968181769486</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.048071142404011</v>
+        <v>0.05369501724660046</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1282708939187121</v>
+        <v>0.03847902441374665</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03456868588924433</v>
+        <v>0.03503358583192903</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1269773596270743</v>
+        <v>0.1583414366933965</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0642274588112095</v>
+        <v>0.06585639883134137</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1271496908890035</v>
+        <v>0.1580229094183085</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09439066086034653</v>
+        <v>0.09557183623715987</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1271265280849808</v>
+        <v>0.1575916491792172</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0500893618204038</v>
+        <v>0.05378734136137173</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1298945761202148</v>
+        <v>0.03896610067214851</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03469595558997966</v>
+        <v>0.03502220288948757</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1285846679767841</v>
+        <v>0.1603457586768572</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06477474672838676</v>
+        <v>0.06543580857412307</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1287591806470922</v>
+        <v>0.1600231994109453</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09476062931925172</v>
+        <v>0.09594272601879383</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1287357246430185</v>
+        <v>0.1595864801814858</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04512691487553765</v>
+        <v>0.0538745775027929</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1315182583217175</v>
+        <v>0.03945317693055037</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03433504757959444</v>
+        <v>0.03541180029611608</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1301919763264939</v>
+        <v>0.162350080660318</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06394436523261929</v>
+        <v>0.06541656577732782</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1303686704051808</v>
+        <v>0.162023489403582</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09386324911858396</v>
+        <v>0.09611464028251138</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1303449212010563</v>
+        <v>0.1615813111837543</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04818279759096764</v>
+        <v>0.05395676388546038</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1331419405232201</v>
+        <v>0.03994025318895222</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03468531373938605</v>
+        <v>0.03540130952045416</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1317992846762037</v>
+        <v>0.1643544026437787</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0645350992188192</v>
+        <v>0.06519668728930658</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1319781601632695</v>
+        <v>0.1640237793962189</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0942967417816033</v>
+        <v>0.09668469853359141</v>
       </c>
       <c r="O147" t="n">
-        <v>0.131954117759094</v>
+        <v>0.1635761421860229</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05025600598824884</v>
+        <v>0.05403393872397064</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1347656227247228</v>
+        <v>0.04042732944735408</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03474610595065195</v>
+        <v>0.03498966203114144</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1334065930259135</v>
+        <v>0.1663587246272394</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06444573358189856</v>
+        <v>0.06567418995841029</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1335876499213581</v>
+        <v>0.1660240693888557</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09455932883157009</v>
+        <v>0.09615002027731312</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1335633143171317</v>
+        <v>0.1655709731882915</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04734553608893632</v>
+        <v>0.05410614023292008</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1363893049262255</v>
+        <v>0.04091440570575593</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03461677609468951</v>
+        <v>0.03497578929681748</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1350139013756233</v>
+        <v>0.1683630466107001</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06437505321676937</v>
+        <v>0.06584709063298977</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1351971396794468</v>
+        <v>0.1680243593814925</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09414923179174439</v>
+        <v>0.0958077250189554</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1351725108751694</v>
+        <v>0.16756580419056</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04645038391458517</v>
+        <v>0.0541734066269051</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1380129871277282</v>
+        <v>0.04140148196415779</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03469667605279612</v>
+        <v>0.0351586227861219</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1366212097253331</v>
+        <v>0.1703673685941608</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06472184301834374</v>
+        <v>0.06571340616139604</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1368066294375354</v>
+        <v>0.1700246493741293</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09536467218538641</v>
+        <v>0.09605493226379735</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1367817074332072</v>
+        <v>0.1695606351928286</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04656954548675046</v>
+        <v>0.05423577612052219</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1396366693292309</v>
+        <v>0.04188855822255964</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03508515770626924</v>
+        <v>0.03503709396769432</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1382285180750429</v>
+        <v>0.1723716905776216</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06518488788153376</v>
+        <v>0.06577115339197989</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1384161191956241</v>
+        <v>0.1720249393667662</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09510387153575633</v>
+        <v>0.09658876151711787</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1383909039912449</v>
+        <v>0.1715554661950972</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05170201682698729</v>
+        <v>0.05429328692836774</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1412603515307336</v>
+        <v>0.0423756344809615</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03518157293640624</v>
+        <v>0.03490776407013725</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1398358264247527</v>
+        <v>0.1743760125610823</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06566297270125146</v>
+        <v>0.0659063082320063</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1400256089537127</v>
+        <v>0.174025229359403</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09526505136611424</v>
+        <v>0.09576522282730676</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1400001005492826</v>
+        <v>0.1735502971973658</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05284679395685073</v>
+        <v>0.05434597726503816</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1428840337322362</v>
+        <v>0.04286271073936335</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03498527362450456</v>
+        <v>0.03524184755936378</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1414431347744625</v>
+        <v>0.176380334544543</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06535488237240891</v>
+        <v>0.06576543617983399</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1416350987118014</v>
+        <v>0.1760255193520398</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0959464331997204</v>
+        <v>0.09572471560458301</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1416092971073204</v>
+        <v>0.1755451281996343</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05000287289789582</v>
+        <v>0.05439388534512991</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1445077159337389</v>
+        <v>0.04334978699776521</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03539561165186156</v>
+        <v>0.034934371870502</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1430504431241723</v>
+        <v>0.1783846565280037</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0658594017899182</v>
+        <v>0.06514898808446887</v>
       </c>
       <c r="M154" t="n">
-        <v>0.14324458846989</v>
+        <v>0.1780258093446766</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09654623855983496</v>
+        <v>0.09457751021071181</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1432184936653581</v>
+        <v>0.1775399592019029</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05216924967167767</v>
+        <v>0.05443704938323939</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1461313981352416</v>
+        <v>0.04383686325616707</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03512088091401716</v>
+        <v>0.03468945880490773</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1446577514738821</v>
+        <v>0.1803889785114644</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06578187950505668</v>
+        <v>0.06506461384507048</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1448540782279787</v>
+        <v>0.1800260993373134</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09647390560823349</v>
+        <v>0.09423471799673649</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1448276902233958</v>
+        <v>0.1795347902041715</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04835243136722352</v>
+        <v>0.05447550759396308</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1477550803367443</v>
+        <v>0.04432393951456893</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03563944699739716</v>
+        <v>0.03441123016393668</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1462650598235919</v>
+        <v>0.1823933004949251</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06666100012513476</v>
+        <v>0.06461996336079839</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1464635679860674</v>
+        <v>0.1820263893299502</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09693488523075272</v>
+        <v>0.09370745031370042</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1464368867814335</v>
+        <v>0.18152962120644</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05366876920164514</v>
+        <v>0.05450929819189734</v>
       </c>
       <c r="G157" t="n">
-        <v>0.149378762538247</v>
+        <v>0.04481101577297078</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03595406977472919</v>
+        <v>0.03460380774894463</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1478723681733017</v>
+        <v>0.1843976224783858</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06722533481681039</v>
+        <v>0.06422268653081223</v>
       </c>
       <c r="M157" t="n">
-        <v>0.148073057744156</v>
+        <v>0.184026679322587</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09846594455450924</v>
+        <v>0.09380681851264711</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1480460833394713</v>
+        <v>0.1835244522087086</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05413510548325252</v>
+        <v>0.05453845939163864</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1510024447397497</v>
+        <v>0.04529809203137264</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03644518410667223</v>
+        <v>0.03427131336128736</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1494796765230115</v>
+        <v>0.1864019444618466</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0679382024902396</v>
+        <v>0.0640804332542716</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1496825475022447</v>
+        <v>0.1860269693152239</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09951339565923423</v>
+        <v>0.09364393394461984</v>
       </c>
       <c r="O158" t="n">
-        <v>0.149655279897509</v>
+        <v>0.1855192832109772</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05072113252598183</v>
+        <v>0.05456302940778335</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1526261269412524</v>
+        <v>0.0457851682897745</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03669322485388524</v>
+        <v>0.0339178688023206</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1510869848727213</v>
+        <v>0.1884062664453073</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06846292205557833</v>
+        <v>0.06360085343033603</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1512920372603333</v>
+        <v>0.1880272593078607</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1002235506246585</v>
+        <v>0.09192990796066225</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1512644764555467</v>
+        <v>0.1875141142132458</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04939654264376923</v>
+        <v>0.05458304645492798</v>
       </c>
       <c r="G160" t="n">
-        <v>0.154249809142755</v>
+        <v>0.04627224454817635</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03707862687702725</v>
+        <v>0.03364759587340012</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1526942932224311</v>
+        <v>0.190410588428768</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06916281242298256</v>
+        <v>0.06259159695816527</v>
       </c>
       <c r="M160" t="n">
-        <v>0.152901527018422</v>
+        <v>0.1900275493004975</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1018427215305135</v>
+        <v>0.09117585191181754</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1528736730135845</v>
+        <v>0.1895089452155143</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05013102815055093</v>
+        <v>0.05459854874766891</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1558734913442577</v>
+        <v>0.04675932080657821</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0374818250367572</v>
+        <v>0.03316461637588171</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1543016015721409</v>
+        <v>0.1924149104122287</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06980119250260824</v>
+        <v>0.06206031373691881</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1545110167765106</v>
+        <v>0.1920278392931343</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1026172204565302</v>
+        <v>0.09039287714912925</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1544828695716222</v>
+        <v>0.1915037762177829</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05189428136026306</v>
+        <v>0.05460957450060255</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1574971735457604</v>
+        <v>0.04724639706498007</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03838325419373408</v>
+        <v>0.0328730521111211</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1559089099218507</v>
+        <v>0.1944192323956894</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07144138120461141</v>
+        <v>0.06121465366575626</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1561205065345993</v>
+        <v>0.1940281292857711</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1041933594824397</v>
+        <v>0.09059209502364074</v>
       </c>
       <c r="O162" t="n">
-        <v>0.15609206612966</v>
+        <v>0.1934986072200515</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05765599458684179</v>
+        <v>0.05461616192832537</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1591208557472631</v>
+        <v>0.04773347332338192</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03856334920861688</v>
+        <v>0.03297702488047403</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1575162182715605</v>
+        <v>0.1964235543791502</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07164669743914795</v>
+        <v>0.06116226664383728</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1577299962926879</v>
+        <v>0.1960284192784079</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1055174506879732</v>
+        <v>0.08848461688639547</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1577012626876977</v>
+        <v>0.19549343822232</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05338586014422331</v>
+        <v>0.05461834924543377</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1607445379487658</v>
+        <v>0.04822054958178378</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03930254494206457</v>
+        <v>0.03268065648529631</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1591235266212704</v>
+        <v>0.1984278763626108</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07248046011637391</v>
+        <v>0.06021080257032138</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1593394860507766</v>
+        <v>0.1980287092710448</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1065358061528615</v>
+        <v>0.08868155408843675</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1593104592457354</v>
+        <v>0.1974882692245886</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05405357034634378</v>
+        <v>0.05461834924543377</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1623682201502684</v>
+        <v>0.04822054958178378</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03968272535663492</v>
+        <v>0.03208806872694367</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1607308349709801</v>
+        <v>0.2004321983460716</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07340631278187087</v>
+        <v>0.05976791134436826</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1609489758088652</v>
+        <v>0.2000289992636816</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1071954833724026</v>
+        <v>0.08719401798080817</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1609196558037731</v>
+        <v>0.1994831002268572</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05663103061690668</v>
+        <v>0.0536358622159389</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1639919023517711</v>
+        <v>0.04822028105331976</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03973442100147506</v>
+        <v>0.03170338340677187</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1623381433206899</v>
+        <v>0.2024365203295323</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07386611325993792</v>
+        <v>0.05964124286513742</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1625584655669539</v>
+        <v>0.2020292892563184</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1080611070087201</v>
+        <v>0.08643311991455294</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1625288523618109</v>
+        <v>0.2014779312291258</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0581648078657076</v>
+        <v>0.05266482872169279</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1656155845532739</v>
+        <v>0.04822001252485574</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03997758320416024</v>
+        <v>0.03153072232613668</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1639454516703998</v>
+        <v>0.204440842312993</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07470978220641381</v>
+        <v>0.05883844703178856</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1641679553250425</v>
+        <v>0.2040295792489552</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1103031459949174</v>
+        <v>0.08560997124071468</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1641380489198486</v>
+        <v>0.2034727622313943</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05968551083346506</v>
+        <v>0.05170592897028171</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1672392667547765</v>
+        <v>0.04821974399639173</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04031283262979717</v>
+        <v>0.03147420728639386</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1655527600201095</v>
+        <v>0.2064451642964537</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07503848325587062</v>
+        <v>0.0584671737434812</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1657774450831312</v>
+        <v>0.206029869241592</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1112233034734146</v>
+        <v>0.08553568331033667</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1657472454778863</v>
+        <v>0.2054675932336629</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05819410097120054</v>
+        <v>0.05075984316920795</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1688629489562792</v>
+        <v>0.04821947546792771</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04104078994349257</v>
+        <v>0.03133796008889915</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1671600683698193</v>
+        <v>0.2084494862799144</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07565338004288025</v>
+        <v>0.05783507289937498</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1673869348412198</v>
+        <v>0.2080301592342288</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1121232825866315</v>
+        <v>0.08512136747446231</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1673564420359241</v>
+        <v>0.2074624242359315</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05669153972993558</v>
+        <v>0.04982725152605673</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1704866311577819</v>
+        <v>0.04821920693946369</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04116207581035322</v>
+        <v>0.03072610253500838</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1687673767195292</v>
+        <v>0.2104538082633751</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07665563620201482</v>
+        <v>0.05784979439862953</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1689964245993085</v>
+        <v>0.2100304492268656</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1127047864769879</v>
+        <v>0.08437813508413516</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1689656385939618</v>
+        <v>0.2094572552382001</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05617878856069172</v>
+        <v>0.04890883424833146</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1721103133592846</v>
+        <v>0.04821893841099967</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04147731089548581</v>
+        <v>0.03064275642607722</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1703746850692389</v>
+        <v>0.2124581302468359</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07684641536784623</v>
+        <v>0.05731898814040437</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1706059143573971</v>
+        <v>0.2120307392195025</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1126695182869041</v>
+        <v>0.08411709749039842</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1705748351519995</v>
+        <v>0.2114520862404686</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05665680891449046</v>
+        <v>0.04800527154361614</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1737339955607873</v>
+        <v>0.04821866988253566</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04158711586399712</v>
+        <v>0.03038757986704917</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1719819934189488</v>
+        <v>0.2144624522302966</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07752688117494652</v>
+        <v>0.05703382374673396</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1722154041154858</v>
+        <v>0.2140310292121393</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1136191811587999</v>
+        <v>0.08400261758260552</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1721840317100373</v>
+        <v>0.2134469172427372</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06012656224235334</v>
+        <v>0.04711724361941549</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1753576777622899</v>
+        <v>0.04821840135407164</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04229211138099385</v>
+        <v>0.03023232448819686</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1735893017686586</v>
+        <v>0.2164667742137573</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07869819725788765</v>
+        <v>0.05704296479052384</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1738248938735744</v>
+        <v>0.2160313192047761</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1145554782350952</v>
+        <v>0.08327522627683009</v>
       </c>
       <c r="O173" t="n">
-        <v>0.173793228268075</v>
+        <v>0.2154417482450058</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.06058900999530187</v>
+        <v>0.04624543068331215</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1769813599637926</v>
+        <v>0.04821813282560763</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04259291811158272</v>
+        <v>0.03017381680957586</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1751966101183683</v>
+        <v>0.218471096197218</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07906152725124166</v>
+        <v>0.05674710817044801</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1754343836316631</v>
+        <v>0.2180316091974129</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1155801126582099</v>
+        <v>0.08274262787203573</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1754024248261127</v>
+        <v>0.2174365792472743</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.06204511362435758</v>
+        <v>0.04539051294281223</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1786050421652953</v>
+        <v>0.04821786429714361</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04289015672087051</v>
+        <v>0.03031514298919168</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1768039184680782</v>
+        <v>0.2204754181806787</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07981803478958055</v>
+        <v>0.0558519816728541</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1770438733897517</v>
+        <v>0.2200318991900497</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1164947875705643</v>
+        <v>0.08251314188243847</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1770116213841504</v>
+        <v>0.2194314102495429</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.062495834580542</v>
+        <v>0.04455317060549692</v>
       </c>
       <c r="G176" t="n">
-        <v>0.180228724366798</v>
+        <v>0.04821759576867959</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04298444787396391</v>
+        <v>0.02985938918504993</v>
       </c>
       <c r="K176" t="n">
-        <v>0.178411226817788</v>
+        <v>0.2224797401641394</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07966888350747625</v>
+        <v>0.05616331308408981</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1786533631478404</v>
+        <v>0.2220321891826865</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1167012061145779</v>
+        <v>0.0814950878222544</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1786208179421882</v>
+        <v>0.2214262412518115</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05794213431487663</v>
+        <v>0.04373408387887383</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1818524065683007</v>
+        <v>0.04821732724021557</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04328322185147573</v>
+        <v>0.02970964155515615</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1800185351674978</v>
+        <v>0.2244840621476002</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0807243319796897</v>
+        <v>0.05568683019050266</v>
       </c>
       <c r="M177" t="n">
-        <v>0.180262852905929</v>
+        <v>0.2240324791753234</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1184150568086631</v>
+        <v>0.08099678520569975</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1802300145002259</v>
+        <v>0.2234210722540801</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.05939871386490729</v>
+        <v>0.04293393297052264</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1834760887698033</v>
+        <v>0.04821705871175155</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04339921922636054</v>
+        <v>0.02956898625751592</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1816258435172076</v>
+        <v>0.2264883841310609</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08151218269011307</v>
+        <v>0.05512826077844032</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1818723426640177</v>
+        <v>0.2260327691679602</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1183763826489245</v>
+        <v>0.08152655354699057</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1818392110582636</v>
+        <v>0.2254159032563486</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.06588077920051617</v>
+        <v>0.04215339808795253</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1850997709713061</v>
+        <v>0.04821679018328753</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04412283613698571</v>
+        <v>0.02944050945013478</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1832331518669174</v>
+        <v>0.2284927061145216</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08141662921497644</v>
+        <v>0.0545933326342504</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1834818324221063</v>
+        <v>0.228033059160597</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1201615447768301</v>
+        <v>0.08079271236034297</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1834484076163014</v>
+        <v>0.2274107342586172</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.06137233629728117</v>
+        <v>0.0413931594387415</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1867234531728087</v>
+        <v>0.04821652165482352</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04424341065150217</v>
+        <v>0.02952729729101831</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1848404602166271</v>
+        <v>0.2304970280979823</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08201768236466833</v>
+        <v>0.05518777354428062</v>
       </c>
       <c r="M180" t="n">
-        <v>0.185091322180195</v>
+        <v>0.2300333491532338</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1203412862094853</v>
+        <v>0.0798035811599731</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1850576041743391</v>
+        <v>0.2294055652608858</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.06485686912239094</v>
+        <v>0.04065389723040047</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1883471353743114</v>
+        <v>0.0482162531263595</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04475028083806087</v>
+        <v>0.0292324359381721</v>
       </c>
       <c r="K181" t="n">
-        <v>0.186447768566337</v>
+        <v>0.232501350081443</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08259535294957682</v>
+        <v>0.0545173112948785</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1867008119382836</v>
+        <v>0.2320336391458706</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1211863499639959</v>
+        <v>0.0802674794600971</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1866668007323768</v>
+        <v>0.2314003962631543</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.06231786164303407</v>
+        <v>0.03993629167050565</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1899708175758141</v>
+        <v>0.04821598459789549</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04463278476481276</v>
+        <v>0.02915901154960165</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1880550769160468</v>
+        <v>0.2345056720649037</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08402965178009025</v>
+        <v>0.05438767367239172</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1883103016963723</v>
+        <v>0.2340339291385074</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1227674790574675</v>
+        <v>0.07989272677493103</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1882759972904146</v>
+        <v>0.2333952272654229</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.06573879782639919</v>
+        <v>0.03924102296658473</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1915944997773168</v>
+        <v>0.04821571606943147</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04528026049990871</v>
+        <v>0.02921011028331255</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1896623852657566</v>
+        <v>0.2365099940483645</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08390058966659714</v>
+        <v>0.05450458846316783</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1899197914544609</v>
+        <v>0.2360342191311442</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1227554165070059</v>
+        <v>0.08008764261869095</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1898851938484523</v>
+        <v>0.2353900582676915</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.06810316163967489</v>
+        <v>0.03856877132616733</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1932181819788195</v>
+        <v>0.04821544754096745</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04538204611149969</v>
+        <v>0.02908881829731041</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1912696936154664</v>
+        <v>0.2385143160318252</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08468817741948564</v>
+        <v>0.05397378345355458</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1915292812125496</v>
+        <v>0.2380345091237811</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1240209053297167</v>
+        <v>0.08015986234039435</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1914943904064901</v>
+        <v>0.23738488926996</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.06139443705004979</v>
+        <v>0.03792021695682671</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1948418641803221</v>
+        <v>0.04821517901250344</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0456276704267345</v>
+        <v>0.0292925777272839</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1928770019651762</v>
+        <v>0.2405186380152859</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08447242584914405</v>
+        <v>0.05418561784823858</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1931387709706383</v>
+        <v>0.2400347991164179</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1235346885427055</v>
+        <v>0.07998538948097839</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1931035869645278</v>
+        <v>0.2393797202722286</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.06759999227934418</v>
+        <v>0.03729604006607869</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1964655463818248</v>
+        <v>0.04821491048403942</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04534508587344427</v>
+        <v>0.02901040845714567</v>
       </c>
       <c r="K186" t="n">
-        <v>0.194484310314886</v>
+        <v>0.2425229599987466</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08459251061869311</v>
+        <v>0.05482273781391844</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1947482607287269</v>
+        <v>0.2420350891090547</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1243567764074813</v>
+        <v>0.07944720983338405</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1947127835225655</v>
+        <v>0.2413745512744972</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.06877743070858508</v>
+        <v>0.03669692086149444</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1980892285833275</v>
+        <v>0.0482146419555754</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04565999508546663</v>
+        <v>0.02904112011250733</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1960916186645958</v>
+        <v>0.2445272819822073</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08520785731069269</v>
+        <v>0.05438357075492342</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1963577504868156</v>
+        <v>0.2440353791016915</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1241719837590049</v>
+        <v>0.07994309053171966</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1963219800806032</v>
+        <v>0.2433693822767658</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.06795101299476689</v>
+        <v>0.03612353955059192</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1997129107848302</v>
+        <v>0.04821437342711138</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04577235882544968</v>
+        <v>0.02938388440258553</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1976989270143056</v>
+        <v>0.246531603965668</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08491844584923358</v>
+        <v>0.05436657939654763</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1979672402449042</v>
+        <v>0.2460356690943283</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1250802241060475</v>
+        <v>0.08067079871009347</v>
       </c>
       <c r="O188" t="n">
-        <v>0.197931176638641</v>
+        <v>0.2453642132790343</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.06312067835665394</v>
+        <v>0.03557657634094008</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2013365929863329</v>
+        <v>0.04821410489864737</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04598213785604145</v>
+        <v>0.029537873036597</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1993062353640154</v>
+        <v>0.2485359259491288</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08552420267139305</v>
+        <v>0.05477022646408508</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1995767300029929</v>
+        <v>0.2480359590869651</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1258813897789532</v>
+        <v>0.07962810150261396</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1995403731966787</v>
+        <v>0.2473590442813029</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.06328636601301063</v>
+        <v>0.03505393392592093</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2029602751878356</v>
+        <v>0.04821383637018335</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04588929293989</v>
+        <v>0.0293022577237584</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2009135437137252</v>
+        <v>0.2505402479325895</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08582505421424846</v>
+        <v>0.0548929746828298</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2011862197610815</v>
+        <v>0.250036249079602</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1250753731080658</v>
+        <v>0.07971276604338934</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2011495697547164</v>
+        <v>0.2493538752835715</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.06744801518260132</v>
+        <v>0.03453962742827288</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2045839573893383</v>
+        <v>0.04821356784171933</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04599378483964339</v>
+        <v>0.02967621017328638</v>
       </c>
       <c r="K191" t="n">
-        <v>0.202520852063435</v>
+        <v>0.2525445699160502</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08552092691487717</v>
+        <v>0.05523328677807587</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2027957095191702</v>
+        <v>0.2520365390722388</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1259620664237295</v>
+        <v>0.08042255946652799</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2027587663127541</v>
+        <v>0.2513487062858401</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0626055650841903</v>
+        <v>0.03403155954137957</v>
       </c>
       <c r="G192" t="n">
-        <v>0.206207639590841</v>
+        <v>0.04821329931325531</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04639557431794966</v>
+        <v>0.02965890209439766</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2041281604131448</v>
+        <v>0.2545488918995109</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0864117472103566</v>
+        <v>0.0546896254751173</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2044051992772588</v>
+        <v>0.2540368290648756</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1267413620562882</v>
+        <v>0.08025524890613833</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2043679628707919</v>
+        <v>0.2533435372881087</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.06275895493654202</v>
+        <v>0.03353041047280712</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2078313217923436</v>
+        <v>0.0482130307847913</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04629462213745689</v>
+        <v>0.02964950519630889</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2057354687628546</v>
+        <v>0.2565532138829716</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08649744153776395</v>
+        <v>0.05566045349924814</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2060146890353475</v>
+        <v>0.2560371190575124</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1261131523360858</v>
+        <v>0.08060860149632854</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2059771594288296</v>
+        <v>0.2553383682903772</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.06790812395842072</v>
+        <v>0.03303686043007774</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2094550039938463</v>
+        <v>0.04821276225632728</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0463908890608131</v>
+        <v>0.02974719118823679</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2073427771125644</v>
+        <v>0.2585575358664323</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08687793633417679</v>
+        <v>0.05504423357576238</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2076241787934361</v>
+        <v>0.2580374090501492</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1271773295934664</v>
+        <v>0.08118038437120706</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2075863559868674</v>
+        <v>0.2573331992926458</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.06305301136859084</v>
+        <v>0.03255158962075697</v>
       </c>
       <c r="G195" t="n">
-        <v>0.211078686195349</v>
+        <v>0.04821249372786326</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04628433585066638</v>
+        <v>0.02995113177939801</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2089500854622742</v>
+        <v>0.2605618578498931</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0864531580366722</v>
+        <v>0.05613942842995409</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2092336685515248</v>
+        <v>0.2600376990427861</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1269337861587739</v>
+        <v>0.08226836466488224</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2091955525449051</v>
+        <v>0.2593280302949144</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0631935563858167</v>
+        <v>0.03207527825236765</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2127023683968517</v>
+        <v>0.04821222519939924</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04647492326966476</v>
+        <v>0.02996049867900924</v>
       </c>
       <c r="K196" t="n">
-        <v>0.210557393811984</v>
+        <v>0.2625661798333537</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08652303308232767</v>
+        <v>0.0559445007871173</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2108431583096134</v>
+        <v>0.2620379890354229</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1273824143623523</v>
+        <v>0.08257030951146233</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2108047491029428</v>
+        <v>0.2613228612971829</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.06832969822886267</v>
+        <v>0.03160860653247456</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2143260505983544</v>
+        <v>0.04821195667093523</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04686261208045631</v>
+        <v>0.02987446359628718</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2121647021616938</v>
+        <v>0.2645705018168145</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08718748790822062</v>
+        <v>0.05565791337254605</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2124526480677021</v>
+        <v>0.2640382790280597</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1275231065345456</v>
+        <v>0.08178398604505577</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2124139456609806</v>
+        <v>0.2633176922994515</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.06446137611649308</v>
+        <v>0.03115225466861127</v>
       </c>
       <c r="G198" t="n">
-        <v>0.215949732799857</v>
+        <v>0.04821168814247121</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04654736304568907</v>
+        <v>0.02999219824044846</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2137720105114036</v>
+        <v>0.2665748238002752</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08684644895142835</v>
+        <v>0.05617812891153437</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2140621378257908</v>
+        <v>0.2660385690206965</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1282557550056978</v>
+        <v>0.08240716139977083</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2140231422190183</v>
+        <v>0.2653125233017201</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.06358852926747227</v>
+        <v>0.03070690286831214</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2175734150013598</v>
+        <v>0.04821141961400719</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0466291369280111</v>
+        <v>0.03031312649467267</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2153793188611134</v>
+        <v>0.2685791457837359</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08769984264902819</v>
+        <v>0.05640673783607539</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2156716275838794</v>
+        <v>0.2680388590133333</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1283802521061528</v>
+        <v>0.08225287720728469</v>
       </c>
       <c r="O199" t="n">
-        <v>0.215632338777056</v>
+        <v>0.2673073543039887</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.06771109690056465</v>
+        <v>0.0302732313391406</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2191970972028624</v>
+        <v>0.04821115108554318</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04690789449007043</v>
+        <v>0.03037802984368536</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2169866272108232</v>
+        <v>0.2705834677671966</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08794759543809749</v>
+        <v>0.05663160862688815</v>
       </c>
       <c r="M200" t="n">
-        <v>0.217281117341968</v>
+        <v>0.2700391490059701</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1285964901662547</v>
+        <v>0.0839617276430325</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2172415353350937</v>
+        <v>0.2693021853062572</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.06982901823453458</v>
+        <v>0.02985192028862182</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2208207794043651</v>
+        <v>0.04821088255707916</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0470835964945152</v>
+        <v>0.03081343912551572</v>
       </c>
       <c r="K201" t="n">
-        <v>0.218593935560533</v>
+        <v>0.2725877897506573</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08778963375571353</v>
+        <v>0.05758638682649464</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2188906071000567</v>
+        <v>0.2720394389986069</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1282043615163473</v>
+        <v>0.08405739170045701</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2188507318931315</v>
+        <v>0.2712970163085258</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.06694223248814629</v>
+        <v>0.02944364992431814</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2224444616058678</v>
+        <v>0.04821061402861514</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04685620370399338</v>
+        <v>0.03091428993230409</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2202012439102428</v>
+        <v>0.274592111734118</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08732588403895386</v>
+        <v>0.05776167309560448</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2205000968581453</v>
+        <v>0.2740397289912437</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1287037584867748</v>
+        <v>0.0849262169958796</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2204599284511692</v>
+        <v>0.2732918473107944</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0670506788801643</v>
+        <v>0.02904910045375581</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2240681438073705</v>
+        <v>0.04821034550015112</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04712567688115303</v>
+        <v>0.03157551785619071</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2218085522599526</v>
+        <v>0.2765964337175787</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08745627272489565</v>
+        <v>0.05884806809492749</v>
       </c>
       <c r="M203" t="n">
-        <v>0.222109586616234</v>
+        <v>0.2760400189838806</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1290945734078811</v>
+        <v>0.08625455114562164</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2220691250092069</v>
+        <v>0.2752866783130629</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.06815429662935282</v>
+        <v>0.02866895208449603</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2256918260088732</v>
+        <v>0.04821007697168711</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04739197678864225</v>
+        <v>0.03169205848931597</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2234158606096624</v>
+        <v>0.2786007557010395</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08848072625061632</v>
+        <v>0.05983617248517342</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2237190763743226</v>
+        <v>0.2780403089765174</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1292766986100101</v>
+        <v>0.0869287417660044</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2236783215672447</v>
+        <v>0.2772815093153315</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0712530249544763</v>
+        <v>0.02830388502406628</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2273155082103759</v>
+        <v>0.04820980844322309</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04725506418910905</v>
+        <v>0.03235884742382006</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2250231689593722</v>
+        <v>0.2806050776845002</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08829917105319324</v>
+        <v>0.06051658692705195</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2253285661324113</v>
+        <v>0.2800405989691542</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1291500264235059</v>
+        <v>0.08803513647334926</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2252875181252824</v>
+        <v>0.2792763403176001</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.06434680307429907</v>
+        <v>0.02795457948002644</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2289391904118785</v>
+        <v>0.04820953991475908</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04731489984520151</v>
+        <v>0.03267082025184338</v>
       </c>
       <c r="K206" t="n">
-        <v>0.226630477309082</v>
+        <v>0.2826093996679609</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0884115335697036</v>
+        <v>0.06087991208127294</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2269380558905</v>
+        <v>0.282040888961791</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1299144491787123</v>
+        <v>0.09026008288397752</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2268967146833201</v>
+        <v>0.2812711713198686</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.06443557020758545</v>
+        <v>0.02762171565990537</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2305628726133812</v>
+        <v>0.04820927138629506</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0475714445195677</v>
+        <v>0.03332291256552615</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2282377856587918</v>
+        <v>0.2846137216514216</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08831774023722505</v>
+        <v>0.06231674860854608</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2285475456485886</v>
+        <v>0.2840411789544278</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1294698592059735</v>
+        <v>0.09078992861421042</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2285059112413579</v>
+        <v>0.2832660023221372</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.06951926557309984</v>
+        <v>0.02730597377126155</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2321865548148839</v>
+        <v>0.04820900285783104</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04732465897485563</v>
+        <v>0.03411005995700873</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2298450940085016</v>
+        <v>0.2866180436348824</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08841771749283467</v>
+        <v>0.06331769716958119</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2301570354066772</v>
+        <v>0.2860414689470647</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1302161488356334</v>
+        <v>0.09291102128036943</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2301151077993956</v>
+        <v>0.2852608333244058</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.06859782838960654</v>
+        <v>0.0270080340216253</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2338102370163866</v>
+        <v>0.04820873432936702</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04737450397371339</v>
+        <v>0.03432719801843143</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2314524023582114</v>
+        <v>0.288622365618343</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08841139177361002</v>
+        <v>0.06427335842508791</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2317665251647659</v>
+        <v>0.2880417589397015</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1301532103980358</v>
+        <v>0.09540970849877578</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2317243043574333</v>
+        <v>0.2872556643266744</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.06667119787586998</v>
+        <v>0.02672857661855356</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2354339192178893</v>
+        <v>0.04820846580090301</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04742094027878901</v>
+        <v>0.03496926234193448</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2330597107079212</v>
+        <v>0.2906266876018038</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08879868951662828</v>
+        <v>0.0659743330357761</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2333760149228546</v>
+        <v>0.2900420489323383</v>
       </c>
       <c r="N210" t="n">
-        <v>0.130180936223525</v>
+        <v>0.09627233788575079</v>
       </c>
       <c r="O210" t="n">
-        <v>0.233333500915471</v>
+        <v>0.2892504953289429</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.06973931325065447</v>
+        <v>0.02646828176957822</v>
       </c>
       <c r="G211" t="n">
-        <v>0.237057601419392</v>
+        <v>0.04820819727243899</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04766392865273054</v>
+        <v>0.03593118851965825</v>
       </c>
       <c r="K211" t="n">
-        <v>0.234667019057631</v>
+        <v>0.2926310095852645</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08847953715896695</v>
+        <v>0.06731122166235542</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2349855046809432</v>
+        <v>0.2920423389249751</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1300992186424448</v>
+        <v>0.09778525705761576</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2349426974735088</v>
+        <v>0.2912453263312115</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.06980211373272432</v>
+        <v>0.02622782968225461</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2386812836208947</v>
+        <v>0.04820792874397497</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04760342985818608</v>
+        <v>0.03670791214374299</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2362743274073408</v>
+        <v>0.2946353315687252</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08855386113770325</v>
+        <v>0.06867462496553572</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2365949944390318</v>
+        <v>0.2940426289176119</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1303079499851392</v>
+        <v>0.100534813630692</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2365518940315465</v>
+        <v>0.2932401573334801</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.07085953854084398</v>
+        <v>0.0260079005641163</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2403049658223973</v>
+        <v>0.04820766021551095</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04763940465780363</v>
+        <v>0.03729436880632901</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2378816357570506</v>
+        <v>0.2966396535521859</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08852158788991454</v>
+        <v>0.06925514360602672</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2382044841971205</v>
+        <v>0.2960429189102487</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1295070225819521</v>
+        <v>0.102407355221301</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2381610905895842</v>
+        <v>0.2952349883357486</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.06891152689377772</v>
+        <v>0.02580917462271688</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2419286480239</v>
+        <v>0.04820739168704694</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04777181381423129</v>
+        <v>0.03778549409955666</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2394889441067604</v>
+        <v>0.2986439755356466</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08928264385267831</v>
+        <v>0.07074337824453814</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2398139739552092</v>
+        <v>0.2980432089028855</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1298963287632277</v>
+        <v>0.1045892294457638</v>
       </c>
       <c r="O214" t="n">
-        <v>0.239770287147622</v>
+        <v>0.2972298193380172</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.06895801801028992</v>
+        <v>0.02580917462271688</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2435523302254027</v>
+        <v>0.04820739168704694</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04750061809011707</v>
+        <v>0.03837622361556618</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2410962524564702</v>
+        <v>0.3006482975191074</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08883695546307174</v>
+        <v>0.07202992954177975</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2414234637132978</v>
+        <v>0.3000434988955223</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1300757608593098</v>
+        <v>0.1063667839204019</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2413794837056597</v>
+        <v>0.2992246503402858</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.06599895110914497</v>
+        <v>0.02508975496841956</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2451760124269054</v>
+        <v>0.04817486473447277</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0476257782481091</v>
+        <v>0.03906149294649792</v>
       </c>
       <c r="K216" t="n">
-        <v>0.24270356080618</v>
+        <v>0.3026526195025681</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08858444915817221</v>
+        <v>0.07310539815846129</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2430329534713865</v>
+        <v>0.3020437888881591</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1306452112005423</v>
+        <v>0.1077263662615366</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2429886802636974</v>
+        <v>0.3012194813425544</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.07203426540910715</v>
+        <v>0.0243787658446654</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2467996946284081</v>
+        <v>0.04814233778189859</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04774725505085534</v>
+        <v>0.03973623768449214</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2443108691558898</v>
+        <v>0.3046569414860288</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08912505137505722</v>
+        <v>0.07416038475529255</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2446424432294751</v>
+        <v>0.304044078880796</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1309045721172695</v>
+        <v>0.1099543240854892</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2445978768217352</v>
+        <v>0.3032143123448229</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.06906390012894087</v>
+        <v>0.02367673255636076</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2484233768299108</v>
+        <v>0.04810981082932442</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04796500926100389</v>
+        <v>0.04039539342168917</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2459181775055996</v>
+        <v>0.3066612634694895</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08945868855080402</v>
+        <v>0.07538548999298328</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2462519329875638</v>
+        <v>0.3060443688734328</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1309537359398351</v>
+        <v>0.111237005008581</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2462070733797729</v>
+        <v>0.3052091433470915</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.06708779448741048</v>
+        <v>0.02298418040841232</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2500470590314134</v>
+        <v>0.04807728387675024</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04757900164120282</v>
+        <v>0.04113389575022927</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2475254858553094</v>
+        <v>0.3086655854529502</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08868528712248991</v>
+        <v>0.07707131453224322</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2478614227456524</v>
+        <v>0.3080446588660696</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1302925949985832</v>
+        <v>0.1126607566471334</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2478162699378107</v>
+        <v>0.3072039743493601</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.07210588770328033</v>
+        <v>0.02230163470572677</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2516707412329161</v>
+        <v>0.04804475692417607</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04798919295410015</v>
+        <v>0.04194668026225276</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2491327942050192</v>
+        <v>0.3106699074364109</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08940477352719234</v>
+        <v>0.07810845903378216</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2494709125037411</v>
+        <v>0.3100449488587064</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1309210416238577</v>
+        <v>0.1152119266174676</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2494254664958483</v>
+        <v>0.3091988053516286</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.06811811899531475</v>
+        <v>0.02162962075321043</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2532944234344188</v>
+        <v>0.0480122299716019</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04779554396234395</v>
+        <v>0.0422286825499</v>
       </c>
       <c r="K221" t="n">
-        <v>0.250740102554729</v>
+        <v>0.3126742294198717</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08891707420198858</v>
+        <v>0.07878752415830975</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2510804022618297</v>
+        <v>0.3120452388513433</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1309389681460027</v>
+        <v>0.116876862535905</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2510346630538861</v>
+        <v>0.3111936363538972</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0681244275822781</v>
+        <v>0.02096866385577011</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2549181056359215</v>
+        <v>0.04797970301902773</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04769801542858229</v>
+        <v>0.0430748382053112</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2523474109044389</v>
+        <v>0.3146785514033324</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08902211558395601</v>
+        <v>0.08049911056653586</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2526898920199184</v>
+        <v>0.3140455288439801</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1305462668953621</v>
+        <v>0.1180419120187669</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2526438596119238</v>
+        <v>0.3131884673561658</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.07010673149578364</v>
+        <v>0.02031928931831213</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2565417878374242</v>
+        <v>0.04794717606645355</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04775263170733995</v>
+        <v>0.04338008282062675</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2539547192541486</v>
+        <v>0.3166828733867931</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0890478297477067</v>
+        <v>0.08103381891917022</v>
       </c>
       <c r="M223" t="n">
-        <v>0.254299381778007</v>
+        <v>0.3160458188366169</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1302354759469434</v>
+        <v>0.1192934226823746</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2542530561699616</v>
+        <v>0.3151832983584343</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.06993594966656891</v>
+        <v>0.01968202244574321</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2581654700389269</v>
+        <v>0.04791464911387938</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04779474571612305</v>
+        <v>0.04403935198798684</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2555620276038584</v>
+        <v>0.3186871953702538</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08876370318584542</v>
+        <v>0.08198224987692243</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2559088715360957</v>
+        <v>0.3180461088292537</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1303172790663184</v>
+        <v>0.1208177421430495</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2558622527279993</v>
+        <v>0.3171781293607029</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.07160214583136057</v>
+        <v>0.01905738854297</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2597891522404295</v>
+        <v>0.04788212216130521</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04713553306958315</v>
+        <v>0.04454758129953186</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2571693359535682</v>
+        <v>0.3206915173537145</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08788862171636952</v>
+        <v>0.08263500410050251</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2575183612941843</v>
+        <v>0.3200463988218905</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1296197865969302</v>
+        <v>0.1214012180171128</v>
       </c>
       <c r="O225" t="n">
-        <v>0.257471449286037</v>
+        <v>0.3191729603629715</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.07112426813815201</v>
+        <v>0.01844591291489886</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2614128344419323</v>
+        <v>0.04784959520873103</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04708722575253639</v>
+        <v>0.0446997063474021</v>
       </c>
       <c r="K226" t="n">
-        <v>0.258776644303278</v>
+        <v>0.3226958393371752</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08724551809361264</v>
+        <v>0.08358268225061999</v>
       </c>
       <c r="M226" t="n">
-        <v>0.259127851052273</v>
+        <v>0.3220466888145273</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1284765638415397</v>
+        <v>0.1221301979208858</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2590806458440748</v>
+        <v>0.3211677913652401</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.06652126473493652</v>
+        <v>0.01784812086643646</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2630365166434349</v>
+        <v>0.04781706825615686</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04636205574979889</v>
+        <v>0.04509066272373782</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2603839526529878</v>
+        <v>0.3247001613206359</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08675732507190853</v>
+        <v>0.08431588498798481</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2607373408103617</v>
+        <v>0.3240469788071641</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1271211761029075</v>
+        <v>0.12359102947069</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2606898424021125</v>
+        <v>0.3231626223675086</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.06681208376970754</v>
+        <v>0.01726453770248948</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2646601988449376</v>
+        <v>0.04778454130358269</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04607225504618674</v>
+        <v>0.04501538602067937</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2619912610026976</v>
+        <v>0.3267044833040967</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08574697540559056</v>
+        <v>0.08452521297330656</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2623468305684503</v>
+        <v>0.3260472687998009</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1255871886837945</v>
+        <v>0.1229700602828466</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2622990389601502</v>
+        <v>0.3251574533697772</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.06701567339045836</v>
+        <v>0.01669568872796429</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2662838810464403</v>
+        <v>0.04775201435100852</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04563005562651606</v>
+        <v>0.04527454045810145</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2635985693524074</v>
+        <v>0.3287088052875574</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08473740184899248</v>
+        <v>0.08431611530052446</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2639563203265389</v>
+        <v>0.3280475587924377</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1239081668869612</v>
+        <v>0.1246852201413454</v>
       </c>
       <c r="O229" t="n">
-        <v>0.263908235518188</v>
+        <v>0.3271522843720458</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.06215098174518233</v>
+        <v>0.01614209924776765</v>
       </c>
       <c r="G230" t="n">
-        <v>0.267907563247943</v>
+        <v>0.04771948739843435</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04484768947560296</v>
+        <v>0.04541837307163241</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2652058777021172</v>
+        <v>0.3307131272710181</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08375153715644784</v>
+        <v>0.08458381918924013</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2655658100846276</v>
+        <v>0.3300478487850746</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1223176760151686</v>
+        <v>0.1237755499258699</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2655174320762257</v>
+        <v>0.3291471153743143</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.06423695698187279</v>
+        <v>0.01560429456680591</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2695312454494456</v>
+        <v>0.04768696044586017</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04423738857826352</v>
+        <v>0.04585967798021556</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2668131860518271</v>
+        <v>0.3327174492544788</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08311231408229036</v>
+        <v>0.08514680983689887</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2671752998427163</v>
+        <v>0.3320481387777114</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1207492813711774</v>
+        <v>0.1241589904918864</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2671266286342634</v>
+        <v>0.331141946376583</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.06129254724852314</v>
+        <v>0.01508279998998577</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2711549276509483</v>
+        <v>0.047654433493286</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04371138491931387</v>
+        <v>0.04579835718536317</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2684204944015369</v>
+        <v>0.3347217712379395</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08144266538085354</v>
+        <v>0.08580490536221036</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2687847896008049</v>
+        <v>0.3340484287703482</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1198365482577482</v>
+        <v>0.1255352776598518</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2687358251923011</v>
+        <v>0.3331367773788515</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.06333670069312669</v>
+        <v>0.01457814082221387</v>
       </c>
       <c r="G233" t="n">
-        <v>0.272778609852451</v>
+        <v>0.04762190654071183</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04328191048357014</v>
+        <v>0.0459343126885875</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2700278027512467</v>
+        <v>0.3367260932214002</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07996552380647104</v>
+        <v>0.08615792388388427</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2703942793588935</v>
+        <v>0.336048718762985</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1184130419776419</v>
+        <v>0.125404147250223</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2703450217503389</v>
+        <v>0.33513160838112</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.06338836546367677</v>
+        <v>0.01409084236839661</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2744022920539537</v>
+        <v>0.04758937958813765</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04236119725584842</v>
+        <v>0.04606744649140081</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2716351111009565</v>
+        <v>0.338730415204861</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07890382211347646</v>
+        <v>0.08550568352063032</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2720037691169822</v>
+        <v>0.3380490087556219</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1160123278336193</v>
+        <v>0.1258653350834568</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2719542183083766</v>
+        <v>0.3371264393833887</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.06046648970816679</v>
+        <v>0.01362142993344065</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2760259742554564</v>
+        <v>0.04755685263556347</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04206147722096477</v>
+        <v>0.04609766059531535</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2732424194506662</v>
+        <v>0.3407347371883216</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07768049305620342</v>
+        <v>0.08584800239115825</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2736132588750709</v>
+        <v>0.3400492987482587</v>
       </c>
       <c r="N235" t="n">
-        <v>0.115067971128441</v>
+        <v>0.12581857698001</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2735634148664143</v>
+        <v>0.3391212703856573</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.06059002157459006</v>
+        <v>0.01317042882225263</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2776496564569591</v>
+        <v>0.04752432568298931</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04129498236373537</v>
+        <v>0.04632485700184337</v>
       </c>
       <c r="K236" t="n">
-        <v>0.274849727800376</v>
+        <v>0.3427390591717824</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07751846938898554</v>
+        <v>0.08668469861417766</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2752227486331595</v>
+        <v>0.3420495887408955</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1131135371648677</v>
+        <v>0.1260636087603398</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2751726114244521</v>
+        <v>0.3411161013879258</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05777790921093995</v>
+        <v>0.01273836433973895</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2792733386584618</v>
+        <v>0.04749179873041513</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04077394466897628</v>
+        <v>0.04634893771249718</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2764570361500858</v>
+        <v>0.3447433811552431</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07574068386615643</v>
+        <v>0.08691559030839824</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2768322383912482</v>
+        <v>0.3440498787335323</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1117825912456604</v>
+        <v>0.1270001662449027</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2767818079824898</v>
+        <v>0.3431109323901944</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05602476759324987</v>
+        <v>0.01232576179080627</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2808970208599644</v>
+        <v>0.04745927177784096</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04027975297240574</v>
+        <v>0.04666980472878897</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2780643444997956</v>
+        <v>0.3467477031387038</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07561665644613286</v>
+        <v>0.08684049559252971</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2784417281493368</v>
+        <v>0.3460501687261691</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1100296706589749</v>
+        <v>0.1276279852541558</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2783910045405276</v>
+        <v>0.345105763392463</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05827254772669077</v>
+        <v>0.01193314648036124</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2825207030614671</v>
+        <v>0.04742674482526679</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03968373352858361</v>
+        <v>0.04658736005223107</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2796716528495054</v>
+        <v>0.3487520251221645</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07408934864615171</v>
+        <v>0.08745923258528182</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2800512179074255</v>
+        <v>0.348050458718806</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1081719074426157</v>
+        <v>0.127646801608556</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2800002010985653</v>
+        <v>0.3471005943947315</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05251748023205523</v>
+        <v>0.0115588987182751</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2841443852629698</v>
+        <v>0.04739421787269261</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03908584969033778</v>
+        <v>0.04690150568433571</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2812789611992152</v>
+        <v>0.3507563471056253</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0729585520228769</v>
+        <v>0.08757161940536412</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2816607076655141</v>
+        <v>0.3500507487114428</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1071090365513821</v>
+        <v>0.1284563511285601</v>
       </c>
       <c r="O240" t="n">
-        <v>0.281609397656603</v>
+        <v>0.3490954253970001</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05875952022047795</v>
+        <v>0.01119067383924367</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2857680674644725</v>
+        <v>0.04736169092011844</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03888607247964262</v>
+        <v>0.04691214362661514</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2828862695489251</v>
+        <v>0.3527606690890859</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07232421224776303</v>
+        <v>0.08767747417148636</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2832701974236028</v>
+        <v>0.3520510387040796</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1062409784678273</v>
+        <v>0.128056369634625</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2832185942146407</v>
+        <v>0.3510902563992687</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0569986228030937</v>
+        <v>0.01082685215313821</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2873917496659752</v>
+        <v>0.04732916396754427</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03828437291847253</v>
+        <v>0.04681917588058165</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2844935778986349</v>
+        <v>0.3547649910725467</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07128627499226461</v>
+        <v>0.08747661500235837</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2848796871816914</v>
+        <v>0.3540513286967163</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1043676536745042</v>
+        <v>0.1288465929472076</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2848277907726784</v>
+        <v>0.3530850874015372</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0572347430910372</v>
+        <v>0.01046795896486534</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2890154318674779</v>
+        <v>0.04729663701497009</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03758072202880189</v>
+        <v>0.04702250444774751</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2861008862483447</v>
+        <v>0.3567693130560074</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0702446859278362</v>
+        <v>0.08766886001668961</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2864891769397801</v>
+        <v>0.3560516186893532</v>
       </c>
       <c r="N243" t="n">
-        <v>0.103488982653966</v>
+        <v>0.1288267568867648</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2864369873307162</v>
+        <v>0.3550799184038058</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05446783619544317</v>
+        <v>0.01011451957933171</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2906391140689805</v>
+        <v>0.04726411006239593</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03727509083260498</v>
+        <v>0.04722203132962494</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2877081945980545</v>
+        <v>0.3587736350394681</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06989939072593243</v>
+        <v>0.08805402733318984</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2880986666978687</v>
+        <v>0.35805190868199</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1012048858887656</v>
+        <v>0.1286965972737535</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2880461838887539</v>
+        <v>0.3570747494060744</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0526978572274464</v>
+        <v>0.009767059301443753</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2922627962704832</v>
+        <v>0.04723158310982175</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03686745035185628</v>
+        <v>0.04721765852772622</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2893155029477643</v>
+        <v>0.3607779570229289</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06845033505800771</v>
+        <v>0.08873193507056887</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2897081564559574</v>
+        <v>0.3600521986746268</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09991528386145609</v>
+        <v>0.1295558499286305</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2896553804467916</v>
+        <v>0.359069580408343</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.04792476129818157</v>
+        <v>0.009426103436108127</v>
       </c>
       <c r="G246" t="n">
-        <v>0.293886478471986</v>
+        <v>0.04719905615724757</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03605777160853005</v>
+        <v>0.04730928804356362</v>
       </c>
       <c r="K246" t="n">
-        <v>0.290922811297474</v>
+        <v>0.3627822790063895</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06749746459551675</v>
+        <v>0.0889024013475363</v>
       </c>
       <c r="M246" t="n">
-        <v>0.291317646214046</v>
+        <v>0.3620524886672636</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09842009705459048</v>
+        <v>0.1296042506718527</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2912645770048294</v>
+        <v>0.3610644114106115</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05414850351878349</v>
+        <v>0.009092177288231432</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2955101606734886</v>
+        <v>0.0471665292046734</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03594602562460072</v>
+        <v>0.04749682187864937</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2925301196471838</v>
+        <v>0.3647866009898502</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06664072500991403</v>
+        <v>0.08826524428280169</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2929271359721347</v>
+        <v>0.3640527786599004</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09811924595072191</v>
+        <v>0.1304415353238769</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2928737735628671</v>
+        <v>0.3630592424128801</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.04836903900038686</v>
+        <v>0.008765806162720116</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2971338428749913</v>
+        <v>0.04713400225209923</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03503218342204263</v>
+        <v>0.04738016203449578</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2941374279968936</v>
+        <v>0.366790922973311</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06538006197265414</v>
+        <v>0.08892028199507496</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2945366257302233</v>
+        <v>0.3660530686525373</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09661265103240324</v>
+        <v>0.1301674397051603</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2944829701209049</v>
+        <v>0.3650540734151487</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.04558632285412642</v>
+        <v>0.008447515364480865</v>
       </c>
       <c r="G249" t="n">
-        <v>0.298757525076494</v>
+        <v>0.04710147529952506</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03471621602283015</v>
+        <v>0.04745921051261509</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2957447363466034</v>
+        <v>0.3687952449567717</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06501542115519163</v>
+        <v>0.08926733260306574</v>
       </c>
       <c r="M249" t="n">
-        <v>0.296146115488312</v>
+        <v>0.3680533586451741</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09480023278218774</v>
+        <v>0.1297816996361594</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2960921666789426</v>
+        <v>0.3670489044174172</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05180031019113694</v>
+        <v>0.008137830198420154</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3003812072779967</v>
+        <v>0.04706894834695088</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03439809444893765</v>
+        <v>0.04753386931451956</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2973520446963133</v>
+        <v>0.3707995669402324</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06334674822898101</v>
+        <v>0.08860621422548365</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2977556052464007</v>
+        <v>0.3700536486378109</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09388191168262822</v>
+        <v>0.1303840509373313</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2977013632369803</v>
+        <v>0.3690437354196858</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.04401095612255311</v>
+        <v>0.007837275969444585</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3020048894794993</v>
+        <v>0.04703642139437671</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0338777897223395</v>
+        <v>0.04780404044172143</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2989593530460231</v>
+        <v>0.3728038889236931</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06307398886547688</v>
+        <v>0.08953674498103836</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2993650950044893</v>
+        <v>0.3720539386304477</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0915576082162779</v>
+        <v>0.1304742294291328</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2993105597950181</v>
+        <v>0.3710385664219544</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.04321821575950971</v>
+        <v>0.0075463779824608</v>
       </c>
       <c r="G252" t="n">
-        <v>0.303628571681002</v>
+        <v>0.04700389444180254</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03325527286501008</v>
+        <v>0.04766962589573301</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3005666613957329</v>
+        <v>0.3748082109071538</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06199708873613383</v>
+        <v>0.08965874298843962</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3009745847625779</v>
+        <v>0.3740542286230846</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08992724286568982</v>
+        <v>0.131051970932021</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3009197563530557</v>
+        <v>0.373033397424223</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.04342204421314147</v>
+        <v>0.007265661542375249</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3052522538825047</v>
+        <v>0.04697136748922837</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03243051489892372</v>
+        <v>0.04783052767806653</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3021739697454427</v>
+        <v>0.3768125328906146</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06061599351240635</v>
+        <v>0.08937202636639707</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3025840745206666</v>
+        <v>0.3760545186157214</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08969073611341688</v>
+        <v>0.1304170112664524</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3025289529110935</v>
+        <v>0.3750282284264915</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.04162239659458312</v>
+        <v>0.006995651954094559</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3068759360840074</v>
+        <v>0.04693884053665419</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0319034868460548</v>
+        <v>0.04788664779023426</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3037812780951525</v>
+        <v>0.3788168548740753</v>
       </c>
       <c r="L254" t="n">
-        <v>0.059930648865749</v>
+        <v>0.08977641323362051</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3041935642787553</v>
+        <v>0.3780548086083582</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0881480084420122</v>
+        <v>0.1307690862528841</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3041381494691312</v>
+        <v>0.3770230594287601</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.04581922801496943</v>
+        <v>0.006736874522525346</v>
       </c>
       <c r="G255" t="n">
-        <v>0.30849961828551</v>
+        <v>0.04690631358408002</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03167415972837771</v>
+        <v>0.04823788823374843</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3053885864448623</v>
+        <v>0.380821176857536</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05934100046761648</v>
+        <v>0.08947172170881945</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3058030540368439</v>
+        <v>0.380055098600995</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08569898033402878</v>
+        <v>0.1308079317117731</v>
       </c>
       <c r="O255" t="n">
-        <v>0.305747346027169</v>
+        <v>0.3790178904310287</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0400124935854351</v>
+        <v>0.006489854552574059</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3101233004870128</v>
+        <v>0.04687378663150585</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03094250456786679</v>
+        <v>0.04788415101012135</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3069958947945721</v>
+        <v>0.3828254988409967</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05814699398946313</v>
+        <v>0.08955776991070374</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3074125437949325</v>
+        <v>0.3820553885936318</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08484357227201977</v>
+        <v>0.1318332834635761</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3073565425852067</v>
+        <v>0.3810127214332972</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.04520214841711491</v>
+        <v>0.006255117349147354</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3117469826885154</v>
+        <v>0.04684125967893167</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03030849238649642</v>
+        <v>0.04812533812086525</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3086032031442819</v>
+        <v>0.3848298208244574</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05714857510274365</v>
+        <v>0.08983437595798294</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3090220335530212</v>
+        <v>0.3840556785862686</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08278170473853808</v>
+        <v>0.13214487732875</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3089657391432444</v>
+        <v>0.3830075524355658</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03938814762114354</v>
+        <v>0.006033188217151805</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3133706648900181</v>
+        <v>0.0468087327263575</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02987209420624094</v>
+        <v>0.04816135156749241</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3102105114939916</v>
+        <v>0.3868341428079181</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05584568947891255</v>
+        <v>0.08940135796936688</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3106315233111098</v>
+        <v>0.3860559685789054</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08221329821613682</v>
+        <v>0.1311424491277517</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3105749357012821</v>
+        <v>0.3850023834378344</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03857044630865579</v>
+        <v>0.005824592461493944</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3149943470915209</v>
+        <v>0.04677620577378333</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02933328104907476</v>
+        <v>0.04829209335151509</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3118178198437014</v>
+        <v>0.3888384647913788</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05453828278942441</v>
+        <v>0.08985853406356514</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3122410130691985</v>
+        <v>0.3880562585715422</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07983827318736908</v>
+        <v>0.1312257346810382</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3121841322593199</v>
+        <v>0.3869972144401029</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0437489995907864</v>
+        <v>0.005629855387080371</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3166180292930235</v>
+        <v>0.04674367882120916</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02879202393697218</v>
+        <v>0.04811746547444554</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3134251281934113</v>
+        <v>0.3908427867748396</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05402630070573375</v>
+        <v>0.0900057223592875</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3138505028272872</v>
+        <v>0.390056548564179</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07855655013478785</v>
+        <v>0.1322944698090662</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3137933288173576</v>
+        <v>0.3889920454423715</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03792376257867008</v>
+        <v>0.005449502298817591</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3182417114945262</v>
+        <v>0.04671115186863498</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02844829389190762</v>
+        <v>0.04833736993779601</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3150324365431211</v>
+        <v>0.3928471087583003</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05330968889929513</v>
+        <v>0.08994274097524346</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3154599925853758</v>
+        <v>0.3920568385568159</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07786804954094617</v>
+        <v>0.1317483903322926</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3154025253753954</v>
+        <v>0.3909868764446401</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03909469038344159</v>
+        <v>0.005284058501612218</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3198653936960289</v>
+        <v>0.04667862491606081</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02760206193585545</v>
+        <v>0.04835170874307881</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3166397448928309</v>
+        <v>0.394851430741761</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05208839304156315</v>
+        <v>0.09046940803014297</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3170694823434644</v>
+        <v>0.3940571285494527</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07527269188839697</v>
+        <v>0.1311872320711744</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3170117219334331</v>
+        <v>0.3929817074469087</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03626173811623566</v>
+        <v>0.005134049300370855</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3214890758975316</v>
+        <v>0.04664609796348664</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02725329909079</v>
+        <v>0.04846329738549032</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3182470532425407</v>
+        <v>0.3968557527252217</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05046235880399233</v>
+        <v>0.09049095993161094</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3186789721015531</v>
+        <v>0.3960574185420895</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07507039765969364</v>
+        <v>0.1325186224777316</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3186209184914708</v>
+        <v>0.3949765384491772</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04042486088818704</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3231127580990342</v>
+        <v>0.04661357101091246</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02680197637868567</v>
+        <v>0.04836329738549033</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3198543615922505</v>
+        <v>0.3988600747086824</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04993153185803725</v>
+        <v>0.08979095993161096</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3202884618596418</v>
+        <v>0.3980577085347263</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07246108733738882</v>
+        <v>0.1324186224777316</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3202301150495085</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.3969713694514458</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04660041311617562</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005711678218734431</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04660068164463964</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006418695727249693</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04660095017310366</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.0071209850001685</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04660121870156767</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007818478512174917</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04660148723003169</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008511108737892098</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04660175575849571</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009198808152003704</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04660202428695973</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009881509229133251</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04660229281542374</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01055914444396398</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04660256134388776</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.0112316462711199</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04660282987235178</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01189894718528381</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0466030984008158</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01256097966108009</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04660336692927981</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01321767617319111</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04660363545774383</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01386896919624178</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04660390398620785</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01451479120491392</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04660417251467187</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01515507467383292</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04660444104313588</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0157897520776802</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0466047095715999</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01641875589108158</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04660497810006391</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01704201858870444</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04660524662852793</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01765947264521567</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04660551515699195</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.0182710505352419</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04660578368545596</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01887668473346321</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04660605221391998</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01947630771450679</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.046606320742384</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02006985195305221</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04660658927084802</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02065724992372713</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04660685779931203</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02123870982970881</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04660712632777606</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02181581851661474</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04660739485624007</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02238878418762175</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04660766338470409</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02295753931735843</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0466079319131681</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02352201638050297</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04660820044163212</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02408214785168436</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04660846897009614</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02463786620558044</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04660873749856016</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02518910391682054</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04660900602702417</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02573579346007031</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04660927455548819</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02627786730999497</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04660954308395221</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02681525794122444</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04660981161241622</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02734789782843562</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04661008014088024</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.0278757194462588</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04661034866934426</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02839865526937048</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04661061719780828</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02891663777240137</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04661088572627229</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02942959943002754</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04661115425473631</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02993747271688016</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04661142278320032</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.0304401901076348</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04661169131166434</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03093768407692309</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04661195984012836</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03142988709942021</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04661222836859238</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03191673164975821</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0466124968970564</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03239815020261179</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04661276542552042</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03287407523261347</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04661303395398443</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03334443921443751</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04661330248244845</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03380917462271689</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04661357101091246</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03380917462271689</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04660041311617562</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03435527901639988</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04663347712567784</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03489592105105155</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04666654113518004</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0354309236708482</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04669960514468224</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03596010981996584</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04673266915418445</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03648330244258072</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04676573316368666</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03700032448286886</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04679879717318886</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03751099888500654</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04683186118269107</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03801514859316986</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04686492519219328</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03851259655153481</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04689798920169549</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03900316570427777</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0469310532111977</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03948667899557466</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0469641172206999</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03996295936960181</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04699718123020211</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04043182977053519</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04703024523970432</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04089311314255108</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04706330924920652</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04134663242982559</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04709637325870873</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04179221057653473</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04712943726821094</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04222967052685485</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04716250127771315</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04265883522496189</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04719556528721535</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04307952761503216</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04722862929671756</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04349157064124165</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04726169330621977</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04389478724776663</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04729475731572198</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04428900037878318</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04732782132522419</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04467403297846741</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04736088533472639</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04504970799099554</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0473939493442286</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04541657133849103</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04742701335373081</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04577878383281472</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04746007736323301</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04613689139609002</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04749314137273521</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04649071697249323</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04752620538223742</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04684008350620041</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04755926939173964</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04718481394138764</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04759233340124184</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04752473122223118</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04762539741074405</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04785965829290705</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04765846142024625</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04818941809759153</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04769152542974846</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04851383358046062</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04772458943925067</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04883272768569057</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04775765344875288</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04914592335745747</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04779071745825508</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04945324353993742</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04782378146775729</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04975451117730667</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0478568454772595</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05004954921374125</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0478899094867617</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05033818059341737</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04792297349626391</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05062022826051112</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04795603750576612</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05089551515919871</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04798910151526833</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05116386423365622</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04802216552477054</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05142509842805978</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04805522953427274</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.0516790406865856</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04808829354377495</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05192551395340972</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04812135755327716</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05216434117270841</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04815442156277936</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05239534528865768</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04818748557228156</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05261834924543377</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04822054958178378</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05261834924543377</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04822054958178378</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05322288398354481</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05219397878196946</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05378156424952653</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05616740798215513</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05429619858511997</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06014083718234081</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05476859553206612</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06411426638252647</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.055200563632106</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06808769558271215</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0555939114269806</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07206112478289783</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05595044745843092</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07603455398308351</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05627198026819799</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08000798318326918</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05656031839802279</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08398141238345486</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05681727038964636</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08795484158364053</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05704464478480967</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09192827078382622</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05724425012525373</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09590169998401189</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05741789495271958</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09987512918419757</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0575673878089482</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1038485583843832</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05769453723568059</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1078219875845689</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05780115177465778</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1117954167847546</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05788903996762075</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1157688459849402</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05796001035631052</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.119742275185126</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05801587148246809</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1237157043853116</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05805843188783448</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1276891335854973</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05808950011415068</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.131662562785683</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.0581108847031577</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1356359919858686</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05812439419659655</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1396094211860543</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05813183713620826</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.14358285038624</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05813502206373378</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1475562795864257</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05813575752091418</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05799010908637084</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.155503137986797</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05732649070062207</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1594765671869827</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05639839833743159</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1634499963871684</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05550956240557292</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.167423425587354</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05494671618222327</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1713968547875397</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05454246541458112</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1753702839877254</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05417230388332755</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1793437131879111</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05385084872540166</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1833171423880967</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05359271707774252</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1872905715882824</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05341252607728923</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1912640007884681</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05331820602659194</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1952374299886538</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05326367494797726</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1992108591888394</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05322710123655913</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.2031842883890251</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05319597522999803</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.2071577175892108</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05315778726595441</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.2111311467893965</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05310002768208875</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.2151045759895822</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05295906382745966</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.2190780051897678</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.05258588251117283</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2230514343899535</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.05201513453685683</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2270248635901392</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05129507524366425</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2309982927903249</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0504739599707477</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2349717219905105</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04960004405725975</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2389451511906962</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04872158284235305</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2429185803908819</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04788683166518012</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2468920095910676</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04714404586489365</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2508654387912532</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04654148078064616</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2548388679914389</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04607562226452615</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2588122971916246</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04560344674092505</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2627857263918102</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04514469953935907</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2667591555919959</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04473551136783252</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2707325847921816</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04441201293434976</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2747060139923673</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04421033494691522</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2786794431925529</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04416337058830765</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2826528723927386</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04422382277304436</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2866263015929243</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04435699220330648</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.29059973079311</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04455318179541229</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2945731599932956</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04480269446568012</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2985465891934814</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04509583313042831</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.302520018393667</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04542290070597517</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.3064934475938527</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04577420010863906</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.3104668767940383</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04628536395085861</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.314440305994224</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0471897324688107</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.3184137351944097</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04843437153977195</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.3223871643945954</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04995999040764247</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.3263605935947811</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.05170729831632227</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.3303340227949667</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.05361700450971141</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.3343074519951524</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.05562981823170991</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.3382808811953381</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.05768644872621786</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.3422543103955238</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.05972760523713527</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.3462277395957094</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.06169399700836221</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3502011687958951</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0635263332837987</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3541745979960808</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.06516532330734479</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3581480271962665</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.0665516763229005</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3621214563964522</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.06762610157436591</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3660948855966378</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.06832930830564107</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3700683147968235</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.06876356802700703</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3740417439970091</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.069178317595881</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3780151731971949</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.06957681951924802</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3819886023973805</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.0699579264952723</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3859620315975662</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.07032049122211803</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3899354607977519</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.07066336639794948</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3939088899979376</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.07098540472093079</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3978823191981232</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.07128545888922613</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.4018557483983089</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.07156238160099979</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.4058291775984946</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.07181502555441591</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.4098026067986802</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.07204224344763874</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.4137760359988659</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.07224288797883241</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.4177494651990516</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.07241581184616119</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.4217228943992373</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.07255986774778925</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.425696323599423</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.07267390838188076</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.4296697527996086</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0727567864466</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.4336431819997943</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.07282446566057835</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.43761661119998</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.07282446566057835</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.4415900404001656</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
